--- a/AAII_Financials/Yearly/SNP_YR_FIN.xlsx
+++ b/AAII_Financials/Yearly/SNP_YR_FIN.xlsx
@@ -5,7 +5,7 @@
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\sundeep\Stocks_Automation\Financials\Yearly\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\sundeep\Stocks_Automation\AAII_Financials\Yearly\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -653,7 +653,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:L102"/>
+  <dimension ref="A5:M102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -662,141 +662,153 @@
     <col min="1" max="1" width="5.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="11" width="16" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="12" width="16" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:13" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>43830</v>
+      </c>
+      <c r="E7" s="2">
         <v>43465</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>43100</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>42735</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>42369</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>42004</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>41639</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>41274</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>40908</v>
       </c>
-      <c r="L7" s="2"/>
-    </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M7" s="2"/>
+    </row>
+    <row r="8" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
-        <v>414826400</v>
+        <v>415148400</v>
       </c>
       <c r="E8" s="3">
-        <v>338640500</v>
+        <v>404649400</v>
       </c>
       <c r="F8" s="3">
-        <v>277047100</v>
+        <v>330332600</v>
       </c>
       <c r="G8" s="3">
-        <v>289883400</v>
+        <v>270250300</v>
       </c>
       <c r="H8" s="3">
-        <v>405462100</v>
+        <v>282771700</v>
       </c>
       <c r="I8" s="3">
-        <v>413267000</v>
+        <v>395514900</v>
       </c>
       <c r="J8" s="3">
+        <v>403128300</v>
+      </c>
+      <c r="K8" s="3">
         <v>399741700</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>364401500</v>
       </c>
-      <c r="L8" s="3"/>
-    </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M8" s="3"/>
+    </row>
+    <row r="9" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
-        <v>349545800</v>
+        <v>352187600</v>
       </c>
       <c r="E9" s="3">
-        <v>274088600</v>
+        <v>340970400</v>
       </c>
       <c r="F9" s="3">
-        <v>216316900</v>
+        <v>267364300</v>
       </c>
       <c r="G9" s="3">
-        <v>232438000</v>
+        <v>211010000</v>
       </c>
       <c r="H9" s="3">
-        <v>344734800</v>
+        <v>226735600</v>
       </c>
       <c r="I9" s="3">
-        <v>350338700</v>
+        <v>336277400</v>
       </c>
       <c r="J9" s="3">
+        <v>341743800</v>
+      </c>
+      <c r="K9" s="3">
         <v>337603600</v>
       </c>
-      <c r="K9" s="3">
+      <c r="L9" s="3">
         <v>301487200</v>
       </c>
-      <c r="L9" s="3"/>
-    </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M9" s="3"/>
+    </row>
+    <row r="10" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
-        <v>65280500</v>
+        <v>62960700</v>
       </c>
       <c r="E10" s="3">
-        <v>64551900</v>
+        <v>63679000</v>
       </c>
       <c r="F10" s="3">
-        <v>60730200</v>
+        <v>62968300</v>
       </c>
       <c r="G10" s="3">
-        <v>57445400</v>
+        <v>59240300</v>
       </c>
       <c r="H10" s="3">
-        <v>60727300</v>
+        <v>56036100</v>
       </c>
       <c r="I10" s="3">
-        <v>62928300</v>
+        <v>59237500</v>
       </c>
       <c r="J10" s="3">
+        <v>61384500</v>
+      </c>
+      <c r="K10" s="3">
         <v>62138200</v>
       </c>
-      <c r="K10" s="3">
+      <c r="L10" s="3">
         <v>62914300</v>
       </c>
-      <c r="L10" s="3"/>
-    </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M10" s="3"/>
+    </row>
+    <row r="11" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -809,38 +821,42 @@
       <c r="J11" s="3"/>
       <c r="K11" s="3"/>
       <c r="L11" s="3"/>
-    </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M11" s="3"/>
+    </row>
+    <row r="12" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
       <c r="D12" s="3">
-        <v>1541500</v>
+        <v>1471000</v>
       </c>
       <c r="E12" s="3">
-        <v>1591000</v>
+        <v>1503700</v>
       </c>
       <c r="F12" s="3">
-        <v>1583300</v>
+        <v>1552000</v>
       </c>
       <c r="G12" s="3">
-        <v>1500700</v>
+        <v>1544500</v>
       </c>
       <c r="H12" s="3">
-        <v>1573800</v>
+        <v>1463800</v>
       </c>
       <c r="I12" s="3">
-        <v>1804000</v>
+        <v>1535200</v>
       </c>
       <c r="J12" s="3">
+        <v>1759700</v>
+      </c>
+      <c r="K12" s="3">
         <v>2228700</v>
       </c>
-      <c r="K12" s="3">
+      <c r="L12" s="3">
         <v>1940200</v>
       </c>
-      <c r="L12" s="3"/>
-    </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M12" s="3"/>
+    </row>
+    <row r="13" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>8</v>
       </c>
@@ -868,69 +884,78 @@
       <c r="K13" s="3">
         <v>0</v>
       </c>
-      <c r="L13" s="3"/>
-    </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="L13" s="3">
+        <v>0</v>
+      </c>
+      <c r="M13" s="3"/>
+    </row>
+    <row r="14" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>9</v>
       </c>
       <c r="D14" s="3">
-        <v>901200</v>
+        <v>48300</v>
       </c>
       <c r="E14" s="3">
-        <v>3050100</v>
+        <v>879100</v>
       </c>
       <c r="F14" s="3">
-        <v>-593600</v>
+        <v>2975300</v>
       </c>
       <c r="G14" s="3">
-        <v>738300</v>
+        <v>-579000</v>
       </c>
       <c r="H14" s="3">
-        <v>519300</v>
+        <v>720200</v>
       </c>
       <c r="I14" s="3">
-        <v>381800</v>
+        <v>506500</v>
       </c>
       <c r="J14" s="3">
+        <v>372400</v>
+      </c>
+      <c r="K14" s="3">
         <v>145500</v>
       </c>
-      <c r="K14" s="3">
+      <c r="L14" s="3">
         <v>408500</v>
       </c>
-      <c r="L14" s="3"/>
-    </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M14" s="3"/>
+    </row>
+    <row r="15" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D15" s="3">
-        <v>15778100</v>
+        <v>15229300</v>
       </c>
       <c r="E15" s="3">
-        <v>16544700</v>
+        <v>15391000</v>
       </c>
       <c r="F15" s="3">
-        <v>15556800</v>
+        <v>16138800</v>
       </c>
       <c r="G15" s="3">
-        <v>13840100</v>
+        <v>15175200</v>
       </c>
       <c r="H15" s="3">
-        <v>12927100</v>
+        <v>13500500</v>
       </c>
       <c r="I15" s="3">
-        <v>11659900</v>
+        <v>12610000</v>
       </c>
       <c r="J15" s="3">
+        <v>11373800</v>
+      </c>
+      <c r="K15" s="3">
         <v>10109000</v>
       </c>
-      <c r="K15" s="3">
+      <c r="L15" s="3">
         <v>9280800</v>
       </c>
-      <c r="L15" s="3"/>
-    </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M15" s="3"/>
+    </row>
+    <row r="16" spans="1:13" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -940,68 +965,75 @@
       <c r="J16" s="3"/>
       <c r="K16" s="3"/>
       <c r="L16" s="3"/>
-    </row>
-    <row r="17" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M16" s="3"/>
+    </row>
+    <row r="17" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>11</v>
       </c>
       <c r="D17" s="3">
-        <v>403023100</v>
+        <v>403084100</v>
       </c>
       <c r="E17" s="3">
-        <v>328386000</v>
+        <v>393135700</v>
       </c>
       <c r="F17" s="3">
-        <v>265971500</v>
+        <v>320329700</v>
       </c>
       <c r="G17" s="3">
-        <v>281730600</v>
+        <v>259446400</v>
       </c>
       <c r="H17" s="3">
-        <v>394918200</v>
+        <v>274818900</v>
       </c>
       <c r="I17" s="3">
-        <v>399380300</v>
+        <v>385229700</v>
       </c>
       <c r="J17" s="3">
+        <v>389582300</v>
+      </c>
+      <c r="K17" s="3">
         <v>385585700</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>349054300</v>
       </c>
-      <c r="L17" s="3"/>
-    </row>
-    <row r="18" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M17" s="3"/>
+    </row>
+    <row r="18" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D18" s="3">
-        <v>11803200</v>
+        <v>12064300</v>
       </c>
       <c r="E18" s="3">
-        <v>10254500</v>
+        <v>11513700</v>
       </c>
       <c r="F18" s="3">
-        <v>11075700</v>
+        <v>10002900</v>
       </c>
       <c r="G18" s="3">
-        <v>8152800</v>
+        <v>10803900</v>
       </c>
       <c r="H18" s="3">
-        <v>10543900</v>
+        <v>7952800</v>
       </c>
       <c r="I18" s="3">
-        <v>13886700</v>
+        <v>10285200</v>
       </c>
       <c r="J18" s="3">
+        <v>13546000</v>
+      </c>
+      <c r="K18" s="3">
         <v>14156000</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>15347200</v>
       </c>
-      <c r="L18" s="3"/>
-    </row>
-    <row r="19" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M18" s="3"/>
+    </row>
+    <row r="19" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>13</v>
       </c>
@@ -1014,158 +1046,174 @@
       <c r="J19" s="3"/>
       <c r="K19" s="3"/>
       <c r="L19" s="3"/>
-    </row>
-    <row r="20" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M19" s="3"/>
+    </row>
+    <row r="20" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>14</v>
       </c>
       <c r="D20" s="3">
-        <v>3261200</v>
+        <v>2703200</v>
       </c>
       <c r="E20" s="3">
-        <v>2994700</v>
+        <v>3181200</v>
       </c>
       <c r="F20" s="3">
-        <v>1595500</v>
+        <v>2921200</v>
       </c>
       <c r="G20" s="3">
-        <v>952900</v>
+        <v>1556400</v>
       </c>
       <c r="H20" s="3">
-        <v>319500</v>
+        <v>929500</v>
       </c>
       <c r="I20" s="3">
-        <v>1146700</v>
+        <v>311700</v>
       </c>
       <c r="J20" s="3">
+        <v>1118600</v>
+      </c>
+      <c r="K20" s="3">
         <v>335900</v>
       </c>
-      <c r="K20" s="3">
+      <c r="L20" s="3">
         <v>1095800</v>
       </c>
-      <c r="L20" s="3"/>
-    </row>
-    <row r="21" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M20" s="3"/>
+    </row>
+    <row r="21" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D21" s="3">
-        <v>30837000</v>
+        <v>29947800</v>
       </c>
       <c r="E21" s="3">
-        <v>29788100</v>
+        <v>30036300</v>
       </c>
       <c r="F21" s="3">
-        <v>28222500</v>
+        <v>29011100</v>
       </c>
       <c r="G21" s="3">
-        <v>22940900</v>
+        <v>27486700</v>
       </c>
       <c r="H21" s="3">
-        <v>23786100</v>
+        <v>22339400</v>
       </c>
       <c r="I21" s="3">
-        <v>26689200</v>
+        <v>23166400</v>
       </c>
       <c r="J21" s="3">
+        <v>26001900</v>
+      </c>
+      <c r="K21" s="3">
         <v>24597400</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>25751200</v>
       </c>
-      <c r="L21" s="3"/>
-    </row>
-    <row r="22" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M21" s="3"/>
+    </row>
+    <row r="22" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D22" s="3">
-        <v>844100</v>
+        <v>2181300</v>
       </c>
       <c r="E22" s="3">
-        <v>809900</v>
+        <v>823400</v>
       </c>
       <c r="F22" s="3">
-        <v>1171100</v>
+        <v>790100</v>
       </c>
       <c r="G22" s="3">
-        <v>1011800</v>
+        <v>1142400</v>
       </c>
       <c r="H22" s="3">
-        <v>1464900</v>
+        <v>987000</v>
       </c>
       <c r="I22" s="3">
-        <v>1395300</v>
+        <v>1429000</v>
       </c>
       <c r="J22" s="3">
+        <v>1361100</v>
+      </c>
+      <c r="K22" s="3">
         <v>1486600</v>
       </c>
-      <c r="K22" s="3">
+      <c r="L22" s="3">
         <v>1236200</v>
       </c>
-      <c r="L22" s="3"/>
-    </row>
-    <row r="23" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M22" s="3"/>
+    </row>
+    <row r="23" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D23" s="3">
-        <v>14220300</v>
+        <v>12586200</v>
       </c>
       <c r="E23" s="3">
-        <v>12439300</v>
+        <v>13871400</v>
       </c>
       <c r="F23" s="3">
-        <v>11500100</v>
+        <v>12134100</v>
       </c>
       <c r="G23" s="3">
-        <v>8093900</v>
+        <v>11217900</v>
       </c>
       <c r="H23" s="3">
-        <v>9398500</v>
+        <v>7895300</v>
       </c>
       <c r="I23" s="3">
-        <v>13638100</v>
+        <v>9167900</v>
       </c>
       <c r="J23" s="3">
+        <v>13303500</v>
+      </c>
+      <c r="K23" s="3">
         <v>13005300</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>15206900</v>
       </c>
-      <c r="L23" s="3"/>
-    </row>
-    <row r="24" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M23" s="3"/>
+    </row>
+    <row r="24" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D24" s="3">
-        <v>2900200</v>
+        <v>2504400</v>
       </c>
       <c r="E24" s="3">
-        <v>2335700</v>
+        <v>2829000</v>
       </c>
       <c r="F24" s="3">
-        <v>2971000</v>
+        <v>2278400</v>
       </c>
       <c r="G24" s="3">
-        <v>1809700</v>
+        <v>2898200</v>
       </c>
       <c r="H24" s="3">
-        <v>2521100</v>
+        <v>1765300</v>
       </c>
       <c r="I24" s="3">
-        <v>3553000</v>
+        <v>2459200</v>
       </c>
       <c r="J24" s="3">
+        <v>3465800</v>
+      </c>
+      <c r="K24" s="3">
         <v>3421400</v>
       </c>
-      <c r="K24" s="3">
+      <c r="L24" s="3">
         <v>3798600</v>
       </c>
-      <c r="L24" s="3"/>
-    </row>
-    <row r="25" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M24" s="3"/>
+    </row>
+    <row r="25" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>19</v>
       </c>
@@ -1193,69 +1241,78 @@
       <c r="K25" s="3">
         <v>0</v>
       </c>
-      <c r="L25" s="3"/>
-    </row>
-    <row r="26" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L25" s="3">
+        <v>0</v>
+      </c>
+      <c r="M25" s="3"/>
+    </row>
+    <row r="26" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>20</v>
       </c>
       <c r="D26" s="3">
-        <v>11320100</v>
+        <v>10081700</v>
       </c>
       <c r="E26" s="3">
-        <v>10103600</v>
+        <v>11042400</v>
       </c>
       <c r="F26" s="3">
-        <v>8529000</v>
+        <v>9855700</v>
       </c>
       <c r="G26" s="3">
-        <v>6284100</v>
+        <v>8319800</v>
       </c>
       <c r="H26" s="3">
-        <v>6877400</v>
+        <v>6130000</v>
       </c>
       <c r="I26" s="3">
-        <v>10085100</v>
+        <v>6708700</v>
       </c>
       <c r="J26" s="3">
+        <v>9837600</v>
+      </c>
+      <c r="K26" s="3">
         <v>9583900</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>11408300</v>
       </c>
-      <c r="L26" s="3"/>
-    </row>
-    <row r="27" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M26" s="3"/>
+    </row>
+    <row r="27" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D27" s="3">
-        <v>8841000</v>
+        <v>8042800</v>
       </c>
       <c r="E27" s="3">
-        <v>7352500</v>
+        <v>8624100</v>
       </c>
       <c r="F27" s="3">
-        <v>6696500</v>
+        <v>7172100</v>
       </c>
       <c r="G27" s="3">
-        <v>4664800</v>
+        <v>6532200</v>
       </c>
       <c r="H27" s="3">
-        <v>6666900</v>
+        <v>4550400</v>
       </c>
       <c r="I27" s="3">
-        <v>9488600</v>
+        <v>6503400</v>
       </c>
       <c r="J27" s="3">
+        <v>9255800</v>
+      </c>
+      <c r="K27" s="3">
         <v>9165400</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>10649100</v>
       </c>
-      <c r="L27" s="3"/>
-    </row>
-    <row r="28" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M27" s="3"/>
+    </row>
+    <row r="28" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>22</v>
       </c>
@@ -1283,9 +1340,12 @@
       <c r="K28" s="3">
         <v>0</v>
       </c>
-      <c r="L28" s="3"/>
-    </row>
-    <row r="29" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L28" s="3">
+        <v>0</v>
+      </c>
+      <c r="M28" s="3"/>
+    </row>
+    <row r="29" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>23</v>
       </c>
@@ -1313,9 +1373,12 @@
       <c r="K29" s="3">
         <v>0</v>
       </c>
-      <c r="L29" s="3"/>
-    </row>
-    <row r="30" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L29" s="3">
+        <v>0</v>
+      </c>
+      <c r="M29" s="3"/>
+    </row>
+    <row r="30" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>24</v>
       </c>
@@ -1343,9 +1406,12 @@
       <c r="K30" s="3">
         <v>0</v>
       </c>
-      <c r="L30" s="3"/>
-    </row>
-    <row r="31" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L30" s="3">
+        <v>0</v>
+      </c>
+      <c r="M30" s="3"/>
+    </row>
+    <row r="31" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>25</v>
       </c>
@@ -1373,69 +1439,78 @@
       <c r="K31" s="3">
         <v>0</v>
       </c>
-      <c r="L31" s="3"/>
-    </row>
-    <row r="32" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L31" s="3">
+        <v>0</v>
+      </c>
+      <c r="M31" s="3"/>
+    </row>
+    <row r="32" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>26</v>
       </c>
       <c r="D32" s="3">
-        <v>-3261200</v>
+        <v>-2703200</v>
       </c>
       <c r="E32" s="3">
-        <v>-2994700</v>
+        <v>-3181200</v>
       </c>
       <c r="F32" s="3">
-        <v>-1595500</v>
+        <v>-2921200</v>
       </c>
       <c r="G32" s="3">
-        <v>-952900</v>
+        <v>-1556400</v>
       </c>
       <c r="H32" s="3">
-        <v>-319500</v>
+        <v>-929500</v>
       </c>
       <c r="I32" s="3">
-        <v>-1146700</v>
+        <v>-311700</v>
       </c>
       <c r="J32" s="3">
+        <v>-1118600</v>
+      </c>
+      <c r="K32" s="3">
         <v>-335900</v>
       </c>
-      <c r="K32" s="3">
+      <c r="L32" s="3">
         <v>-1095800</v>
       </c>
-      <c r="L32" s="3"/>
-    </row>
-    <row r="33" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M32" s="3"/>
+    </row>
+    <row r="33" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D33" s="3">
-        <v>8841000</v>
+        <v>8042800</v>
       </c>
       <c r="E33" s="3">
-        <v>7352500</v>
+        <v>8624100</v>
       </c>
       <c r="F33" s="3">
-        <v>6696500</v>
+        <v>7172100</v>
       </c>
       <c r="G33" s="3">
-        <v>4664800</v>
+        <v>6532200</v>
       </c>
       <c r="H33" s="3">
-        <v>6666900</v>
+        <v>4550400</v>
       </c>
       <c r="I33" s="3">
-        <v>9488600</v>
+        <v>6503400</v>
       </c>
       <c r="J33" s="3">
+        <v>9255800</v>
+      </c>
+      <c r="K33" s="3">
         <v>9165400</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>10649100</v>
       </c>
-      <c r="L33" s="3"/>
-    </row>
-    <row r="34" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M33" s="3"/>
+    </row>
+    <row r="34" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>28</v>
       </c>
@@ -1463,74 +1538,83 @@
       <c r="K34" s="3">
         <v>0</v>
       </c>
-      <c r="L34" s="3"/>
-    </row>
-    <row r="35" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="L34" s="3">
+        <v>0</v>
+      </c>
+      <c r="M34" s="3"/>
+    </row>
+    <row r="35" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>29</v>
       </c>
       <c r="D35" s="3">
-        <v>8841000</v>
+        <v>8042800</v>
       </c>
       <c r="E35" s="3">
-        <v>7352500</v>
+        <v>8624100</v>
       </c>
       <c r="F35" s="3">
-        <v>6696500</v>
+        <v>7172100</v>
       </c>
       <c r="G35" s="3">
-        <v>4664800</v>
+        <v>6532200</v>
       </c>
       <c r="H35" s="3">
-        <v>6666900</v>
+        <v>4550400</v>
       </c>
       <c r="I35" s="3">
-        <v>9488600</v>
+        <v>6503400</v>
       </c>
       <c r="J35" s="3">
+        <v>9255800</v>
+      </c>
+      <c r="K35" s="3">
         <v>9165400</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>10649100</v>
       </c>
-      <c r="L35" s="3"/>
-    </row>
-    <row r="37" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M35" s="3"/>
+    </row>
+    <row r="37" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="38" spans="2:12" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>43830</v>
+      </c>
+      <c r="E38" s="2">
         <v>43465</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>43100</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>42735</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>42369</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>42004</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>41639</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>41274</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>40908</v>
       </c>
-      <c r="L38" s="2"/>
-    </row>
-    <row r="39" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M38" s="2"/>
+    </row>
+    <row r="39" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>31</v>
       </c>
@@ -1543,8 +1627,9 @@
       <c r="J39" s="3"/>
       <c r="K39" s="3"/>
       <c r="L39" s="3"/>
-    </row>
-    <row r="40" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M39" s="3"/>
+    </row>
+    <row r="40" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>32</v>
       </c>
@@ -1557,278 +1642,306 @@
       <c r="J40" s="3"/>
       <c r="K40" s="3"/>
       <c r="L40" s="3"/>
-    </row>
-    <row r="41" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M40" s="3"/>
+    </row>
+    <row r="41" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>33</v>
       </c>
       <c r="D41" s="3">
-        <v>16058600</v>
+        <v>8453500</v>
       </c>
       <c r="E41" s="3">
-        <v>16244500</v>
+        <v>15687000</v>
       </c>
       <c r="F41" s="3">
-        <v>17858700</v>
+        <v>15868600</v>
       </c>
       <c r="G41" s="3">
-        <v>9890500</v>
+        <v>17445400</v>
       </c>
       <c r="H41" s="3">
-        <v>1342300</v>
+        <v>9661600</v>
       </c>
       <c r="I41" s="3">
-        <v>2158800</v>
+        <v>1311200</v>
       </c>
       <c r="J41" s="3">
+        <v>2108800</v>
+      </c>
+      <c r="K41" s="3">
         <v>1500200</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>3584400</v>
       </c>
-      <c r="L41" s="3"/>
-    </row>
-    <row r="42" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M41" s="3"/>
+    </row>
+    <row r="42" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D42" s="3">
-        <v>11596800</v>
+        <v>11150400</v>
       </c>
       <c r="E42" s="3">
-        <v>14775900</v>
+        <v>11328400</v>
       </c>
       <c r="F42" s="3">
-        <v>2586800</v>
+        <v>14434000</v>
       </c>
       <c r="G42" s="3">
-        <v>105200</v>
+        <v>2526900</v>
       </c>
       <c r="H42" s="3">
-        <v>106900</v>
+        <v>102700</v>
       </c>
       <c r="I42" s="3">
-        <v>7900</v>
+        <v>104400</v>
       </c>
       <c r="J42" s="3">
+        <v>7700</v>
+      </c>
+      <c r="K42" s="3">
         <v>58500</v>
       </c>
-      <c r="K42" s="3">
+      <c r="L42" s="3">
         <v>80000</v>
       </c>
-      <c r="L42" s="3"/>
-    </row>
-    <row r="43" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M42" s="3"/>
+    </row>
+    <row r="43" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>35</v>
       </c>
       <c r="D43" s="3">
-        <v>17017000</v>
+        <v>15533900</v>
       </c>
       <c r="E43" s="3">
-        <v>17968300</v>
+        <v>16623300</v>
       </c>
       <c r="F43" s="3">
-        <v>15975900</v>
+        <v>17552500</v>
       </c>
       <c r="G43" s="3">
-        <v>15855700</v>
+        <v>15606300</v>
       </c>
       <c r="H43" s="3">
-        <v>21407100</v>
+        <v>15488800</v>
       </c>
       <c r="I43" s="3">
-        <v>18239600</v>
+        <v>20911700</v>
       </c>
       <c r="J43" s="3">
+        <v>17817600</v>
+      </c>
+      <c r="K43" s="3">
         <v>15109200</v>
       </c>
-      <c r="K43" s="3">
+      <c r="L43" s="3">
         <v>13008700</v>
       </c>
-      <c r="L43" s="3"/>
-    </row>
-    <row r="44" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M43" s="3"/>
+    </row>
+    <row r="44" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D44" s="3">
-        <v>26484100</v>
+        <v>26972700</v>
       </c>
       <c r="E44" s="3">
-        <v>26786700</v>
+        <v>25871300</v>
       </c>
       <c r="F44" s="3">
-        <v>22456200</v>
+        <v>26166900</v>
       </c>
       <c r="G44" s="3">
-        <v>20891800</v>
+        <v>21936600</v>
       </c>
       <c r="H44" s="3">
-        <v>27006200</v>
+        <v>20408400</v>
       </c>
       <c r="I44" s="3">
-        <v>31839100</v>
+        <v>26381300</v>
       </c>
       <c r="J44" s="3">
+        <v>31102300</v>
+      </c>
+      <c r="K44" s="3">
         <v>31316200</v>
       </c>
-      <c r="K44" s="3">
+      <c r="L44" s="3">
         <v>29582900</v>
       </c>
-      <c r="L44" s="3"/>
-    </row>
-    <row r="45" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M44" s="3"/>
+    </row>
+    <row r="45" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D45" s="3">
-        <v>1174700</v>
+        <v>380700</v>
       </c>
       <c r="E45" s="3">
-        <v>132600</v>
+        <v>1147500</v>
       </c>
       <c r="F45" s="3">
-        <v>273600</v>
+        <v>129500</v>
       </c>
       <c r="G45" s="3">
-        <v>1129900</v>
+        <v>267300</v>
       </c>
       <c r="H45" s="3">
-        <v>1811000</v>
+        <v>1103800</v>
       </c>
       <c r="I45" s="3">
-        <v>1274100</v>
+        <v>1769100</v>
       </c>
       <c r="J45" s="3">
+        <v>1244600</v>
+      </c>
+      <c r="K45" s="3">
         <v>4388200</v>
       </c>
-      <c r="K45" s="3">
+      <c r="L45" s="3">
         <v>3590800</v>
       </c>
-      <c r="L45" s="3"/>
-    </row>
-    <row r="46" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M45" s="3"/>
+    </row>
+    <row r="46" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D46" s="3">
-        <v>72331100</v>
+        <v>62491200</v>
       </c>
       <c r="E46" s="3">
-        <v>75908000</v>
+        <v>70657500</v>
       </c>
       <c r="F46" s="3">
-        <v>59151200</v>
+        <v>74151500</v>
       </c>
       <c r="G46" s="3">
-        <v>47873100</v>
+        <v>57782500</v>
       </c>
       <c r="H46" s="3">
-        <v>51673500</v>
+        <v>46765400</v>
       </c>
       <c r="I46" s="3">
-        <v>53519500</v>
+        <v>50477800</v>
       </c>
       <c r="J46" s="3">
+        <v>52281100</v>
+      </c>
+      <c r="K46" s="3">
         <v>52372400</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>49846900</v>
       </c>
-      <c r="L46" s="3"/>
-    </row>
-    <row r="47" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M46" s="3"/>
+    </row>
+    <row r="47" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D47" s="3">
-        <v>21116100</v>
+        <v>21546100</v>
       </c>
       <c r="E47" s="3">
-        <v>19048800</v>
+        <v>20627500</v>
       </c>
       <c r="F47" s="3">
-        <v>18397000</v>
+        <v>18608100</v>
       </c>
       <c r="G47" s="3">
-        <v>13667500</v>
+        <v>17971300</v>
       </c>
       <c r="H47" s="3">
-        <v>14233500</v>
+        <v>13351200</v>
       </c>
       <c r="I47" s="3">
-        <v>11341800</v>
+        <v>13904200</v>
       </c>
       <c r="J47" s="3">
+        <v>11079400</v>
+      </c>
+      <c r="K47" s="3">
         <v>7489800</v>
       </c>
-      <c r="K47" s="3">
+      <c r="L47" s="3">
         <v>6909800</v>
       </c>
-      <c r="L47" s="3"/>
-    </row>
-    <row r="48" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M47" s="3"/>
+    </row>
+    <row r="48" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D48" s="3">
-        <v>108288000</v>
+        <v>149095000</v>
       </c>
       <c r="E48" s="3">
-        <v>110396000</v>
+        <v>105782000</v>
       </c>
       <c r="F48" s="3">
-        <v>117679000</v>
+        <v>107842000</v>
       </c>
       <c r="G48" s="3">
-        <v>127091000</v>
+        <v>114956000</v>
       </c>
       <c r="H48" s="3">
-        <v>126428000</v>
+        <v>124150000</v>
       </c>
       <c r="I48" s="3">
-        <v>119121000</v>
+        <v>123502000</v>
       </c>
       <c r="J48" s="3">
+        <v>116364000</v>
+      </c>
+      <c r="K48" s="3">
         <v>108750000</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>98492000</v>
       </c>
-      <c r="L48" s="3"/>
-    </row>
-    <row r="49" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M48" s="3"/>
+    </row>
+    <row r="49" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D49" s="3">
-        <v>1244800</v>
+        <v>1219000</v>
       </c>
       <c r="E49" s="3">
-        <v>1238800</v>
+        <v>1216000</v>
       </c>
       <c r="F49" s="3">
-        <v>911500</v>
+        <v>1210100</v>
       </c>
       <c r="G49" s="3">
-        <v>899800</v>
+        <v>890400</v>
       </c>
       <c r="H49" s="3">
-        <v>901200</v>
+        <v>878900</v>
       </c>
       <c r="I49" s="3">
-        <v>897500</v>
+        <v>880300</v>
       </c>
       <c r="J49" s="3">
+        <v>876700</v>
+      </c>
+      <c r="K49" s="3">
         <v>897800</v>
       </c>
-      <c r="K49" s="3">
+      <c r="L49" s="3">
         <v>1194300</v>
       </c>
-      <c r="L49" s="3"/>
-    </row>
-    <row r="50" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M49" s="3"/>
+    </row>
+    <row r="50" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>42</v>
       </c>
@@ -1856,9 +1969,12 @@
       <c r="K50" s="3">
         <v>0</v>
       </c>
-      <c r="L50" s="3"/>
-    </row>
-    <row r="51" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L50" s="3">
+        <v>0</v>
+      </c>
+      <c r="M50" s="3"/>
+    </row>
+    <row r="51" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>43</v>
       </c>
@@ -1886,39 +2002,45 @@
       <c r="K51" s="3">
         <v>0</v>
       </c>
-      <c r="L51" s="3"/>
-    </row>
-    <row r="52" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L51" s="3">
+        <v>0</v>
+      </c>
+      <c r="M51" s="3"/>
+    </row>
+    <row r="52" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>44</v>
       </c>
       <c r="D52" s="3">
-        <v>25484300</v>
+        <v>11639200</v>
       </c>
       <c r="E52" s="3">
-        <v>22331100</v>
+        <v>24894700</v>
       </c>
       <c r="F52" s="3">
-        <v>18882000</v>
+        <v>21814400</v>
       </c>
       <c r="G52" s="3">
-        <v>18122800</v>
+        <v>18445100</v>
       </c>
       <c r="H52" s="3">
-        <v>15006400</v>
+        <v>17703500</v>
       </c>
       <c r="I52" s="3">
-        <v>13541400</v>
+        <v>14659200</v>
       </c>
       <c r="J52" s="3">
+        <v>13228000</v>
+      </c>
+      <c r="K52" s="3">
         <v>12235100</v>
       </c>
-      <c r="K52" s="3">
+      <c r="L52" s="3">
         <v>10005700</v>
       </c>
-      <c r="L52" s="3"/>
-    </row>
-    <row r="53" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M52" s="3"/>
+    </row>
+    <row r="53" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>45</v>
       </c>
@@ -1946,39 +2068,45 @@
       <c r="K53" s="3">
         <v>0</v>
       </c>
-      <c r="L53" s="3"/>
-    </row>
-    <row r="54" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L53" s="3">
+        <v>0</v>
+      </c>
+      <c r="M53" s="3"/>
+    </row>
+    <row r="54" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>46</v>
       </c>
       <c r="D54" s="3">
-        <v>228464000</v>
+        <v>245991000</v>
       </c>
       <c r="E54" s="3">
-        <v>228923000</v>
+        <v>223178000</v>
       </c>
       <c r="F54" s="3">
-        <v>215020000</v>
+        <v>223626000</v>
       </c>
       <c r="G54" s="3">
-        <v>207654000</v>
+        <v>210045000</v>
       </c>
       <c r="H54" s="3">
-        <v>208242000</v>
+        <v>202849000</v>
       </c>
       <c r="I54" s="3">
-        <v>198421000</v>
+        <v>203424000</v>
       </c>
       <c r="J54" s="3">
+        <v>193830000</v>
+      </c>
+      <c r="K54" s="3">
         <v>181745000</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>166449000</v>
       </c>
-      <c r="L54" s="3"/>
-    </row>
-    <row r="55" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M54" s="3"/>
+    </row>
+    <row r="55" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>47</v>
       </c>
@@ -1991,8 +2119,9 @@
       <c r="J55" s="3"/>
       <c r="K55" s="3"/>
       <c r="L55" s="3"/>
-    </row>
-    <row r="56" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M55" s="3"/>
+    </row>
+    <row r="56" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>48</v>
       </c>
@@ -2005,188 +2134,207 @@
       <c r="J56" s="3"/>
       <c r="K56" s="3"/>
       <c r="L56" s="3"/>
-    </row>
-    <row r="57" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M56" s="3"/>
+    </row>
+    <row r="57" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>49</v>
       </c>
       <c r="D57" s="3">
-        <v>27656800</v>
+        <v>28002800</v>
       </c>
       <c r="E57" s="3">
-        <v>29633600</v>
+        <v>27016800</v>
       </c>
       <c r="F57" s="3">
-        <v>25844900</v>
+        <v>28947900</v>
       </c>
       <c r="G57" s="3">
-        <v>19244100</v>
+        <v>25246900</v>
       </c>
       <c r="H57" s="3">
-        <v>29118300</v>
+        <v>18798800</v>
       </c>
       <c r="I57" s="3">
-        <v>29736200</v>
+        <v>28444500</v>
       </c>
       <c r="J57" s="3">
+        <v>29048200</v>
+      </c>
+      <c r="K57" s="3">
         <v>33177200</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>28025100</v>
       </c>
-      <c r="L57" s="3"/>
-    </row>
-    <row r="58" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M57" s="3"/>
+    </row>
+    <row r="58" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D58" s="3">
-        <v>8770500</v>
+        <v>13877000</v>
       </c>
       <c r="E58" s="3">
-        <v>11571500</v>
+        <v>8567600</v>
       </c>
       <c r="F58" s="3">
-        <v>10735000</v>
+        <v>11303800</v>
       </c>
       <c r="G58" s="3">
-        <v>16564200</v>
+        <v>10486600</v>
       </c>
       <c r="H58" s="3">
-        <v>25560700</v>
+        <v>16180900</v>
       </c>
       <c r="I58" s="3">
-        <v>23512100</v>
+        <v>24969200</v>
       </c>
       <c r="J58" s="3">
+        <v>22968000</v>
+      </c>
+      <c r="K58" s="3">
         <v>16641100</v>
       </c>
-      <c r="K58" s="3">
+      <c r="L58" s="3">
         <v>11688600</v>
       </c>
-      <c r="L58" s="3"/>
-    </row>
-    <row r="59" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M58" s="3"/>
+    </row>
+    <row r="59" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D59" s="3">
-        <v>44653000</v>
+        <v>38904800</v>
       </c>
       <c r="E59" s="3">
-        <v>41933800</v>
+        <v>43619800</v>
       </c>
       <c r="F59" s="3">
-        <v>33085800</v>
+        <v>40963400</v>
       </c>
       <c r="G59" s="3">
-        <v>30598800</v>
+        <v>32320200</v>
       </c>
       <c r="H59" s="3">
-        <v>32019900</v>
+        <v>29890800</v>
       </c>
       <c r="I59" s="3">
-        <v>28796700</v>
+        <v>31278900</v>
       </c>
       <c r="J59" s="3">
+        <v>28130400</v>
+      </c>
+      <c r="K59" s="3">
         <v>23840500</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>24892100</v>
       </c>
-      <c r="L59" s="3"/>
-    </row>
-    <row r="60" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M59" s="3"/>
+    </row>
+    <row r="60" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D60" s="3">
-        <v>81080300</v>
+        <v>80784600</v>
       </c>
       <c r="E60" s="3">
-        <v>83138900</v>
+        <v>79204100</v>
       </c>
       <c r="F60" s="3">
-        <v>69665700</v>
+        <v>81215200</v>
       </c>
       <c r="G60" s="3">
-        <v>66407100</v>
+        <v>68053700</v>
       </c>
       <c r="H60" s="3">
-        <v>86698800</v>
+        <v>64870500</v>
       </c>
       <c r="I60" s="3">
-        <v>82045000</v>
+        <v>84692700</v>
       </c>
       <c r="J60" s="3">
+        <v>80146600</v>
+      </c>
+      <c r="K60" s="3">
         <v>73658800</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>64605800</v>
       </c>
-      <c r="L60" s="3"/>
-    </row>
-    <row r="61" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M60" s="3"/>
+    </row>
+    <row r="61" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D61" s="3">
-        <v>13419300</v>
+        <v>33141700</v>
       </c>
       <c r="E61" s="3">
-        <v>14222300</v>
+        <v>13108700</v>
       </c>
       <c r="F61" s="3">
-        <v>16851200</v>
+        <v>13893200</v>
       </c>
       <c r="G61" s="3">
-        <v>20050800</v>
+        <v>16461200</v>
       </c>
       <c r="H61" s="3">
-        <v>21655700</v>
+        <v>19586800</v>
       </c>
       <c r="I61" s="3">
-        <v>20889300</v>
+        <v>21154600</v>
       </c>
       <c r="J61" s="3">
+        <v>20405900</v>
+      </c>
+      <c r="K61" s="3">
         <v>23260400</v>
       </c>
-      <c r="K61" s="3">
+      <c r="L61" s="3">
         <v>22462700</v>
       </c>
-      <c r="L61" s="3"/>
-    </row>
-    <row r="62" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M61" s="3"/>
+    </row>
+    <row r="62" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D62" s="3">
-        <v>11069200</v>
+        <v>9307500</v>
       </c>
       <c r="E62" s="3">
-        <v>9189000</v>
+        <v>10813100</v>
       </c>
       <c r="F62" s="3">
-        <v>9238000</v>
+        <v>8976400</v>
       </c>
       <c r="G62" s="3">
-        <v>8110800</v>
+        <v>9024200</v>
       </c>
       <c r="H62" s="3">
-        <v>7260400</v>
+        <v>7923100</v>
       </c>
       <c r="I62" s="3">
-        <v>6295600</v>
+        <v>7092400</v>
       </c>
       <c r="J62" s="3">
+        <v>6149900</v>
+      </c>
+      <c r="K62" s="3">
         <v>6193700</v>
       </c>
-      <c r="K62" s="3">
+      <c r="L62" s="3">
         <v>5597200</v>
       </c>
-      <c r="L62" s="3"/>
-    </row>
-    <row r="63" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M62" s="3"/>
+    </row>
+    <row r="63" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>55</v>
       </c>
@@ -2214,9 +2362,12 @@
       <c r="K63" s="3">
         <v>0</v>
       </c>
-      <c r="L63" s="3"/>
-    </row>
-    <row r="64" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L63" s="3">
+        <v>0</v>
+      </c>
+      <c r="M63" s="3"/>
+    </row>
+    <row r="64" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>19</v>
       </c>
@@ -2244,9 +2395,12 @@
       <c r="K64" s="3">
         <v>0</v>
       </c>
-      <c r="L64" s="3"/>
-    </row>
-    <row r="65" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="L64" s="3">
+        <v>0</v>
+      </c>
+      <c r="M64" s="3"/>
+    </row>
+    <row r="65" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>56</v>
       </c>
@@ -2274,39 +2428,45 @@
       <c r="K65" s="3">
         <v>0</v>
       </c>
-      <c r="L65" s="3"/>
-    </row>
-    <row r="66" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="L65" s="3">
+        <v>0</v>
+      </c>
+      <c r="M65" s="3"/>
+    </row>
+    <row r="66" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>57</v>
       </c>
       <c r="D66" s="3">
-        <v>125548000</v>
+        <v>142532000</v>
       </c>
       <c r="E66" s="3">
-        <v>124739000</v>
+        <v>122643000</v>
       </c>
       <c r="F66" s="3">
-        <v>113007000</v>
+        <v>121853000</v>
       </c>
       <c r="G66" s="3">
-        <v>110633000</v>
+        <v>110392000</v>
       </c>
       <c r="H66" s="3">
-        <v>123153000</v>
+        <v>108073000</v>
       </c>
       <c r="I66" s="3">
-        <v>116809000</v>
+        <v>120303000</v>
       </c>
       <c r="J66" s="3">
+        <v>114106000</v>
+      </c>
+      <c r="K66" s="3">
         <v>108439000</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>97758000</v>
       </c>
-      <c r="L66" s="3"/>
-    </row>
-    <row r="67" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M66" s="3"/>
+    </row>
+    <row r="67" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>58</v>
       </c>
@@ -2319,8 +2479,9 @@
       <c r="J67" s="3"/>
       <c r="K67" s="3"/>
       <c r="L67" s="3"/>
-    </row>
-    <row r="68" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M67" s="3"/>
+    </row>
+    <row r="68" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>59</v>
       </c>
@@ -2348,9 +2509,12 @@
       <c r="K68" s="3">
         <v>0</v>
       </c>
-      <c r="L68" s="3"/>
-    </row>
-    <row r="69" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="L68" s="3">
+        <v>0</v>
+      </c>
+      <c r="M68" s="3"/>
+    </row>
+    <row r="69" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>60</v>
       </c>
@@ -2378,9 +2542,12 @@
       <c r="K69" s="3">
         <v>0</v>
       </c>
-      <c r="L69" s="3"/>
-    </row>
-    <row r="70" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="L69" s="3">
+        <v>0</v>
+      </c>
+      <c r="M69" s="3"/>
+    </row>
+    <row r="70" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>61</v>
       </c>
@@ -2408,9 +2575,12 @@
       <c r="K70" s="3">
         <v>0</v>
       </c>
-      <c r="L70" s="3"/>
-    </row>
-    <row r="71" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="L70" s="3">
+        <v>0</v>
+      </c>
+      <c r="M70" s="3"/>
+    </row>
+    <row r="71" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>62</v>
       </c>
@@ -2438,39 +2608,45 @@
       <c r="K71" s="3">
         <v>0</v>
       </c>
-      <c r="L71" s="3"/>
-    </row>
-    <row r="72" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="L71" s="3">
+        <v>0</v>
+      </c>
+      <c r="M71" s="3"/>
+    </row>
+    <row r="72" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>63</v>
       </c>
       <c r="D72" s="3">
-        <v>77531300</v>
+        <v>78661900</v>
       </c>
       <c r="E72" s="3">
-        <v>78799100</v>
+        <v>75737300</v>
       </c>
       <c r="F72" s="3">
-        <v>76568000</v>
+        <v>76975700</v>
       </c>
       <c r="G72" s="3">
-        <v>72609100</v>
+        <v>74796200</v>
       </c>
       <c r="H72" s="3">
-        <v>63004400</v>
+        <v>70928900</v>
       </c>
       <c r="I72" s="3">
-        <v>59745100</v>
+        <v>61546500</v>
       </c>
       <c r="J72" s="3">
+        <v>58362600</v>
+      </c>
+      <c r="K72" s="3">
         <v>56679900</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>52025800</v>
       </c>
-      <c r="L72" s="3"/>
-    </row>
-    <row r="73" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M72" s="3"/>
+    </row>
+    <row r="73" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>64</v>
       </c>
@@ -2498,9 +2674,12 @@
       <c r="K73" s="3">
         <v>0</v>
       </c>
-      <c r="L73" s="3"/>
-    </row>
-    <row r="74" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="L73" s="3">
+        <v>0</v>
+      </c>
+      <c r="M73" s="3"/>
+    </row>
+    <row r="74" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>65</v>
       </c>
@@ -2528,9 +2707,12 @@
       <c r="K74" s="3">
         <v>0</v>
       </c>
-      <c r="L74" s="3"/>
-    </row>
-    <row r="75" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="L74" s="3">
+        <v>0</v>
+      </c>
+      <c r="M74" s="3"/>
+    </row>
+    <row r="75" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>66</v>
       </c>
@@ -2558,39 +2740,45 @@
       <c r="K75" s="3">
         <v>0</v>
       </c>
-      <c r="L75" s="3"/>
-    </row>
-    <row r="76" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="L75" s="3">
+        <v>0</v>
+      </c>
+      <c r="M75" s="3"/>
+    </row>
+    <row r="76" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>67</v>
       </c>
       <c r="D76" s="3">
-        <v>102916000</v>
+        <v>103459000</v>
       </c>
       <c r="E76" s="3">
-        <v>104184000</v>
+        <v>100535000</v>
       </c>
       <c r="F76" s="3">
-        <v>102013000</v>
+        <v>101773000</v>
       </c>
       <c r="G76" s="3">
-        <v>97020700</v>
+        <v>99652900</v>
       </c>
       <c r="H76" s="3">
-        <v>85089500</v>
+        <v>94775800</v>
       </c>
       <c r="I76" s="3">
-        <v>81611900</v>
+        <v>83120600</v>
       </c>
       <c r="J76" s="3">
+        <v>79723400</v>
+      </c>
+      <c r="K76" s="3">
         <v>73305900</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>68690700</v>
       </c>
-      <c r="L76" s="3"/>
-    </row>
-    <row r="77" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M76" s="3"/>
+    </row>
+    <row r="77" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>68</v>
       </c>
@@ -2618,74 +2806,83 @@
       <c r="K77" s="3">
         <v>0</v>
       </c>
-      <c r="L77" s="3"/>
-    </row>
-    <row r="79" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="L77" s="3">
+        <v>0</v>
+      </c>
+      <c r="M77" s="3"/>
+    </row>
+    <row r="79" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>69</v>
       </c>
     </row>
-    <row r="80" spans="2:12" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>43830</v>
+      </c>
+      <c r="E80" s="2">
         <v>43465</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>43100</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>42735</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>42369</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>42004</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>41639</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>41274</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>40908</v>
       </c>
-      <c r="L80" s="2"/>
-    </row>
-    <row r="81" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M80" s="2"/>
+    </row>
+    <row r="81" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D81" s="3">
-        <v>8841000</v>
+        <v>8042800</v>
       </c>
       <c r="E81" s="3">
-        <v>7352500</v>
+        <v>8624100</v>
       </c>
       <c r="F81" s="3">
-        <v>6696500</v>
+        <v>7172100</v>
       </c>
       <c r="G81" s="3">
-        <v>4664800</v>
+        <v>6532200</v>
       </c>
       <c r="H81" s="3">
-        <v>6666900</v>
+        <v>4550400</v>
       </c>
       <c r="I81" s="3">
-        <v>9488600</v>
+        <v>6503400</v>
       </c>
       <c r="J81" s="3">
+        <v>9255800</v>
+      </c>
+      <c r="K81" s="3">
         <v>9165400</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>10649100</v>
       </c>
-      <c r="L81" s="3"/>
-    </row>
-    <row r="82" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M81" s="3"/>
+    </row>
+    <row r="82" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>70</v>
       </c>
@@ -2698,38 +2895,42 @@
       <c r="J82" s="3"/>
       <c r="K82" s="3"/>
       <c r="L82" s="3"/>
-    </row>
-    <row r="83" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M82" s="3"/>
+    </row>
+    <row r="83" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>71</v>
       </c>
       <c r="D83" s="3">
-        <v>15778100</v>
+        <v>15229300</v>
       </c>
       <c r="E83" s="3">
-        <v>16544700</v>
+        <v>15391000</v>
       </c>
       <c r="F83" s="3">
-        <v>15556800</v>
+        <v>16138800</v>
       </c>
       <c r="G83" s="3">
-        <v>13840100</v>
+        <v>15175200</v>
       </c>
       <c r="H83" s="3">
-        <v>12927100</v>
+        <v>13500500</v>
       </c>
       <c r="I83" s="3">
-        <v>11659900</v>
+        <v>12610000</v>
       </c>
       <c r="J83" s="3">
+        <v>11373800</v>
+      </c>
+      <c r="K83" s="3">
         <v>10109000</v>
       </c>
-      <c r="K83" s="3">
+      <c r="L83" s="3">
         <v>9280800</v>
       </c>
-      <c r="L83" s="3"/>
-    </row>
-    <row r="84" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M83" s="3"/>
+    </row>
+    <row r="84" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>72</v>
       </c>
@@ -2757,9 +2958,12 @@
       <c r="K84" s="3">
         <v>0</v>
       </c>
-      <c r="L84" s="3"/>
-    </row>
-    <row r="85" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L84" s="3">
+        <v>0</v>
+      </c>
+      <c r="M84" s="3"/>
+    </row>
+    <row r="85" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>73</v>
       </c>
@@ -2787,9 +2991,12 @@
       <c r="K85" s="3">
         <v>0</v>
       </c>
-      <c r="L85" s="3"/>
-    </row>
-    <row r="86" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L85" s="3">
+        <v>0</v>
+      </c>
+      <c r="M85" s="3"/>
+    </row>
+    <row r="86" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>74</v>
       </c>
@@ -2817,9 +3024,12 @@
       <c r="K86" s="3">
         <v>0</v>
       </c>
-      <c r="L86" s="3"/>
-    </row>
-    <row r="87" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L86" s="3">
+        <v>0</v>
+      </c>
+      <c r="M86" s="3"/>
+    </row>
+    <row r="87" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>75</v>
       </c>
@@ -2847,9 +3057,12 @@
       <c r="K87" s="3">
         <v>0</v>
       </c>
-      <c r="L87" s="3"/>
-    </row>
-    <row r="88" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L87" s="3">
+        <v>0</v>
+      </c>
+      <c r="M87" s="3"/>
+    </row>
+    <row r="88" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>76</v>
       </c>
@@ -2877,39 +3090,45 @@
       <c r="K88" s="3">
         <v>0</v>
       </c>
-      <c r="L88" s="3"/>
-    </row>
-    <row r="89" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L88" s="3">
+        <v>0</v>
+      </c>
+      <c r="M88" s="3"/>
+    </row>
+    <row r="89" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>77</v>
       </c>
       <c r="D89" s="3">
-        <v>25233500</v>
+        <v>21472700</v>
       </c>
       <c r="E89" s="3">
-        <v>27395400</v>
+        <v>24614500</v>
       </c>
       <c r="F89" s="3">
-        <v>30782600</v>
+        <v>26723300</v>
       </c>
       <c r="G89" s="3">
-        <v>23780400</v>
+        <v>30027400</v>
       </c>
       <c r="H89" s="3">
-        <v>21284800</v>
+        <v>23197000</v>
       </c>
       <c r="I89" s="3">
-        <v>21793600</v>
+        <v>20762600</v>
       </c>
       <c r="J89" s="3">
+        <v>21258900</v>
+      </c>
+      <c r="K89" s="3">
         <v>20428700</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>21905000</v>
       </c>
-      <c r="L89" s="3"/>
-    </row>
-    <row r="90" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M89" s="3"/>
+    </row>
+    <row r="90" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>78</v>
       </c>
@@ -2922,38 +3141,42 @@
       <c r="J90" s="3"/>
       <c r="K90" s="3"/>
       <c r="L90" s="3"/>
-    </row>
-    <row r="91" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M90" s="3"/>
+    </row>
+    <row r="91" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>79</v>
       </c>
       <c r="D91" s="3">
-        <v>-13595200</v>
+        <v>-18145100</v>
       </c>
       <c r="E91" s="3">
-        <v>-9116900</v>
+        <v>-13261600</v>
       </c>
       <c r="F91" s="3">
-        <v>-9393200</v>
+        <v>-8893200</v>
       </c>
       <c r="G91" s="3">
-        <v>-13701600</v>
+        <v>-9162800</v>
       </c>
       <c r="H91" s="3">
-        <v>-16220000</v>
+        <v>-13365500</v>
       </c>
       <c r="I91" s="3">
-        <v>-20800600</v>
+        <v>-15822100</v>
       </c>
       <c r="J91" s="3">
+        <v>-20290300</v>
+      </c>
+      <c r="K91" s="3">
         <v>-20899700</v>
       </c>
-      <c r="K91" s="3">
+      <c r="L91" s="3">
         <v>-19158500</v>
       </c>
-      <c r="L91" s="3"/>
-    </row>
-    <row r="92" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M91" s="3"/>
+    </row>
+    <row r="92" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>80</v>
       </c>
@@ -2981,9 +3204,12 @@
       <c r="K92" s="3">
         <v>0</v>
       </c>
-      <c r="L92" s="3"/>
-    </row>
-    <row r="93" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L92" s="3">
+        <v>0</v>
+      </c>
+      <c r="M92" s="3"/>
+    </row>
+    <row r="93" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>81</v>
       </c>
@@ -3011,39 +3237,45 @@
       <c r="K93" s="3">
         <v>0</v>
       </c>
-      <c r="L93" s="3"/>
-    </row>
-    <row r="94" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L93" s="3">
+        <v>0</v>
+      </c>
+      <c r="M93" s="3"/>
+    </row>
+    <row r="94" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>82</v>
       </c>
       <c r="D94" s="3">
-        <v>-9530200</v>
+        <v>-16860000</v>
       </c>
       <c r="E94" s="3">
-        <v>-20850900</v>
+        <v>-9296400</v>
       </c>
       <c r="F94" s="3">
-        <v>-9500800</v>
+        <v>-20339400</v>
       </c>
       <c r="G94" s="3">
-        <v>-16746800</v>
+        <v>-9267700</v>
       </c>
       <c r="H94" s="3">
-        <v>-19030200</v>
+        <v>-16336000</v>
       </c>
       <c r="I94" s="3">
-        <v>-25645600</v>
+        <v>-18563300</v>
       </c>
       <c r="J94" s="3">
+        <v>-25016500</v>
+      </c>
+      <c r="K94" s="3">
         <v>-23272000</v>
       </c>
-      <c r="K94" s="3">
+      <c r="L94" s="3">
         <v>-20425500</v>
       </c>
-      <c r="L94" s="3"/>
-    </row>
-    <row r="95" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M94" s="3"/>
+    </row>
+    <row r="95" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>83</v>
       </c>
@@ -3056,38 +3288,42 @@
       <c r="J95" s="3"/>
       <c r="K95" s="3"/>
       <c r="L95" s="3"/>
-    </row>
-    <row r="96" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M95" s="3"/>
+    </row>
+    <row r="96" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>84</v>
       </c>
       <c r="D96" s="3">
-        <v>-9727800</v>
+        <v>-6439300</v>
       </c>
       <c r="E96" s="3">
-        <v>-4690200</v>
+        <v>-9489100</v>
       </c>
       <c r="F96" s="3">
-        <v>-2421400</v>
+        <v>-4575200</v>
       </c>
       <c r="G96" s="3">
-        <v>-3474200</v>
+        <v>-2362000</v>
       </c>
       <c r="H96" s="3">
-        <v>-4021900</v>
+        <v>-3389000</v>
       </c>
       <c r="I96" s="3">
-        <v>-4060200</v>
+        <v>-3923200</v>
       </c>
       <c r="J96" s="3">
+        <v>-3960600</v>
+      </c>
+      <c r="K96" s="3">
         <v>-3656700</v>
       </c>
-      <c r="K96" s="3">
+      <c r="L96" s="3">
         <v>-2831400</v>
       </c>
-      <c r="L96" s="3"/>
-    </row>
-    <row r="97" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M96" s="3"/>
+    </row>
+    <row r="97" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>85</v>
       </c>
@@ -3115,9 +3351,12 @@
       <c r="K97" s="3">
         <v>0</v>
       </c>
-      <c r="L97" s="3"/>
-    </row>
-    <row r="98" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L97" s="3">
+        <v>0</v>
+      </c>
+      <c r="M97" s="3"/>
+    </row>
+    <row r="98" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>86</v>
       </c>
@@ -3145,9 +3384,12 @@
       <c r="K98" s="3">
         <v>0</v>
       </c>
-      <c r="L98" s="3"/>
-    </row>
-    <row r="99" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L98" s="3">
+        <v>0</v>
+      </c>
+      <c r="M98" s="3"/>
+    </row>
+    <row r="99" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>87</v>
       </c>
@@ -3175,97 +3417,109 @@
       <c r="K99" s="3">
         <v>0</v>
       </c>
-      <c r="L99" s="3"/>
-    </row>
-    <row r="100" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L99" s="3">
+        <v>0</v>
+      </c>
+      <c r="M99" s="3"/>
+    </row>
+    <row r="100" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>88</v>
       </c>
       <c r="D100" s="3">
-        <v>-15963600</v>
+        <v>-11856400</v>
       </c>
       <c r="E100" s="3">
-        <v>-8107900</v>
+        <v>-15571900</v>
       </c>
       <c r="F100" s="3">
-        <v>-13350400</v>
+        <v>-7909000</v>
       </c>
       <c r="G100" s="3">
-        <v>1304700</v>
+        <v>-13022900</v>
       </c>
       <c r="H100" s="3">
-        <v>-3073500</v>
+        <v>1272700</v>
       </c>
       <c r="I100" s="3">
-        <v>4522300</v>
+        <v>-2998100</v>
       </c>
       <c r="J100" s="3">
+        <v>4411400</v>
+      </c>
+      <c r="K100" s="3">
         <v>807500</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>-365900</v>
       </c>
-      <c r="L100" s="3"/>
-    </row>
-    <row r="101" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M100" s="3"/>
+    </row>
+    <row r="101" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D101" s="3">
-        <v>74300</v>
+        <v>20600</v>
       </c>
       <c r="E101" s="3">
-        <v>-50600</v>
+        <v>72500</v>
       </c>
       <c r="F101" s="3">
-        <v>36700</v>
+        <v>-49400</v>
       </c>
       <c r="G101" s="3">
-        <v>42000</v>
+        <v>35800</v>
       </c>
       <c r="H101" s="3">
-        <v>2300</v>
+        <v>41000</v>
       </c>
       <c r="I101" s="3">
-        <v>-11800</v>
+        <v>2200</v>
       </c>
       <c r="J101" s="3">
+        <v>-11500</v>
+      </c>
+      <c r="K101" s="3">
         <v>-300</v>
       </c>
-      <c r="K101" s="3">
+      <c r="L101" s="3">
         <v>-2600</v>
       </c>
-      <c r="L101" s="3"/>
-    </row>
-    <row r="102" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M101" s="3"/>
+    </row>
+    <row r="102" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D102" s="3">
-        <v>-186000</v>
+        <v>-7223200</v>
       </c>
       <c r="E102" s="3">
-        <v>-1614200</v>
+        <v>-181400</v>
       </c>
       <c r="F102" s="3">
-        <v>7968200</v>
+        <v>-1574600</v>
       </c>
       <c r="G102" s="3">
-        <v>8380200</v>
+        <v>7772700</v>
       </c>
       <c r="H102" s="3">
-        <v>-816500</v>
+        <v>8174600</v>
       </c>
       <c r="I102" s="3">
-        <v>658600</v>
+        <v>-796500</v>
       </c>
       <c r="J102" s="3">
+        <v>642400</v>
+      </c>
+      <c r="K102" s="3">
         <v>-2036100</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>1110900</v>
       </c>
-      <c r="L102" s="3"/>
+      <c r="M102" s="3"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/AAII_Financials/Yearly/SNP_YR_FIN.xlsx
+++ b/AAII_Financials/Yearly/SNP_YR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="95" uniqueCount="91">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="99" uniqueCount="92">
   <si>
     <t>SNP</t>
   </si>
@@ -295,6 +295,9 @@
   </si>
   <si>
     <t xml:space="preserve">Change In Cash and Cash Equivalents </t>
+  </si>
+  <si>
+    <t>NA</t>
   </si>
 </sst>
 </file>
@@ -714,25 +717,25 @@
         <v>3</v>
       </c>
       <c r="D8" s="3">
-        <v>415148400</v>
+        <v>430780200</v>
       </c>
       <c r="E8" s="3">
-        <v>404649400</v>
+        <v>419885900</v>
       </c>
       <c r="F8" s="3">
-        <v>330332600</v>
+        <v>342770800</v>
       </c>
       <c r="G8" s="3">
-        <v>270250300</v>
+        <v>280426200</v>
       </c>
       <c r="H8" s="3">
-        <v>282771700</v>
+        <v>293419100</v>
       </c>
       <c r="I8" s="3">
-        <v>395514900</v>
+        <v>410407500</v>
       </c>
       <c r="J8" s="3">
-        <v>403128300</v>
+        <v>418307600</v>
       </c>
       <c r="K8" s="3">
         <v>399741700</v>
@@ -747,25 +750,25 @@
         <v>4</v>
       </c>
       <c r="D9" s="3">
-        <v>352187600</v>
+        <v>365448800</v>
       </c>
       <c r="E9" s="3">
-        <v>340970400</v>
+        <v>353809200</v>
       </c>
       <c r="F9" s="3">
-        <v>267364300</v>
+        <v>277431600</v>
       </c>
       <c r="G9" s="3">
-        <v>211010000</v>
+        <v>218955300</v>
       </c>
       <c r="H9" s="3">
-        <v>226735600</v>
+        <v>235273000</v>
       </c>
       <c r="I9" s="3">
-        <v>336277400</v>
+        <v>348939500</v>
       </c>
       <c r="J9" s="3">
-        <v>341743800</v>
+        <v>354611700</v>
       </c>
       <c r="K9" s="3">
         <v>337603600</v>
@@ -780,25 +783,25 @@
         <v>5</v>
       </c>
       <c r="D10" s="3">
-        <v>62960700</v>
+        <v>65331400</v>
       </c>
       <c r="E10" s="3">
-        <v>63679000</v>
+        <v>66076700</v>
       </c>
       <c r="F10" s="3">
-        <v>62968300</v>
+        <v>65339300</v>
       </c>
       <c r="G10" s="3">
-        <v>59240300</v>
+        <v>61470900</v>
       </c>
       <c r="H10" s="3">
-        <v>56036100</v>
+        <v>58146000</v>
       </c>
       <c r="I10" s="3">
-        <v>59237500</v>
+        <v>61468000</v>
       </c>
       <c r="J10" s="3">
-        <v>61384500</v>
+        <v>63695800</v>
       </c>
       <c r="K10" s="3">
         <v>62138200</v>
@@ -828,25 +831,25 @@
         <v>7</v>
       </c>
       <c r="D12" s="3">
-        <v>1471000</v>
+        <v>1526400</v>
       </c>
       <c r="E12" s="3">
-        <v>1503700</v>
+        <v>1560400</v>
       </c>
       <c r="F12" s="3">
-        <v>1552000</v>
+        <v>1610500</v>
       </c>
       <c r="G12" s="3">
-        <v>1544500</v>
+        <v>1602600</v>
       </c>
       <c r="H12" s="3">
-        <v>1463800</v>
+        <v>1519000</v>
       </c>
       <c r="I12" s="3">
-        <v>1535200</v>
+        <v>1593000</v>
       </c>
       <c r="J12" s="3">
-        <v>1759700</v>
+        <v>1826000</v>
       </c>
       <c r="K12" s="3">
         <v>2228700</v>
@@ -893,26 +896,26 @@
       <c r="C14" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="D14" s="3">
-        <v>48300</v>
-      </c>
-      <c r="E14" s="3">
-        <v>879100</v>
+      <c r="D14" s="3" t="s">
+        <v>91</v>
+      </c>
+      <c r="E14" s="3" t="s">
+        <v>91</v>
       </c>
       <c r="F14" s="3">
-        <v>2975300</v>
+        <v>0</v>
       </c>
       <c r="G14" s="3">
-        <v>-579000</v>
+        <v>-2986200</v>
       </c>
       <c r="H14" s="3">
-        <v>720200</v>
-      </c>
-      <c r="I14" s="3">
-        <v>506500</v>
-      </c>
-      <c r="J14" s="3">
-        <v>372400</v>
+        <v>0</v>
+      </c>
+      <c r="I14" s="3" t="s">
+        <v>91</v>
+      </c>
+      <c r="J14" s="3" t="s">
+        <v>91</v>
       </c>
       <c r="K14" s="3">
         <v>145500</v>
@@ -927,25 +930,25 @@
         <v>10</v>
       </c>
       <c r="D15" s="3">
-        <v>15229300</v>
+        <v>15802800</v>
       </c>
       <c r="E15" s="3">
-        <v>15391000</v>
+        <v>15970500</v>
       </c>
       <c r="F15" s="3">
-        <v>16138800</v>
+        <v>16746500</v>
       </c>
       <c r="G15" s="3">
-        <v>15175200</v>
+        <v>15746600</v>
       </c>
       <c r="H15" s="3">
-        <v>13500500</v>
+        <v>14008900</v>
       </c>
       <c r="I15" s="3">
-        <v>12610000</v>
+        <v>13084800</v>
       </c>
       <c r="J15" s="3">
-        <v>11373800</v>
+        <v>11802100</v>
       </c>
       <c r="K15" s="3">
         <v>10109000</v>
@@ -972,25 +975,25 @@
         <v>11</v>
       </c>
       <c r="D17" s="3">
-        <v>403084100</v>
+        <v>418261700</v>
       </c>
       <c r="E17" s="3">
-        <v>393135700</v>
+        <v>407938700</v>
       </c>
       <c r="F17" s="3">
-        <v>320329700</v>
+        <v>332391200</v>
       </c>
       <c r="G17" s="3">
-        <v>259446400</v>
+        <v>269215500</v>
       </c>
       <c r="H17" s="3">
-        <v>274818900</v>
+        <v>285166800</v>
       </c>
       <c r="I17" s="3">
-        <v>385229700</v>
+        <v>399735000</v>
       </c>
       <c r="J17" s="3">
-        <v>389582300</v>
+        <v>404251500</v>
       </c>
       <c r="K17" s="3">
         <v>385585700</v>
@@ -1005,25 +1008,25 @@
         <v>12</v>
       </c>
       <c r="D18" s="3">
-        <v>12064300</v>
+        <v>12518500</v>
       </c>
       <c r="E18" s="3">
-        <v>11513700</v>
+        <v>11947200</v>
       </c>
       <c r="F18" s="3">
-        <v>10002900</v>
+        <v>10379600</v>
       </c>
       <c r="G18" s="3">
-        <v>10803900</v>
+        <v>11210700</v>
       </c>
       <c r="H18" s="3">
-        <v>7952800</v>
+        <v>8252300</v>
       </c>
       <c r="I18" s="3">
-        <v>10285200</v>
+        <v>10672500</v>
       </c>
       <c r="J18" s="3">
-        <v>13546000</v>
+        <v>14056100</v>
       </c>
       <c r="K18" s="3">
         <v>14156000</v>
@@ -1053,25 +1056,25 @@
         <v>14</v>
       </c>
       <c r="D20" s="3">
-        <v>2703200</v>
+        <v>2805000</v>
       </c>
       <c r="E20" s="3">
-        <v>3181200</v>
+        <v>3300900</v>
       </c>
       <c r="F20" s="3">
-        <v>2921200</v>
+        <v>3031200</v>
       </c>
       <c r="G20" s="3">
-        <v>1556400</v>
+        <v>1615000</v>
       </c>
       <c r="H20" s="3">
-        <v>929500</v>
+        <v>964500</v>
       </c>
       <c r="I20" s="3">
-        <v>311700</v>
+        <v>323400</v>
       </c>
       <c r="J20" s="3">
-        <v>1118600</v>
+        <v>1160700</v>
       </c>
       <c r="K20" s="3">
         <v>335900</v>
@@ -1086,25 +1089,25 @@
         <v>15</v>
       </c>
       <c r="D21" s="3">
-        <v>29947800</v>
+        <v>31066400</v>
       </c>
       <c r="E21" s="3">
-        <v>30036300</v>
+        <v>31158200</v>
       </c>
       <c r="F21" s="3">
-        <v>29011100</v>
+        <v>30093900</v>
       </c>
       <c r="G21" s="3">
-        <v>27486700</v>
+        <v>28512600</v>
       </c>
       <c r="H21" s="3">
-        <v>22339400</v>
+        <v>23172600</v>
       </c>
       <c r="I21" s="3">
-        <v>23166400</v>
+        <v>24031200</v>
       </c>
       <c r="J21" s="3">
-        <v>26001900</v>
+        <v>26974200</v>
       </c>
       <c r="K21" s="3">
         <v>24597400</v>
@@ -1119,25 +1122,25 @@
         <v>16</v>
       </c>
       <c r="D22" s="3">
-        <v>2181300</v>
+        <v>2263400</v>
       </c>
       <c r="E22" s="3">
-        <v>823400</v>
+        <v>854400</v>
       </c>
       <c r="F22" s="3">
-        <v>790100</v>
+        <v>819800</v>
       </c>
       <c r="G22" s="3">
-        <v>1142400</v>
+        <v>1185400</v>
       </c>
       <c r="H22" s="3">
-        <v>987000</v>
+        <v>1024200</v>
       </c>
       <c r="I22" s="3">
-        <v>1429000</v>
+        <v>1482800</v>
       </c>
       <c r="J22" s="3">
-        <v>1361100</v>
+        <v>1412400</v>
       </c>
       <c r="K22" s="3">
         <v>1486600</v>
@@ -1152,25 +1155,25 @@
         <v>17</v>
       </c>
       <c r="D23" s="3">
-        <v>12586200</v>
+        <v>13060100</v>
       </c>
       <c r="E23" s="3">
-        <v>13871400</v>
+        <v>14393700</v>
       </c>
       <c r="F23" s="3">
-        <v>12134100</v>
+        <v>12591000</v>
       </c>
       <c r="G23" s="3">
-        <v>11217900</v>
+        <v>11640300</v>
       </c>
       <c r="H23" s="3">
-        <v>7895300</v>
+        <v>8192600</v>
       </c>
       <c r="I23" s="3">
-        <v>9167900</v>
+        <v>9513100</v>
       </c>
       <c r="J23" s="3">
-        <v>13303500</v>
+        <v>13804400</v>
       </c>
       <c r="K23" s="3">
         <v>13005300</v>
@@ -1185,25 +1188,25 @@
         <v>18</v>
       </c>
       <c r="D24" s="3">
-        <v>2504400</v>
+        <v>2598700</v>
       </c>
       <c r="E24" s="3">
-        <v>2829000</v>
+        <v>2935500</v>
       </c>
       <c r="F24" s="3">
-        <v>2278400</v>
+        <v>2364200</v>
       </c>
       <c r="G24" s="3">
-        <v>2898200</v>
+        <v>3007300</v>
       </c>
       <c r="H24" s="3">
-        <v>1765300</v>
+        <v>1831800</v>
       </c>
       <c r="I24" s="3">
-        <v>2459200</v>
+        <v>2551800</v>
       </c>
       <c r="J24" s="3">
-        <v>3465800</v>
+        <v>3596300</v>
       </c>
       <c r="K24" s="3">
         <v>3421400</v>
@@ -1251,25 +1254,25 @@
         <v>20</v>
       </c>
       <c r="D26" s="3">
-        <v>10081700</v>
+        <v>10461400</v>
       </c>
       <c r="E26" s="3">
-        <v>11042400</v>
+        <v>11458200</v>
       </c>
       <c r="F26" s="3">
-        <v>9855700</v>
+        <v>10226800</v>
       </c>
       <c r="G26" s="3">
-        <v>8319800</v>
+        <v>8633100</v>
       </c>
       <c r="H26" s="3">
-        <v>6130000</v>
+        <v>6360800</v>
       </c>
       <c r="I26" s="3">
-        <v>6708700</v>
+        <v>6961300</v>
       </c>
       <c r="J26" s="3">
-        <v>9837600</v>
+        <v>10208100</v>
       </c>
       <c r="K26" s="3">
         <v>9583900</v>
@@ -1284,25 +1287,25 @@
         <v>21</v>
       </c>
       <c r="D27" s="3">
-        <v>8042800</v>
+        <v>8345600</v>
       </c>
       <c r="E27" s="3">
-        <v>8624100</v>
+        <v>8948800</v>
       </c>
       <c r="F27" s="3">
-        <v>7172100</v>
+        <v>7442200</v>
       </c>
       <c r="G27" s="3">
-        <v>6532200</v>
+        <v>6778200</v>
       </c>
       <c r="H27" s="3">
-        <v>4550400</v>
+        <v>4721700</v>
       </c>
       <c r="I27" s="3">
-        <v>6503400</v>
+        <v>6748300</v>
       </c>
       <c r="J27" s="3">
-        <v>9255800</v>
+        <v>9604400</v>
       </c>
       <c r="K27" s="3">
         <v>9165400</v>
@@ -1449,25 +1452,25 @@
         <v>26</v>
       </c>
       <c r="D32" s="3">
-        <v>-2703200</v>
+        <v>-2805000</v>
       </c>
       <c r="E32" s="3">
-        <v>-3181200</v>
+        <v>-3300900</v>
       </c>
       <c r="F32" s="3">
-        <v>-2921200</v>
+        <v>-3031200</v>
       </c>
       <c r="G32" s="3">
-        <v>-1556400</v>
+        <v>-1615000</v>
       </c>
       <c r="H32" s="3">
-        <v>-929500</v>
+        <v>-964500</v>
       </c>
       <c r="I32" s="3">
-        <v>-311700</v>
+        <v>-323400</v>
       </c>
       <c r="J32" s="3">
-        <v>-1118600</v>
+        <v>-1160700</v>
       </c>
       <c r="K32" s="3">
         <v>-335900</v>
@@ -1482,25 +1485,25 @@
         <v>27</v>
       </c>
       <c r="D33" s="3">
-        <v>8042800</v>
+        <v>8345600</v>
       </c>
       <c r="E33" s="3">
-        <v>8624100</v>
+        <v>8948800</v>
       </c>
       <c r="F33" s="3">
-        <v>7172100</v>
+        <v>7442200</v>
       </c>
       <c r="G33" s="3">
-        <v>6532200</v>
+        <v>6778200</v>
       </c>
       <c r="H33" s="3">
-        <v>4550400</v>
+        <v>4721700</v>
       </c>
       <c r="I33" s="3">
-        <v>6503400</v>
+        <v>6748300</v>
       </c>
       <c r="J33" s="3">
-        <v>9255800</v>
+        <v>9604400</v>
       </c>
       <c r="K33" s="3">
         <v>9165400</v>
@@ -1548,25 +1551,25 @@
         <v>29</v>
       </c>
       <c r="D35" s="3">
-        <v>8042800</v>
+        <v>8345600</v>
       </c>
       <c r="E35" s="3">
-        <v>8624100</v>
+        <v>8948800</v>
       </c>
       <c r="F35" s="3">
-        <v>7172100</v>
+        <v>7442200</v>
       </c>
       <c r="G35" s="3">
-        <v>6532200</v>
+        <v>6778200</v>
       </c>
       <c r="H35" s="3">
-        <v>4550400</v>
+        <v>4721700</v>
       </c>
       <c r="I35" s="3">
-        <v>6503400</v>
+        <v>6748300</v>
       </c>
       <c r="J35" s="3">
-        <v>9255800</v>
+        <v>9604400</v>
       </c>
       <c r="K35" s="3">
         <v>9165400</v>
@@ -1649,25 +1652,25 @@
         <v>33</v>
       </c>
       <c r="D41" s="3">
-        <v>8453500</v>
+        <v>8759300</v>
       </c>
       <c r="E41" s="3">
-        <v>15687000</v>
+        <v>16254400</v>
       </c>
       <c r="F41" s="3">
-        <v>15868600</v>
+        <v>16442700</v>
       </c>
       <c r="G41" s="3">
-        <v>17445400</v>
+        <v>18076500</v>
       </c>
       <c r="H41" s="3">
-        <v>9661600</v>
+        <v>10011100</v>
       </c>
       <c r="I41" s="3">
-        <v>1311200</v>
+        <v>1358600</v>
       </c>
       <c r="J41" s="3">
-        <v>2108800</v>
+        <v>2185100</v>
       </c>
       <c r="K41" s="3">
         <v>1500200</v>
@@ -1682,25 +1685,25 @@
         <v>34</v>
       </c>
       <c r="D42" s="3">
-        <v>11150400</v>
+        <v>11553800</v>
       </c>
       <c r="E42" s="3">
-        <v>11328400</v>
+        <v>11738200</v>
       </c>
       <c r="F42" s="3">
-        <v>14434000</v>
+        <v>14956100</v>
       </c>
       <c r="G42" s="3">
-        <v>2526900</v>
+        <v>2618400</v>
       </c>
       <c r="H42" s="3">
-        <v>102700</v>
+        <v>106500</v>
       </c>
       <c r="I42" s="3">
-        <v>104400</v>
+        <v>108200</v>
       </c>
       <c r="J42" s="3">
-        <v>7700</v>
+        <v>8000</v>
       </c>
       <c r="K42" s="3">
         <v>58500</v>
@@ -1715,25 +1718,25 @@
         <v>35</v>
       </c>
       <c r="D43" s="3">
-        <v>15533900</v>
+        <v>16095800</v>
       </c>
       <c r="E43" s="3">
-        <v>16623300</v>
+        <v>17224600</v>
       </c>
       <c r="F43" s="3">
-        <v>17552500</v>
+        <v>18187400</v>
       </c>
       <c r="G43" s="3">
-        <v>15606300</v>
+        <v>16170800</v>
       </c>
       <c r="H43" s="3">
-        <v>15488800</v>
+        <v>16049100</v>
       </c>
       <c r="I43" s="3">
-        <v>20911700</v>
+        <v>21668200</v>
       </c>
       <c r="J43" s="3">
-        <v>17817600</v>
+        <v>18462100</v>
       </c>
       <c r="K43" s="3">
         <v>15109200</v>
@@ -1748,25 +1751,25 @@
         <v>36</v>
       </c>
       <c r="D44" s="3">
-        <v>26972700</v>
+        <v>27948400</v>
       </c>
       <c r="E44" s="3">
-        <v>25871300</v>
+        <v>26807100</v>
       </c>
       <c r="F44" s="3">
-        <v>26166900</v>
+        <v>27113400</v>
       </c>
       <c r="G44" s="3">
-        <v>21936600</v>
+        <v>22730100</v>
       </c>
       <c r="H44" s="3">
-        <v>20408400</v>
+        <v>21146600</v>
       </c>
       <c r="I44" s="3">
-        <v>26381300</v>
+        <v>27335600</v>
       </c>
       <c r="J44" s="3">
-        <v>31102300</v>
+        <v>32227400</v>
       </c>
       <c r="K44" s="3">
         <v>31316200</v>
@@ -1781,25 +1784,25 @@
         <v>37</v>
       </c>
       <c r="D45" s="3">
-        <v>380700</v>
+        <v>394400</v>
       </c>
       <c r="E45" s="3">
-        <v>1147500</v>
+        <v>1189000</v>
       </c>
       <c r="F45" s="3">
-        <v>129500</v>
+        <v>134200</v>
       </c>
       <c r="G45" s="3">
-        <v>267300</v>
+        <v>277000</v>
       </c>
       <c r="H45" s="3">
-        <v>1103800</v>
+        <v>1143700</v>
       </c>
       <c r="I45" s="3">
-        <v>1769100</v>
+        <v>1833100</v>
       </c>
       <c r="J45" s="3">
-        <v>1244600</v>
+        <v>1289600</v>
       </c>
       <c r="K45" s="3">
         <v>4388200</v>
@@ -1814,25 +1817,25 @@
         <v>38</v>
       </c>
       <c r="D46" s="3">
-        <v>62491200</v>
+        <v>64751700</v>
       </c>
       <c r="E46" s="3">
-        <v>70657500</v>
+        <v>73213300</v>
       </c>
       <c r="F46" s="3">
-        <v>74151500</v>
+        <v>76833800</v>
       </c>
       <c r="G46" s="3">
-        <v>57782500</v>
+        <v>59872700</v>
       </c>
       <c r="H46" s="3">
-        <v>46765400</v>
+        <v>48457000</v>
       </c>
       <c r="I46" s="3">
-        <v>50477800</v>
+        <v>52303700</v>
       </c>
       <c r="J46" s="3">
-        <v>52281100</v>
+        <v>54172200</v>
       </c>
       <c r="K46" s="3">
         <v>52372400</v>
@@ -1847,25 +1850,25 @@
         <v>39</v>
       </c>
       <c r="D47" s="3">
-        <v>21546100</v>
+        <v>22325500</v>
       </c>
       <c r="E47" s="3">
-        <v>20627500</v>
+        <v>21373600</v>
       </c>
       <c r="F47" s="3">
-        <v>18608100</v>
+        <v>19281200</v>
       </c>
       <c r="G47" s="3">
-        <v>17971300</v>
+        <v>18621400</v>
       </c>
       <c r="H47" s="3">
-        <v>13351200</v>
+        <v>13834200</v>
       </c>
       <c r="I47" s="3">
-        <v>13904200</v>
+        <v>14407100</v>
       </c>
       <c r="J47" s="3">
-        <v>11079400</v>
+        <v>11480100</v>
       </c>
       <c r="K47" s="3">
         <v>7489800</v>
@@ -1880,25 +1883,25 @@
         <v>40</v>
       </c>
       <c r="D48" s="3">
-        <v>149095000</v>
+        <v>154489000</v>
       </c>
       <c r="E48" s="3">
-        <v>105782000</v>
+        <v>109609000</v>
       </c>
       <c r="F48" s="3">
-        <v>107842000</v>
+        <v>111743000</v>
       </c>
       <c r="G48" s="3">
-        <v>114956000</v>
+        <v>119114000</v>
       </c>
       <c r="H48" s="3">
-        <v>124150000</v>
+        <v>128641000</v>
       </c>
       <c r="I48" s="3">
-        <v>123502000</v>
+        <v>127970000</v>
       </c>
       <c r="J48" s="3">
-        <v>116364000</v>
+        <v>120574000</v>
       </c>
       <c r="K48" s="3">
         <v>108750000</v>
@@ -1913,25 +1916,25 @@
         <v>41</v>
       </c>
       <c r="D49" s="3">
-        <v>1219000</v>
+        <v>1263100</v>
       </c>
       <c r="E49" s="3">
-        <v>1216000</v>
+        <v>1260000</v>
       </c>
       <c r="F49" s="3">
-        <v>1210100</v>
+        <v>1253900</v>
       </c>
       <c r="G49" s="3">
-        <v>890400</v>
+        <v>922600</v>
       </c>
       <c r="H49" s="3">
-        <v>878900</v>
+        <v>910700</v>
       </c>
       <c r="I49" s="3">
-        <v>880300</v>
+        <v>912200</v>
       </c>
       <c r="J49" s="3">
-        <v>876700</v>
+        <v>908400</v>
       </c>
       <c r="K49" s="3">
         <v>897800</v>
@@ -2012,25 +2015,25 @@
         <v>44</v>
       </c>
       <c r="D52" s="3">
-        <v>11639200</v>
+        <v>12060200</v>
       </c>
       <c r="E52" s="3">
-        <v>24894700</v>
+        <v>25795200</v>
       </c>
       <c r="F52" s="3">
-        <v>21814400</v>
+        <v>22603500</v>
       </c>
       <c r="G52" s="3">
-        <v>18445100</v>
+        <v>19112300</v>
       </c>
       <c r="H52" s="3">
-        <v>17703500</v>
+        <v>18343900</v>
       </c>
       <c r="I52" s="3">
-        <v>14659200</v>
+        <v>15189500</v>
       </c>
       <c r="J52" s="3">
-        <v>13228000</v>
+        <v>13706500</v>
       </c>
       <c r="K52" s="3">
         <v>12235100</v>
@@ -2078,25 +2081,25 @@
         <v>46</v>
       </c>
       <c r="D54" s="3">
-        <v>245991000</v>
+        <v>254889000</v>
       </c>
       <c r="E54" s="3">
-        <v>223178000</v>
+        <v>231251000</v>
       </c>
       <c r="F54" s="3">
-        <v>223626000</v>
+        <v>231715000</v>
       </c>
       <c r="G54" s="3">
-        <v>210045000</v>
+        <v>217643000</v>
       </c>
       <c r="H54" s="3">
-        <v>202849000</v>
+        <v>210187000</v>
       </c>
       <c r="I54" s="3">
-        <v>203424000</v>
+        <v>210782000</v>
       </c>
       <c r="J54" s="3">
-        <v>193830000</v>
+        <v>200841000</v>
       </c>
       <c r="K54" s="3">
         <v>181745000</v>
@@ -2141,25 +2144,25 @@
         <v>49</v>
       </c>
       <c r="D57" s="3">
-        <v>28002800</v>
+        <v>29015800</v>
       </c>
       <c r="E57" s="3">
-        <v>27016800</v>
+        <v>27994100</v>
       </c>
       <c r="F57" s="3">
-        <v>28947900</v>
+        <v>29995100</v>
       </c>
       <c r="G57" s="3">
-        <v>25246900</v>
+        <v>26160100</v>
       </c>
       <c r="H57" s="3">
-        <v>18798800</v>
+        <v>19478800</v>
       </c>
       <c r="I57" s="3">
-        <v>28444500</v>
+        <v>29473400</v>
       </c>
       <c r="J57" s="3">
-        <v>29048200</v>
+        <v>30098900</v>
       </c>
       <c r="K57" s="3">
         <v>33177200</v>
@@ -2174,25 +2177,25 @@
         <v>50</v>
       </c>
       <c r="D58" s="3">
-        <v>13877000</v>
+        <v>14378900</v>
       </c>
       <c r="E58" s="3">
-        <v>8567600</v>
+        <v>8877500</v>
       </c>
       <c r="F58" s="3">
-        <v>11303800</v>
+        <v>11712700</v>
       </c>
       <c r="G58" s="3">
-        <v>10486600</v>
+        <v>10866000</v>
       </c>
       <c r="H58" s="3">
-        <v>16180900</v>
+        <v>16766200</v>
       </c>
       <c r="I58" s="3">
-        <v>24969200</v>
+        <v>25872400</v>
       </c>
       <c r="J58" s="3">
-        <v>22968000</v>
+        <v>23798800</v>
       </c>
       <c r="K58" s="3">
         <v>16641100</v>
@@ -2207,25 +2210,25 @@
         <v>51</v>
       </c>
       <c r="D59" s="3">
-        <v>38904800</v>
+        <v>40312100</v>
       </c>
       <c r="E59" s="3">
-        <v>43619800</v>
+        <v>45197600</v>
       </c>
       <c r="F59" s="3">
-        <v>40963400</v>
+        <v>42445200</v>
       </c>
       <c r="G59" s="3">
-        <v>32320200</v>
+        <v>33489300</v>
       </c>
       <c r="H59" s="3">
-        <v>29890800</v>
+        <v>30972000</v>
       </c>
       <c r="I59" s="3">
-        <v>31278900</v>
+        <v>32410400</v>
       </c>
       <c r="J59" s="3">
-        <v>28130400</v>
+        <v>29148000</v>
       </c>
       <c r="K59" s="3">
         <v>23840500</v>
@@ -2240,25 +2243,25 @@
         <v>52</v>
       </c>
       <c r="D60" s="3">
-        <v>80784600</v>
+        <v>83706800</v>
       </c>
       <c r="E60" s="3">
-        <v>79204100</v>
+        <v>82069200</v>
       </c>
       <c r="F60" s="3">
-        <v>81215200</v>
+        <v>84152900</v>
       </c>
       <c r="G60" s="3">
-        <v>68053700</v>
+        <v>70515400</v>
       </c>
       <c r="H60" s="3">
-        <v>64870500</v>
+        <v>67217100</v>
       </c>
       <c r="I60" s="3">
-        <v>84692700</v>
+        <v>87756200</v>
       </c>
       <c r="J60" s="3">
-        <v>80146600</v>
+        <v>83045700</v>
       </c>
       <c r="K60" s="3">
         <v>73658800</v>
@@ -2273,25 +2276,25 @@
         <v>53</v>
       </c>
       <c r="D61" s="3">
-        <v>33141700</v>
+        <v>34340500</v>
       </c>
       <c r="E61" s="3">
-        <v>13108700</v>
+        <v>13582900</v>
       </c>
       <c r="F61" s="3">
-        <v>13893200</v>
+        <v>14395800</v>
       </c>
       <c r="G61" s="3">
-        <v>16461200</v>
+        <v>17056700</v>
       </c>
       <c r="H61" s="3">
-        <v>19586800</v>
+        <v>20295300</v>
       </c>
       <c r="I61" s="3">
-        <v>21154600</v>
+        <v>21919900</v>
       </c>
       <c r="J61" s="3">
-        <v>20405900</v>
+        <v>21144000</v>
       </c>
       <c r="K61" s="3">
         <v>23260400</v>
@@ -2306,25 +2309,25 @@
         <v>54</v>
       </c>
       <c r="D62" s="3">
-        <v>9307500</v>
+        <v>9644100</v>
       </c>
       <c r="E62" s="3">
-        <v>10813100</v>
+        <v>11204200</v>
       </c>
       <c r="F62" s="3">
-        <v>8976400</v>
+        <v>9301100</v>
       </c>
       <c r="G62" s="3">
-        <v>9024200</v>
+        <v>9350600</v>
       </c>
       <c r="H62" s="3">
-        <v>7923100</v>
+        <v>8209700</v>
       </c>
       <c r="I62" s="3">
-        <v>7092400</v>
+        <v>7348900</v>
       </c>
       <c r="J62" s="3">
-        <v>6149900</v>
+        <v>6372400</v>
       </c>
       <c r="K62" s="3">
         <v>6193700</v>
@@ -2438,25 +2441,25 @@
         <v>57</v>
       </c>
       <c r="D66" s="3">
-        <v>142532000</v>
+        <v>147687000</v>
       </c>
       <c r="E66" s="3">
-        <v>122643000</v>
+        <v>127080000</v>
       </c>
       <c r="F66" s="3">
-        <v>121853000</v>
+        <v>126261000</v>
       </c>
       <c r="G66" s="3">
-        <v>110392000</v>
+        <v>114385000</v>
       </c>
       <c r="H66" s="3">
-        <v>108073000</v>
+        <v>111983000</v>
       </c>
       <c r="I66" s="3">
-        <v>120303000</v>
+        <v>124655000</v>
       </c>
       <c r="J66" s="3">
-        <v>114106000</v>
+        <v>118234000</v>
       </c>
       <c r="K66" s="3">
         <v>108439000</v>
@@ -2618,25 +2621,25 @@
         <v>63</v>
       </c>
       <c r="D72" s="3">
-        <v>78661900</v>
+        <v>81507300</v>
       </c>
       <c r="E72" s="3">
-        <v>75737300</v>
+        <v>78476900</v>
       </c>
       <c r="F72" s="3">
-        <v>76975700</v>
+        <v>79760200</v>
       </c>
       <c r="G72" s="3">
-        <v>74796200</v>
+        <v>77501800</v>
       </c>
       <c r="H72" s="3">
-        <v>70928900</v>
+        <v>73494700</v>
       </c>
       <c r="I72" s="3">
-        <v>61546500</v>
+        <v>63772800</v>
       </c>
       <c r="J72" s="3">
-        <v>58362600</v>
+        <v>60473800</v>
       </c>
       <c r="K72" s="3">
         <v>56679900</v>
@@ -2750,25 +2753,25 @@
         <v>67</v>
       </c>
       <c r="D76" s="3">
-        <v>103459000</v>
+        <v>107202000</v>
       </c>
       <c r="E76" s="3">
-        <v>100535000</v>
+        <v>104171000</v>
       </c>
       <c r="F76" s="3">
-        <v>101773000</v>
+        <v>105454000</v>
       </c>
       <c r="G76" s="3">
-        <v>99652900</v>
+        <v>103258000</v>
       </c>
       <c r="H76" s="3">
-        <v>94775800</v>
+        <v>98204100</v>
       </c>
       <c r="I76" s="3">
-        <v>83120600</v>
+        <v>86127300</v>
       </c>
       <c r="J76" s="3">
-        <v>79723400</v>
+        <v>82607300</v>
       </c>
       <c r="K76" s="3">
         <v>73305900</v>
@@ -2854,25 +2857,25 @@
         <v>27</v>
       </c>
       <c r="D81" s="3">
-        <v>8042800</v>
+        <v>8345600</v>
       </c>
       <c r="E81" s="3">
-        <v>8624100</v>
+        <v>8948800</v>
       </c>
       <c r="F81" s="3">
-        <v>7172100</v>
+        <v>7442200</v>
       </c>
       <c r="G81" s="3">
-        <v>6532200</v>
+        <v>6778200</v>
       </c>
       <c r="H81" s="3">
-        <v>4550400</v>
+        <v>4721700</v>
       </c>
       <c r="I81" s="3">
-        <v>6503400</v>
+        <v>6748300</v>
       </c>
       <c r="J81" s="3">
-        <v>9255800</v>
+        <v>9604400</v>
       </c>
       <c r="K81" s="3">
         <v>9165400</v>
@@ -2902,25 +2905,25 @@
         <v>71</v>
       </c>
       <c r="D83" s="3">
-        <v>15229300</v>
+        <v>15802800</v>
       </c>
       <c r="E83" s="3">
-        <v>15391000</v>
+        <v>15970500</v>
       </c>
       <c r="F83" s="3">
-        <v>16138800</v>
+        <v>16746500</v>
       </c>
       <c r="G83" s="3">
-        <v>15175200</v>
+        <v>15746600</v>
       </c>
       <c r="H83" s="3">
-        <v>13500500</v>
+        <v>14008900</v>
       </c>
       <c r="I83" s="3">
-        <v>12610000</v>
+        <v>13084800</v>
       </c>
       <c r="J83" s="3">
-        <v>11373800</v>
+        <v>11802100</v>
       </c>
       <c r="K83" s="3">
         <v>10109000</v>
@@ -3100,25 +3103,25 @@
         <v>77</v>
       </c>
       <c r="D89" s="3">
-        <v>21472700</v>
+        <v>22281200</v>
       </c>
       <c r="E89" s="3">
-        <v>24614500</v>
+        <v>25541300</v>
       </c>
       <c r="F89" s="3">
-        <v>26723300</v>
+        <v>27729500</v>
       </c>
       <c r="G89" s="3">
-        <v>30027400</v>
+        <v>31158100</v>
       </c>
       <c r="H89" s="3">
-        <v>23197000</v>
+        <v>24070400</v>
       </c>
       <c r="I89" s="3">
-        <v>20762600</v>
+        <v>21544400</v>
       </c>
       <c r="J89" s="3">
-        <v>21258900</v>
+        <v>22059400</v>
       </c>
       <c r="K89" s="3">
         <v>20428700</v>
@@ -3148,25 +3151,25 @@
         <v>79</v>
       </c>
       <c r="D91" s="3">
-        <v>-18145100</v>
+        <v>-18828300</v>
       </c>
       <c r="E91" s="3">
-        <v>-13261600</v>
+        <v>-13761000</v>
       </c>
       <c r="F91" s="3">
-        <v>-8893200</v>
+        <v>-9228100</v>
       </c>
       <c r="G91" s="3">
-        <v>-9162800</v>
+        <v>-9507800</v>
       </c>
       <c r="H91" s="3">
-        <v>-13365500</v>
+        <v>-13868700</v>
       </c>
       <c r="I91" s="3">
-        <v>-15822100</v>
+        <v>-16417800</v>
       </c>
       <c r="J91" s="3">
-        <v>-20290300</v>
+        <v>-21054300</v>
       </c>
       <c r="K91" s="3">
         <v>-20899700</v>
@@ -3247,25 +3250,25 @@
         <v>82</v>
       </c>
       <c r="D94" s="3">
-        <v>-16860000</v>
+        <v>-17494800</v>
       </c>
       <c r="E94" s="3">
-        <v>-9296400</v>
+        <v>-9646500</v>
       </c>
       <c r="F94" s="3">
-        <v>-20339400</v>
+        <v>-21105300</v>
       </c>
       <c r="G94" s="3">
-        <v>-9267700</v>
+        <v>-9616700</v>
       </c>
       <c r="H94" s="3">
-        <v>-16336000</v>
+        <v>-16951100</v>
       </c>
       <c r="I94" s="3">
-        <v>-18563300</v>
+        <v>-19262300</v>
       </c>
       <c r="J94" s="3">
-        <v>-25016500</v>
+        <v>-25958400</v>
       </c>
       <c r="K94" s="3">
         <v>-23272000</v>
@@ -3295,25 +3298,25 @@
         <v>84</v>
       </c>
       <c r="D96" s="3">
-        <v>-6439300</v>
+        <v>-6681700</v>
       </c>
       <c r="E96" s="3">
-        <v>-9489100</v>
+        <v>-9846400</v>
       </c>
       <c r="F96" s="3">
-        <v>-4575200</v>
+        <v>-4747400</v>
       </c>
       <c r="G96" s="3">
-        <v>-2362000</v>
+        <v>-2450900</v>
       </c>
       <c r="H96" s="3">
-        <v>-3389000</v>
+        <v>-3516600</v>
       </c>
       <c r="I96" s="3">
-        <v>-3923200</v>
+        <v>-4070900</v>
       </c>
       <c r="J96" s="3">
-        <v>-3960600</v>
+        <v>-4109700</v>
       </c>
       <c r="K96" s="3">
         <v>-3656700</v>
@@ -3427,25 +3430,25 @@
         <v>88</v>
       </c>
       <c r="D100" s="3">
-        <v>-11856400</v>
+        <v>-12302900</v>
       </c>
       <c r="E100" s="3">
-        <v>-15571900</v>
+        <v>-16158300</v>
       </c>
       <c r="F100" s="3">
-        <v>-7909000</v>
+        <v>-8206800</v>
       </c>
       <c r="G100" s="3">
-        <v>-13022900</v>
+        <v>-13513200</v>
       </c>
       <c r="H100" s="3">
-        <v>1272700</v>
+        <v>1320600</v>
       </c>
       <c r="I100" s="3">
-        <v>-2998100</v>
+        <v>-3111000</v>
       </c>
       <c r="J100" s="3">
-        <v>4411400</v>
+        <v>4577500</v>
       </c>
       <c r="K100" s="3">
         <v>807500</v>
@@ -3460,25 +3463,25 @@
         <v>89</v>
       </c>
       <c r="D101" s="3">
-        <v>20600</v>
+        <v>21300</v>
       </c>
       <c r="E101" s="3">
-        <v>72500</v>
+        <v>75200</v>
       </c>
       <c r="F101" s="3">
-        <v>-49400</v>
+        <v>-51300</v>
       </c>
       <c r="G101" s="3">
-        <v>35800</v>
+        <v>37200</v>
       </c>
       <c r="H101" s="3">
-        <v>41000</v>
+        <v>42600</v>
       </c>
       <c r="I101" s="3">
-        <v>2200</v>
+        <v>2300</v>
       </c>
       <c r="J101" s="3">
-        <v>-11500</v>
+        <v>-11900</v>
       </c>
       <c r="K101" s="3">
         <v>-300</v>
@@ -3493,25 +3496,25 @@
         <v>90</v>
       </c>
       <c r="D102" s="3">
-        <v>-7223200</v>
+        <v>-7495200</v>
       </c>
       <c r="E102" s="3">
-        <v>-181400</v>
+        <v>-188200</v>
       </c>
       <c r="F102" s="3">
-        <v>-1574600</v>
+        <v>-1633800</v>
       </c>
       <c r="G102" s="3">
-        <v>7772700</v>
+        <v>8065300</v>
       </c>
       <c r="H102" s="3">
-        <v>8174600</v>
+        <v>8482400</v>
       </c>
       <c r="I102" s="3">
-        <v>-796500</v>
+        <v>-826500</v>
       </c>
       <c r="J102" s="3">
-        <v>642400</v>
+        <v>666600</v>
       </c>
       <c r="K102" s="3">
         <v>-2036100</v>

--- a/AAII_Financials/Yearly/SNP_YR_FIN.xlsx
+++ b/AAII_Financials/Yearly/SNP_YR_FIN.xlsx
@@ -717,25 +717,25 @@
         <v>3</v>
       </c>
       <c r="D8" s="3">
-        <v>430780200</v>
+        <v>451217300</v>
       </c>
       <c r="E8" s="3">
-        <v>419885900</v>
+        <v>439806100</v>
       </c>
       <c r="F8" s="3">
-        <v>342770800</v>
+        <v>359032600</v>
       </c>
       <c r="G8" s="3">
-        <v>280426200</v>
+        <v>293730200</v>
       </c>
       <c r="H8" s="3">
-        <v>293419100</v>
+        <v>307339400</v>
       </c>
       <c r="I8" s="3">
-        <v>410407500</v>
+        <v>429878000</v>
       </c>
       <c r="J8" s="3">
-        <v>418307600</v>
+        <v>438152900</v>
       </c>
       <c r="K8" s="3">
         <v>399741700</v>
@@ -750,25 +750,25 @@
         <v>4</v>
       </c>
       <c r="D9" s="3">
-        <v>365448800</v>
+        <v>374860900</v>
       </c>
       <c r="E9" s="3">
-        <v>353809200</v>
+        <v>362502100</v>
       </c>
       <c r="F9" s="3">
-        <v>277431600</v>
+        <v>282579500</v>
       </c>
       <c r="G9" s="3">
-        <v>218955300</v>
+        <v>221789100</v>
       </c>
       <c r="H9" s="3">
-        <v>235273000</v>
+        <v>238075300</v>
       </c>
       <c r="I9" s="3">
-        <v>348939500</v>
+        <v>357246400</v>
       </c>
       <c r="J9" s="3">
-        <v>354611700</v>
+        <v>362962700</v>
       </c>
       <c r="K9" s="3">
         <v>337603600</v>
@@ -783,25 +783,25 @@
         <v>5</v>
       </c>
       <c r="D10" s="3">
-        <v>65331400</v>
+        <v>76356300</v>
       </c>
       <c r="E10" s="3">
-        <v>66076700</v>
+        <v>77304000</v>
       </c>
       <c r="F10" s="3">
-        <v>65339300</v>
+        <v>76453100</v>
       </c>
       <c r="G10" s="3">
-        <v>61470900</v>
+        <v>71941000</v>
       </c>
       <c r="H10" s="3">
-        <v>58146000</v>
+        <v>69264200</v>
       </c>
       <c r="I10" s="3">
-        <v>61468000</v>
+        <v>72631700</v>
       </c>
       <c r="J10" s="3">
-        <v>63695800</v>
+        <v>75190200</v>
       </c>
       <c r="K10" s="3">
         <v>62138200</v>
@@ -831,25 +831,25 @@
         <v>7</v>
       </c>
       <c r="D12" s="3">
-        <v>1526400</v>
+        <v>1598800</v>
       </c>
       <c r="E12" s="3">
-        <v>1560400</v>
+        <v>1634400</v>
       </c>
       <c r="F12" s="3">
-        <v>1610500</v>
+        <v>1686900</v>
       </c>
       <c r="G12" s="3">
-        <v>1602600</v>
+        <v>1678600</v>
       </c>
       <c r="H12" s="3">
-        <v>1519000</v>
+        <v>1591000</v>
       </c>
       <c r="I12" s="3">
-        <v>1593000</v>
+        <v>1668600</v>
       </c>
       <c r="J12" s="3">
-        <v>1826000</v>
+        <v>1912600</v>
       </c>
       <c r="K12" s="3">
         <v>2228700</v>
@@ -906,7 +906,7 @@
         <v>0</v>
       </c>
       <c r="G14" s="3">
-        <v>-2986200</v>
+        <v>-3127900</v>
       </c>
       <c r="H14" s="3">
         <v>0</v>
@@ -930,25 +930,25 @@
         <v>10</v>
       </c>
       <c r="D15" s="3">
-        <v>15802800</v>
+        <v>16552500</v>
       </c>
       <c r="E15" s="3">
-        <v>15970500</v>
+        <v>16728200</v>
       </c>
       <c r="F15" s="3">
-        <v>16746500</v>
+        <v>17541000</v>
       </c>
       <c r="G15" s="3">
-        <v>15746600</v>
+        <v>16493600</v>
       </c>
       <c r="H15" s="3">
-        <v>14008900</v>
+        <v>14673500</v>
       </c>
       <c r="I15" s="3">
-        <v>13084800</v>
+        <v>13705600</v>
       </c>
       <c r="J15" s="3">
-        <v>11802100</v>
+        <v>12362000</v>
       </c>
       <c r="K15" s="3">
         <v>10109000</v>
@@ -975,25 +975,25 @@
         <v>11</v>
       </c>
       <c r="D17" s="3">
-        <v>418261700</v>
+        <v>438104800</v>
       </c>
       <c r="E17" s="3">
-        <v>407938700</v>
+        <v>427292100</v>
       </c>
       <c r="F17" s="3">
-        <v>332391200</v>
+        <v>348160500</v>
       </c>
       <c r="G17" s="3">
-        <v>269215500</v>
+        <v>281987600</v>
       </c>
       <c r="H17" s="3">
-        <v>285166800</v>
+        <v>298695700</v>
       </c>
       <c r="I17" s="3">
-        <v>399735000</v>
+        <v>418699200</v>
       </c>
       <c r="J17" s="3">
-        <v>404251500</v>
+        <v>423430000</v>
       </c>
       <c r="K17" s="3">
         <v>385585700</v>
@@ -1008,25 +1008,25 @@
         <v>12</v>
       </c>
       <c r="D18" s="3">
-        <v>12518500</v>
+        <v>13112400</v>
       </c>
       <c r="E18" s="3">
-        <v>11947200</v>
+        <v>12514000</v>
       </c>
       <c r="F18" s="3">
-        <v>10379600</v>
+        <v>10872000</v>
       </c>
       <c r="G18" s="3">
-        <v>11210700</v>
+        <v>11742600</v>
       </c>
       <c r="H18" s="3">
-        <v>8252300</v>
+        <v>8643800</v>
       </c>
       <c r="I18" s="3">
-        <v>10672500</v>
+        <v>11178800</v>
       </c>
       <c r="J18" s="3">
-        <v>14056100</v>
+        <v>14722900</v>
       </c>
       <c r="K18" s="3">
         <v>14156000</v>
@@ -1056,25 +1056,25 @@
         <v>14</v>
       </c>
       <c r="D20" s="3">
-        <v>2805000</v>
+        <v>2938000</v>
       </c>
       <c r="E20" s="3">
-        <v>3300900</v>
+        <v>3457500</v>
       </c>
       <c r="F20" s="3">
-        <v>3031200</v>
+        <v>3175000</v>
       </c>
       <c r="G20" s="3">
-        <v>1615000</v>
+        <v>1691600</v>
       </c>
       <c r="H20" s="3">
-        <v>964500</v>
+        <v>1010200</v>
       </c>
       <c r="I20" s="3">
-        <v>323400</v>
+        <v>338800</v>
       </c>
       <c r="J20" s="3">
-        <v>1160700</v>
+        <v>1215700</v>
       </c>
       <c r="K20" s="3">
         <v>335900</v>
@@ -1089,25 +1089,25 @@
         <v>15</v>
       </c>
       <c r="D21" s="3">
-        <v>31066400</v>
+        <v>32601900</v>
       </c>
       <c r="E21" s="3">
-        <v>31158200</v>
+        <v>32698600</v>
       </c>
       <c r="F21" s="3">
-        <v>30093900</v>
+        <v>31586900</v>
       </c>
       <c r="G21" s="3">
-        <v>28512600</v>
+        <v>29926700</v>
       </c>
       <c r="H21" s="3">
-        <v>23172600</v>
+        <v>24326500</v>
       </c>
       <c r="I21" s="3">
-        <v>24031200</v>
+        <v>25222300</v>
       </c>
       <c r="J21" s="3">
-        <v>26974200</v>
+        <v>28299900</v>
       </c>
       <c r="K21" s="3">
         <v>24597400</v>
@@ -1122,25 +1122,25 @@
         <v>16</v>
       </c>
       <c r="D22" s="3">
-        <v>2263400</v>
+        <v>2370800</v>
       </c>
       <c r="E22" s="3">
-        <v>854400</v>
+        <v>894900</v>
       </c>
       <c r="F22" s="3">
-        <v>819800</v>
+        <v>858700</v>
       </c>
       <c r="G22" s="3">
-        <v>1185400</v>
+        <v>1241600</v>
       </c>
       <c r="H22" s="3">
-        <v>1024200</v>
+        <v>1072800</v>
       </c>
       <c r="I22" s="3">
-        <v>1482800</v>
+        <v>1553100</v>
       </c>
       <c r="J22" s="3">
-        <v>1412400</v>
+        <v>1479400</v>
       </c>
       <c r="K22" s="3">
         <v>1486600</v>
@@ -1155,25 +1155,25 @@
         <v>17</v>
       </c>
       <c r="D23" s="3">
-        <v>13060100</v>
+        <v>13679700</v>
       </c>
       <c r="E23" s="3">
-        <v>14393700</v>
+        <v>15076600</v>
       </c>
       <c r="F23" s="3">
-        <v>12591000</v>
+        <v>13188300</v>
       </c>
       <c r="G23" s="3">
-        <v>11640300</v>
+        <v>12192600</v>
       </c>
       <c r="H23" s="3">
-        <v>8192600</v>
+        <v>8581200</v>
       </c>
       <c r="I23" s="3">
-        <v>9513100</v>
+        <v>9964500</v>
       </c>
       <c r="J23" s="3">
-        <v>13804400</v>
+        <v>14459300</v>
       </c>
       <c r="K23" s="3">
         <v>13005300</v>
@@ -1188,25 +1188,25 @@
         <v>18</v>
       </c>
       <c r="D24" s="3">
-        <v>2598700</v>
+        <v>2722000</v>
       </c>
       <c r="E24" s="3">
-        <v>2935500</v>
+        <v>3074800</v>
       </c>
       <c r="F24" s="3">
-        <v>2364200</v>
+        <v>2476400</v>
       </c>
       <c r="G24" s="3">
-        <v>3007300</v>
+        <v>3149900</v>
       </c>
       <c r="H24" s="3">
-        <v>1831800</v>
+        <v>1918700</v>
       </c>
       <c r="I24" s="3">
-        <v>2551800</v>
+        <v>2672900</v>
       </c>
       <c r="J24" s="3">
-        <v>3596300</v>
+        <v>3766900</v>
       </c>
       <c r="K24" s="3">
         <v>3421400</v>
@@ -1254,25 +1254,25 @@
         <v>20</v>
       </c>
       <c r="D26" s="3">
-        <v>10461400</v>
+        <v>10957700</v>
       </c>
       <c r="E26" s="3">
-        <v>11458200</v>
+        <v>12001800</v>
       </c>
       <c r="F26" s="3">
-        <v>10226800</v>
+        <v>10712000</v>
       </c>
       <c r="G26" s="3">
-        <v>8633100</v>
+        <v>9042600</v>
       </c>
       <c r="H26" s="3">
-        <v>6360800</v>
+        <v>6662600</v>
       </c>
       <c r="I26" s="3">
-        <v>6961300</v>
+        <v>7291600</v>
       </c>
       <c r="J26" s="3">
-        <v>10208100</v>
+        <v>10692400</v>
       </c>
       <c r="K26" s="3">
         <v>9583900</v>
@@ -1287,25 +1287,25 @@
         <v>21</v>
       </c>
       <c r="D27" s="3">
-        <v>8345600</v>
+        <v>8741600</v>
       </c>
       <c r="E27" s="3">
-        <v>8948800</v>
+        <v>9373300</v>
       </c>
       <c r="F27" s="3">
-        <v>7442200</v>
+        <v>7795200</v>
       </c>
       <c r="G27" s="3">
-        <v>6778200</v>
+        <v>7099700</v>
       </c>
       <c r="H27" s="3">
-        <v>4721700</v>
+        <v>4945700</v>
       </c>
       <c r="I27" s="3">
-        <v>6748300</v>
+        <v>7068400</v>
       </c>
       <c r="J27" s="3">
-        <v>9604400</v>
+        <v>10060000</v>
       </c>
       <c r="K27" s="3">
         <v>9165400</v>
@@ -1452,25 +1452,25 @@
         <v>26</v>
       </c>
       <c r="D32" s="3">
-        <v>-2805000</v>
+        <v>-2938000</v>
       </c>
       <c r="E32" s="3">
-        <v>-3300900</v>
+        <v>-3457500</v>
       </c>
       <c r="F32" s="3">
-        <v>-3031200</v>
+        <v>-3175000</v>
       </c>
       <c r="G32" s="3">
-        <v>-1615000</v>
+        <v>-1691600</v>
       </c>
       <c r="H32" s="3">
-        <v>-964500</v>
+        <v>-1010200</v>
       </c>
       <c r="I32" s="3">
-        <v>-323400</v>
+        <v>-338800</v>
       </c>
       <c r="J32" s="3">
-        <v>-1160700</v>
+        <v>-1215700</v>
       </c>
       <c r="K32" s="3">
         <v>-335900</v>
@@ -1485,25 +1485,25 @@
         <v>27</v>
       </c>
       <c r="D33" s="3">
-        <v>8345600</v>
+        <v>8741600</v>
       </c>
       <c r="E33" s="3">
-        <v>8948800</v>
+        <v>9373300</v>
       </c>
       <c r="F33" s="3">
-        <v>7442200</v>
+        <v>7795200</v>
       </c>
       <c r="G33" s="3">
-        <v>6778200</v>
+        <v>7099700</v>
       </c>
       <c r="H33" s="3">
-        <v>4721700</v>
+        <v>4945700</v>
       </c>
       <c r="I33" s="3">
-        <v>6748300</v>
+        <v>7068400</v>
       </c>
       <c r="J33" s="3">
-        <v>9604400</v>
+        <v>10060000</v>
       </c>
       <c r="K33" s="3">
         <v>9165400</v>
@@ -1551,25 +1551,25 @@
         <v>29</v>
       </c>
       <c r="D35" s="3">
-        <v>8345600</v>
+        <v>8741600</v>
       </c>
       <c r="E35" s="3">
-        <v>8948800</v>
+        <v>9373300</v>
       </c>
       <c r="F35" s="3">
-        <v>7442200</v>
+        <v>7795200</v>
       </c>
       <c r="G35" s="3">
-        <v>6778200</v>
+        <v>7099700</v>
       </c>
       <c r="H35" s="3">
-        <v>4721700</v>
+        <v>4945700</v>
       </c>
       <c r="I35" s="3">
-        <v>6748300</v>
+        <v>7068400</v>
       </c>
       <c r="J35" s="3">
-        <v>9604400</v>
+        <v>10060000</v>
       </c>
       <c r="K35" s="3">
         <v>9165400</v>
@@ -1652,25 +1652,25 @@
         <v>33</v>
       </c>
       <c r="D41" s="3">
-        <v>8759300</v>
+        <v>9174800</v>
       </c>
       <c r="E41" s="3">
-        <v>16254400</v>
+        <v>17025600</v>
       </c>
       <c r="F41" s="3">
-        <v>16442700</v>
+        <v>17222700</v>
       </c>
       <c r="G41" s="3">
-        <v>18076500</v>
+        <v>18934100</v>
       </c>
       <c r="H41" s="3">
-        <v>10011100</v>
+        <v>10486100</v>
       </c>
       <c r="I41" s="3">
-        <v>1358600</v>
+        <v>1423100</v>
       </c>
       <c r="J41" s="3">
-        <v>2185100</v>
+        <v>2288800</v>
       </c>
       <c r="K41" s="3">
         <v>1500200</v>
@@ -1685,25 +1685,25 @@
         <v>34</v>
       </c>
       <c r="D42" s="3">
-        <v>11553800</v>
+        <v>12101900</v>
       </c>
       <c r="E42" s="3">
-        <v>11738200</v>
+        <v>12295100</v>
       </c>
       <c r="F42" s="3">
-        <v>14956100</v>
+        <v>15665600</v>
       </c>
       <c r="G42" s="3">
-        <v>2618400</v>
+        <v>2742600</v>
       </c>
       <c r="H42" s="3">
-        <v>106500</v>
+        <v>111500</v>
       </c>
       <c r="I42" s="3">
-        <v>108200</v>
+        <v>113300</v>
       </c>
       <c r="J42" s="3">
-        <v>8000</v>
+        <v>8400</v>
       </c>
       <c r="K42" s="3">
         <v>58500</v>
@@ -1718,25 +1718,25 @@
         <v>35</v>
       </c>
       <c r="D43" s="3">
-        <v>16095800</v>
+        <v>16859500</v>
       </c>
       <c r="E43" s="3">
-        <v>17224600</v>
+        <v>18041700</v>
       </c>
       <c r="F43" s="3">
-        <v>18187400</v>
+        <v>19050300</v>
       </c>
       <c r="G43" s="3">
-        <v>16170800</v>
+        <v>16938000</v>
       </c>
       <c r="H43" s="3">
-        <v>16049100</v>
+        <v>16810500</v>
       </c>
       <c r="I43" s="3">
-        <v>21668200</v>
+        <v>22696200</v>
       </c>
       <c r="J43" s="3">
-        <v>18462100</v>
+        <v>19338000</v>
       </c>
       <c r="K43" s="3">
         <v>15109200</v>
@@ -1751,25 +1751,25 @@
         <v>36</v>
       </c>
       <c r="D44" s="3">
-        <v>27948400</v>
+        <v>29274300</v>
       </c>
       <c r="E44" s="3">
-        <v>26807100</v>
+        <v>28078900</v>
       </c>
       <c r="F44" s="3">
-        <v>27113400</v>
+        <v>28399700</v>
       </c>
       <c r="G44" s="3">
-        <v>22730100</v>
+        <v>23808500</v>
       </c>
       <c r="H44" s="3">
-        <v>21146600</v>
+        <v>22149900</v>
       </c>
       <c r="I44" s="3">
-        <v>27335600</v>
+        <v>28632500</v>
       </c>
       <c r="J44" s="3">
-        <v>32227400</v>
+        <v>33756300</v>
       </c>
       <c r="K44" s="3">
         <v>31316200</v>
@@ -1784,25 +1784,25 @@
         <v>37</v>
       </c>
       <c r="D45" s="3">
-        <v>394400</v>
+        <v>413200</v>
       </c>
       <c r="E45" s="3">
-        <v>1189000</v>
+        <v>1245400</v>
       </c>
       <c r="F45" s="3">
-        <v>134200</v>
+        <v>140600</v>
       </c>
       <c r="G45" s="3">
-        <v>277000</v>
+        <v>290100</v>
       </c>
       <c r="H45" s="3">
-        <v>1143700</v>
+        <v>1197900</v>
       </c>
       <c r="I45" s="3">
-        <v>1833100</v>
+        <v>1920100</v>
       </c>
       <c r="J45" s="3">
-        <v>1289600</v>
+        <v>1350800</v>
       </c>
       <c r="K45" s="3">
         <v>4388200</v>
@@ -1817,25 +1817,25 @@
         <v>38</v>
       </c>
       <c r="D46" s="3">
-        <v>64751700</v>
+        <v>67823600</v>
       </c>
       <c r="E46" s="3">
-        <v>73213300</v>
+        <v>76686700</v>
       </c>
       <c r="F46" s="3">
-        <v>76833800</v>
+        <v>80478900</v>
       </c>
       <c r="G46" s="3">
-        <v>59872700</v>
+        <v>62713100</v>
       </c>
       <c r="H46" s="3">
-        <v>48457000</v>
+        <v>50755900</v>
       </c>
       <c r="I46" s="3">
-        <v>52303700</v>
+        <v>54785100</v>
       </c>
       <c r="J46" s="3">
-        <v>54172200</v>
+        <v>56742300</v>
       </c>
       <c r="K46" s="3">
         <v>52372400</v>
@@ -1850,25 +1850,25 @@
         <v>39</v>
       </c>
       <c r="D47" s="3">
-        <v>22325500</v>
+        <v>23384600</v>
       </c>
       <c r="E47" s="3">
-        <v>21373600</v>
+        <v>22387700</v>
       </c>
       <c r="F47" s="3">
-        <v>19281200</v>
+        <v>20195900</v>
       </c>
       <c r="G47" s="3">
-        <v>18621400</v>
+        <v>19504800</v>
       </c>
       <c r="H47" s="3">
-        <v>13834200</v>
+        <v>14490500</v>
       </c>
       <c r="I47" s="3">
-        <v>14407100</v>
+        <v>15090600</v>
       </c>
       <c r="J47" s="3">
-        <v>11480100</v>
+        <v>12024800</v>
       </c>
       <c r="K47" s="3">
         <v>7489800</v>
@@ -1883,25 +1883,25 @@
         <v>40</v>
       </c>
       <c r="D48" s="3">
-        <v>154489000</v>
+        <v>161818000</v>
       </c>
       <c r="E48" s="3">
-        <v>109609000</v>
+        <v>114809000</v>
       </c>
       <c r="F48" s="3">
-        <v>111743000</v>
+        <v>117044000</v>
       </c>
       <c r="G48" s="3">
-        <v>119114000</v>
+        <v>124765000</v>
       </c>
       <c r="H48" s="3">
-        <v>128641000</v>
+        <v>134744000</v>
       </c>
       <c r="I48" s="3">
-        <v>127970000</v>
+        <v>134041000</v>
       </c>
       <c r="J48" s="3">
-        <v>120574000</v>
+        <v>126294000</v>
       </c>
       <c r="K48" s="3">
         <v>108750000</v>
@@ -1916,25 +1916,25 @@
         <v>41</v>
       </c>
       <c r="D49" s="3">
-        <v>1263100</v>
+        <v>1323000</v>
       </c>
       <c r="E49" s="3">
-        <v>1260000</v>
+        <v>1319800</v>
       </c>
       <c r="F49" s="3">
-        <v>1253900</v>
+        <v>1313400</v>
       </c>
       <c r="G49" s="3">
-        <v>922600</v>
+        <v>966400</v>
       </c>
       <c r="H49" s="3">
-        <v>910700</v>
+        <v>953900</v>
       </c>
       <c r="I49" s="3">
-        <v>912200</v>
+        <v>955500</v>
       </c>
       <c r="J49" s="3">
-        <v>908400</v>
+        <v>951500</v>
       </c>
       <c r="K49" s="3">
         <v>897800</v>
@@ -2015,25 +2015,25 @@
         <v>44</v>
       </c>
       <c r="D52" s="3">
-        <v>12060200</v>
+        <v>12632300</v>
       </c>
       <c r="E52" s="3">
-        <v>25795200</v>
+        <v>27018900</v>
       </c>
       <c r="F52" s="3">
-        <v>22603500</v>
+        <v>23675800</v>
       </c>
       <c r="G52" s="3">
-        <v>19112300</v>
+        <v>20019000</v>
       </c>
       <c r="H52" s="3">
-        <v>18343900</v>
+        <v>19214100</v>
       </c>
       <c r="I52" s="3">
-        <v>15189500</v>
+        <v>15910100</v>
       </c>
       <c r="J52" s="3">
-        <v>13706500</v>
+        <v>14356800</v>
       </c>
       <c r="K52" s="3">
         <v>12235100</v>
@@ -2081,25 +2081,25 @@
         <v>46</v>
       </c>
       <c r="D54" s="3">
-        <v>254889000</v>
+        <v>266981000</v>
       </c>
       <c r="E54" s="3">
-        <v>231251000</v>
+        <v>242222000</v>
       </c>
       <c r="F54" s="3">
-        <v>231715000</v>
+        <v>242708000</v>
       </c>
       <c r="G54" s="3">
-        <v>217643000</v>
+        <v>227968000</v>
       </c>
       <c r="H54" s="3">
-        <v>210187000</v>
+        <v>220158000</v>
       </c>
       <c r="I54" s="3">
-        <v>210782000</v>
+        <v>220782000</v>
       </c>
       <c r="J54" s="3">
-        <v>200841000</v>
+        <v>210369000</v>
       </c>
       <c r="K54" s="3">
         <v>181745000</v>
@@ -2144,25 +2144,25 @@
         <v>49</v>
       </c>
       <c r="D57" s="3">
-        <v>29015800</v>
+        <v>30392400</v>
       </c>
       <c r="E57" s="3">
-        <v>27994100</v>
+        <v>29322200</v>
       </c>
       <c r="F57" s="3">
-        <v>29995100</v>
+        <v>31418100</v>
       </c>
       <c r="G57" s="3">
-        <v>26160100</v>
+        <v>27401200</v>
       </c>
       <c r="H57" s="3">
-        <v>19478800</v>
+        <v>20402900</v>
       </c>
       <c r="I57" s="3">
-        <v>29473400</v>
+        <v>30871700</v>
       </c>
       <c r="J57" s="3">
-        <v>30098900</v>
+        <v>31526900</v>
       </c>
       <c r="K57" s="3">
         <v>33177200</v>
@@ -2177,25 +2177,25 @@
         <v>50</v>
       </c>
       <c r="D58" s="3">
-        <v>14378900</v>
+        <v>15061100</v>
       </c>
       <c r="E58" s="3">
-        <v>8877500</v>
+        <v>9298600</v>
       </c>
       <c r="F58" s="3">
-        <v>11712700</v>
+        <v>12268300</v>
       </c>
       <c r="G58" s="3">
-        <v>10866000</v>
+        <v>11381500</v>
       </c>
       <c r="H58" s="3">
-        <v>16766200</v>
+        <v>17561600</v>
       </c>
       <c r="I58" s="3">
-        <v>25872400</v>
+        <v>27099900</v>
       </c>
       <c r="J58" s="3">
-        <v>23798800</v>
+        <v>24927900</v>
       </c>
       <c r="K58" s="3">
         <v>16641100</v>
@@ -2210,25 +2210,25 @@
         <v>51</v>
       </c>
       <c r="D59" s="3">
-        <v>40312100</v>
+        <v>42224600</v>
       </c>
       <c r="E59" s="3">
-        <v>45197600</v>
+        <v>47341900</v>
       </c>
       <c r="F59" s="3">
-        <v>42445200</v>
+        <v>44458900</v>
       </c>
       <c r="G59" s="3">
-        <v>33489300</v>
+        <v>35078100</v>
       </c>
       <c r="H59" s="3">
-        <v>30972000</v>
+        <v>32441400</v>
       </c>
       <c r="I59" s="3">
-        <v>32410400</v>
+        <v>33948000</v>
       </c>
       <c r="J59" s="3">
-        <v>29148000</v>
+        <v>30530800</v>
       </c>
       <c r="K59" s="3">
         <v>23840500</v>
@@ -2243,25 +2243,25 @@
         <v>52</v>
       </c>
       <c r="D60" s="3">
-        <v>83706800</v>
+        <v>87678000</v>
       </c>
       <c r="E60" s="3">
-        <v>82069200</v>
+        <v>85962700</v>
       </c>
       <c r="F60" s="3">
-        <v>84152900</v>
+        <v>88145300</v>
       </c>
       <c r="G60" s="3">
-        <v>70515400</v>
+        <v>73860800</v>
       </c>
       <c r="H60" s="3">
-        <v>67217100</v>
+        <v>70406000</v>
       </c>
       <c r="I60" s="3">
-        <v>87756200</v>
+        <v>91919600</v>
       </c>
       <c r="J60" s="3">
-        <v>83045700</v>
+        <v>86985600</v>
       </c>
       <c r="K60" s="3">
         <v>73658800</v>
@@ -2276,25 +2276,25 @@
         <v>53</v>
       </c>
       <c r="D61" s="3">
-        <v>34340500</v>
+        <v>35969700</v>
       </c>
       <c r="E61" s="3">
-        <v>13582900</v>
+        <v>14227300</v>
       </c>
       <c r="F61" s="3">
-        <v>14395800</v>
+        <v>15078700</v>
       </c>
       <c r="G61" s="3">
-        <v>17056700</v>
+        <v>17865900</v>
       </c>
       <c r="H61" s="3">
-        <v>20295300</v>
+        <v>21258200</v>
       </c>
       <c r="I61" s="3">
-        <v>21919900</v>
+        <v>22959800</v>
       </c>
       <c r="J61" s="3">
-        <v>21144000</v>
+        <v>22147200</v>
       </c>
       <c r="K61" s="3">
         <v>23260400</v>
@@ -2309,25 +2309,25 @@
         <v>54</v>
       </c>
       <c r="D62" s="3">
-        <v>9644100</v>
+        <v>10101700</v>
       </c>
       <c r="E62" s="3">
-        <v>11204200</v>
+        <v>11735800</v>
       </c>
       <c r="F62" s="3">
-        <v>9301100</v>
+        <v>9742400</v>
       </c>
       <c r="G62" s="3">
-        <v>9350600</v>
+        <v>9794200</v>
       </c>
       <c r="H62" s="3">
-        <v>8209700</v>
+        <v>8599200</v>
       </c>
       <c r="I62" s="3">
-        <v>7348900</v>
+        <v>7697600</v>
       </c>
       <c r="J62" s="3">
-        <v>6372400</v>
+        <v>6674700</v>
       </c>
       <c r="K62" s="3">
         <v>6193700</v>
@@ -2441,25 +2441,25 @@
         <v>57</v>
       </c>
       <c r="D66" s="3">
-        <v>147687000</v>
+        <v>154694000</v>
       </c>
       <c r="E66" s="3">
-        <v>127080000</v>
+        <v>133109000</v>
       </c>
       <c r="F66" s="3">
-        <v>126261000</v>
+        <v>132251000</v>
       </c>
       <c r="G66" s="3">
-        <v>114385000</v>
+        <v>119812000</v>
       </c>
       <c r="H66" s="3">
-        <v>111983000</v>
+        <v>117295000</v>
       </c>
       <c r="I66" s="3">
-        <v>124655000</v>
+        <v>130569000</v>
       </c>
       <c r="J66" s="3">
-        <v>118234000</v>
+        <v>123843000</v>
       </c>
       <c r="K66" s="3">
         <v>108439000</v>
@@ -2621,25 +2621,25 @@
         <v>63</v>
       </c>
       <c r="D72" s="3">
-        <v>81507300</v>
+        <v>85374200</v>
       </c>
       <c r="E72" s="3">
-        <v>78476900</v>
+        <v>82200000</v>
       </c>
       <c r="F72" s="3">
-        <v>79760200</v>
+        <v>83544200</v>
       </c>
       <c r="G72" s="3">
-        <v>77501800</v>
+        <v>81178700</v>
       </c>
       <c r="H72" s="3">
-        <v>73494700</v>
+        <v>76981400</v>
       </c>
       <c r="I72" s="3">
-        <v>63772800</v>
+        <v>66798300</v>
       </c>
       <c r="J72" s="3">
-        <v>60473800</v>
+        <v>63342800</v>
       </c>
       <c r="K72" s="3">
         <v>56679900</v>
@@ -2753,25 +2753,25 @@
         <v>67</v>
       </c>
       <c r="D76" s="3">
-        <v>107202000</v>
+        <v>112287000</v>
       </c>
       <c r="E76" s="3">
-        <v>104171000</v>
+        <v>109113000</v>
       </c>
       <c r="F76" s="3">
-        <v>105454000</v>
+        <v>110457000</v>
       </c>
       <c r="G76" s="3">
-        <v>103258000</v>
+        <v>108156000</v>
       </c>
       <c r="H76" s="3">
-        <v>98204100</v>
+        <v>102863000</v>
       </c>
       <c r="I76" s="3">
-        <v>86127300</v>
+        <v>90213400</v>
       </c>
       <c r="J76" s="3">
-        <v>82607300</v>
+        <v>86526300</v>
       </c>
       <c r="K76" s="3">
         <v>73305900</v>
@@ -2857,25 +2857,25 @@
         <v>27</v>
       </c>
       <c r="D81" s="3">
-        <v>8345600</v>
+        <v>8741600</v>
       </c>
       <c r="E81" s="3">
-        <v>8948800</v>
+        <v>9373300</v>
       </c>
       <c r="F81" s="3">
-        <v>7442200</v>
+        <v>7795200</v>
       </c>
       <c r="G81" s="3">
-        <v>6778200</v>
+        <v>7099700</v>
       </c>
       <c r="H81" s="3">
-        <v>4721700</v>
+        <v>4945700</v>
       </c>
       <c r="I81" s="3">
-        <v>6748300</v>
+        <v>7068400</v>
       </c>
       <c r="J81" s="3">
-        <v>9604400</v>
+        <v>10060000</v>
       </c>
       <c r="K81" s="3">
         <v>9165400</v>
@@ -2905,25 +2905,25 @@
         <v>71</v>
       </c>
       <c r="D83" s="3">
-        <v>15802800</v>
+        <v>16552500</v>
       </c>
       <c r="E83" s="3">
-        <v>15970500</v>
+        <v>16728200</v>
       </c>
       <c r="F83" s="3">
-        <v>16746500</v>
+        <v>17541000</v>
       </c>
       <c r="G83" s="3">
-        <v>15746600</v>
+        <v>16493600</v>
       </c>
       <c r="H83" s="3">
-        <v>14008900</v>
+        <v>14673500</v>
       </c>
       <c r="I83" s="3">
-        <v>13084800</v>
+        <v>13705600</v>
       </c>
       <c r="J83" s="3">
-        <v>11802100</v>
+        <v>12362000</v>
       </c>
       <c r="K83" s="3">
         <v>10109000</v>
@@ -3103,25 +3103,25 @@
         <v>77</v>
       </c>
       <c r="D89" s="3">
-        <v>22281200</v>
+        <v>23338300</v>
       </c>
       <c r="E89" s="3">
-        <v>25541300</v>
+        <v>26753000</v>
       </c>
       <c r="F89" s="3">
-        <v>27729500</v>
+        <v>29045000</v>
       </c>
       <c r="G89" s="3">
-        <v>31158100</v>
+        <v>32636300</v>
       </c>
       <c r="H89" s="3">
-        <v>24070400</v>
+        <v>25212400</v>
       </c>
       <c r="I89" s="3">
-        <v>21544400</v>
+        <v>22566500</v>
       </c>
       <c r="J89" s="3">
-        <v>22059400</v>
+        <v>23106000</v>
       </c>
       <c r="K89" s="3">
         <v>20428700</v>
@@ -3151,25 +3151,25 @@
         <v>79</v>
       </c>
       <c r="D91" s="3">
-        <v>-18828300</v>
+        <v>-19721600</v>
       </c>
       <c r="E91" s="3">
-        <v>-13761000</v>
+        <v>-14413800</v>
       </c>
       <c r="F91" s="3">
-        <v>-9228100</v>
+        <v>-9665900</v>
       </c>
       <c r="G91" s="3">
-        <v>-9507800</v>
+        <v>-9958800</v>
       </c>
       <c r="H91" s="3">
-        <v>-13868700</v>
+        <v>-14526700</v>
       </c>
       <c r="I91" s="3">
-        <v>-16417800</v>
+        <v>-17196700</v>
       </c>
       <c r="J91" s="3">
-        <v>-21054300</v>
+        <v>-22053100</v>
       </c>
       <c r="K91" s="3">
         <v>-20899700</v>
@@ -3250,25 +3250,25 @@
         <v>82</v>
       </c>
       <c r="D94" s="3">
-        <v>-17494800</v>
+        <v>-18324800</v>
       </c>
       <c r="E94" s="3">
-        <v>-9646500</v>
+        <v>-10104100</v>
       </c>
       <c r="F94" s="3">
-        <v>-21105300</v>
+        <v>-22106500</v>
       </c>
       <c r="G94" s="3">
-        <v>-9616700</v>
+        <v>-10072900</v>
       </c>
       <c r="H94" s="3">
-        <v>-16951100</v>
+        <v>-17755300</v>
       </c>
       <c r="I94" s="3">
-        <v>-19262300</v>
+        <v>-20176100</v>
       </c>
       <c r="J94" s="3">
-        <v>-25958400</v>
+        <v>-27189900</v>
       </c>
       <c r="K94" s="3">
         <v>-23272000</v>
@@ -3298,25 +3298,25 @@
         <v>84</v>
       </c>
       <c r="D96" s="3">
-        <v>-6681700</v>
+        <v>-6998700</v>
       </c>
       <c r="E96" s="3">
-        <v>-9846400</v>
+        <v>-10313600</v>
       </c>
       <c r="F96" s="3">
-        <v>-4747400</v>
+        <v>-4972700</v>
       </c>
       <c r="G96" s="3">
-        <v>-2450900</v>
+        <v>-2567200</v>
       </c>
       <c r="H96" s="3">
-        <v>-3516600</v>
+        <v>-3683400</v>
       </c>
       <c r="I96" s="3">
-        <v>-4070900</v>
+        <v>-4264100</v>
       </c>
       <c r="J96" s="3">
-        <v>-4109700</v>
+        <v>-4304700</v>
       </c>
       <c r="K96" s="3">
         <v>-3656700</v>
@@ -3430,25 +3430,25 @@
         <v>88</v>
       </c>
       <c r="D100" s="3">
-        <v>-12302900</v>
+        <v>-12886500</v>
       </c>
       <c r="E100" s="3">
-        <v>-16158300</v>
+        <v>-16924900</v>
       </c>
       <c r="F100" s="3">
-        <v>-8206800</v>
+        <v>-8596100</v>
       </c>
       <c r="G100" s="3">
-        <v>-13513200</v>
+        <v>-14154300</v>
       </c>
       <c r="H100" s="3">
-        <v>1320600</v>
+        <v>1383200</v>
       </c>
       <c r="I100" s="3">
-        <v>-3111000</v>
+        <v>-3258600</v>
       </c>
       <c r="J100" s="3">
-        <v>4577500</v>
+        <v>4794700</v>
       </c>
       <c r="K100" s="3">
         <v>807500</v>
@@ -3463,25 +3463,25 @@
         <v>89</v>
       </c>
       <c r="D101" s="3">
-        <v>21300</v>
+        <v>22400</v>
       </c>
       <c r="E101" s="3">
-        <v>75200</v>
+        <v>78800</v>
       </c>
       <c r="F101" s="3">
-        <v>-51300</v>
+        <v>-53700</v>
       </c>
       <c r="G101" s="3">
-        <v>37200</v>
+        <v>38900</v>
       </c>
       <c r="H101" s="3">
-        <v>42600</v>
+        <v>44600</v>
       </c>
       <c r="I101" s="3">
-        <v>2300</v>
+        <v>2400</v>
       </c>
       <c r="J101" s="3">
-        <v>-11900</v>
+        <v>-12500</v>
       </c>
       <c r="K101" s="3">
         <v>-300</v>
@@ -3496,25 +3496,25 @@
         <v>90</v>
       </c>
       <c r="D102" s="3">
-        <v>-7495200</v>
+        <v>-7850800</v>
       </c>
       <c r="E102" s="3">
-        <v>-188200</v>
+        <v>-197100</v>
       </c>
       <c r="F102" s="3">
-        <v>-1633800</v>
+        <v>-1711400</v>
       </c>
       <c r="G102" s="3">
-        <v>8065300</v>
+        <v>8448000</v>
       </c>
       <c r="H102" s="3">
-        <v>8482400</v>
+        <v>8884900</v>
       </c>
       <c r="I102" s="3">
-        <v>-826500</v>
+        <v>-865700</v>
       </c>
       <c r="J102" s="3">
-        <v>666600</v>
+        <v>698200</v>
       </c>
       <c r="K102" s="3">
         <v>-2036100</v>

--- a/AAII_Financials/Yearly/SNP_YR_FIN.xlsx
+++ b/AAII_Financials/Yearly/SNP_YR_FIN.xlsx
@@ -717,25 +717,25 @@
         <v>3</v>
       </c>
       <c r="D8" s="3">
-        <v>451217300</v>
+        <v>453175000</v>
       </c>
       <c r="E8" s="3">
-        <v>439806100</v>
+        <v>441714300</v>
       </c>
       <c r="F8" s="3">
-        <v>359032600</v>
+        <v>360590300</v>
       </c>
       <c r="G8" s="3">
-        <v>293730200</v>
+        <v>295004600</v>
       </c>
       <c r="H8" s="3">
-        <v>307339400</v>
+        <v>308672900</v>
       </c>
       <c r="I8" s="3">
-        <v>429878000</v>
+        <v>431743100</v>
       </c>
       <c r="J8" s="3">
-        <v>438152900</v>
+        <v>440053900</v>
       </c>
       <c r="K8" s="3">
         <v>399741700</v>
@@ -750,25 +750,25 @@
         <v>4</v>
       </c>
       <c r="D9" s="3">
-        <v>374860900</v>
+        <v>376487400</v>
       </c>
       <c r="E9" s="3">
-        <v>362502100</v>
+        <v>364074900</v>
       </c>
       <c r="F9" s="3">
-        <v>282579500</v>
+        <v>283805500</v>
       </c>
       <c r="G9" s="3">
-        <v>221789100</v>
+        <v>222751400</v>
       </c>
       <c r="H9" s="3">
-        <v>238075300</v>
+        <v>239108200</v>
       </c>
       <c r="I9" s="3">
-        <v>357246400</v>
+        <v>358796300</v>
       </c>
       <c r="J9" s="3">
-        <v>362962700</v>
+        <v>364537500</v>
       </c>
       <c r="K9" s="3">
         <v>337603600</v>
@@ -783,25 +783,25 @@
         <v>5</v>
       </c>
       <c r="D10" s="3">
-        <v>76356300</v>
+        <v>76687600</v>
       </c>
       <c r="E10" s="3">
-        <v>77304000</v>
+        <v>77639400</v>
       </c>
       <c r="F10" s="3">
-        <v>76453100</v>
+        <v>76784800</v>
       </c>
       <c r="G10" s="3">
-        <v>71941000</v>
+        <v>72253200</v>
       </c>
       <c r="H10" s="3">
-        <v>69264200</v>
+        <v>69564700</v>
       </c>
       <c r="I10" s="3">
-        <v>72631700</v>
+        <v>72946800</v>
       </c>
       <c r="J10" s="3">
-        <v>75190200</v>
+        <v>75516400</v>
       </c>
       <c r="K10" s="3">
         <v>62138200</v>
@@ -831,25 +831,25 @@
         <v>7</v>
       </c>
       <c r="D12" s="3">
-        <v>1598800</v>
+        <v>1605700</v>
       </c>
       <c r="E12" s="3">
-        <v>1634400</v>
+        <v>1641500</v>
       </c>
       <c r="F12" s="3">
-        <v>1686900</v>
+        <v>1694200</v>
       </c>
       <c r="G12" s="3">
-        <v>1678600</v>
+        <v>1685900</v>
       </c>
       <c r="H12" s="3">
-        <v>1591000</v>
+        <v>1597900</v>
       </c>
       <c r="I12" s="3">
-        <v>1668600</v>
+        <v>1675800</v>
       </c>
       <c r="J12" s="3">
-        <v>1912600</v>
+        <v>1920900</v>
       </c>
       <c r="K12" s="3">
         <v>2228700</v>
@@ -906,7 +906,7 @@
         <v>0</v>
       </c>
       <c r="G14" s="3">
-        <v>-3127900</v>
+        <v>-3141500</v>
       </c>
       <c r="H14" s="3">
         <v>0</v>
@@ -930,25 +930,25 @@
         <v>10</v>
       </c>
       <c r="D15" s="3">
-        <v>16552500</v>
+        <v>16624300</v>
       </c>
       <c r="E15" s="3">
-        <v>16728200</v>
+        <v>16800800</v>
       </c>
       <c r="F15" s="3">
-        <v>17541000</v>
+        <v>17617100</v>
       </c>
       <c r="G15" s="3">
-        <v>16493600</v>
+        <v>16565200</v>
       </c>
       <c r="H15" s="3">
-        <v>14673500</v>
+        <v>14737200</v>
       </c>
       <c r="I15" s="3">
-        <v>13705600</v>
+        <v>13765000</v>
       </c>
       <c r="J15" s="3">
-        <v>12362000</v>
+        <v>12415700</v>
       </c>
       <c r="K15" s="3">
         <v>10109000</v>
@@ -975,25 +975,25 @@
         <v>11</v>
       </c>
       <c r="D17" s="3">
-        <v>438104800</v>
+        <v>440005600</v>
       </c>
       <c r="E17" s="3">
-        <v>427292100</v>
+        <v>429146000</v>
       </c>
       <c r="F17" s="3">
-        <v>348160500</v>
+        <v>349671100</v>
       </c>
       <c r="G17" s="3">
-        <v>281987600</v>
+        <v>283211000</v>
       </c>
       <c r="H17" s="3">
-        <v>298695700</v>
+        <v>299991600</v>
       </c>
       <c r="I17" s="3">
-        <v>418699200</v>
+        <v>420515800</v>
       </c>
       <c r="J17" s="3">
-        <v>423430000</v>
+        <v>425267100</v>
       </c>
       <c r="K17" s="3">
         <v>385585700</v>
@@ -1008,25 +1008,25 @@
         <v>12</v>
       </c>
       <c r="D18" s="3">
-        <v>13112400</v>
+        <v>13169300</v>
       </c>
       <c r="E18" s="3">
-        <v>12514000</v>
+        <v>12568300</v>
       </c>
       <c r="F18" s="3">
-        <v>10872000</v>
+        <v>10919200</v>
       </c>
       <c r="G18" s="3">
-        <v>11742600</v>
+        <v>11793500</v>
       </c>
       <c r="H18" s="3">
-        <v>8643800</v>
+        <v>8681300</v>
       </c>
       <c r="I18" s="3">
-        <v>11178800</v>
+        <v>11227300</v>
       </c>
       <c r="J18" s="3">
-        <v>14722900</v>
+        <v>14786800</v>
       </c>
       <c r="K18" s="3">
         <v>14156000</v>
@@ -1056,25 +1056,25 @@
         <v>14</v>
       </c>
       <c r="D20" s="3">
-        <v>2938000</v>
+        <v>2950800</v>
       </c>
       <c r="E20" s="3">
-        <v>3457500</v>
+        <v>3472500</v>
       </c>
       <c r="F20" s="3">
-        <v>3175000</v>
+        <v>3188800</v>
       </c>
       <c r="G20" s="3">
-        <v>1691600</v>
+        <v>1698900</v>
       </c>
       <c r="H20" s="3">
-        <v>1010200</v>
+        <v>1014600</v>
       </c>
       <c r="I20" s="3">
-        <v>338800</v>
+        <v>340200</v>
       </c>
       <c r="J20" s="3">
-        <v>1215700</v>
+        <v>1221000</v>
       </c>
       <c r="K20" s="3">
         <v>335900</v>
@@ -1089,25 +1089,25 @@
         <v>15</v>
       </c>
       <c r="D21" s="3">
-        <v>32601900</v>
+        <v>32801000</v>
       </c>
       <c r="E21" s="3">
-        <v>32698600</v>
+        <v>32898800</v>
       </c>
       <c r="F21" s="3">
-        <v>31586900</v>
+        <v>31785000</v>
       </c>
       <c r="G21" s="3">
-        <v>29926700</v>
+        <v>30114000</v>
       </c>
       <c r="H21" s="3">
-        <v>24326500</v>
+        <v>24483200</v>
       </c>
       <c r="I21" s="3">
-        <v>25222300</v>
+        <v>25379500</v>
       </c>
       <c r="J21" s="3">
-        <v>28299900</v>
+        <v>28465800</v>
       </c>
       <c r="K21" s="3">
         <v>24597400</v>
@@ -1122,25 +1122,25 @@
         <v>16</v>
       </c>
       <c r="D22" s="3">
-        <v>2370800</v>
+        <v>2381100</v>
       </c>
       <c r="E22" s="3">
-        <v>894900</v>
+        <v>898800</v>
       </c>
       <c r="F22" s="3">
-        <v>858700</v>
+        <v>862400</v>
       </c>
       <c r="G22" s="3">
-        <v>1241600</v>
+        <v>1247000</v>
       </c>
       <c r="H22" s="3">
-        <v>1072800</v>
+        <v>1077400</v>
       </c>
       <c r="I22" s="3">
-        <v>1553100</v>
+        <v>1559900</v>
       </c>
       <c r="J22" s="3">
-        <v>1479400</v>
+        <v>1485800</v>
       </c>
       <c r="K22" s="3">
         <v>1486600</v>
@@ -1155,25 +1155,25 @@
         <v>17</v>
       </c>
       <c r="D23" s="3">
-        <v>13679700</v>
+        <v>13739000</v>
       </c>
       <c r="E23" s="3">
-        <v>15076600</v>
+        <v>15142000</v>
       </c>
       <c r="F23" s="3">
-        <v>13188300</v>
+        <v>13245600</v>
       </c>
       <c r="G23" s="3">
-        <v>12192600</v>
+        <v>12245500</v>
       </c>
       <c r="H23" s="3">
-        <v>8581200</v>
+        <v>8618500</v>
       </c>
       <c r="I23" s="3">
-        <v>9964500</v>
+        <v>10007700</v>
       </c>
       <c r="J23" s="3">
-        <v>14459300</v>
+        <v>14522000</v>
       </c>
       <c r="K23" s="3">
         <v>13005300</v>
@@ -1188,25 +1188,25 @@
         <v>18</v>
       </c>
       <c r="D24" s="3">
-        <v>2722000</v>
+        <v>2733800</v>
       </c>
       <c r="E24" s="3">
-        <v>3074800</v>
+        <v>3088100</v>
       </c>
       <c r="F24" s="3">
-        <v>2476400</v>
+        <v>2487100</v>
       </c>
       <c r="G24" s="3">
-        <v>3149900</v>
+        <v>3163600</v>
       </c>
       <c r="H24" s="3">
-        <v>1918700</v>
+        <v>1927000</v>
       </c>
       <c r="I24" s="3">
-        <v>2672900</v>
+        <v>2684500</v>
       </c>
       <c r="J24" s="3">
-        <v>3766900</v>
+        <v>3783300</v>
       </c>
       <c r="K24" s="3">
         <v>3421400</v>
@@ -1254,25 +1254,25 @@
         <v>20</v>
       </c>
       <c r="D26" s="3">
-        <v>10957700</v>
+        <v>11005200</v>
       </c>
       <c r="E26" s="3">
-        <v>12001800</v>
+        <v>12053900</v>
       </c>
       <c r="F26" s="3">
-        <v>10712000</v>
+        <v>10758500</v>
       </c>
       <c r="G26" s="3">
-        <v>9042600</v>
+        <v>9081900</v>
       </c>
       <c r="H26" s="3">
-        <v>6662600</v>
+        <v>6691500</v>
       </c>
       <c r="I26" s="3">
-        <v>7291600</v>
+        <v>7323200</v>
       </c>
       <c r="J26" s="3">
-        <v>10692400</v>
+        <v>10738800</v>
       </c>
       <c r="K26" s="3">
         <v>9583900</v>
@@ -1287,25 +1287,25 @@
         <v>21</v>
       </c>
       <c r="D27" s="3">
-        <v>8741600</v>
+        <v>8779500</v>
       </c>
       <c r="E27" s="3">
-        <v>9373300</v>
+        <v>9414000</v>
       </c>
       <c r="F27" s="3">
-        <v>7795200</v>
+        <v>7829100</v>
       </c>
       <c r="G27" s="3">
-        <v>7099700</v>
+        <v>7130500</v>
       </c>
       <c r="H27" s="3">
-        <v>4945700</v>
+        <v>4967200</v>
       </c>
       <c r="I27" s="3">
-        <v>7068400</v>
+        <v>7099100</v>
       </c>
       <c r="J27" s="3">
-        <v>10060000</v>
+        <v>10103600</v>
       </c>
       <c r="K27" s="3">
         <v>9165400</v>
@@ -1452,25 +1452,25 @@
         <v>26</v>
       </c>
       <c r="D32" s="3">
-        <v>-2938000</v>
+        <v>-2950800</v>
       </c>
       <c r="E32" s="3">
-        <v>-3457500</v>
+        <v>-3472500</v>
       </c>
       <c r="F32" s="3">
-        <v>-3175000</v>
+        <v>-3188800</v>
       </c>
       <c r="G32" s="3">
-        <v>-1691600</v>
+        <v>-1698900</v>
       </c>
       <c r="H32" s="3">
-        <v>-1010200</v>
+        <v>-1014600</v>
       </c>
       <c r="I32" s="3">
-        <v>-338800</v>
+        <v>-340200</v>
       </c>
       <c r="J32" s="3">
-        <v>-1215700</v>
+        <v>-1221000</v>
       </c>
       <c r="K32" s="3">
         <v>-335900</v>
@@ -1485,25 +1485,25 @@
         <v>27</v>
       </c>
       <c r="D33" s="3">
-        <v>8741600</v>
+        <v>8779500</v>
       </c>
       <c r="E33" s="3">
-        <v>9373300</v>
+        <v>9414000</v>
       </c>
       <c r="F33" s="3">
-        <v>7795200</v>
+        <v>7829100</v>
       </c>
       <c r="G33" s="3">
-        <v>7099700</v>
+        <v>7130500</v>
       </c>
       <c r="H33" s="3">
-        <v>4945700</v>
+        <v>4967200</v>
       </c>
       <c r="I33" s="3">
-        <v>7068400</v>
+        <v>7099100</v>
       </c>
       <c r="J33" s="3">
-        <v>10060000</v>
+        <v>10103600</v>
       </c>
       <c r="K33" s="3">
         <v>9165400</v>
@@ -1551,25 +1551,25 @@
         <v>29</v>
       </c>
       <c r="D35" s="3">
-        <v>8741600</v>
+        <v>8779500</v>
       </c>
       <c r="E35" s="3">
-        <v>9373300</v>
+        <v>9414000</v>
       </c>
       <c r="F35" s="3">
-        <v>7795200</v>
+        <v>7829100</v>
       </c>
       <c r="G35" s="3">
-        <v>7099700</v>
+        <v>7130500</v>
       </c>
       <c r="H35" s="3">
-        <v>4945700</v>
+        <v>4967200</v>
       </c>
       <c r="I35" s="3">
-        <v>7068400</v>
+        <v>7099100</v>
       </c>
       <c r="J35" s="3">
-        <v>10060000</v>
+        <v>10103600</v>
       </c>
       <c r="K35" s="3">
         <v>9165400</v>
@@ -1652,25 +1652,25 @@
         <v>33</v>
       </c>
       <c r="D41" s="3">
-        <v>9174800</v>
+        <v>9214600</v>
       </c>
       <c r="E41" s="3">
-        <v>17025600</v>
+        <v>17099400</v>
       </c>
       <c r="F41" s="3">
-        <v>17222700</v>
+        <v>17297400</v>
       </c>
       <c r="G41" s="3">
-        <v>18934100</v>
+        <v>19016200</v>
       </c>
       <c r="H41" s="3">
-        <v>10486100</v>
+        <v>10531600</v>
       </c>
       <c r="I41" s="3">
-        <v>1423100</v>
+        <v>1429300</v>
       </c>
       <c r="J41" s="3">
-        <v>2288800</v>
+        <v>2298700</v>
       </c>
       <c r="K41" s="3">
         <v>1500200</v>
@@ -1685,22 +1685,22 @@
         <v>34</v>
       </c>
       <c r="D42" s="3">
-        <v>12101900</v>
+        <v>12154400</v>
       </c>
       <c r="E42" s="3">
-        <v>12295100</v>
+        <v>12348400</v>
       </c>
       <c r="F42" s="3">
-        <v>15665600</v>
+        <v>15733600</v>
       </c>
       <c r="G42" s="3">
-        <v>2742600</v>
+        <v>2754500</v>
       </c>
       <c r="H42" s="3">
-        <v>111500</v>
+        <v>112000</v>
       </c>
       <c r="I42" s="3">
-        <v>113300</v>
+        <v>113800</v>
       </c>
       <c r="J42" s="3">
         <v>8400</v>
@@ -1718,25 +1718,25 @@
         <v>35</v>
       </c>
       <c r="D43" s="3">
-        <v>16859500</v>
+        <v>16932600</v>
       </c>
       <c r="E43" s="3">
-        <v>18041700</v>
+        <v>18120000</v>
       </c>
       <c r="F43" s="3">
-        <v>19050300</v>
+        <v>19132900</v>
       </c>
       <c r="G43" s="3">
-        <v>16938000</v>
+        <v>17011400</v>
       </c>
       <c r="H43" s="3">
-        <v>16810500</v>
+        <v>16883400</v>
       </c>
       <c r="I43" s="3">
-        <v>22696200</v>
+        <v>22794600</v>
       </c>
       <c r="J43" s="3">
-        <v>19338000</v>
+        <v>19421900</v>
       </c>
       <c r="K43" s="3">
         <v>15109200</v>
@@ -1751,25 +1751,25 @@
         <v>36</v>
       </c>
       <c r="D44" s="3">
-        <v>29274300</v>
+        <v>29401300</v>
       </c>
       <c r="E44" s="3">
-        <v>28078900</v>
+        <v>28200700</v>
       </c>
       <c r="F44" s="3">
-        <v>28399700</v>
+        <v>28523000</v>
       </c>
       <c r="G44" s="3">
-        <v>23808500</v>
+        <v>23911800</v>
       </c>
       <c r="H44" s="3">
-        <v>22149900</v>
+        <v>22246000</v>
       </c>
       <c r="I44" s="3">
-        <v>28632500</v>
+        <v>28756700</v>
       </c>
       <c r="J44" s="3">
-        <v>33756300</v>
+        <v>33902800</v>
       </c>
       <c r="K44" s="3">
         <v>31316200</v>
@@ -1784,25 +1784,25 @@
         <v>37</v>
       </c>
       <c r="D45" s="3">
-        <v>413200</v>
+        <v>415000</v>
       </c>
       <c r="E45" s="3">
-        <v>1245400</v>
+        <v>1250800</v>
       </c>
       <c r="F45" s="3">
-        <v>140600</v>
+        <v>141200</v>
       </c>
       <c r="G45" s="3">
-        <v>290100</v>
+        <v>291400</v>
       </c>
       <c r="H45" s="3">
-        <v>1197900</v>
+        <v>1203100</v>
       </c>
       <c r="I45" s="3">
-        <v>1920100</v>
+        <v>1928400</v>
       </c>
       <c r="J45" s="3">
-        <v>1350800</v>
+        <v>1356700</v>
       </c>
       <c r="K45" s="3">
         <v>4388200</v>
@@ -1817,25 +1817,25 @@
         <v>38</v>
       </c>
       <c r="D46" s="3">
-        <v>67823600</v>
+        <v>68117900</v>
       </c>
       <c r="E46" s="3">
-        <v>76686700</v>
+        <v>77019500</v>
       </c>
       <c r="F46" s="3">
-        <v>80478900</v>
+        <v>80828100</v>
       </c>
       <c r="G46" s="3">
-        <v>62713100</v>
+        <v>62985200</v>
       </c>
       <c r="H46" s="3">
-        <v>50755900</v>
+        <v>50976100</v>
       </c>
       <c r="I46" s="3">
-        <v>54785100</v>
+        <v>55022800</v>
       </c>
       <c r="J46" s="3">
-        <v>56742300</v>
+        <v>56988500</v>
       </c>
       <c r="K46" s="3">
         <v>52372400</v>
@@ -1850,25 +1850,25 @@
         <v>39</v>
       </c>
       <c r="D47" s="3">
-        <v>23384600</v>
+        <v>23486100</v>
       </c>
       <c r="E47" s="3">
-        <v>22387700</v>
+        <v>22484800</v>
       </c>
       <c r="F47" s="3">
-        <v>20195900</v>
+        <v>20283500</v>
       </c>
       <c r="G47" s="3">
-        <v>19504800</v>
+        <v>19589500</v>
       </c>
       <c r="H47" s="3">
-        <v>14490500</v>
+        <v>14553400</v>
       </c>
       <c r="I47" s="3">
-        <v>15090600</v>
+        <v>15156100</v>
       </c>
       <c r="J47" s="3">
-        <v>12024800</v>
+        <v>12077000</v>
       </c>
       <c r="K47" s="3">
         <v>7489800</v>
@@ -1883,25 +1883,25 @@
         <v>40</v>
       </c>
       <c r="D48" s="3">
-        <v>161818000</v>
+        <v>162520000</v>
       </c>
       <c r="E48" s="3">
-        <v>114809000</v>
+        <v>115307000</v>
       </c>
       <c r="F48" s="3">
-        <v>117044000</v>
+        <v>117552000</v>
       </c>
       <c r="G48" s="3">
-        <v>124765000</v>
+        <v>125306000</v>
       </c>
       <c r="H48" s="3">
-        <v>134744000</v>
+        <v>135329000</v>
       </c>
       <c r="I48" s="3">
-        <v>134041000</v>
+        <v>134622000</v>
       </c>
       <c r="J48" s="3">
-        <v>126294000</v>
+        <v>126842000</v>
       </c>
       <c r="K48" s="3">
         <v>108750000</v>
@@ -1916,25 +1916,25 @@
         <v>41</v>
       </c>
       <c r="D49" s="3">
-        <v>1323000</v>
+        <v>1328700</v>
       </c>
       <c r="E49" s="3">
-        <v>1319800</v>
+        <v>1325500</v>
       </c>
       <c r="F49" s="3">
-        <v>1313400</v>
+        <v>1319100</v>
       </c>
       <c r="G49" s="3">
-        <v>966400</v>
+        <v>970600</v>
       </c>
       <c r="H49" s="3">
-        <v>953900</v>
+        <v>958100</v>
       </c>
       <c r="I49" s="3">
-        <v>955500</v>
+        <v>959600</v>
       </c>
       <c r="J49" s="3">
-        <v>951500</v>
+        <v>955600</v>
       </c>
       <c r="K49" s="3">
         <v>897800</v>
@@ -2015,25 +2015,25 @@
         <v>44</v>
       </c>
       <c r="D52" s="3">
-        <v>12632300</v>
+        <v>12687200</v>
       </c>
       <c r="E52" s="3">
-        <v>27018900</v>
+        <v>27136200</v>
       </c>
       <c r="F52" s="3">
-        <v>23675800</v>
+        <v>23778500</v>
       </c>
       <c r="G52" s="3">
-        <v>20019000</v>
+        <v>20105800</v>
       </c>
       <c r="H52" s="3">
-        <v>19214100</v>
+        <v>19297500</v>
       </c>
       <c r="I52" s="3">
-        <v>15910100</v>
+        <v>15979100</v>
       </c>
       <c r="J52" s="3">
-        <v>14356800</v>
+        <v>14419100</v>
       </c>
       <c r="K52" s="3">
         <v>12235100</v>
@@ -2081,25 +2081,25 @@
         <v>46</v>
       </c>
       <c r="D54" s="3">
-        <v>266981000</v>
+        <v>268140000</v>
       </c>
       <c r="E54" s="3">
-        <v>242222000</v>
+        <v>243273000</v>
       </c>
       <c r="F54" s="3">
-        <v>242708000</v>
+        <v>243761000</v>
       </c>
       <c r="G54" s="3">
-        <v>227968000</v>
+        <v>228958000</v>
       </c>
       <c r="H54" s="3">
-        <v>220158000</v>
+        <v>221114000</v>
       </c>
       <c r="I54" s="3">
-        <v>220782000</v>
+        <v>221740000</v>
       </c>
       <c r="J54" s="3">
-        <v>210369000</v>
+        <v>211282000</v>
       </c>
       <c r="K54" s="3">
         <v>181745000</v>
@@ -2144,25 +2144,25 @@
         <v>49</v>
       </c>
       <c r="D57" s="3">
-        <v>30392400</v>
+        <v>30524200</v>
       </c>
       <c r="E57" s="3">
-        <v>29322200</v>
+        <v>29449400</v>
       </c>
       <c r="F57" s="3">
-        <v>31418100</v>
+        <v>31554400</v>
       </c>
       <c r="G57" s="3">
-        <v>27401200</v>
+        <v>27520100</v>
       </c>
       <c r="H57" s="3">
-        <v>20402900</v>
+        <v>20491500</v>
       </c>
       <c r="I57" s="3">
-        <v>30871700</v>
+        <v>31005600</v>
       </c>
       <c r="J57" s="3">
-        <v>31526900</v>
+        <v>31663700</v>
       </c>
       <c r="K57" s="3">
         <v>33177200</v>
@@ -2177,25 +2177,25 @@
         <v>50</v>
       </c>
       <c r="D58" s="3">
-        <v>15061100</v>
+        <v>15126400</v>
       </c>
       <c r="E58" s="3">
-        <v>9298600</v>
+        <v>9339000</v>
       </c>
       <c r="F58" s="3">
-        <v>12268300</v>
+        <v>12321600</v>
       </c>
       <c r="G58" s="3">
-        <v>11381500</v>
+        <v>11430800</v>
       </c>
       <c r="H58" s="3">
-        <v>17561600</v>
+        <v>17637800</v>
       </c>
       <c r="I58" s="3">
-        <v>27099900</v>
+        <v>27217500</v>
       </c>
       <c r="J58" s="3">
-        <v>24927900</v>
+        <v>25036100</v>
       </c>
       <c r="K58" s="3">
         <v>16641100</v>
@@ -2210,25 +2210,25 @@
         <v>51</v>
       </c>
       <c r="D59" s="3">
-        <v>42224600</v>
+        <v>42407800</v>
       </c>
       <c r="E59" s="3">
-        <v>47341900</v>
+        <v>47547300</v>
       </c>
       <c r="F59" s="3">
-        <v>44458900</v>
+        <v>44651800</v>
       </c>
       <c r="G59" s="3">
-        <v>35078100</v>
+        <v>35230300</v>
       </c>
       <c r="H59" s="3">
-        <v>32441400</v>
+        <v>32582200</v>
       </c>
       <c r="I59" s="3">
-        <v>33948000</v>
+        <v>34095300</v>
       </c>
       <c r="J59" s="3">
-        <v>30530800</v>
+        <v>30663300</v>
       </c>
       <c r="K59" s="3">
         <v>23840500</v>
@@ -2243,25 +2243,25 @@
         <v>52</v>
       </c>
       <c r="D60" s="3">
-        <v>87678000</v>
+        <v>88058400</v>
       </c>
       <c r="E60" s="3">
-        <v>85962700</v>
+        <v>86335700</v>
       </c>
       <c r="F60" s="3">
-        <v>88145300</v>
+        <v>88527800</v>
       </c>
       <c r="G60" s="3">
-        <v>73860800</v>
+        <v>74181300</v>
       </c>
       <c r="H60" s="3">
-        <v>70406000</v>
+        <v>70711500</v>
       </c>
       <c r="I60" s="3">
-        <v>91919600</v>
+        <v>92318400</v>
       </c>
       <c r="J60" s="3">
-        <v>86985600</v>
+        <v>87363000</v>
       </c>
       <c r="K60" s="3">
         <v>73658800</v>
@@ -2276,25 +2276,25 @@
         <v>53</v>
       </c>
       <c r="D61" s="3">
-        <v>35969700</v>
+        <v>36125700</v>
       </c>
       <c r="E61" s="3">
-        <v>14227300</v>
+        <v>14289100</v>
       </c>
       <c r="F61" s="3">
-        <v>15078700</v>
+        <v>15144200</v>
       </c>
       <c r="G61" s="3">
-        <v>17865900</v>
+        <v>17943400</v>
       </c>
       <c r="H61" s="3">
-        <v>21258200</v>
+        <v>21350400</v>
       </c>
       <c r="I61" s="3">
-        <v>22959800</v>
+        <v>23059400</v>
       </c>
       <c r="J61" s="3">
-        <v>22147200</v>
+        <v>22243200</v>
       </c>
       <c r="K61" s="3">
         <v>23260400</v>
@@ -2309,25 +2309,25 @@
         <v>54</v>
       </c>
       <c r="D62" s="3">
-        <v>10101700</v>
+        <v>10145500</v>
       </c>
       <c r="E62" s="3">
-        <v>11735800</v>
+        <v>11786700</v>
       </c>
       <c r="F62" s="3">
-        <v>9742400</v>
+        <v>9784600</v>
       </c>
       <c r="G62" s="3">
-        <v>9794200</v>
+        <v>9836700</v>
       </c>
       <c r="H62" s="3">
-        <v>8599200</v>
+        <v>8636500</v>
       </c>
       <c r="I62" s="3">
-        <v>7697600</v>
+        <v>7731000</v>
       </c>
       <c r="J62" s="3">
-        <v>6674700</v>
+        <v>6703700</v>
       </c>
       <c r="K62" s="3">
         <v>6193700</v>
@@ -2441,25 +2441,25 @@
         <v>57</v>
       </c>
       <c r="D66" s="3">
-        <v>154694000</v>
+        <v>155365000</v>
       </c>
       <c r="E66" s="3">
-        <v>133109000</v>
+        <v>133686000</v>
       </c>
       <c r="F66" s="3">
-        <v>132251000</v>
+        <v>132825000</v>
       </c>
       <c r="G66" s="3">
-        <v>119812000</v>
+        <v>120332000</v>
       </c>
       <c r="H66" s="3">
-        <v>117295000</v>
+        <v>117804000</v>
       </c>
       <c r="I66" s="3">
-        <v>130569000</v>
+        <v>131135000</v>
       </c>
       <c r="J66" s="3">
-        <v>123843000</v>
+        <v>124380000</v>
       </c>
       <c r="K66" s="3">
         <v>108439000</v>
@@ -2621,25 +2621,25 @@
         <v>63</v>
       </c>
       <c r="D72" s="3">
-        <v>85374200</v>
+        <v>85744600</v>
       </c>
       <c r="E72" s="3">
-        <v>82200000</v>
+        <v>82556700</v>
       </c>
       <c r="F72" s="3">
-        <v>83544200</v>
+        <v>83906600</v>
       </c>
       <c r="G72" s="3">
-        <v>81178700</v>
+        <v>81530900</v>
       </c>
       <c r="H72" s="3">
-        <v>76981400</v>
+        <v>77315400</v>
       </c>
       <c r="I72" s="3">
-        <v>66798300</v>
+        <v>67088100</v>
       </c>
       <c r="J72" s="3">
-        <v>63342800</v>
+        <v>63617600</v>
       </c>
       <c r="K72" s="3">
         <v>56679900</v>
@@ -2753,25 +2753,25 @@
         <v>67</v>
       </c>
       <c r="D76" s="3">
-        <v>112287000</v>
+        <v>112775000</v>
       </c>
       <c r="E76" s="3">
-        <v>109113000</v>
+        <v>109587000</v>
       </c>
       <c r="F76" s="3">
-        <v>110457000</v>
+        <v>110937000</v>
       </c>
       <c r="G76" s="3">
-        <v>108156000</v>
+        <v>108626000</v>
       </c>
       <c r="H76" s="3">
-        <v>102863000</v>
+        <v>103309000</v>
       </c>
       <c r="I76" s="3">
-        <v>90213400</v>
+        <v>90604800</v>
       </c>
       <c r="J76" s="3">
-        <v>86526300</v>
+        <v>86901700</v>
       </c>
       <c r="K76" s="3">
         <v>73305900</v>
@@ -2857,25 +2857,25 @@
         <v>27</v>
       </c>
       <c r="D81" s="3">
-        <v>8741600</v>
+        <v>8779500</v>
       </c>
       <c r="E81" s="3">
-        <v>9373300</v>
+        <v>9414000</v>
       </c>
       <c r="F81" s="3">
-        <v>7795200</v>
+        <v>7829100</v>
       </c>
       <c r="G81" s="3">
-        <v>7099700</v>
+        <v>7130500</v>
       </c>
       <c r="H81" s="3">
-        <v>4945700</v>
+        <v>4967200</v>
       </c>
       <c r="I81" s="3">
-        <v>7068400</v>
+        <v>7099100</v>
       </c>
       <c r="J81" s="3">
-        <v>10060000</v>
+        <v>10103600</v>
       </c>
       <c r="K81" s="3">
         <v>9165400</v>
@@ -2905,25 +2905,25 @@
         <v>71</v>
       </c>
       <c r="D83" s="3">
-        <v>16552500</v>
+        <v>16624300</v>
       </c>
       <c r="E83" s="3">
-        <v>16728200</v>
+        <v>16800800</v>
       </c>
       <c r="F83" s="3">
-        <v>17541000</v>
+        <v>17617100</v>
       </c>
       <c r="G83" s="3">
-        <v>16493600</v>
+        <v>16565200</v>
       </c>
       <c r="H83" s="3">
-        <v>14673500</v>
+        <v>14737200</v>
       </c>
       <c r="I83" s="3">
-        <v>13705600</v>
+        <v>13765000</v>
       </c>
       <c r="J83" s="3">
-        <v>12362000</v>
+        <v>12415700</v>
       </c>
       <c r="K83" s="3">
         <v>10109000</v>
@@ -3103,25 +3103,25 @@
         <v>77</v>
       </c>
       <c r="D89" s="3">
-        <v>23338300</v>
+        <v>23439500</v>
       </c>
       <c r="E89" s="3">
-        <v>26753000</v>
+        <v>26869100</v>
       </c>
       <c r="F89" s="3">
-        <v>29045000</v>
+        <v>29171000</v>
       </c>
       <c r="G89" s="3">
-        <v>32636300</v>
+        <v>32777900</v>
       </c>
       <c r="H89" s="3">
-        <v>25212400</v>
+        <v>25321800</v>
       </c>
       <c r="I89" s="3">
-        <v>22566500</v>
+        <v>22664500</v>
       </c>
       <c r="J89" s="3">
-        <v>23106000</v>
+        <v>23206200</v>
       </c>
       <c r="K89" s="3">
         <v>20428700</v>
@@ -3151,25 +3151,25 @@
         <v>79</v>
       </c>
       <c r="D91" s="3">
-        <v>-19721600</v>
+        <v>-19807200</v>
       </c>
       <c r="E91" s="3">
-        <v>-14413800</v>
+        <v>-14476400</v>
       </c>
       <c r="F91" s="3">
-        <v>-9665900</v>
+        <v>-9707800</v>
       </c>
       <c r="G91" s="3">
-        <v>-9958800</v>
+        <v>-10002000</v>
       </c>
       <c r="H91" s="3">
-        <v>-14526700</v>
+        <v>-14589700</v>
       </c>
       <c r="I91" s="3">
-        <v>-17196700</v>
+        <v>-17271300</v>
       </c>
       <c r="J91" s="3">
-        <v>-22053100</v>
+        <v>-22148800</v>
       </c>
       <c r="K91" s="3">
         <v>-20899700</v>
@@ -3250,25 +3250,25 @@
         <v>82</v>
       </c>
       <c r="D94" s="3">
-        <v>-18324800</v>
+        <v>-18404300</v>
       </c>
       <c r="E94" s="3">
-        <v>-10104100</v>
+        <v>-10148000</v>
       </c>
       <c r="F94" s="3">
-        <v>-22106500</v>
+        <v>-22202400</v>
       </c>
       <c r="G94" s="3">
-        <v>-10072900</v>
+        <v>-10116600</v>
       </c>
       <c r="H94" s="3">
-        <v>-17755300</v>
+        <v>-17832300</v>
       </c>
       <c r="I94" s="3">
-        <v>-20176100</v>
+        <v>-20263700</v>
       </c>
       <c r="J94" s="3">
-        <v>-27189900</v>
+        <v>-27307900</v>
       </c>
       <c r="K94" s="3">
         <v>-23272000</v>
@@ -3298,25 +3298,25 @@
         <v>84</v>
       </c>
       <c r="D96" s="3">
-        <v>-6998700</v>
+        <v>-7029100</v>
       </c>
       <c r="E96" s="3">
-        <v>-10313600</v>
+        <v>-10358300</v>
       </c>
       <c r="F96" s="3">
-        <v>-4972700</v>
+        <v>-4994200</v>
       </c>
       <c r="G96" s="3">
-        <v>-2567200</v>
+        <v>-2578300</v>
       </c>
       <c r="H96" s="3">
-        <v>-3683400</v>
+        <v>-3699400</v>
       </c>
       <c r="I96" s="3">
-        <v>-4264100</v>
+        <v>-4282600</v>
       </c>
       <c r="J96" s="3">
-        <v>-4304700</v>
+        <v>-4323400</v>
       </c>
       <c r="K96" s="3">
         <v>-3656700</v>
@@ -3430,25 +3430,25 @@
         <v>88</v>
       </c>
       <c r="D100" s="3">
-        <v>-12886500</v>
+        <v>-12942500</v>
       </c>
       <c r="E100" s="3">
-        <v>-16924900</v>
+        <v>-16998300</v>
       </c>
       <c r="F100" s="3">
-        <v>-8596100</v>
+        <v>-8633400</v>
       </c>
       <c r="G100" s="3">
-        <v>-14154300</v>
+        <v>-14215700</v>
       </c>
       <c r="H100" s="3">
-        <v>1383200</v>
+        <v>1389200</v>
       </c>
       <c r="I100" s="3">
-        <v>-3258600</v>
+        <v>-3272700</v>
       </c>
       <c r="J100" s="3">
-        <v>4794700</v>
+        <v>4815500</v>
       </c>
       <c r="K100" s="3">
         <v>807500</v>
@@ -3463,19 +3463,19 @@
         <v>89</v>
       </c>
       <c r="D101" s="3">
-        <v>22400</v>
+        <v>22500</v>
       </c>
       <c r="E101" s="3">
-        <v>78800</v>
+        <v>79100</v>
       </c>
       <c r="F101" s="3">
-        <v>-53700</v>
+        <v>-53900</v>
       </c>
       <c r="G101" s="3">
-        <v>38900</v>
+        <v>39100</v>
       </c>
       <c r="H101" s="3">
-        <v>44600</v>
+        <v>44800</v>
       </c>
       <c r="I101" s="3">
         <v>2400</v>
@@ -3496,25 +3496,25 @@
         <v>90</v>
       </c>
       <c r="D102" s="3">
-        <v>-7850800</v>
+        <v>-7884800</v>
       </c>
       <c r="E102" s="3">
-        <v>-197100</v>
+        <v>-198000</v>
       </c>
       <c r="F102" s="3">
-        <v>-1711400</v>
+        <v>-1718800</v>
       </c>
       <c r="G102" s="3">
-        <v>8448000</v>
+        <v>8484600</v>
       </c>
       <c r="H102" s="3">
-        <v>8884900</v>
+        <v>8923400</v>
       </c>
       <c r="I102" s="3">
-        <v>-865700</v>
+        <v>-869500</v>
       </c>
       <c r="J102" s="3">
-        <v>698200</v>
+        <v>701300</v>
       </c>
       <c r="K102" s="3">
         <v>-2036100</v>

--- a/AAII_Financials/Yearly/SNP_YR_FIN.xlsx
+++ b/AAII_Financials/Yearly/SNP_YR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="99" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="98" uniqueCount="92">
   <si>
     <t>SNP</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:M102"/>
+  <dimension ref="A5:N102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,153 +665,165 @@
     <col min="1" max="1" width="5.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="12" width="16" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="13" width="16" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:14" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44196</v>
+      </c>
+      <c r="E7" s="2">
         <v>43830</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>43465</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>43100</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>42735</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>42369</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>42004</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>41639</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>41274</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>40908</v>
       </c>
-      <c r="M7" s="2"/>
-    </row>
-    <row r="8" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N7" s="2"/>
+    </row>
+    <row r="8" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
-        <v>453175000</v>
+        <v>328554600</v>
       </c>
       <c r="E8" s="3">
-        <v>441714300</v>
+        <v>461758200</v>
       </c>
       <c r="F8" s="3">
-        <v>360590300</v>
+        <v>451052800</v>
       </c>
       <c r="G8" s="3">
-        <v>295004600</v>
+        <v>368213700</v>
       </c>
       <c r="H8" s="3">
-        <v>308672900</v>
+        <v>301241400</v>
       </c>
       <c r="I8" s="3">
-        <v>431743100</v>
+        <v>315198700</v>
       </c>
       <c r="J8" s="3">
+        <v>440870800</v>
+      </c>
+      <c r="K8" s="3">
         <v>440053900</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>399741700</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>364401500</v>
       </c>
-      <c r="M8" s="3"/>
-    </row>
-    <row r="9" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N8" s="3"/>
+    </row>
+    <row r="9" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
-        <v>376487400</v>
+        <v>262536900</v>
       </c>
       <c r="E9" s="3">
-        <v>364074900</v>
+        <v>383051400</v>
       </c>
       <c r="F9" s="3">
-        <v>283805500</v>
+        <v>371772000</v>
       </c>
       <c r="G9" s="3">
-        <v>222751400</v>
+        <v>289805600</v>
       </c>
       <c r="H9" s="3">
-        <v>239108200</v>
+        <v>227460700</v>
       </c>
       <c r="I9" s="3">
-        <v>358796300</v>
+        <v>244163300</v>
       </c>
       <c r="J9" s="3">
+        <v>366381800</v>
+      </c>
+      <c r="K9" s="3">
         <v>364537500</v>
       </c>
-      <c r="K9" s="3">
+      <c r="L9" s="3">
         <v>337603600</v>
       </c>
-      <c r="L9" s="3">
+      <c r="M9" s="3">
         <v>301487200</v>
       </c>
-      <c r="M9" s="3"/>
-    </row>
-    <row r="10" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N9" s="3"/>
+    </row>
+    <row r="10" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
-        <v>76687600</v>
+        <v>66017700</v>
       </c>
       <c r="E10" s="3">
-        <v>77639400</v>
+        <v>78706900</v>
       </c>
       <c r="F10" s="3">
-        <v>76784800</v>
+        <v>79280800</v>
       </c>
       <c r="G10" s="3">
-        <v>72253200</v>
+        <v>78408100</v>
       </c>
       <c r="H10" s="3">
-        <v>69564700</v>
+        <v>73780700</v>
       </c>
       <c r="I10" s="3">
-        <v>72946800</v>
+        <v>71035400</v>
       </c>
       <c r="J10" s="3">
+        <v>74489000</v>
+      </c>
+      <c r="K10" s="3">
         <v>75516400</v>
       </c>
-      <c r="K10" s="3">
+      <c r="L10" s="3">
         <v>62138200</v>
       </c>
-      <c r="L10" s="3">
+      <c r="M10" s="3">
         <v>62914300</v>
       </c>
-      <c r="M10" s="3"/>
-    </row>
-    <row r="11" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N10" s="3"/>
+    </row>
+    <row r="11" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -825,41 +837,45 @@
       <c r="K11" s="3"/>
       <c r="L11" s="3"/>
       <c r="M11" s="3"/>
-    </row>
-    <row r="12" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N11" s="3"/>
+    </row>
+    <row r="12" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
       <c r="D12" s="3">
-        <v>1605700</v>
+        <v>1515800</v>
       </c>
       <c r="E12" s="3">
-        <v>1641500</v>
+        <v>1639700</v>
       </c>
       <c r="F12" s="3">
-        <v>1694200</v>
+        <v>1676200</v>
       </c>
       <c r="G12" s="3">
-        <v>1685900</v>
+        <v>1730000</v>
       </c>
       <c r="H12" s="3">
-        <v>1597900</v>
+        <v>1721600</v>
       </c>
       <c r="I12" s="3">
-        <v>1675800</v>
+        <v>1631700</v>
       </c>
       <c r="J12" s="3">
+        <v>1711300</v>
+      </c>
+      <c r="K12" s="3">
         <v>1920900</v>
       </c>
-      <c r="K12" s="3">
+      <c r="L12" s="3">
         <v>2228700</v>
       </c>
-      <c r="L12" s="3">
+      <c r="M12" s="3">
         <v>1940200</v>
       </c>
-      <c r="M12" s="3"/>
-    </row>
-    <row r="13" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N12" s="3"/>
+    </row>
+    <row r="13" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>8</v>
       </c>
@@ -890,75 +906,84 @@
       <c r="L13" s="3">
         <v>0</v>
       </c>
-      <c r="M13" s="3"/>
-    </row>
-    <row r="14" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="M13" s="3">
+        <v>0</v>
+      </c>
+      <c r="N13" s="3"/>
+    </row>
+    <row r="14" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="D14" s="3" t="s">
+      <c r="D14" s="3">
+        <v>2271500</v>
+      </c>
+      <c r="E14" s="3">
+        <v>53800</v>
+      </c>
+      <c r="F14" s="3" t="s">
         <v>91</v>
       </c>
-      <c r="E14" s="3" t="s">
-        <v>91</v>
-      </c>
-      <c r="F14" s="3">
-        <v>0</v>
-      </c>
       <c r="G14" s="3">
-        <v>-3141500</v>
+        <v>0</v>
       </c>
       <c r="H14" s="3">
-        <v>0</v>
-      </c>
-      <c r="I14" s="3" t="s">
-        <v>91</v>
+        <v>-3207900</v>
+      </c>
+      <c r="I14" s="3">
+        <v>0</v>
       </c>
       <c r="J14" s="3" t="s">
         <v>91</v>
       </c>
-      <c r="K14" s="3">
+      <c r="K14" s="3" t="s">
+        <v>91</v>
+      </c>
+      <c r="L14" s="3">
         <v>145500</v>
       </c>
-      <c r="L14" s="3">
+      <c r="M14" s="3">
         <v>408500</v>
       </c>
-      <c r="M14" s="3"/>
-    </row>
-    <row r="15" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N14" s="3"/>
+    </row>
+    <row r="15" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D15" s="3">
-        <v>16624300</v>
+        <v>16687600</v>
       </c>
       <c r="E15" s="3">
-        <v>16800800</v>
+        <v>17031900</v>
       </c>
       <c r="F15" s="3">
-        <v>17617100</v>
+        <v>17156000</v>
       </c>
       <c r="G15" s="3">
-        <v>16565200</v>
+        <v>17989500</v>
       </c>
       <c r="H15" s="3">
-        <v>14737200</v>
+        <v>16915400</v>
       </c>
       <c r="I15" s="3">
-        <v>13765000</v>
+        <v>15048700</v>
       </c>
       <c r="J15" s="3">
+        <v>14056000</v>
+      </c>
+      <c r="K15" s="3">
         <v>12415700</v>
       </c>
-      <c r="K15" s="3">
+      <c r="L15" s="3">
         <v>10109000</v>
       </c>
-      <c r="L15" s="3">
+      <c r="M15" s="3">
         <v>9280800</v>
       </c>
-      <c r="M15" s="3"/>
-    </row>
-    <row r="16" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N15" s="3"/>
+    </row>
+    <row r="16" spans="1:14" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -969,74 +994,81 @@
       <c r="K16" s="3"/>
       <c r="L16" s="3"/>
       <c r="M16" s="3"/>
-    </row>
-    <row r="17" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N16" s="3"/>
+    </row>
+    <row r="17" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>11</v>
       </c>
       <c r="D17" s="3">
-        <v>440005600</v>
+        <v>326496300</v>
       </c>
       <c r="E17" s="3">
-        <v>429146000</v>
+        <v>448283000</v>
       </c>
       <c r="F17" s="3">
-        <v>349671100</v>
+        <v>438218800</v>
       </c>
       <c r="G17" s="3">
-        <v>283211000</v>
+        <v>357063700</v>
       </c>
       <c r="H17" s="3">
-        <v>299991600</v>
+        <v>289198500</v>
       </c>
       <c r="I17" s="3">
-        <v>420515800</v>
+        <v>306333900</v>
       </c>
       <c r="J17" s="3">
+        <v>429406100</v>
+      </c>
+      <c r="K17" s="3">
         <v>425267100</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>385585700</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>349054300</v>
       </c>
-      <c r="M17" s="3"/>
-    </row>
-    <row r="18" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N17" s="3"/>
+    </row>
+    <row r="18" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D18" s="3">
-        <v>13169300</v>
+        <v>2058200</v>
       </c>
       <c r="E18" s="3">
-        <v>12568300</v>
+        <v>13475200</v>
       </c>
       <c r="F18" s="3">
-        <v>10919200</v>
+        <v>12834000</v>
       </c>
       <c r="G18" s="3">
-        <v>11793500</v>
+        <v>11150000</v>
       </c>
       <c r="H18" s="3">
-        <v>8681300</v>
+        <v>12042900</v>
       </c>
       <c r="I18" s="3">
-        <v>11227300</v>
+        <v>8864800</v>
       </c>
       <c r="J18" s="3">
+        <v>11464700</v>
+      </c>
+      <c r="K18" s="3">
         <v>14786800</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>14156000</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>15347200</v>
       </c>
-      <c r="M18" s="3"/>
-    </row>
-    <row r="19" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N18" s="3"/>
+    </row>
+    <row r="19" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>13</v>
       </c>
@@ -1050,173 +1082,189 @@
       <c r="K19" s="3"/>
       <c r="L19" s="3"/>
       <c r="M19" s="3"/>
-    </row>
-    <row r="20" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N19" s="3"/>
+    </row>
+    <row r="20" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>14</v>
       </c>
       <c r="D20" s="3">
-        <v>2950800</v>
+        <v>7613400</v>
       </c>
       <c r="E20" s="3">
-        <v>3472500</v>
+        <v>3013800</v>
       </c>
       <c r="F20" s="3">
-        <v>3188800</v>
+        <v>3546000</v>
       </c>
       <c r="G20" s="3">
-        <v>1698900</v>
+        <v>3256200</v>
       </c>
       <c r="H20" s="3">
-        <v>1014600</v>
+        <v>1734800</v>
       </c>
       <c r="I20" s="3">
-        <v>340200</v>
+        <v>1036100</v>
       </c>
       <c r="J20" s="3">
+        <v>347400</v>
+      </c>
+      <c r="K20" s="3">
         <v>1221000</v>
       </c>
-      <c r="K20" s="3">
+      <c r="L20" s="3">
         <v>335900</v>
       </c>
-      <c r="L20" s="3">
+      <c r="M20" s="3">
         <v>1095800</v>
       </c>
-      <c r="M20" s="3"/>
-    </row>
-    <row r="21" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N20" s="3"/>
+    </row>
+    <row r="21" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D21" s="3">
-        <v>32801000</v>
+        <v>26339000</v>
       </c>
       <c r="E21" s="3">
-        <v>32898800</v>
+        <v>33500200</v>
       </c>
       <c r="F21" s="3">
-        <v>31785000</v>
+        <v>33515000</v>
       </c>
       <c r="G21" s="3">
-        <v>30114000</v>
+        <v>32373900</v>
       </c>
       <c r="H21" s="3">
-        <v>24483200</v>
+        <v>30672500</v>
       </c>
       <c r="I21" s="3">
-        <v>25379500</v>
+        <v>24931300</v>
       </c>
       <c r="J21" s="3">
+        <v>25851100</v>
+      </c>
+      <c r="K21" s="3">
         <v>28465800</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>24597400</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>25751200</v>
       </c>
-      <c r="M21" s="3"/>
-    </row>
-    <row r="22" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N21" s="3"/>
+    </row>
+    <row r="22" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D22" s="3">
-        <v>2381100</v>
+        <v>2160900</v>
       </c>
       <c r="E22" s="3">
-        <v>898800</v>
+        <v>2444700</v>
       </c>
       <c r="F22" s="3">
-        <v>862400</v>
+        <v>917800</v>
       </c>
       <c r="G22" s="3">
-        <v>1247000</v>
+        <v>880700</v>
       </c>
       <c r="H22" s="3">
-        <v>1077400</v>
+        <v>1273400</v>
       </c>
       <c r="I22" s="3">
-        <v>1559900</v>
+        <v>1100200</v>
       </c>
       <c r="J22" s="3">
+        <v>1592900</v>
+      </c>
+      <c r="K22" s="3">
         <v>1485800</v>
       </c>
-      <c r="K22" s="3">
+      <c r="L22" s="3">
         <v>1486600</v>
       </c>
-      <c r="L22" s="3">
+      <c r="M22" s="3">
         <v>1236200</v>
       </c>
-      <c r="M22" s="3"/>
-    </row>
-    <row r="23" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N22" s="3"/>
+    </row>
+    <row r="23" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D23" s="3">
-        <v>13739000</v>
+        <v>7510800</v>
       </c>
       <c r="E23" s="3">
-        <v>15142000</v>
+        <v>14044300</v>
       </c>
       <c r="F23" s="3">
-        <v>13245600</v>
+        <v>15462200</v>
       </c>
       <c r="G23" s="3">
-        <v>12245500</v>
+        <v>13525600</v>
       </c>
       <c r="H23" s="3">
-        <v>8618500</v>
+        <v>12504400</v>
       </c>
       <c r="I23" s="3">
-        <v>10007700</v>
+        <v>8800700</v>
       </c>
       <c r="J23" s="3">
+        <v>10219300</v>
+      </c>
+      <c r="K23" s="3">
         <v>14522000</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>13005300</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>15206900</v>
       </c>
-      <c r="M23" s="3"/>
-    </row>
-    <row r="24" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N23" s="3"/>
+    </row>
+    <row r="24" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D24" s="3">
-        <v>2733800</v>
+        <v>970200</v>
       </c>
       <c r="E24" s="3">
-        <v>3088100</v>
+        <v>2798700</v>
       </c>
       <c r="F24" s="3">
-        <v>2487100</v>
+        <v>3153400</v>
       </c>
       <c r="G24" s="3">
-        <v>3163600</v>
+        <v>2539700</v>
       </c>
       <c r="H24" s="3">
-        <v>1927000</v>
+        <v>3230500</v>
       </c>
       <c r="I24" s="3">
-        <v>2684500</v>
+        <v>1967800</v>
       </c>
       <c r="J24" s="3">
+        <v>2741300</v>
+      </c>
+      <c r="K24" s="3">
         <v>3783300</v>
       </c>
-      <c r="K24" s="3">
+      <c r="L24" s="3">
         <v>3421400</v>
       </c>
-      <c r="L24" s="3">
+      <c r="M24" s="3">
         <v>3798600</v>
       </c>
-      <c r="M24" s="3"/>
-    </row>
-    <row r="25" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N24" s="3"/>
+    </row>
+    <row r="25" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>19</v>
       </c>
@@ -1247,75 +1295,84 @@
       <c r="L25" s="3">
         <v>0</v>
       </c>
-      <c r="M25" s="3"/>
-    </row>
-    <row r="26" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M25" s="3">
+        <v>0</v>
+      </c>
+      <c r="N25" s="3"/>
+    </row>
+    <row r="26" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>20</v>
       </c>
       <c r="D26" s="3">
-        <v>11005200</v>
+        <v>6540600</v>
       </c>
       <c r="E26" s="3">
-        <v>12053900</v>
+        <v>11245700</v>
       </c>
       <c r="F26" s="3">
-        <v>10758500</v>
+        <v>12308700</v>
       </c>
       <c r="G26" s="3">
-        <v>9081900</v>
+        <v>10985900</v>
       </c>
       <c r="H26" s="3">
-        <v>6691500</v>
+        <v>9273900</v>
       </c>
       <c r="I26" s="3">
-        <v>7323200</v>
+        <v>6832900</v>
       </c>
       <c r="J26" s="3">
+        <v>7478000</v>
+      </c>
+      <c r="K26" s="3">
         <v>10738800</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>9583900</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>11408300</v>
       </c>
-      <c r="M26" s="3"/>
-    </row>
-    <row r="27" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N26" s="3"/>
+    </row>
+    <row r="27" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D27" s="3">
-        <v>8779500</v>
+        <v>5163300</v>
       </c>
       <c r="E27" s="3">
-        <v>9414000</v>
+        <v>8969500</v>
       </c>
       <c r="F27" s="3">
-        <v>7829100</v>
+        <v>9613000</v>
       </c>
       <c r="G27" s="3">
-        <v>7130500</v>
+        <v>7994600</v>
       </c>
       <c r="H27" s="3">
-        <v>4967200</v>
+        <v>7281300</v>
       </c>
       <c r="I27" s="3">
-        <v>7099100</v>
+        <v>5072200</v>
       </c>
       <c r="J27" s="3">
+        <v>7249200</v>
+      </c>
+      <c r="K27" s="3">
         <v>10103600</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>9165400</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>10649100</v>
       </c>
-      <c r="M27" s="3"/>
-    </row>
-    <row r="28" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N27" s="3"/>
+    </row>
+    <row r="28" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>22</v>
       </c>
@@ -1346,9 +1403,12 @@
       <c r="L28" s="3">
         <v>0</v>
       </c>
-      <c r="M28" s="3"/>
-    </row>
-    <row r="29" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M28" s="3">
+        <v>0</v>
+      </c>
+      <c r="N28" s="3"/>
+    </row>
+    <row r="29" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>23</v>
       </c>
@@ -1379,9 +1439,12 @@
       <c r="L29" s="3">
         <v>0</v>
       </c>
-      <c r="M29" s="3"/>
-    </row>
-    <row r="30" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M29" s="3">
+        <v>0</v>
+      </c>
+      <c r="N29" s="3"/>
+    </row>
+    <row r="30" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>24</v>
       </c>
@@ -1412,9 +1475,12 @@
       <c r="L30" s="3">
         <v>0</v>
       </c>
-      <c r="M30" s="3"/>
-    </row>
-    <row r="31" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M30" s="3">
+        <v>0</v>
+      </c>
+      <c r="N30" s="3"/>
+    </row>
+    <row r="31" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>25</v>
       </c>
@@ -1445,75 +1511,84 @@
       <c r="L31" s="3">
         <v>0</v>
       </c>
-      <c r="M31" s="3"/>
-    </row>
-    <row r="32" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M31" s="3">
+        <v>0</v>
+      </c>
+      <c r="N31" s="3"/>
+    </row>
+    <row r="32" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>26</v>
       </c>
       <c r="D32" s="3">
-        <v>-2950800</v>
+        <v>-7613400</v>
       </c>
       <c r="E32" s="3">
-        <v>-3472500</v>
+        <v>-3013800</v>
       </c>
       <c r="F32" s="3">
-        <v>-3188800</v>
+        <v>-3546000</v>
       </c>
       <c r="G32" s="3">
-        <v>-1698900</v>
+        <v>-3256200</v>
       </c>
       <c r="H32" s="3">
-        <v>-1014600</v>
+        <v>-1734800</v>
       </c>
       <c r="I32" s="3">
-        <v>-340200</v>
+        <v>-1036100</v>
       </c>
       <c r="J32" s="3">
+        <v>-347400</v>
+      </c>
+      <c r="K32" s="3">
         <v>-1221000</v>
       </c>
-      <c r="K32" s="3">
+      <c r="L32" s="3">
         <v>-335900</v>
       </c>
-      <c r="L32" s="3">
+      <c r="M32" s="3">
         <v>-1095800</v>
       </c>
-      <c r="M32" s="3"/>
-    </row>
-    <row r="33" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N32" s="3"/>
+    </row>
+    <row r="33" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D33" s="3">
-        <v>8779500</v>
+        <v>5163300</v>
       </c>
       <c r="E33" s="3">
-        <v>9414000</v>
+        <v>8969500</v>
       </c>
       <c r="F33" s="3">
-        <v>7829100</v>
+        <v>9613000</v>
       </c>
       <c r="G33" s="3">
-        <v>7130500</v>
+        <v>7994600</v>
       </c>
       <c r="H33" s="3">
-        <v>4967200</v>
+        <v>7281300</v>
       </c>
       <c r="I33" s="3">
-        <v>7099100</v>
+        <v>5072200</v>
       </c>
       <c r="J33" s="3">
+        <v>7249200</v>
+      </c>
+      <c r="K33" s="3">
         <v>10103600</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>9165400</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>10649100</v>
       </c>
-      <c r="M33" s="3"/>
-    </row>
-    <row r="34" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N33" s="3"/>
+    </row>
+    <row r="34" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>28</v>
       </c>
@@ -1544,80 +1619,89 @@
       <c r="L34" s="3">
         <v>0</v>
       </c>
-      <c r="M34" s="3"/>
-    </row>
-    <row r="35" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="M34" s="3">
+        <v>0</v>
+      </c>
+      <c r="N34" s="3"/>
+    </row>
+    <row r="35" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>29</v>
       </c>
       <c r="D35" s="3">
-        <v>8779500</v>
+        <v>5163300</v>
       </c>
       <c r="E35" s="3">
-        <v>9414000</v>
+        <v>8969500</v>
       </c>
       <c r="F35" s="3">
-        <v>7829100</v>
+        <v>9613000</v>
       </c>
       <c r="G35" s="3">
-        <v>7130500</v>
+        <v>7994600</v>
       </c>
       <c r="H35" s="3">
-        <v>4967200</v>
+        <v>7281300</v>
       </c>
       <c r="I35" s="3">
-        <v>7099100</v>
+        <v>5072200</v>
       </c>
       <c r="J35" s="3">
+        <v>7249200</v>
+      </c>
+      <c r="K35" s="3">
         <v>10103600</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>9165400</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>10649100</v>
       </c>
-      <c r="M35" s="3"/>
-    </row>
-    <row r="37" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N35" s="3"/>
+    </row>
+    <row r="37" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="38" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44196</v>
+      </c>
+      <c r="E38" s="2">
         <v>43830</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>43465</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>43100</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>42735</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>42369</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>42004</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>41639</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>41274</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>40908</v>
       </c>
-      <c r="M38" s="2"/>
-    </row>
-    <row r="39" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N38" s="2"/>
+    </row>
+    <row r="39" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>31</v>
       </c>
@@ -1631,8 +1715,9 @@
       <c r="K39" s="3"/>
       <c r="L39" s="3"/>
       <c r="M39" s="3"/>
-    </row>
-    <row r="40" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N39" s="3"/>
+    </row>
+    <row r="40" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>32</v>
       </c>
@@ -1646,305 +1731,333 @@
       <c r="K40" s="3"/>
       <c r="L40" s="3"/>
       <c r="M40" s="3"/>
-    </row>
-    <row r="41" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N40" s="3"/>
+    </row>
+    <row r="41" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>33</v>
       </c>
       <c r="D41" s="3">
-        <v>9214600</v>
+        <v>13660100</v>
       </c>
       <c r="E41" s="3">
-        <v>17099400</v>
+        <v>9428900</v>
       </c>
       <c r="F41" s="3">
-        <v>17297400</v>
+        <v>17461000</v>
       </c>
       <c r="G41" s="3">
-        <v>19016200</v>
+        <v>17663100</v>
       </c>
       <c r="H41" s="3">
-        <v>10531600</v>
+        <v>19418300</v>
       </c>
       <c r="I41" s="3">
-        <v>1429300</v>
+        <v>10754200</v>
       </c>
       <c r="J41" s="3">
+        <v>1459500</v>
+      </c>
+      <c r="K41" s="3">
         <v>2298700</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>1500200</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>3584400</v>
       </c>
-      <c r="M41" s="3"/>
-    </row>
-    <row r="42" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N41" s="3"/>
+    </row>
+    <row r="42" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D42" s="3">
-        <v>12154400</v>
+        <v>17041600</v>
       </c>
       <c r="E42" s="3">
-        <v>12348400</v>
+        <v>12417500</v>
       </c>
       <c r="F42" s="3">
-        <v>15733600</v>
+        <v>12609500</v>
       </c>
       <c r="G42" s="3">
-        <v>2754500</v>
+        <v>16066200</v>
       </c>
       <c r="H42" s="3">
-        <v>112000</v>
+        <v>2812700</v>
       </c>
       <c r="I42" s="3">
-        <v>113800</v>
+        <v>114400</v>
       </c>
       <c r="J42" s="3">
+        <v>116200</v>
+      </c>
+      <c r="K42" s="3">
         <v>8400</v>
       </c>
-      <c r="K42" s="3">
+      <c r="L42" s="3">
         <v>58500</v>
       </c>
-      <c r="L42" s="3">
+      <c r="M42" s="3">
         <v>80000</v>
       </c>
-      <c r="M42" s="3"/>
-    </row>
-    <row r="43" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N42" s="3"/>
+    </row>
+    <row r="43" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>35</v>
       </c>
       <c r="D43" s="3">
-        <v>16932600</v>
+        <v>14692900</v>
       </c>
       <c r="E43" s="3">
-        <v>18120000</v>
+        <v>25460500</v>
       </c>
       <c r="F43" s="3">
-        <v>19132900</v>
+        <v>18503100</v>
       </c>
       <c r="G43" s="3">
-        <v>17011400</v>
+        <v>19537400</v>
       </c>
       <c r="H43" s="3">
-        <v>16883400</v>
+        <v>17371100</v>
       </c>
       <c r="I43" s="3">
-        <v>22794600</v>
+        <v>17240400</v>
       </c>
       <c r="J43" s="3">
+        <v>23276500</v>
+      </c>
+      <c r="K43" s="3">
         <v>19421900</v>
       </c>
-      <c r="K43" s="3">
+      <c r="L43" s="3">
         <v>15109200</v>
       </c>
-      <c r="L43" s="3">
+      <c r="M43" s="3">
         <v>13008700</v>
       </c>
-      <c r="M43" s="3"/>
-    </row>
-    <row r="44" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N43" s="3"/>
+    </row>
+    <row r="44" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D44" s="3">
-        <v>29401300</v>
+        <v>23697100</v>
       </c>
       <c r="E44" s="3">
-        <v>28200700</v>
+        <v>30288100</v>
       </c>
       <c r="F44" s="3">
-        <v>28523000</v>
+        <v>28796900</v>
       </c>
       <c r="G44" s="3">
-        <v>23911800</v>
+        <v>29126000</v>
       </c>
       <c r="H44" s="3">
-        <v>22246000</v>
+        <v>24417300</v>
       </c>
       <c r="I44" s="3">
-        <v>28756700</v>
+        <v>22716300</v>
       </c>
       <c r="J44" s="3">
+        <v>29364700</v>
+      </c>
+      <c r="K44" s="3">
         <v>33902800</v>
       </c>
-      <c r="K44" s="3">
+      <c r="L44" s="3">
         <v>31316200</v>
       </c>
-      <c r="L44" s="3">
+      <c r="M44" s="3">
         <v>29582900</v>
       </c>
-      <c r="M44" s="3"/>
-    </row>
-    <row r="45" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N44" s="3"/>
+    </row>
+    <row r="45" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D45" s="3">
-        <v>415000</v>
+        <v>1954500</v>
       </c>
       <c r="E45" s="3">
-        <v>1250800</v>
+        <v>423700</v>
       </c>
       <c r="F45" s="3">
-        <v>141200</v>
+        <v>1277300</v>
       </c>
       <c r="G45" s="3">
-        <v>291400</v>
+        <v>144200</v>
       </c>
       <c r="H45" s="3">
-        <v>1203100</v>
+        <v>297500</v>
       </c>
       <c r="I45" s="3">
-        <v>1928400</v>
+        <v>1228600</v>
       </c>
       <c r="J45" s="3">
+        <v>1969200</v>
+      </c>
+      <c r="K45" s="3">
         <v>1356700</v>
       </c>
-      <c r="K45" s="3">
+      <c r="L45" s="3">
         <v>4388200</v>
       </c>
-      <c r="L45" s="3">
+      <c r="M45" s="3">
         <v>3590800</v>
       </c>
-      <c r="M45" s="3"/>
-    </row>
-    <row r="46" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N45" s="3"/>
+    </row>
+    <row r="46" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D46" s="3">
-        <v>68117900</v>
+        <v>71046200</v>
       </c>
       <c r="E46" s="3">
-        <v>77019500</v>
+        <v>69784800</v>
       </c>
       <c r="F46" s="3">
-        <v>80828100</v>
+        <v>78647800</v>
       </c>
       <c r="G46" s="3">
-        <v>62985200</v>
+        <v>82536900</v>
       </c>
       <c r="H46" s="3">
-        <v>50976100</v>
+        <v>64316800</v>
       </c>
       <c r="I46" s="3">
-        <v>55022800</v>
+        <v>52053800</v>
       </c>
       <c r="J46" s="3">
+        <v>56186100</v>
+      </c>
+      <c r="K46" s="3">
         <v>56988500</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>52372400</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>49846900</v>
       </c>
-      <c r="M46" s="3"/>
-    </row>
-    <row r="47" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N46" s="3"/>
+    </row>
+    <row r="47" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D47" s="3">
-        <v>23486100</v>
+        <v>29621200</v>
       </c>
       <c r="E47" s="3">
-        <v>22484800</v>
+        <v>23982600</v>
       </c>
       <c r="F47" s="3">
-        <v>20283500</v>
+        <v>22960100</v>
       </c>
       <c r="G47" s="3">
-        <v>19589500</v>
+        <v>20712400</v>
       </c>
       <c r="H47" s="3">
-        <v>14553400</v>
+        <v>20003600</v>
       </c>
       <c r="I47" s="3">
-        <v>15156100</v>
+        <v>14861000</v>
       </c>
       <c r="J47" s="3">
+        <v>15476500</v>
+      </c>
+      <c r="K47" s="3">
         <v>12077000</v>
       </c>
-      <c r="K47" s="3">
+      <c r="L47" s="3">
         <v>7489800</v>
       </c>
-      <c r="L47" s="3">
+      <c r="M47" s="3">
         <v>6909800</v>
       </c>
-      <c r="M47" s="3"/>
-    </row>
-    <row r="48" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N47" s="3"/>
+    </row>
+    <row r="48" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D48" s="3">
-        <v>162520000</v>
+        <v>152949000</v>
       </c>
       <c r="E48" s="3">
-        <v>115307000</v>
+        <v>208330000</v>
       </c>
       <c r="F48" s="3">
-        <v>117552000</v>
+        <v>117745000</v>
       </c>
       <c r="G48" s="3">
-        <v>125306000</v>
+        <v>120037000</v>
       </c>
       <c r="H48" s="3">
-        <v>135329000</v>
+        <v>127956000</v>
       </c>
       <c r="I48" s="3">
-        <v>134622000</v>
+        <v>138190000</v>
       </c>
       <c r="J48" s="3">
+        <v>137469000</v>
+      </c>
+      <c r="K48" s="3">
         <v>126842000</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>108750000</v>
       </c>
-      <c r="L48" s="3">
+      <c r="M48" s="3">
         <v>98492000</v>
       </c>
-      <c r="M48" s="3"/>
-    </row>
-    <row r="49" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N48" s="3"/>
+    </row>
+    <row r="49" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D49" s="3">
-        <v>1328700</v>
+        <v>1344800</v>
       </c>
       <c r="E49" s="3">
-        <v>1325500</v>
+        <v>1356800</v>
       </c>
       <c r="F49" s="3">
-        <v>1319100</v>
+        <v>1353500</v>
       </c>
       <c r="G49" s="3">
-        <v>970600</v>
+        <v>1347000</v>
       </c>
       <c r="H49" s="3">
-        <v>958100</v>
+        <v>991100</v>
       </c>
       <c r="I49" s="3">
-        <v>959600</v>
+        <v>978300</v>
       </c>
       <c r="J49" s="3">
+        <v>979900</v>
+      </c>
+      <c r="K49" s="3">
         <v>955600</v>
       </c>
-      <c r="K49" s="3">
+      <c r="L49" s="3">
         <v>897800</v>
       </c>
-      <c r="L49" s="3">
+      <c r="M49" s="3">
         <v>1194300</v>
       </c>
-      <c r="M49" s="3"/>
-    </row>
-    <row r="50" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N49" s="3"/>
+    </row>
+    <row r="50" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>42</v>
       </c>
@@ -1975,9 +2088,12 @@
       <c r="L50" s="3">
         <v>0</v>
       </c>
-      <c r="M50" s="3"/>
-    </row>
-    <row r="51" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M50" s="3">
+        <v>0</v>
+      </c>
+      <c r="N50" s="3"/>
+    </row>
+    <row r="51" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>43</v>
       </c>
@@ -2008,42 +2124,48 @@
       <c r="L51" s="3">
         <v>0</v>
       </c>
-      <c r="M51" s="3"/>
-    </row>
-    <row r="52" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M51" s="3">
+        <v>0</v>
+      </c>
+      <c r="N51" s="3"/>
+    </row>
+    <row r="52" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>44</v>
       </c>
       <c r="D52" s="3">
-        <v>12687200</v>
+        <v>15529700</v>
       </c>
       <c r="E52" s="3">
-        <v>27136200</v>
+        <v>12957100</v>
       </c>
       <c r="F52" s="3">
-        <v>23778500</v>
+        <v>27709900</v>
       </c>
       <c r="G52" s="3">
-        <v>20105800</v>
+        <v>24281200</v>
       </c>
       <c r="H52" s="3">
-        <v>19297500</v>
+        <v>20530900</v>
       </c>
       <c r="I52" s="3">
-        <v>15979100</v>
+        <v>19705500</v>
       </c>
       <c r="J52" s="3">
+        <v>16316900</v>
+      </c>
+      <c r="K52" s="3">
         <v>14419100</v>
       </c>
-      <c r="K52" s="3">
+      <c r="L52" s="3">
         <v>12235100</v>
       </c>
-      <c r="L52" s="3">
+      <c r="M52" s="3">
         <v>10005700</v>
       </c>
-      <c r="M52" s="3"/>
-    </row>
-    <row r="53" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N52" s="3"/>
+    </row>
+    <row r="53" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>45</v>
       </c>
@@ -2074,42 +2196,48 @@
       <c r="L53" s="3">
         <v>0</v>
       </c>
-      <c r="M53" s="3"/>
-    </row>
-    <row r="54" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M53" s="3">
+        <v>0</v>
+      </c>
+      <c r="N53" s="3"/>
+    </row>
+    <row r="54" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>46</v>
       </c>
       <c r="D54" s="3">
-        <v>268140000</v>
+        <v>270491000</v>
       </c>
       <c r="E54" s="3">
-        <v>243273000</v>
+        <v>274622000</v>
       </c>
       <c r="F54" s="3">
-        <v>243761000</v>
+        <v>248416000</v>
       </c>
       <c r="G54" s="3">
-        <v>228958000</v>
+        <v>248915000</v>
       </c>
       <c r="H54" s="3">
-        <v>221114000</v>
+        <v>233798000</v>
       </c>
       <c r="I54" s="3">
-        <v>221740000</v>
+        <v>225788000</v>
       </c>
       <c r="J54" s="3">
+        <v>226428000</v>
+      </c>
+      <c r="K54" s="3">
         <v>211282000</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>181745000</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>166449000</v>
       </c>
-      <c r="M54" s="3"/>
-    </row>
-    <row r="55" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N54" s="3"/>
+    </row>
+    <row r="55" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>47</v>
       </c>
@@ -2123,8 +2251,9 @@
       <c r="K55" s="3"/>
       <c r="L55" s="3"/>
       <c r="M55" s="3"/>
-    </row>
-    <row r="56" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N55" s="3"/>
+    </row>
+    <row r="56" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>48</v>
       </c>
@@ -2138,206 +2267,225 @@
       <c r="K56" s="3"/>
       <c r="L56" s="3"/>
       <c r="M56" s="3"/>
-    </row>
-    <row r="57" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N56" s="3"/>
+    </row>
+    <row r="57" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>49</v>
       </c>
       <c r="D57" s="3">
-        <v>30524200</v>
+        <v>25220000</v>
       </c>
       <c r="E57" s="3">
-        <v>29449400</v>
+        <v>31205600</v>
       </c>
       <c r="F57" s="3">
-        <v>31554400</v>
+        <v>30072000</v>
       </c>
       <c r="G57" s="3">
-        <v>27520100</v>
+        <v>32221500</v>
       </c>
       <c r="H57" s="3">
-        <v>20491500</v>
+        <v>28101900</v>
       </c>
       <c r="I57" s="3">
-        <v>31005600</v>
+        <v>20924700</v>
       </c>
       <c r="J57" s="3">
+        <v>31661100</v>
+      </c>
+      <c r="K57" s="3">
         <v>31663700</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>33177200</v>
       </c>
-      <c r="L57" s="3">
+      <c r="M57" s="3">
         <v>28025100</v>
       </c>
-      <c r="M57" s="3"/>
-    </row>
-    <row r="58" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N57" s="3"/>
+    </row>
+    <row r="58" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D58" s="3">
-        <v>15126400</v>
+        <v>6915100</v>
       </c>
       <c r="E58" s="3">
-        <v>9339000</v>
+        <v>22199800</v>
       </c>
       <c r="F58" s="3">
-        <v>12321600</v>
+        <v>9536400</v>
       </c>
       <c r="G58" s="3">
-        <v>11430800</v>
+        <v>12582100</v>
       </c>
       <c r="H58" s="3">
-        <v>17637800</v>
+        <v>11672500</v>
       </c>
       <c r="I58" s="3">
-        <v>27217500</v>
+        <v>18010700</v>
       </c>
       <c r="J58" s="3">
+        <v>27792900</v>
+      </c>
+      <c r="K58" s="3">
         <v>25036100</v>
       </c>
-      <c r="K58" s="3">
+      <c r="L58" s="3">
         <v>16641100</v>
       </c>
-      <c r="L58" s="3">
+      <c r="M58" s="3">
         <v>11688600</v>
       </c>
-      <c r="M58" s="3"/>
-    </row>
-    <row r="59" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N58" s="3"/>
+    </row>
+    <row r="59" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D59" s="3">
-        <v>42407800</v>
+        <v>49331800</v>
       </c>
       <c r="E59" s="3">
-        <v>47547300</v>
+        <v>43830500</v>
       </c>
       <c r="F59" s="3">
-        <v>44651800</v>
+        <v>48552500</v>
       </c>
       <c r="G59" s="3">
-        <v>35230300</v>
+        <v>45595800</v>
       </c>
       <c r="H59" s="3">
-        <v>32582200</v>
+        <v>35975100</v>
       </c>
       <c r="I59" s="3">
-        <v>34095300</v>
+        <v>33271000</v>
       </c>
       <c r="J59" s="3">
+        <v>34816100</v>
+      </c>
+      <c r="K59" s="3">
         <v>30663300</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>23840500</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>24892100</v>
       </c>
-      <c r="M59" s="3"/>
-    </row>
-    <row r="60" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N59" s="3"/>
+    </row>
+    <row r="60" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D60" s="3">
-        <v>88058400</v>
+        <v>81466900</v>
       </c>
       <c r="E60" s="3">
-        <v>86335700</v>
+        <v>90482400</v>
       </c>
       <c r="F60" s="3">
-        <v>88527800</v>
+        <v>88160900</v>
       </c>
       <c r="G60" s="3">
-        <v>74181300</v>
+        <v>90399400</v>
       </c>
       <c r="H60" s="3">
-        <v>70711500</v>
+        <v>75749600</v>
       </c>
       <c r="I60" s="3">
-        <v>92318400</v>
+        <v>72206400</v>
       </c>
       <c r="J60" s="3">
+        <v>94270100</v>
+      </c>
+      <c r="K60" s="3">
         <v>87363000</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>73658800</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>64605800</v>
       </c>
-      <c r="M60" s="3"/>
-    </row>
-    <row r="61" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N60" s="3"/>
+    </row>
+    <row r="61" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D61" s="3">
-        <v>36125700</v>
+        <v>39957400</v>
       </c>
       <c r="E61" s="3">
-        <v>14289100</v>
+        <v>36897600</v>
       </c>
       <c r="F61" s="3">
-        <v>15144200</v>
+        <v>14591100</v>
       </c>
       <c r="G61" s="3">
-        <v>17943400</v>
+        <v>15464300</v>
       </c>
       <c r="H61" s="3">
-        <v>21350400</v>
+        <v>18322800</v>
       </c>
       <c r="I61" s="3">
-        <v>23059400</v>
+        <v>21801800</v>
       </c>
       <c r="J61" s="3">
+        <v>23546900</v>
+      </c>
+      <c r="K61" s="3">
         <v>22243200</v>
       </c>
-      <c r="K61" s="3">
+      <c r="L61" s="3">
         <v>23260400</v>
       </c>
-      <c r="L61" s="3">
+      <c r="M61" s="3">
         <v>22462700</v>
       </c>
-      <c r="M61" s="3"/>
-    </row>
-    <row r="62" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N61" s="3"/>
+    </row>
+    <row r="62" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D62" s="3">
-        <v>10145500</v>
+        <v>11331900</v>
       </c>
       <c r="E62" s="3">
-        <v>11786700</v>
+        <v>10374000</v>
       </c>
       <c r="F62" s="3">
-        <v>9784600</v>
+        <v>12035900</v>
       </c>
       <c r="G62" s="3">
-        <v>9836700</v>
+        <v>9991500</v>
       </c>
       <c r="H62" s="3">
-        <v>8636500</v>
+        <v>10044700</v>
       </c>
       <c r="I62" s="3">
-        <v>7731000</v>
+        <v>8819100</v>
       </c>
       <c r="J62" s="3">
+        <v>7894400</v>
+      </c>
+      <c r="K62" s="3">
         <v>6703700</v>
       </c>
-      <c r="K62" s="3">
+      <c r="L62" s="3">
         <v>6193700</v>
       </c>
-      <c r="L62" s="3">
+      <c r="M62" s="3">
         <v>5597200</v>
       </c>
-      <c r="M62" s="3"/>
-    </row>
-    <row r="63" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N62" s="3"/>
+    </row>
+    <row r="63" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>55</v>
       </c>
@@ -2368,9 +2516,12 @@
       <c r="L63" s="3">
         <v>0</v>
       </c>
-      <c r="M63" s="3"/>
-    </row>
-    <row r="64" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M63" s="3">
+        <v>0</v>
+      </c>
+      <c r="N63" s="3"/>
+    </row>
+    <row r="64" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>19</v>
       </c>
@@ -2401,9 +2552,12 @@
       <c r="L64" s="3">
         <v>0</v>
       </c>
-      <c r="M64" s="3"/>
-    </row>
-    <row r="65" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="M64" s="3">
+        <v>0</v>
+      </c>
+      <c r="N64" s="3"/>
+    </row>
+    <row r="65" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>56</v>
       </c>
@@ -2434,42 +2588,48 @@
       <c r="L65" s="3">
         <v>0</v>
       </c>
-      <c r="M65" s="3"/>
-    </row>
-    <row r="66" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="M65" s="3">
+        <v>0</v>
+      </c>
+      <c r="N65" s="3"/>
+    </row>
+    <row r="66" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>57</v>
       </c>
       <c r="D66" s="3">
-        <v>155365000</v>
+        <v>154810000</v>
       </c>
       <c r="E66" s="3">
-        <v>133686000</v>
+        <v>159339000</v>
       </c>
       <c r="F66" s="3">
-        <v>132825000</v>
+        <v>136513000</v>
       </c>
       <c r="G66" s="3">
-        <v>120332000</v>
+        <v>135633000</v>
       </c>
       <c r="H66" s="3">
-        <v>117804000</v>
+        <v>122876000</v>
       </c>
       <c r="I66" s="3">
-        <v>131135000</v>
+        <v>120295000</v>
       </c>
       <c r="J66" s="3">
+        <v>133908000</v>
+      </c>
+      <c r="K66" s="3">
         <v>124380000</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>108439000</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>97758000</v>
       </c>
-      <c r="M66" s="3"/>
-    </row>
-    <row r="67" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N66" s="3"/>
+    </row>
+    <row r="67" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>58</v>
       </c>
@@ -2483,8 +2643,9 @@
       <c r="K67" s="3"/>
       <c r="L67" s="3"/>
       <c r="M67" s="3"/>
-    </row>
-    <row r="68" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N67" s="3"/>
+    </row>
+    <row r="68" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>59</v>
       </c>
@@ -2515,9 +2676,12 @@
       <c r="L68" s="3">
         <v>0</v>
       </c>
-      <c r="M68" s="3"/>
-    </row>
-    <row r="69" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="M68" s="3">
+        <v>0</v>
+      </c>
+      <c r="N68" s="3"/>
+    </row>
+    <row r="69" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>60</v>
       </c>
@@ -2548,9 +2712,12 @@
       <c r="L69" s="3">
         <v>0</v>
       </c>
-      <c r="M69" s="3"/>
-    </row>
-    <row r="70" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="M69" s="3">
+        <v>0</v>
+      </c>
+      <c r="N69" s="3"/>
+    </row>
+    <row r="70" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>61</v>
       </c>
@@ -2581,9 +2748,12 @@
       <c r="L70" s="3">
         <v>0</v>
       </c>
-      <c r="M70" s="3"/>
-    </row>
-    <row r="71" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="M70" s="3">
+        <v>0</v>
+      </c>
+      <c r="N70" s="3"/>
+    </row>
+    <row r="71" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>62</v>
       </c>
@@ -2614,42 +2784,48 @@
       <c r="L71" s="3">
         <v>0</v>
       </c>
-      <c r="M71" s="3"/>
-    </row>
-    <row r="72" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="M71" s="3">
+        <v>0</v>
+      </c>
+      <c r="N71" s="3"/>
+    </row>
+    <row r="72" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>63</v>
       </c>
       <c r="D72" s="3">
-        <v>85744600</v>
+        <v>88079000</v>
       </c>
       <c r="E72" s="3">
-        <v>82556700</v>
+        <v>87681500</v>
       </c>
       <c r="F72" s="3">
-        <v>83906600</v>
+        <v>84302000</v>
       </c>
       <c r="G72" s="3">
-        <v>81530900</v>
+        <v>85680500</v>
       </c>
       <c r="H72" s="3">
-        <v>77315400</v>
+        <v>83254600</v>
       </c>
       <c r="I72" s="3">
-        <v>67088100</v>
+        <v>78950000</v>
       </c>
       <c r="J72" s="3">
+        <v>68506500</v>
+      </c>
+      <c r="K72" s="3">
         <v>63617600</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>56679900</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>52025800</v>
       </c>
-      <c r="M72" s="3"/>
-    </row>
-    <row r="73" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N72" s="3"/>
+    </row>
+    <row r="73" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>64</v>
       </c>
@@ -2680,9 +2856,12 @@
       <c r="L73" s="3">
         <v>0</v>
       </c>
-      <c r="M73" s="3"/>
-    </row>
-    <row r="74" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="M73" s="3">
+        <v>0</v>
+      </c>
+      <c r="N73" s="3"/>
+    </row>
+    <row r="74" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>65</v>
       </c>
@@ -2713,9 +2892,12 @@
       <c r="L74" s="3">
         <v>0</v>
       </c>
-      <c r="M74" s="3"/>
-    </row>
-    <row r="75" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="M74" s="3">
+        <v>0</v>
+      </c>
+      <c r="N74" s="3"/>
+    </row>
+    <row r="75" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>66</v>
       </c>
@@ -2746,42 +2928,48 @@
       <c r="L75" s="3">
         <v>0</v>
       </c>
-      <c r="M75" s="3"/>
-    </row>
-    <row r="76" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="M75" s="3">
+        <v>0</v>
+      </c>
+      <c r="N75" s="3"/>
+    </row>
+    <row r="76" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>67</v>
       </c>
       <c r="D76" s="3">
-        <v>112775000</v>
+        <v>115681000</v>
       </c>
       <c r="E76" s="3">
-        <v>109587000</v>
+        <v>115283000</v>
       </c>
       <c r="F76" s="3">
-        <v>110937000</v>
+        <v>111904000</v>
       </c>
       <c r="G76" s="3">
-        <v>108626000</v>
+        <v>113282000</v>
       </c>
       <c r="H76" s="3">
-        <v>103309000</v>
+        <v>110922000</v>
       </c>
       <c r="I76" s="3">
-        <v>90604800</v>
+        <v>105494000</v>
       </c>
       <c r="J76" s="3">
+        <v>92520300</v>
+      </c>
+      <c r="K76" s="3">
         <v>86901700</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>73305900</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>68690700</v>
       </c>
-      <c r="M76" s="3"/>
-    </row>
-    <row r="77" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N76" s="3"/>
+    </row>
+    <row r="77" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>68</v>
       </c>
@@ -2812,80 +3000,89 @@
       <c r="L77" s="3">
         <v>0</v>
       </c>
-      <c r="M77" s="3"/>
-    </row>
-    <row r="79" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="M77" s="3">
+        <v>0</v>
+      </c>
+      <c r="N77" s="3"/>
+    </row>
+    <row r="79" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>69</v>
       </c>
     </row>
-    <row r="80" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44196</v>
+      </c>
+      <c r="E80" s="2">
         <v>43830</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>43465</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>43100</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>42735</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>42369</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>42004</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>41639</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>41274</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>40908</v>
       </c>
-      <c r="M80" s="2"/>
-    </row>
-    <row r="81" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N80" s="2"/>
+    </row>
+    <row r="81" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D81" s="3">
-        <v>8779500</v>
+        <v>5163300</v>
       </c>
       <c r="E81" s="3">
-        <v>9414000</v>
+        <v>8969500</v>
       </c>
       <c r="F81" s="3">
-        <v>7829100</v>
+        <v>9613000</v>
       </c>
       <c r="G81" s="3">
-        <v>7130500</v>
+        <v>7994600</v>
       </c>
       <c r="H81" s="3">
-        <v>4967200</v>
+        <v>7281300</v>
       </c>
       <c r="I81" s="3">
-        <v>7099100</v>
+        <v>5072200</v>
       </c>
       <c r="J81" s="3">
+        <v>7249200</v>
+      </c>
+      <c r="K81" s="3">
         <v>10103600</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>9165400</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>10649100</v>
       </c>
-      <c r="M81" s="3"/>
-    </row>
-    <row r="82" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N81" s="3"/>
+    </row>
+    <row r="82" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>70</v>
       </c>
@@ -2899,41 +3096,45 @@
       <c r="K82" s="3"/>
       <c r="L82" s="3"/>
       <c r="M82" s="3"/>
-    </row>
-    <row r="83" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N82" s="3"/>
+    </row>
+    <row r="83" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>71</v>
       </c>
       <c r="D83" s="3">
-        <v>16624300</v>
+        <v>16687600</v>
       </c>
       <c r="E83" s="3">
-        <v>16800800</v>
+        <v>17031900</v>
       </c>
       <c r="F83" s="3">
-        <v>17617100</v>
+        <v>17156000</v>
       </c>
       <c r="G83" s="3">
-        <v>16565200</v>
+        <v>17989500</v>
       </c>
       <c r="H83" s="3">
-        <v>14737200</v>
+        <v>16915400</v>
       </c>
       <c r="I83" s="3">
-        <v>13765000</v>
+        <v>15048700</v>
       </c>
       <c r="J83" s="3">
+        <v>14056000</v>
+      </c>
+      <c r="K83" s="3">
         <v>12415700</v>
       </c>
-      <c r="K83" s="3">
+      <c r="L83" s="3">
         <v>10109000</v>
       </c>
-      <c r="L83" s="3">
+      <c r="M83" s="3">
         <v>9280800</v>
       </c>
-      <c r="M83" s="3"/>
-    </row>
-    <row r="84" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N83" s="3"/>
+    </row>
+    <row r="84" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>72</v>
       </c>
@@ -2964,9 +3165,12 @@
       <c r="L84" s="3">
         <v>0</v>
       </c>
-      <c r="M84" s="3"/>
-    </row>
-    <row r="85" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M84" s="3">
+        <v>0</v>
+      </c>
+      <c r="N84" s="3"/>
+    </row>
+    <row r="85" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>73</v>
       </c>
@@ -2997,9 +3201,12 @@
       <c r="L85" s="3">
         <v>0</v>
       </c>
-      <c r="M85" s="3"/>
-    </row>
-    <row r="86" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M85" s="3">
+        <v>0</v>
+      </c>
+      <c r="N85" s="3"/>
+    </row>
+    <row r="86" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>74</v>
       </c>
@@ -3030,9 +3237,12 @@
       <c r="L86" s="3">
         <v>0</v>
       </c>
-      <c r="M86" s="3"/>
-    </row>
-    <row r="87" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M86" s="3">
+        <v>0</v>
+      </c>
+      <c r="N86" s="3"/>
+    </row>
+    <row r="87" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>75</v>
       </c>
@@ -3063,9 +3273,12 @@
       <c r="L87" s="3">
         <v>0</v>
       </c>
-      <c r="M87" s="3"/>
-    </row>
-    <row r="88" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M87" s="3">
+        <v>0</v>
+      </c>
+      <c r="N87" s="3"/>
+    </row>
+    <row r="88" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>76</v>
       </c>
@@ -3096,42 +3309,48 @@
       <c r="L88" s="3">
         <v>0</v>
       </c>
-      <c r="M88" s="3"/>
-    </row>
-    <row r="89" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M88" s="3">
+        <v>0</v>
+      </c>
+      <c r="N88" s="3"/>
+    </row>
+    <row r="89" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>77</v>
       </c>
       <c r="D89" s="3">
-        <v>23439500</v>
+        <v>26134500</v>
       </c>
       <c r="E89" s="3">
-        <v>26869100</v>
+        <v>23966100</v>
       </c>
       <c r="F89" s="3">
-        <v>29171000</v>
+        <v>27437200</v>
       </c>
       <c r="G89" s="3">
-        <v>32777900</v>
+        <v>29787800</v>
       </c>
       <c r="H89" s="3">
-        <v>25321800</v>
+        <v>33470900</v>
       </c>
       <c r="I89" s="3">
-        <v>22664500</v>
+        <v>25857100</v>
       </c>
       <c r="J89" s="3">
+        <v>23143600</v>
+      </c>
+      <c r="K89" s="3">
         <v>23206200</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>20428700</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>21905000</v>
       </c>
-      <c r="M89" s="3"/>
-    </row>
-    <row r="90" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N89" s="3"/>
+    </row>
+    <row r="90" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>78</v>
       </c>
@@ -3145,41 +3364,45 @@
       <c r="K90" s="3"/>
       <c r="L90" s="3"/>
       <c r="M90" s="3"/>
-    </row>
-    <row r="91" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N90" s="3"/>
+    </row>
+    <row r="91" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>79</v>
       </c>
       <c r="D91" s="3">
-        <v>-19807200</v>
+        <v>-18389500</v>
       </c>
       <c r="E91" s="3">
-        <v>-14476400</v>
+        <v>-20290200</v>
       </c>
       <c r="F91" s="3">
-        <v>-9707800</v>
+        <v>-14782400</v>
       </c>
       <c r="G91" s="3">
-        <v>-10002000</v>
+        <v>-9913000</v>
       </c>
       <c r="H91" s="3">
-        <v>-14589700</v>
+        <v>-10213500</v>
       </c>
       <c r="I91" s="3">
-        <v>-17271300</v>
+        <v>-14898200</v>
       </c>
       <c r="J91" s="3">
+        <v>-17636500</v>
+      </c>
+      <c r="K91" s="3">
         <v>-22148800</v>
       </c>
-      <c r="K91" s="3">
+      <c r="L91" s="3">
         <v>-20899700</v>
       </c>
-      <c r="L91" s="3">
+      <c r="M91" s="3">
         <v>-19158500</v>
       </c>
-      <c r="M91" s="3"/>
-    </row>
-    <row r="92" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N91" s="3"/>
+    </row>
+    <row r="92" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>80</v>
       </c>
@@ -3210,9 +3433,12 @@
       <c r="L92" s="3">
         <v>0</v>
       </c>
-      <c r="M92" s="3"/>
-    </row>
-    <row r="93" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M92" s="3">
+        <v>0</v>
+      </c>
+      <c r="N92" s="3"/>
+    </row>
+    <row r="93" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>81</v>
       </c>
@@ -3243,42 +3469,48 @@
       <c r="L93" s="3">
         <v>0</v>
       </c>
-      <c r="M93" s="3"/>
-    </row>
-    <row r="94" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M93" s="3">
+        <v>0</v>
+      </c>
+      <c r="N93" s="3"/>
+    </row>
+    <row r="94" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>82</v>
       </c>
       <c r="D94" s="3">
-        <v>-18404300</v>
+        <v>-15944700</v>
       </c>
       <c r="E94" s="3">
-        <v>-10148000</v>
+        <v>-18885200</v>
       </c>
       <c r="F94" s="3">
-        <v>-22202400</v>
+        <v>-10362500</v>
       </c>
       <c r="G94" s="3">
-        <v>-10116600</v>
+        <v>-22671800</v>
       </c>
       <c r="H94" s="3">
-        <v>-17832300</v>
+        <v>-10330500</v>
       </c>
       <c r="I94" s="3">
-        <v>-20263700</v>
+        <v>-18209300</v>
       </c>
       <c r="J94" s="3">
+        <v>-20692100</v>
+      </c>
+      <c r="K94" s="3">
         <v>-27307900</v>
       </c>
-      <c r="K94" s="3">
+      <c r="L94" s="3">
         <v>-23272000</v>
       </c>
-      <c r="L94" s="3">
+      <c r="M94" s="3">
         <v>-20425500</v>
       </c>
-      <c r="M94" s="3"/>
-    </row>
-    <row r="95" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N94" s="3"/>
+    </row>
+    <row r="95" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>83</v>
       </c>
@@ -3292,41 +3524,45 @@
       <c r="K95" s="3"/>
       <c r="L95" s="3"/>
       <c r="M95" s="3"/>
-    </row>
-    <row r="96" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N95" s="3"/>
+    </row>
+    <row r="96" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>84</v>
       </c>
       <c r="D96" s="3">
-        <v>-7029100</v>
+        <v>-4911000</v>
       </c>
       <c r="E96" s="3">
-        <v>-10358300</v>
+        <v>-7177700</v>
       </c>
       <c r="F96" s="3">
-        <v>-4994200</v>
+        <v>-10577300</v>
       </c>
       <c r="G96" s="3">
-        <v>-2578300</v>
+        <v>-5099800</v>
       </c>
       <c r="H96" s="3">
-        <v>-3699400</v>
+        <v>-2632800</v>
       </c>
       <c r="I96" s="3">
-        <v>-4282600</v>
+        <v>-3777600</v>
       </c>
       <c r="J96" s="3">
+        <v>-4373100</v>
+      </c>
+      <c r="K96" s="3">
         <v>-4323400</v>
       </c>
-      <c r="K96" s="3">
+      <c r="L96" s="3">
         <v>-3656700</v>
       </c>
-      <c r="L96" s="3">
+      <c r="M96" s="3">
         <v>-2831400</v>
       </c>
-      <c r="M96" s="3"/>
-    </row>
-    <row r="97" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N96" s="3"/>
+    </row>
+    <row r="97" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>85</v>
       </c>
@@ -3357,9 +3593,12 @@
       <c r="L97" s="3">
         <v>0</v>
       </c>
-      <c r="M97" s="3"/>
-    </row>
-    <row r="98" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M97" s="3">
+        <v>0</v>
+      </c>
+      <c r="N97" s="3"/>
+    </row>
+    <row r="98" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>86</v>
       </c>
@@ -3390,9 +3629,12 @@
       <c r="L98" s="3">
         <v>0</v>
       </c>
-      <c r="M98" s="3"/>
-    </row>
-    <row r="99" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M98" s="3">
+        <v>0</v>
+      </c>
+      <c r="N98" s="3"/>
+    </row>
+    <row r="99" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>87</v>
       </c>
@@ -3423,106 +3665,118 @@
       <c r="L99" s="3">
         <v>0</v>
       </c>
-      <c r="M99" s="3"/>
-    </row>
-    <row r="100" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M99" s="3">
+        <v>0</v>
+      </c>
+      <c r="N99" s="3"/>
+    </row>
+    <row r="100" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>88</v>
       </c>
       <c r="D100" s="3">
-        <v>-12942500</v>
+        <v>-5765300</v>
       </c>
       <c r="E100" s="3">
-        <v>-16998300</v>
+        <v>-13136700</v>
       </c>
       <c r="F100" s="3">
-        <v>-8633400</v>
+        <v>-17357700</v>
       </c>
       <c r="G100" s="3">
-        <v>-14215700</v>
+        <v>-8816000</v>
       </c>
       <c r="H100" s="3">
-        <v>1389200</v>
+        <v>-14516300</v>
       </c>
       <c r="I100" s="3">
-        <v>-3272700</v>
+        <v>1418600</v>
       </c>
       <c r="J100" s="3">
+        <v>-3341900</v>
+      </c>
+      <c r="K100" s="3">
         <v>4815500</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>807500</v>
       </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
         <v>-365900</v>
       </c>
-      <c r="M100" s="3"/>
-    </row>
-    <row r="101" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N100" s="3"/>
+    </row>
+    <row r="101" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D101" s="3">
-        <v>22500</v>
+        <v>-193300</v>
       </c>
       <c r="E101" s="3">
-        <v>79100</v>
+        <v>22900</v>
       </c>
       <c r="F101" s="3">
-        <v>-53900</v>
+        <v>80800</v>
       </c>
       <c r="G101" s="3">
-        <v>39100</v>
+        <v>-55100</v>
       </c>
       <c r="H101" s="3">
-        <v>44800</v>
+        <v>39900</v>
       </c>
       <c r="I101" s="3">
-        <v>2400</v>
+        <v>45700</v>
       </c>
       <c r="J101" s="3">
+        <v>2500</v>
+      </c>
+      <c r="K101" s="3">
         <v>-12500</v>
       </c>
-      <c r="K101" s="3">
+      <c r="L101" s="3">
         <v>-300</v>
       </c>
-      <c r="L101" s="3">
+      <c r="M101" s="3">
         <v>-2600</v>
       </c>
-      <c r="M101" s="3"/>
-    </row>
-    <row r="102" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N101" s="3"/>
+    </row>
+    <row r="102" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D102" s="3">
-        <v>-7884800</v>
+        <v>4231100</v>
       </c>
       <c r="E102" s="3">
-        <v>-198000</v>
+        <v>-8032800</v>
       </c>
       <c r="F102" s="3">
-        <v>-1718800</v>
+        <v>-202200</v>
       </c>
       <c r="G102" s="3">
-        <v>8484600</v>
+        <v>-1755100</v>
       </c>
       <c r="H102" s="3">
-        <v>8923400</v>
+        <v>8664000</v>
       </c>
       <c r="I102" s="3">
-        <v>-869500</v>
+        <v>9112100</v>
       </c>
       <c r="J102" s="3">
+        <v>-887900</v>
+      </c>
+      <c r="K102" s="3">
         <v>701300</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>-2036100</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>1110900</v>
       </c>
-      <c r="M102" s="3"/>
+      <c r="N102" s="3"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/AAII_Financials/Yearly/SNP_YR_FIN.xlsx
+++ b/AAII_Financials/Yearly/SNP_YR_FIN.xlsx
@@ -720,25 +720,25 @@
         <v>3</v>
       </c>
       <c r="D8" s="3">
-        <v>328554600</v>
+        <v>324279400</v>
       </c>
       <c r="E8" s="3">
-        <v>461758200</v>
+        <v>455749900</v>
       </c>
       <c r="F8" s="3">
-        <v>451052800</v>
+        <v>445183700</v>
       </c>
       <c r="G8" s="3">
-        <v>368213700</v>
+        <v>363422500</v>
       </c>
       <c r="H8" s="3">
-        <v>301241400</v>
+        <v>297321700</v>
       </c>
       <c r="I8" s="3">
-        <v>315198700</v>
+        <v>311097300</v>
       </c>
       <c r="J8" s="3">
-        <v>440870800</v>
+        <v>435134200</v>
       </c>
       <c r="K8" s="3">
         <v>440053900</v>
@@ -756,25 +756,25 @@
         <v>4</v>
       </c>
       <c r="D9" s="3">
-        <v>262536900</v>
+        <v>259120800</v>
       </c>
       <c r="E9" s="3">
-        <v>383051400</v>
+        <v>378067100</v>
       </c>
       <c r="F9" s="3">
-        <v>371772000</v>
+        <v>366934500</v>
       </c>
       <c r="G9" s="3">
-        <v>289805600</v>
+        <v>286034600</v>
       </c>
       <c r="H9" s="3">
-        <v>227460700</v>
+        <v>224501000</v>
       </c>
       <c r="I9" s="3">
-        <v>244163300</v>
+        <v>240986200</v>
       </c>
       <c r="J9" s="3">
-        <v>366381800</v>
+        <v>361614500</v>
       </c>
       <c r="K9" s="3">
         <v>364537500</v>
@@ -792,25 +792,25 @@
         <v>5</v>
       </c>
       <c r="D10" s="3">
-        <v>66017700</v>
+        <v>65158600</v>
       </c>
       <c r="E10" s="3">
-        <v>78706900</v>
+        <v>77682800</v>
       </c>
       <c r="F10" s="3">
-        <v>79280800</v>
+        <v>78249200</v>
       </c>
       <c r="G10" s="3">
-        <v>78408100</v>
+        <v>77387900</v>
       </c>
       <c r="H10" s="3">
-        <v>73780700</v>
+        <v>72820700</v>
       </c>
       <c r="I10" s="3">
-        <v>71035400</v>
+        <v>70111100</v>
       </c>
       <c r="J10" s="3">
-        <v>74489000</v>
+        <v>73519800</v>
       </c>
       <c r="K10" s="3">
         <v>75516400</v>
@@ -844,25 +844,25 @@
         <v>7</v>
       </c>
       <c r="D12" s="3">
-        <v>1515800</v>
+        <v>1496100</v>
       </c>
       <c r="E12" s="3">
-        <v>1639700</v>
+        <v>1618300</v>
       </c>
       <c r="F12" s="3">
-        <v>1676200</v>
+        <v>1654400</v>
       </c>
       <c r="G12" s="3">
-        <v>1730000</v>
+        <v>1707500</v>
       </c>
       <c r="H12" s="3">
-        <v>1721600</v>
+        <v>1699200</v>
       </c>
       <c r="I12" s="3">
-        <v>1631700</v>
+        <v>1610500</v>
       </c>
       <c r="J12" s="3">
-        <v>1711300</v>
+        <v>1689000</v>
       </c>
       <c r="K12" s="3">
         <v>1920900</v>
@@ -916,10 +916,10 @@
         <v>9</v>
       </c>
       <c r="D14" s="3">
-        <v>2271500</v>
+        <v>2241900</v>
       </c>
       <c r="E14" s="3">
-        <v>53800</v>
+        <v>53100</v>
       </c>
       <c r="F14" s="3" t="s">
         <v>91</v>
@@ -928,7 +928,7 @@
         <v>0</v>
       </c>
       <c r="H14" s="3">
-        <v>-3207900</v>
+        <v>-3166100</v>
       </c>
       <c r="I14" s="3">
         <v>0</v>
@@ -952,25 +952,25 @@
         <v>10</v>
       </c>
       <c r="D15" s="3">
-        <v>16687600</v>
+        <v>16470500</v>
       </c>
       <c r="E15" s="3">
-        <v>17031900</v>
+        <v>16810300</v>
       </c>
       <c r="F15" s="3">
-        <v>17156000</v>
+        <v>16932700</v>
       </c>
       <c r="G15" s="3">
-        <v>17989500</v>
+        <v>17755400</v>
       </c>
       <c r="H15" s="3">
-        <v>16915400</v>
+        <v>16695300</v>
       </c>
       <c r="I15" s="3">
-        <v>15048700</v>
+        <v>14852900</v>
       </c>
       <c r="J15" s="3">
-        <v>14056000</v>
+        <v>13873100</v>
       </c>
       <c r="K15" s="3">
         <v>12415700</v>
@@ -1001,25 +1001,25 @@
         <v>11</v>
       </c>
       <c r="D17" s="3">
-        <v>326496300</v>
+        <v>322248000</v>
       </c>
       <c r="E17" s="3">
-        <v>448283000</v>
+        <v>442450000</v>
       </c>
       <c r="F17" s="3">
-        <v>438218800</v>
+        <v>432516700</v>
       </c>
       <c r="G17" s="3">
-        <v>357063700</v>
+        <v>352417600</v>
       </c>
       <c r="H17" s="3">
-        <v>289198500</v>
+        <v>285435500</v>
       </c>
       <c r="I17" s="3">
-        <v>306333900</v>
+        <v>302347900</v>
       </c>
       <c r="J17" s="3">
-        <v>429406100</v>
+        <v>423818700</v>
       </c>
       <c r="K17" s="3">
         <v>425267100</v>
@@ -1037,25 +1037,25 @@
         <v>12</v>
       </c>
       <c r="D18" s="3">
-        <v>2058200</v>
+        <v>2031500</v>
       </c>
       <c r="E18" s="3">
-        <v>13475200</v>
+        <v>13299900</v>
       </c>
       <c r="F18" s="3">
-        <v>12834000</v>
+        <v>12667000</v>
       </c>
       <c r="G18" s="3">
-        <v>11150000</v>
+        <v>11005000</v>
       </c>
       <c r="H18" s="3">
-        <v>12042900</v>
+        <v>11886200</v>
       </c>
       <c r="I18" s="3">
-        <v>8864800</v>
+        <v>8749500</v>
       </c>
       <c r="J18" s="3">
-        <v>11464700</v>
+        <v>11315500</v>
       </c>
       <c r="K18" s="3">
         <v>14786800</v>
@@ -1089,25 +1089,25 @@
         <v>14</v>
       </c>
       <c r="D20" s="3">
-        <v>7613400</v>
+        <v>7514400</v>
       </c>
       <c r="E20" s="3">
-        <v>3013800</v>
+        <v>2974600</v>
       </c>
       <c r="F20" s="3">
-        <v>3546000</v>
+        <v>3499800</v>
       </c>
       <c r="G20" s="3">
-        <v>3256200</v>
+        <v>3213900</v>
       </c>
       <c r="H20" s="3">
-        <v>1734800</v>
+        <v>1712300</v>
       </c>
       <c r="I20" s="3">
-        <v>1036100</v>
+        <v>1022600</v>
       </c>
       <c r="J20" s="3">
-        <v>347400</v>
+        <v>342900</v>
       </c>
       <c r="K20" s="3">
         <v>1221000</v>
@@ -1125,25 +1125,25 @@
         <v>15</v>
       </c>
       <c r="D21" s="3">
-        <v>26339000</v>
+        <v>26042000</v>
       </c>
       <c r="E21" s="3">
-        <v>33500200</v>
+        <v>33111000</v>
       </c>
       <c r="F21" s="3">
-        <v>33515000</v>
+        <v>33125900</v>
       </c>
       <c r="G21" s="3">
-        <v>32373900</v>
+        <v>32001900</v>
       </c>
       <c r="H21" s="3">
-        <v>30672500</v>
+        <v>30319700</v>
       </c>
       <c r="I21" s="3">
-        <v>24931300</v>
+        <v>24648100</v>
       </c>
       <c r="J21" s="3">
-        <v>25851100</v>
+        <v>25553200</v>
       </c>
       <c r="K21" s="3">
         <v>28465800</v>
@@ -1161,25 +1161,25 @@
         <v>16</v>
       </c>
       <c r="D22" s="3">
-        <v>2160900</v>
+        <v>2132800</v>
       </c>
       <c r="E22" s="3">
-        <v>2444700</v>
+        <v>2412900</v>
       </c>
       <c r="F22" s="3">
-        <v>917800</v>
+        <v>905900</v>
       </c>
       <c r="G22" s="3">
-        <v>880700</v>
+        <v>869200</v>
       </c>
       <c r="H22" s="3">
-        <v>1273400</v>
+        <v>1256800</v>
       </c>
       <c r="I22" s="3">
-        <v>1100200</v>
+        <v>1085900</v>
       </c>
       <c r="J22" s="3">
-        <v>1592900</v>
+        <v>1572100</v>
       </c>
       <c r="K22" s="3">
         <v>1485800</v>
@@ -1197,25 +1197,25 @@
         <v>17</v>
       </c>
       <c r="D23" s="3">
-        <v>7510800</v>
+        <v>7413100</v>
       </c>
       <c r="E23" s="3">
-        <v>14044300</v>
+        <v>13861600</v>
       </c>
       <c r="F23" s="3">
-        <v>15462200</v>
+        <v>15261000</v>
       </c>
       <c r="G23" s="3">
-        <v>13525600</v>
+        <v>13349600</v>
       </c>
       <c r="H23" s="3">
-        <v>12504400</v>
+        <v>12341700</v>
       </c>
       <c r="I23" s="3">
-        <v>8800700</v>
+        <v>8686200</v>
       </c>
       <c r="J23" s="3">
-        <v>10219300</v>
+        <v>10086300</v>
       </c>
       <c r="K23" s="3">
         <v>14522000</v>
@@ -1233,25 +1233,25 @@
         <v>18</v>
       </c>
       <c r="D24" s="3">
-        <v>970200</v>
+        <v>957600</v>
       </c>
       <c r="E24" s="3">
-        <v>2798700</v>
+        <v>2762200</v>
       </c>
       <c r="F24" s="3">
-        <v>3153400</v>
+        <v>3112400</v>
       </c>
       <c r="G24" s="3">
-        <v>2539700</v>
+        <v>2506600</v>
       </c>
       <c r="H24" s="3">
-        <v>3230500</v>
+        <v>3188500</v>
       </c>
       <c r="I24" s="3">
-        <v>1967800</v>
+        <v>1942100</v>
       </c>
       <c r="J24" s="3">
-        <v>2741300</v>
+        <v>2705600</v>
       </c>
       <c r="K24" s="3">
         <v>3783300</v>
@@ -1305,25 +1305,25 @@
         <v>20</v>
       </c>
       <c r="D26" s="3">
-        <v>6540600</v>
+        <v>6455500</v>
       </c>
       <c r="E26" s="3">
-        <v>11245700</v>
+        <v>11099300</v>
       </c>
       <c r="F26" s="3">
-        <v>12308700</v>
+        <v>12148600</v>
       </c>
       <c r="G26" s="3">
-        <v>10985900</v>
+        <v>10843000</v>
       </c>
       <c r="H26" s="3">
-        <v>9273900</v>
+        <v>9153200</v>
       </c>
       <c r="I26" s="3">
-        <v>6832900</v>
+        <v>6744000</v>
       </c>
       <c r="J26" s="3">
-        <v>7478000</v>
+        <v>7380700</v>
       </c>
       <c r="K26" s="3">
         <v>10738800</v>
@@ -1341,25 +1341,25 @@
         <v>21</v>
       </c>
       <c r="D27" s="3">
-        <v>5163300</v>
+        <v>5096100</v>
       </c>
       <c r="E27" s="3">
-        <v>8969500</v>
+        <v>8852800</v>
       </c>
       <c r="F27" s="3">
-        <v>9613000</v>
+        <v>9487900</v>
       </c>
       <c r="G27" s="3">
-        <v>7994600</v>
+        <v>7890600</v>
       </c>
       <c r="H27" s="3">
-        <v>7281300</v>
+        <v>7186600</v>
       </c>
       <c r="I27" s="3">
-        <v>5072200</v>
+        <v>5006200</v>
       </c>
       <c r="J27" s="3">
-        <v>7249200</v>
+        <v>7154800</v>
       </c>
       <c r="K27" s="3">
         <v>10103600</v>
@@ -1521,25 +1521,25 @@
         <v>26</v>
       </c>
       <c r="D32" s="3">
-        <v>-7613400</v>
+        <v>-7514400</v>
       </c>
       <c r="E32" s="3">
-        <v>-3013800</v>
+        <v>-2974600</v>
       </c>
       <c r="F32" s="3">
-        <v>-3546000</v>
+        <v>-3499800</v>
       </c>
       <c r="G32" s="3">
-        <v>-3256200</v>
+        <v>-3213900</v>
       </c>
       <c r="H32" s="3">
-        <v>-1734800</v>
+        <v>-1712300</v>
       </c>
       <c r="I32" s="3">
-        <v>-1036100</v>
+        <v>-1022600</v>
       </c>
       <c r="J32" s="3">
-        <v>-347400</v>
+        <v>-342900</v>
       </c>
       <c r="K32" s="3">
         <v>-1221000</v>
@@ -1557,25 +1557,25 @@
         <v>27</v>
       </c>
       <c r="D33" s="3">
-        <v>5163300</v>
+        <v>5096100</v>
       </c>
       <c r="E33" s="3">
-        <v>8969500</v>
+        <v>8852800</v>
       </c>
       <c r="F33" s="3">
-        <v>9613000</v>
+        <v>9487900</v>
       </c>
       <c r="G33" s="3">
-        <v>7994600</v>
+        <v>7890600</v>
       </c>
       <c r="H33" s="3">
-        <v>7281300</v>
+        <v>7186600</v>
       </c>
       <c r="I33" s="3">
-        <v>5072200</v>
+        <v>5006200</v>
       </c>
       <c r="J33" s="3">
-        <v>7249200</v>
+        <v>7154800</v>
       </c>
       <c r="K33" s="3">
         <v>10103600</v>
@@ -1629,25 +1629,25 @@
         <v>29</v>
       </c>
       <c r="D35" s="3">
-        <v>5163300</v>
+        <v>5096100</v>
       </c>
       <c r="E35" s="3">
-        <v>8969500</v>
+        <v>8852800</v>
       </c>
       <c r="F35" s="3">
-        <v>9613000</v>
+        <v>9487900</v>
       </c>
       <c r="G35" s="3">
-        <v>7994600</v>
+        <v>7890600</v>
       </c>
       <c r="H35" s="3">
-        <v>7281300</v>
+        <v>7186600</v>
       </c>
       <c r="I35" s="3">
-        <v>5072200</v>
+        <v>5006200</v>
       </c>
       <c r="J35" s="3">
-        <v>7249200</v>
+        <v>7154800</v>
       </c>
       <c r="K35" s="3">
         <v>10103600</v>
@@ -1738,25 +1738,25 @@
         <v>33</v>
       </c>
       <c r="D41" s="3">
-        <v>13660100</v>
+        <v>13482300</v>
       </c>
       <c r="E41" s="3">
-        <v>9428900</v>
+        <v>9306200</v>
       </c>
       <c r="F41" s="3">
-        <v>17461000</v>
+        <v>17233700</v>
       </c>
       <c r="G41" s="3">
-        <v>17663100</v>
+        <v>17433300</v>
       </c>
       <c r="H41" s="3">
-        <v>19418300</v>
+        <v>19165600</v>
       </c>
       <c r="I41" s="3">
-        <v>10754200</v>
+        <v>10614300</v>
       </c>
       <c r="J41" s="3">
-        <v>1459500</v>
+        <v>1440500</v>
       </c>
       <c r="K41" s="3">
         <v>2298700</v>
@@ -1774,25 +1774,25 @@
         <v>34</v>
       </c>
       <c r="D42" s="3">
-        <v>17041600</v>
+        <v>16819900</v>
       </c>
       <c r="E42" s="3">
-        <v>12417500</v>
+        <v>12255900</v>
       </c>
       <c r="F42" s="3">
-        <v>12609500</v>
+        <v>12445400</v>
       </c>
       <c r="G42" s="3">
-        <v>16066200</v>
+        <v>15857200</v>
       </c>
       <c r="H42" s="3">
-        <v>2812700</v>
+        <v>2776100</v>
       </c>
       <c r="I42" s="3">
-        <v>114400</v>
+        <v>112900</v>
       </c>
       <c r="J42" s="3">
-        <v>116200</v>
+        <v>114700</v>
       </c>
       <c r="K42" s="3">
         <v>8400</v>
@@ -1810,25 +1810,25 @@
         <v>35</v>
       </c>
       <c r="D43" s="3">
-        <v>14692900</v>
+        <v>14501700</v>
       </c>
       <c r="E43" s="3">
-        <v>25460500</v>
+        <v>25129200</v>
       </c>
       <c r="F43" s="3">
-        <v>18503100</v>
+        <v>18262300</v>
       </c>
       <c r="G43" s="3">
-        <v>19537400</v>
+        <v>19283200</v>
       </c>
       <c r="H43" s="3">
-        <v>17371100</v>
+        <v>17145100</v>
       </c>
       <c r="I43" s="3">
-        <v>17240400</v>
+        <v>17016000</v>
       </c>
       <c r="J43" s="3">
-        <v>23276500</v>
+        <v>22973700</v>
       </c>
       <c r="K43" s="3">
         <v>19421900</v>
@@ -1846,25 +1846,25 @@
         <v>36</v>
       </c>
       <c r="D44" s="3">
-        <v>23697100</v>
+        <v>23388800</v>
       </c>
       <c r="E44" s="3">
-        <v>30288100</v>
+        <v>29894000</v>
       </c>
       <c r="F44" s="3">
-        <v>28796900</v>
+        <v>28422200</v>
       </c>
       <c r="G44" s="3">
-        <v>29126000</v>
+        <v>28747000</v>
       </c>
       <c r="H44" s="3">
-        <v>24417300</v>
+        <v>24099600</v>
       </c>
       <c r="I44" s="3">
-        <v>22716300</v>
+        <v>22420700</v>
       </c>
       <c r="J44" s="3">
-        <v>29364700</v>
+        <v>28982600</v>
       </c>
       <c r="K44" s="3">
         <v>33902800</v>
@@ -1882,25 +1882,25 @@
         <v>37</v>
       </c>
       <c r="D45" s="3">
-        <v>1954500</v>
+        <v>1929100</v>
       </c>
       <c r="E45" s="3">
-        <v>423700</v>
+        <v>418200</v>
       </c>
       <c r="F45" s="3">
-        <v>1277300</v>
+        <v>1260600</v>
       </c>
       <c r="G45" s="3">
-        <v>144200</v>
+        <v>142300</v>
       </c>
       <c r="H45" s="3">
-        <v>297500</v>
+        <v>293600</v>
       </c>
       <c r="I45" s="3">
-        <v>1228600</v>
+        <v>1212600</v>
       </c>
       <c r="J45" s="3">
-        <v>1969200</v>
+        <v>1943500</v>
       </c>
       <c r="K45" s="3">
         <v>1356700</v>
@@ -1918,25 +1918,25 @@
         <v>38</v>
       </c>
       <c r="D46" s="3">
-        <v>71046200</v>
+        <v>70121700</v>
       </c>
       <c r="E46" s="3">
-        <v>69784800</v>
+        <v>68876800</v>
       </c>
       <c r="F46" s="3">
-        <v>78647800</v>
+        <v>77624400</v>
       </c>
       <c r="G46" s="3">
-        <v>82536900</v>
+        <v>81463000</v>
       </c>
       <c r="H46" s="3">
-        <v>64316800</v>
+        <v>63479900</v>
       </c>
       <c r="I46" s="3">
-        <v>52053800</v>
+        <v>51376500</v>
       </c>
       <c r="J46" s="3">
-        <v>56186100</v>
+        <v>55455000</v>
       </c>
       <c r="K46" s="3">
         <v>56988500</v>
@@ -1954,25 +1954,25 @@
         <v>39</v>
       </c>
       <c r="D47" s="3">
-        <v>29621200</v>
+        <v>29235700</v>
       </c>
       <c r="E47" s="3">
-        <v>23982600</v>
+        <v>23670600</v>
       </c>
       <c r="F47" s="3">
-        <v>22960100</v>
+        <v>22661400</v>
       </c>
       <c r="G47" s="3">
-        <v>20712400</v>
+        <v>20442800</v>
       </c>
       <c r="H47" s="3">
-        <v>20003600</v>
+        <v>19743300</v>
       </c>
       <c r="I47" s="3">
-        <v>14861000</v>
+        <v>14667700</v>
       </c>
       <c r="J47" s="3">
-        <v>15476500</v>
+        <v>15275100</v>
       </c>
       <c r="K47" s="3">
         <v>12077000</v>
@@ -1990,25 +1990,25 @@
         <v>40</v>
       </c>
       <c r="D48" s="3">
-        <v>152949000</v>
+        <v>150959000</v>
       </c>
       <c r="E48" s="3">
-        <v>208330000</v>
+        <v>205619000</v>
       </c>
       <c r="F48" s="3">
-        <v>117745000</v>
+        <v>116213000</v>
       </c>
       <c r="G48" s="3">
-        <v>120037000</v>
+        <v>118475000</v>
       </c>
       <c r="H48" s="3">
-        <v>127956000</v>
+        <v>126291000</v>
       </c>
       <c r="I48" s="3">
-        <v>138190000</v>
+        <v>136392000</v>
       </c>
       <c r="J48" s="3">
-        <v>137469000</v>
+        <v>135680000</v>
       </c>
       <c r="K48" s="3">
         <v>126842000</v>
@@ -2026,25 +2026,25 @@
         <v>41</v>
       </c>
       <c r="D49" s="3">
-        <v>1344800</v>
+        <v>1327300</v>
       </c>
       <c r="E49" s="3">
-        <v>1356800</v>
+        <v>1339200</v>
       </c>
       <c r="F49" s="3">
-        <v>1353500</v>
+        <v>1335900</v>
       </c>
       <c r="G49" s="3">
-        <v>1347000</v>
+        <v>1329500</v>
       </c>
       <c r="H49" s="3">
-        <v>991100</v>
+        <v>978200</v>
       </c>
       <c r="I49" s="3">
-        <v>978300</v>
+        <v>965600</v>
       </c>
       <c r="J49" s="3">
-        <v>979900</v>
+        <v>967100</v>
       </c>
       <c r="K49" s="3">
         <v>955600</v>
@@ -2134,25 +2134,25 @@
         <v>44</v>
       </c>
       <c r="D52" s="3">
-        <v>15529700</v>
+        <v>15327600</v>
       </c>
       <c r="E52" s="3">
-        <v>12957100</v>
+        <v>12788500</v>
       </c>
       <c r="F52" s="3">
-        <v>27709900</v>
+        <v>27349300</v>
       </c>
       <c r="G52" s="3">
-        <v>24281200</v>
+        <v>23965300</v>
       </c>
       <c r="H52" s="3">
-        <v>20530900</v>
+        <v>20263800</v>
       </c>
       <c r="I52" s="3">
-        <v>19705500</v>
+        <v>19449100</v>
       </c>
       <c r="J52" s="3">
-        <v>16316900</v>
+        <v>16104600</v>
       </c>
       <c r="K52" s="3">
         <v>14419100</v>
@@ -2206,25 +2206,25 @@
         <v>46</v>
       </c>
       <c r="D54" s="3">
-        <v>270491000</v>
+        <v>266971000</v>
       </c>
       <c r="E54" s="3">
-        <v>274622000</v>
+        <v>271049000</v>
       </c>
       <c r="F54" s="3">
-        <v>248416000</v>
+        <v>245184000</v>
       </c>
       <c r="G54" s="3">
-        <v>248915000</v>
+        <v>245676000</v>
       </c>
       <c r="H54" s="3">
-        <v>233798000</v>
+        <v>230756000</v>
       </c>
       <c r="I54" s="3">
-        <v>225788000</v>
+        <v>222850000</v>
       </c>
       <c r="J54" s="3">
-        <v>226428000</v>
+        <v>223482000</v>
       </c>
       <c r="K54" s="3">
         <v>211282000</v>
@@ -2274,25 +2274,25 @@
         <v>49</v>
       </c>
       <c r="D57" s="3">
-        <v>25220000</v>
+        <v>24891800</v>
       </c>
       <c r="E57" s="3">
-        <v>31205600</v>
+        <v>30799500</v>
       </c>
       <c r="F57" s="3">
-        <v>30072000</v>
+        <v>29680700</v>
       </c>
       <c r="G57" s="3">
-        <v>32221500</v>
+        <v>31802300</v>
       </c>
       <c r="H57" s="3">
-        <v>28101900</v>
+        <v>27736300</v>
       </c>
       <c r="I57" s="3">
-        <v>20924700</v>
+        <v>20652400</v>
       </c>
       <c r="J57" s="3">
-        <v>31661100</v>
+        <v>31249200</v>
       </c>
       <c r="K57" s="3">
         <v>31663700</v>
@@ -2310,25 +2310,25 @@
         <v>50</v>
       </c>
       <c r="D58" s="3">
-        <v>6915100</v>
+        <v>6825200</v>
       </c>
       <c r="E58" s="3">
-        <v>22199800</v>
+        <v>21910900</v>
       </c>
       <c r="F58" s="3">
-        <v>9536400</v>
+        <v>9412300</v>
       </c>
       <c r="G58" s="3">
-        <v>12582100</v>
+        <v>12418300</v>
       </c>
       <c r="H58" s="3">
-        <v>11672500</v>
+        <v>11520600</v>
       </c>
       <c r="I58" s="3">
-        <v>18010700</v>
+        <v>17776400</v>
       </c>
       <c r="J58" s="3">
-        <v>27792900</v>
+        <v>27431200</v>
       </c>
       <c r="K58" s="3">
         <v>25036100</v>
@@ -2346,25 +2346,25 @@
         <v>51</v>
       </c>
       <c r="D59" s="3">
-        <v>49331800</v>
+        <v>48689900</v>
       </c>
       <c r="E59" s="3">
-        <v>43830500</v>
+        <v>43260200</v>
       </c>
       <c r="F59" s="3">
-        <v>48552500</v>
+        <v>47920700</v>
       </c>
       <c r="G59" s="3">
-        <v>45595800</v>
+        <v>45002500</v>
       </c>
       <c r="H59" s="3">
-        <v>35975100</v>
+        <v>35507000</v>
       </c>
       <c r="I59" s="3">
-        <v>33271000</v>
+        <v>32838100</v>
       </c>
       <c r="J59" s="3">
-        <v>34816100</v>
+        <v>34363100</v>
       </c>
       <c r="K59" s="3">
         <v>30663300</v>
@@ -2382,25 +2382,25 @@
         <v>52</v>
       </c>
       <c r="D60" s="3">
-        <v>81466900</v>
+        <v>80406800</v>
       </c>
       <c r="E60" s="3">
-        <v>90482400</v>
+        <v>89305000</v>
       </c>
       <c r="F60" s="3">
-        <v>88160900</v>
+        <v>87013800</v>
       </c>
       <c r="G60" s="3">
-        <v>90399400</v>
+        <v>89223100</v>
       </c>
       <c r="H60" s="3">
-        <v>75749600</v>
+        <v>74763900</v>
       </c>
       <c r="I60" s="3">
-        <v>72206400</v>
+        <v>71266900</v>
       </c>
       <c r="J60" s="3">
-        <v>94270100</v>
+        <v>93043500</v>
       </c>
       <c r="K60" s="3">
         <v>87363000</v>
@@ -2418,25 +2418,25 @@
         <v>53</v>
       </c>
       <c r="D61" s="3">
-        <v>39957400</v>
+        <v>39437500</v>
       </c>
       <c r="E61" s="3">
-        <v>36897600</v>
+        <v>36417500</v>
       </c>
       <c r="F61" s="3">
-        <v>14591100</v>
+        <v>14401300</v>
       </c>
       <c r="G61" s="3">
-        <v>15464300</v>
+        <v>15263100</v>
       </c>
       <c r="H61" s="3">
-        <v>18322800</v>
+        <v>18084300</v>
       </c>
       <c r="I61" s="3">
-        <v>21801800</v>
+        <v>21518100</v>
       </c>
       <c r="J61" s="3">
-        <v>23546900</v>
+        <v>23240500</v>
       </c>
       <c r="K61" s="3">
         <v>22243200</v>
@@ -2454,25 +2454,25 @@
         <v>54</v>
       </c>
       <c r="D62" s="3">
-        <v>11331900</v>
+        <v>11184500</v>
       </c>
       <c r="E62" s="3">
-        <v>10374000</v>
+        <v>10239100</v>
       </c>
       <c r="F62" s="3">
-        <v>12035900</v>
+        <v>11879200</v>
       </c>
       <c r="G62" s="3">
-        <v>9991500</v>
+        <v>9861500</v>
       </c>
       <c r="H62" s="3">
-        <v>10044700</v>
+        <v>9914000</v>
       </c>
       <c r="I62" s="3">
-        <v>8819100</v>
+        <v>8704300</v>
       </c>
       <c r="J62" s="3">
-        <v>7894400</v>
+        <v>7791700</v>
       </c>
       <c r="K62" s="3">
         <v>6703700</v>
@@ -2598,25 +2598,25 @@
         <v>57</v>
       </c>
       <c r="D66" s="3">
-        <v>154810000</v>
+        <v>152796000</v>
       </c>
       <c r="E66" s="3">
-        <v>159339000</v>
+        <v>157266000</v>
       </c>
       <c r="F66" s="3">
-        <v>136513000</v>
+        <v>134736000</v>
       </c>
       <c r="G66" s="3">
-        <v>135633000</v>
+        <v>133868000</v>
       </c>
       <c r="H66" s="3">
-        <v>122876000</v>
+        <v>121277000</v>
       </c>
       <c r="I66" s="3">
-        <v>120295000</v>
+        <v>118730000</v>
       </c>
       <c r="J66" s="3">
-        <v>133908000</v>
+        <v>132165000</v>
       </c>
       <c r="K66" s="3">
         <v>124380000</v>
@@ -2794,25 +2794,25 @@
         <v>63</v>
       </c>
       <c r="D72" s="3">
-        <v>88079000</v>
+        <v>86933000</v>
       </c>
       <c r="E72" s="3">
-        <v>87681500</v>
+        <v>86540600</v>
       </c>
       <c r="F72" s="3">
-        <v>84302000</v>
+        <v>83205100</v>
       </c>
       <c r="G72" s="3">
-        <v>85680500</v>
+        <v>84565700</v>
       </c>
       <c r="H72" s="3">
-        <v>83254600</v>
+        <v>82171300</v>
       </c>
       <c r="I72" s="3">
-        <v>78950000</v>
+        <v>77922700</v>
       </c>
       <c r="J72" s="3">
-        <v>68506500</v>
+        <v>67615100</v>
       </c>
       <c r="K72" s="3">
         <v>63617600</v>
@@ -2938,25 +2938,25 @@
         <v>67</v>
       </c>
       <c r="D76" s="3">
-        <v>115681000</v>
+        <v>114175000</v>
       </c>
       <c r="E76" s="3">
-        <v>115283000</v>
+        <v>113783000</v>
       </c>
       <c r="F76" s="3">
-        <v>111904000</v>
+        <v>110447000</v>
       </c>
       <c r="G76" s="3">
-        <v>113282000</v>
+        <v>111808000</v>
       </c>
       <c r="H76" s="3">
-        <v>110922000</v>
+        <v>109479000</v>
       </c>
       <c r="I76" s="3">
-        <v>105494000</v>
+        <v>104121000</v>
       </c>
       <c r="J76" s="3">
-        <v>92520300</v>
+        <v>91316500</v>
       </c>
       <c r="K76" s="3">
         <v>86901700</v>
@@ -3051,25 +3051,25 @@
         <v>27</v>
       </c>
       <c r="D81" s="3">
-        <v>5163300</v>
+        <v>5096100</v>
       </c>
       <c r="E81" s="3">
-        <v>8969500</v>
+        <v>8852800</v>
       </c>
       <c r="F81" s="3">
-        <v>9613000</v>
+        <v>9487900</v>
       </c>
       <c r="G81" s="3">
-        <v>7994600</v>
+        <v>7890600</v>
       </c>
       <c r="H81" s="3">
-        <v>7281300</v>
+        <v>7186600</v>
       </c>
       <c r="I81" s="3">
-        <v>5072200</v>
+        <v>5006200</v>
       </c>
       <c r="J81" s="3">
-        <v>7249200</v>
+        <v>7154800</v>
       </c>
       <c r="K81" s="3">
         <v>10103600</v>
@@ -3103,25 +3103,25 @@
         <v>71</v>
       </c>
       <c r="D83" s="3">
-        <v>16687600</v>
+        <v>16470500</v>
       </c>
       <c r="E83" s="3">
-        <v>17031900</v>
+        <v>16810300</v>
       </c>
       <c r="F83" s="3">
-        <v>17156000</v>
+        <v>16932700</v>
       </c>
       <c r="G83" s="3">
-        <v>17989500</v>
+        <v>17755400</v>
       </c>
       <c r="H83" s="3">
-        <v>16915400</v>
+        <v>16695300</v>
       </c>
       <c r="I83" s="3">
-        <v>15048700</v>
+        <v>14852900</v>
       </c>
       <c r="J83" s="3">
-        <v>14056000</v>
+        <v>13873100</v>
       </c>
       <c r="K83" s="3">
         <v>12415700</v>
@@ -3319,25 +3319,25 @@
         <v>77</v>
       </c>
       <c r="D89" s="3">
-        <v>26134500</v>
+        <v>25794400</v>
       </c>
       <c r="E89" s="3">
-        <v>23966100</v>
+        <v>23654300</v>
       </c>
       <c r="F89" s="3">
-        <v>27437200</v>
+        <v>27080200</v>
       </c>
       <c r="G89" s="3">
-        <v>29787800</v>
+        <v>29400200</v>
       </c>
       <c r="H89" s="3">
-        <v>33470900</v>
+        <v>33035300</v>
       </c>
       <c r="I89" s="3">
-        <v>25857100</v>
+        <v>25520600</v>
       </c>
       <c r="J89" s="3">
-        <v>23143600</v>
+        <v>22842500</v>
       </c>
       <c r="K89" s="3">
         <v>23206200</v>
@@ -3371,25 +3371,25 @@
         <v>79</v>
       </c>
       <c r="D91" s="3">
-        <v>-18389500</v>
+        <v>-18150200</v>
       </c>
       <c r="E91" s="3">
-        <v>-20290200</v>
+        <v>-20026200</v>
       </c>
       <c r="F91" s="3">
-        <v>-14782400</v>
+        <v>-14590100</v>
       </c>
       <c r="G91" s="3">
-        <v>-9913000</v>
+        <v>-9784000</v>
       </c>
       <c r="H91" s="3">
-        <v>-10213500</v>
+        <v>-10080600</v>
       </c>
       <c r="I91" s="3">
-        <v>-14898200</v>
+        <v>-14704300</v>
       </c>
       <c r="J91" s="3">
-        <v>-17636500</v>
+        <v>-17407000</v>
       </c>
       <c r="K91" s="3">
         <v>-22148800</v>
@@ -3479,25 +3479,25 @@
         <v>82</v>
       </c>
       <c r="D94" s="3">
-        <v>-15944700</v>
+        <v>-15737200</v>
       </c>
       <c r="E94" s="3">
-        <v>-18885200</v>
+        <v>-18639400</v>
       </c>
       <c r="F94" s="3">
-        <v>-10362500</v>
+        <v>-10227700</v>
       </c>
       <c r="G94" s="3">
-        <v>-22671800</v>
+        <v>-22376800</v>
       </c>
       <c r="H94" s="3">
-        <v>-10330500</v>
+        <v>-10196100</v>
       </c>
       <c r="I94" s="3">
-        <v>-18209300</v>
+        <v>-17972400</v>
       </c>
       <c r="J94" s="3">
-        <v>-20692100</v>
+        <v>-20422800</v>
       </c>
       <c r="K94" s="3">
         <v>-27307900</v>
@@ -3531,25 +3531,25 @@
         <v>84</v>
       </c>
       <c r="D96" s="3">
-        <v>-4911000</v>
+        <v>-4847100</v>
       </c>
       <c r="E96" s="3">
-        <v>-7177700</v>
+        <v>-7084300</v>
       </c>
       <c r="F96" s="3">
-        <v>-10577300</v>
+        <v>-10439700</v>
       </c>
       <c r="G96" s="3">
-        <v>-5099800</v>
+        <v>-5033500</v>
       </c>
       <c r="H96" s="3">
-        <v>-2632800</v>
+        <v>-2598600</v>
       </c>
       <c r="I96" s="3">
-        <v>-3777600</v>
+        <v>-3728500</v>
       </c>
       <c r="J96" s="3">
-        <v>-4373100</v>
+        <v>-4316200</v>
       </c>
       <c r="K96" s="3">
         <v>-4323400</v>
@@ -3675,25 +3675,25 @@
         <v>88</v>
       </c>
       <c r="D100" s="3">
-        <v>-5765300</v>
+        <v>-5690300</v>
       </c>
       <c r="E100" s="3">
-        <v>-13136700</v>
+        <v>-12965700</v>
       </c>
       <c r="F100" s="3">
-        <v>-17357700</v>
+        <v>-17131800</v>
       </c>
       <c r="G100" s="3">
-        <v>-8816000</v>
+        <v>-8701300</v>
       </c>
       <c r="H100" s="3">
-        <v>-14516300</v>
+        <v>-14327400</v>
       </c>
       <c r="I100" s="3">
-        <v>1418600</v>
+        <v>1400100</v>
       </c>
       <c r="J100" s="3">
-        <v>-3341900</v>
+        <v>-3298400</v>
       </c>
       <c r="K100" s="3">
         <v>4815500</v>
@@ -3711,22 +3711,22 @@
         <v>89</v>
       </c>
       <c r="D101" s="3">
-        <v>-193300</v>
+        <v>-190800</v>
       </c>
       <c r="E101" s="3">
-        <v>22900</v>
+        <v>22600</v>
       </c>
       <c r="F101" s="3">
-        <v>80800</v>
+        <v>79800</v>
       </c>
       <c r="G101" s="3">
-        <v>-55100</v>
+        <v>-54400</v>
       </c>
       <c r="H101" s="3">
-        <v>39900</v>
+        <v>39400</v>
       </c>
       <c r="I101" s="3">
-        <v>45700</v>
+        <v>45100</v>
       </c>
       <c r="J101" s="3">
         <v>2500</v>
@@ -3747,25 +3747,25 @@
         <v>90</v>
       </c>
       <c r="D102" s="3">
-        <v>4231100</v>
+        <v>4176100</v>
       </c>
       <c r="E102" s="3">
-        <v>-8032800</v>
+        <v>-7928300</v>
       </c>
       <c r="F102" s="3">
-        <v>-202200</v>
+        <v>-199600</v>
       </c>
       <c r="G102" s="3">
-        <v>-1755100</v>
+        <v>-1732300</v>
       </c>
       <c r="H102" s="3">
-        <v>8664000</v>
+        <v>8551300</v>
       </c>
       <c r="I102" s="3">
-        <v>9112100</v>
+        <v>8993500</v>
       </c>
       <c r="J102" s="3">
-        <v>-887900</v>
+        <v>-876300</v>
       </c>
       <c r="K102" s="3">
         <v>701300</v>

--- a/AAII_Financials/Yearly/SNP_YR_FIN.xlsx
+++ b/AAII_Financials/Yearly/SNP_YR_FIN.xlsx
@@ -720,25 +720,25 @@
         <v>3</v>
       </c>
       <c r="D8" s="3">
-        <v>324279400</v>
+        <v>329712900</v>
       </c>
       <c r="E8" s="3">
-        <v>455749900</v>
+        <v>463386100</v>
       </c>
       <c r="F8" s="3">
-        <v>445183700</v>
+        <v>452643000</v>
       </c>
       <c r="G8" s="3">
-        <v>363422500</v>
+        <v>369511800</v>
       </c>
       <c r="H8" s="3">
-        <v>297321700</v>
+        <v>302303400</v>
       </c>
       <c r="I8" s="3">
-        <v>311097300</v>
+        <v>316309900</v>
       </c>
       <c r="J8" s="3">
-        <v>435134200</v>
+        <v>442425100</v>
       </c>
       <c r="K8" s="3">
         <v>440053900</v>
@@ -756,25 +756,25 @@
         <v>4</v>
       </c>
       <c r="D9" s="3">
-        <v>259120800</v>
+        <v>263462500</v>
       </c>
       <c r="E9" s="3">
-        <v>378067100</v>
+        <v>384401800</v>
       </c>
       <c r="F9" s="3">
-        <v>366934500</v>
+        <v>373082600</v>
       </c>
       <c r="G9" s="3">
-        <v>286034600</v>
+        <v>290827300</v>
       </c>
       <c r="H9" s="3">
-        <v>224501000</v>
+        <v>228262600</v>
       </c>
       <c r="I9" s="3">
-        <v>240986200</v>
+        <v>245024100</v>
       </c>
       <c r="J9" s="3">
-        <v>361614500</v>
+        <v>367673500</v>
       </c>
       <c r="K9" s="3">
         <v>364537500</v>
@@ -792,25 +792,25 @@
         <v>5</v>
       </c>
       <c r="D10" s="3">
-        <v>65158600</v>
+        <v>66250400</v>
       </c>
       <c r="E10" s="3">
-        <v>77682800</v>
+        <v>78984400</v>
       </c>
       <c r="F10" s="3">
-        <v>78249200</v>
+        <v>79560300</v>
       </c>
       <c r="G10" s="3">
-        <v>77387900</v>
+        <v>78684600</v>
       </c>
       <c r="H10" s="3">
-        <v>72820700</v>
+        <v>74040800</v>
       </c>
       <c r="I10" s="3">
-        <v>70111100</v>
+        <v>71285800</v>
       </c>
       <c r="J10" s="3">
-        <v>73519800</v>
+        <v>74751600</v>
       </c>
       <c r="K10" s="3">
         <v>75516400</v>
@@ -844,25 +844,25 @@
         <v>7</v>
       </c>
       <c r="D12" s="3">
-        <v>1496100</v>
+        <v>1521100</v>
       </c>
       <c r="E12" s="3">
-        <v>1618300</v>
+        <v>1645400</v>
       </c>
       <c r="F12" s="3">
-        <v>1654400</v>
+        <v>1682100</v>
       </c>
       <c r="G12" s="3">
-        <v>1707500</v>
+        <v>1736100</v>
       </c>
       <c r="H12" s="3">
-        <v>1699200</v>
+        <v>1727600</v>
       </c>
       <c r="I12" s="3">
-        <v>1610500</v>
+        <v>1637500</v>
       </c>
       <c r="J12" s="3">
-        <v>1689000</v>
+        <v>1717300</v>
       </c>
       <c r="K12" s="3">
         <v>1920900</v>
@@ -916,10 +916,10 @@
         <v>9</v>
       </c>
       <c r="D14" s="3">
-        <v>2241900</v>
+        <v>2279500</v>
       </c>
       <c r="E14" s="3">
-        <v>53100</v>
+        <v>54000</v>
       </c>
       <c r="F14" s="3" t="s">
         <v>91</v>
@@ -928,7 +928,7 @@
         <v>0</v>
       </c>
       <c r="H14" s="3">
-        <v>-3166100</v>
+        <v>-3219200</v>
       </c>
       <c r="I14" s="3">
         <v>0</v>
@@ -952,25 +952,25 @@
         <v>10</v>
       </c>
       <c r="D15" s="3">
-        <v>16470500</v>
+        <v>16746400</v>
       </c>
       <c r="E15" s="3">
-        <v>16810300</v>
+        <v>17092000</v>
       </c>
       <c r="F15" s="3">
-        <v>16932700</v>
+        <v>17216400</v>
       </c>
       <c r="G15" s="3">
-        <v>17755400</v>
+        <v>18052900</v>
       </c>
       <c r="H15" s="3">
-        <v>16695300</v>
+        <v>16975000</v>
       </c>
       <c r="I15" s="3">
-        <v>14852900</v>
+        <v>15101800</v>
       </c>
       <c r="J15" s="3">
-        <v>13873100</v>
+        <v>14105600</v>
       </c>
       <c r="K15" s="3">
         <v>12415700</v>
@@ -1001,25 +1001,25 @@
         <v>11</v>
       </c>
       <c r="D17" s="3">
-        <v>322248000</v>
+        <v>327647400</v>
       </c>
       <c r="E17" s="3">
-        <v>442450000</v>
+        <v>449863400</v>
       </c>
       <c r="F17" s="3">
-        <v>432516700</v>
+        <v>439763700</v>
       </c>
       <c r="G17" s="3">
-        <v>352417600</v>
+        <v>358322500</v>
       </c>
       <c r="H17" s="3">
-        <v>285435500</v>
+        <v>290218100</v>
       </c>
       <c r="I17" s="3">
-        <v>302347900</v>
+        <v>307413900</v>
       </c>
       <c r="J17" s="3">
-        <v>423818700</v>
+        <v>430920000</v>
       </c>
       <c r="K17" s="3">
         <v>425267100</v>
@@ -1037,25 +1037,25 @@
         <v>12</v>
       </c>
       <c r="D18" s="3">
-        <v>2031500</v>
+        <v>2065500</v>
       </c>
       <c r="E18" s="3">
-        <v>13299900</v>
+        <v>13522700</v>
       </c>
       <c r="F18" s="3">
-        <v>12667000</v>
+        <v>12879300</v>
       </c>
       <c r="G18" s="3">
-        <v>11005000</v>
+        <v>11189300</v>
       </c>
       <c r="H18" s="3">
-        <v>11886200</v>
+        <v>12085300</v>
       </c>
       <c r="I18" s="3">
-        <v>8749500</v>
+        <v>8896100</v>
       </c>
       <c r="J18" s="3">
-        <v>11315500</v>
+        <v>11505100</v>
       </c>
       <c r="K18" s="3">
         <v>14786800</v>
@@ -1089,25 +1089,25 @@
         <v>14</v>
       </c>
       <c r="D20" s="3">
-        <v>7514400</v>
+        <v>7640300</v>
       </c>
       <c r="E20" s="3">
-        <v>2974600</v>
+        <v>3024400</v>
       </c>
       <c r="F20" s="3">
-        <v>3499800</v>
+        <v>3558500</v>
       </c>
       <c r="G20" s="3">
-        <v>3213900</v>
+        <v>3267700</v>
       </c>
       <c r="H20" s="3">
-        <v>1712300</v>
+        <v>1740900</v>
       </c>
       <c r="I20" s="3">
-        <v>1022600</v>
+        <v>1039700</v>
       </c>
       <c r="J20" s="3">
-        <v>342900</v>
+        <v>348700</v>
       </c>
       <c r="K20" s="3">
         <v>1221000</v>
@@ -1125,25 +1125,25 @@
         <v>15</v>
       </c>
       <c r="D21" s="3">
-        <v>26042000</v>
+        <v>26439400</v>
       </c>
       <c r="E21" s="3">
-        <v>33111000</v>
+        <v>33626000</v>
       </c>
       <c r="F21" s="3">
-        <v>33125900</v>
+        <v>33640900</v>
       </c>
       <c r="G21" s="3">
-        <v>32001900</v>
+        <v>32496200</v>
       </c>
       <c r="H21" s="3">
-        <v>30319700</v>
+        <v>30788300</v>
       </c>
       <c r="I21" s="3">
-        <v>24648100</v>
+        <v>25026000</v>
       </c>
       <c r="J21" s="3">
-        <v>25553200</v>
+        <v>25948600</v>
       </c>
       <c r="K21" s="3">
         <v>28465800</v>
@@ -1161,25 +1161,25 @@
         <v>16</v>
       </c>
       <c r="D22" s="3">
-        <v>2132800</v>
+        <v>2168500</v>
       </c>
       <c r="E22" s="3">
-        <v>2412900</v>
+        <v>2453300</v>
       </c>
       <c r="F22" s="3">
-        <v>905900</v>
+        <v>921000</v>
       </c>
       <c r="G22" s="3">
-        <v>869200</v>
+        <v>883800</v>
       </c>
       <c r="H22" s="3">
-        <v>1256800</v>
+        <v>1277800</v>
       </c>
       <c r="I22" s="3">
-        <v>1085900</v>
+        <v>1104100</v>
       </c>
       <c r="J22" s="3">
-        <v>1572100</v>
+        <v>1598500</v>
       </c>
       <c r="K22" s="3">
         <v>1485800</v>
@@ -1197,25 +1197,25 @@
         <v>17</v>
       </c>
       <c r="D23" s="3">
-        <v>7413100</v>
+        <v>7537300</v>
       </c>
       <c r="E23" s="3">
-        <v>13861600</v>
+        <v>14093800</v>
       </c>
       <c r="F23" s="3">
-        <v>15261000</v>
+        <v>15516700</v>
       </c>
       <c r="G23" s="3">
-        <v>13349600</v>
+        <v>13573300</v>
       </c>
       <c r="H23" s="3">
-        <v>12341700</v>
+        <v>12548400</v>
       </c>
       <c r="I23" s="3">
-        <v>8686200</v>
+        <v>8831700</v>
       </c>
       <c r="J23" s="3">
-        <v>10086300</v>
+        <v>10255300</v>
       </c>
       <c r="K23" s="3">
         <v>14522000</v>
@@ -1233,25 +1233,25 @@
         <v>18</v>
       </c>
       <c r="D24" s="3">
-        <v>957600</v>
+        <v>973600</v>
       </c>
       <c r="E24" s="3">
-        <v>2762200</v>
+        <v>2808500</v>
       </c>
       <c r="F24" s="3">
-        <v>3112400</v>
+        <v>3164500</v>
       </c>
       <c r="G24" s="3">
-        <v>2506600</v>
+        <v>2548600</v>
       </c>
       <c r="H24" s="3">
-        <v>3188500</v>
+        <v>3241900</v>
       </c>
       <c r="I24" s="3">
-        <v>1942100</v>
+        <v>1974700</v>
       </c>
       <c r="J24" s="3">
-        <v>2705600</v>
+        <v>2750900</v>
       </c>
       <c r="K24" s="3">
         <v>3783300</v>
@@ -1305,25 +1305,25 @@
         <v>20</v>
       </c>
       <c r="D26" s="3">
-        <v>6455500</v>
+        <v>6563600</v>
       </c>
       <c r="E26" s="3">
-        <v>11099300</v>
+        <v>11285300</v>
       </c>
       <c r="F26" s="3">
-        <v>12148600</v>
+        <v>12352100</v>
       </c>
       <c r="G26" s="3">
-        <v>10843000</v>
+        <v>11024600</v>
       </c>
       <c r="H26" s="3">
-        <v>9153200</v>
+        <v>9306600</v>
       </c>
       <c r="I26" s="3">
-        <v>6744000</v>
+        <v>6857000</v>
       </c>
       <c r="J26" s="3">
-        <v>7380700</v>
+        <v>7504400</v>
       </c>
       <c r="K26" s="3">
         <v>10738800</v>
@@ -1341,25 +1341,25 @@
         <v>21</v>
       </c>
       <c r="D27" s="3">
-        <v>5096100</v>
+        <v>5181500</v>
       </c>
       <c r="E27" s="3">
-        <v>8852800</v>
+        <v>9001100</v>
       </c>
       <c r="F27" s="3">
-        <v>9487900</v>
+        <v>9646900</v>
       </c>
       <c r="G27" s="3">
-        <v>7890600</v>
+        <v>8022800</v>
       </c>
       <c r="H27" s="3">
-        <v>7186600</v>
+        <v>7307000</v>
       </c>
       <c r="I27" s="3">
-        <v>5006200</v>
+        <v>5090100</v>
       </c>
       <c r="J27" s="3">
-        <v>7154800</v>
+        <v>7274700</v>
       </c>
       <c r="K27" s="3">
         <v>10103600</v>
@@ -1521,25 +1521,25 @@
         <v>26</v>
       </c>
       <c r="D32" s="3">
-        <v>-7514400</v>
+        <v>-7640300</v>
       </c>
       <c r="E32" s="3">
-        <v>-2974600</v>
+        <v>-3024400</v>
       </c>
       <c r="F32" s="3">
-        <v>-3499800</v>
+        <v>-3558500</v>
       </c>
       <c r="G32" s="3">
-        <v>-3213900</v>
+        <v>-3267700</v>
       </c>
       <c r="H32" s="3">
-        <v>-1712300</v>
+        <v>-1740900</v>
       </c>
       <c r="I32" s="3">
-        <v>-1022600</v>
+        <v>-1039700</v>
       </c>
       <c r="J32" s="3">
-        <v>-342900</v>
+        <v>-348700</v>
       </c>
       <c r="K32" s="3">
         <v>-1221000</v>
@@ -1557,25 +1557,25 @@
         <v>27</v>
       </c>
       <c r="D33" s="3">
-        <v>5096100</v>
+        <v>5181500</v>
       </c>
       <c r="E33" s="3">
-        <v>8852800</v>
+        <v>9001100</v>
       </c>
       <c r="F33" s="3">
-        <v>9487900</v>
+        <v>9646900</v>
       </c>
       <c r="G33" s="3">
-        <v>7890600</v>
+        <v>8022800</v>
       </c>
       <c r="H33" s="3">
-        <v>7186600</v>
+        <v>7307000</v>
       </c>
       <c r="I33" s="3">
-        <v>5006200</v>
+        <v>5090100</v>
       </c>
       <c r="J33" s="3">
-        <v>7154800</v>
+        <v>7274700</v>
       </c>
       <c r="K33" s="3">
         <v>10103600</v>
@@ -1629,25 +1629,25 @@
         <v>29</v>
       </c>
       <c r="D35" s="3">
-        <v>5096100</v>
+        <v>5181500</v>
       </c>
       <c r="E35" s="3">
-        <v>8852800</v>
+        <v>9001100</v>
       </c>
       <c r="F35" s="3">
-        <v>9487900</v>
+        <v>9646900</v>
       </c>
       <c r="G35" s="3">
-        <v>7890600</v>
+        <v>8022800</v>
       </c>
       <c r="H35" s="3">
-        <v>7186600</v>
+        <v>7307000</v>
       </c>
       <c r="I35" s="3">
-        <v>5006200</v>
+        <v>5090100</v>
       </c>
       <c r="J35" s="3">
-        <v>7154800</v>
+        <v>7274700</v>
       </c>
       <c r="K35" s="3">
         <v>10103600</v>
@@ -1738,25 +1738,25 @@
         <v>33</v>
       </c>
       <c r="D41" s="3">
-        <v>13482300</v>
+        <v>13708200</v>
       </c>
       <c r="E41" s="3">
-        <v>9306200</v>
+        <v>9462200</v>
       </c>
       <c r="F41" s="3">
-        <v>17233700</v>
+        <v>17522500</v>
       </c>
       <c r="G41" s="3">
-        <v>17433300</v>
+        <v>17725400</v>
       </c>
       <c r="H41" s="3">
-        <v>19165600</v>
+        <v>19486700</v>
       </c>
       <c r="I41" s="3">
-        <v>10614300</v>
+        <v>10792200</v>
       </c>
       <c r="J41" s="3">
-        <v>1440500</v>
+        <v>1464600</v>
       </c>
       <c r="K41" s="3">
         <v>2298700</v>
@@ -1774,25 +1774,25 @@
         <v>34</v>
       </c>
       <c r="D42" s="3">
-        <v>16819900</v>
+        <v>17101700</v>
       </c>
       <c r="E42" s="3">
-        <v>12255900</v>
+        <v>12461200</v>
       </c>
       <c r="F42" s="3">
-        <v>12445400</v>
+        <v>12654000</v>
       </c>
       <c r="G42" s="3">
-        <v>15857200</v>
+        <v>16122900</v>
       </c>
       <c r="H42" s="3">
-        <v>2776100</v>
+        <v>2822600</v>
       </c>
       <c r="I42" s="3">
-        <v>112900</v>
+        <v>114800</v>
       </c>
       <c r="J42" s="3">
-        <v>114700</v>
+        <v>116600</v>
       </c>
       <c r="K42" s="3">
         <v>8400</v>
@@ -1810,25 +1810,25 @@
         <v>35</v>
       </c>
       <c r="D43" s="3">
-        <v>14501700</v>
+        <v>20315700</v>
       </c>
       <c r="E43" s="3">
-        <v>25129200</v>
+        <v>25550300</v>
       </c>
       <c r="F43" s="3">
-        <v>18262300</v>
+        <v>18568300</v>
       </c>
       <c r="G43" s="3">
-        <v>19283200</v>
+        <v>19606300</v>
       </c>
       <c r="H43" s="3">
-        <v>17145100</v>
+        <v>17432300</v>
       </c>
       <c r="I43" s="3">
-        <v>17016000</v>
+        <v>17301100</v>
       </c>
       <c r="J43" s="3">
-        <v>22973700</v>
+        <v>23358600</v>
       </c>
       <c r="K43" s="3">
         <v>19421900</v>
@@ -1846,25 +1846,25 @@
         <v>36</v>
       </c>
       <c r="D44" s="3">
-        <v>23388800</v>
+        <v>47570100</v>
       </c>
       <c r="E44" s="3">
-        <v>29894000</v>
+        <v>30394900</v>
       </c>
       <c r="F44" s="3">
-        <v>28422200</v>
+        <v>28898500</v>
       </c>
       <c r="G44" s="3">
-        <v>28747000</v>
+        <v>29228700</v>
       </c>
       <c r="H44" s="3">
-        <v>24099600</v>
+        <v>24503400</v>
       </c>
       <c r="I44" s="3">
-        <v>22420700</v>
+        <v>22796400</v>
       </c>
       <c r="J44" s="3">
-        <v>28982600</v>
+        <v>29468200</v>
       </c>
       <c r="K44" s="3">
         <v>33902800</v>
@@ -1882,25 +1882,25 @@
         <v>37</v>
       </c>
       <c r="D45" s="3">
-        <v>1929100</v>
+        <v>11133900</v>
       </c>
       <c r="E45" s="3">
-        <v>418200</v>
+        <v>425200</v>
       </c>
       <c r="F45" s="3">
-        <v>1260600</v>
+        <v>1281800</v>
       </c>
       <c r="G45" s="3">
-        <v>142300</v>
+        <v>144700</v>
       </c>
       <c r="H45" s="3">
-        <v>293600</v>
+        <v>298600</v>
       </c>
       <c r="I45" s="3">
-        <v>1212600</v>
+        <v>1232900</v>
       </c>
       <c r="J45" s="3">
-        <v>1943500</v>
+        <v>1976100</v>
       </c>
       <c r="K45" s="3">
         <v>1356700</v>
@@ -1918,25 +1918,25 @@
         <v>38</v>
       </c>
       <c r="D46" s="3">
-        <v>70121700</v>
+        <v>71304300</v>
       </c>
       <c r="E46" s="3">
-        <v>68876800</v>
+        <v>70030900</v>
       </c>
       <c r="F46" s="3">
-        <v>77624400</v>
+        <v>78925000</v>
       </c>
       <c r="G46" s="3">
-        <v>81463000</v>
+        <v>82827900</v>
       </c>
       <c r="H46" s="3">
-        <v>63479900</v>
+        <v>64543600</v>
       </c>
       <c r="I46" s="3">
-        <v>51376500</v>
+        <v>52237300</v>
       </c>
       <c r="J46" s="3">
-        <v>55455000</v>
+        <v>56384100</v>
       </c>
       <c r="K46" s="3">
         <v>56988500</v>
@@ -1954,25 +1954,25 @@
         <v>39</v>
       </c>
       <c r="D47" s="3">
-        <v>29235700</v>
+        <v>29725600</v>
       </c>
       <c r="E47" s="3">
-        <v>23670600</v>
+        <v>24067200</v>
       </c>
       <c r="F47" s="3">
-        <v>22661400</v>
+        <v>23041100</v>
       </c>
       <c r="G47" s="3">
-        <v>20442800</v>
+        <v>20785400</v>
       </c>
       <c r="H47" s="3">
-        <v>19743300</v>
+        <v>20074100</v>
       </c>
       <c r="I47" s="3">
-        <v>14667700</v>
+        <v>14913400</v>
       </c>
       <c r="J47" s="3">
-        <v>15275100</v>
+        <v>15531100</v>
       </c>
       <c r="K47" s="3">
         <v>12077000</v>
@@ -1990,25 +1990,25 @@
         <v>40</v>
       </c>
       <c r="D48" s="3">
-        <v>150959000</v>
+        <v>287529000</v>
       </c>
       <c r="E48" s="3">
-        <v>205619000</v>
+        <v>209064000</v>
       </c>
       <c r="F48" s="3">
-        <v>116213000</v>
+        <v>118160000</v>
       </c>
       <c r="G48" s="3">
-        <v>118475000</v>
+        <v>120460000</v>
       </c>
       <c r="H48" s="3">
-        <v>126291000</v>
+        <v>128407000</v>
       </c>
       <c r="I48" s="3">
-        <v>136392000</v>
+        <v>138677000</v>
       </c>
       <c r="J48" s="3">
-        <v>135680000</v>
+        <v>137953000</v>
       </c>
       <c r="K48" s="3">
         <v>126842000</v>
@@ -2026,25 +2026,25 @@
         <v>41</v>
       </c>
       <c r="D49" s="3">
-        <v>1327300</v>
+        <v>2699100</v>
       </c>
       <c r="E49" s="3">
-        <v>1339200</v>
+        <v>1361600</v>
       </c>
       <c r="F49" s="3">
-        <v>1335900</v>
+        <v>1358300</v>
       </c>
       <c r="G49" s="3">
-        <v>1329500</v>
+        <v>1351700</v>
       </c>
       <c r="H49" s="3">
-        <v>978200</v>
+        <v>994600</v>
       </c>
       <c r="I49" s="3">
-        <v>965600</v>
+        <v>981800</v>
       </c>
       <c r="J49" s="3">
-        <v>967100</v>
+        <v>983400</v>
       </c>
       <c r="K49" s="3">
         <v>955600</v>
@@ -2134,25 +2134,25 @@
         <v>44</v>
       </c>
       <c r="D52" s="3">
-        <v>15327600</v>
+        <v>15591700</v>
       </c>
       <c r="E52" s="3">
-        <v>12788500</v>
+        <v>13002800</v>
       </c>
       <c r="F52" s="3">
-        <v>27349300</v>
+        <v>27807600</v>
       </c>
       <c r="G52" s="3">
-        <v>23965300</v>
+        <v>24366800</v>
       </c>
       <c r="H52" s="3">
-        <v>20263800</v>
+        <v>20603300</v>
       </c>
       <c r="I52" s="3">
-        <v>19449100</v>
+        <v>19774900</v>
       </c>
       <c r="J52" s="3">
-        <v>16104600</v>
+        <v>16374500</v>
       </c>
       <c r="K52" s="3">
         <v>14419100</v>
@@ -2206,25 +2206,25 @@
         <v>46</v>
       </c>
       <c r="D54" s="3">
-        <v>266971000</v>
+        <v>271545000</v>
       </c>
       <c r="E54" s="3">
-        <v>271049000</v>
+        <v>275590000</v>
       </c>
       <c r="F54" s="3">
-        <v>245184000</v>
+        <v>249292000</v>
       </c>
       <c r="G54" s="3">
-        <v>245676000</v>
+        <v>249792000</v>
       </c>
       <c r="H54" s="3">
-        <v>230756000</v>
+        <v>234622000</v>
       </c>
       <c r="I54" s="3">
-        <v>222850000</v>
+        <v>226584000</v>
       </c>
       <c r="J54" s="3">
-        <v>223482000</v>
+        <v>227226000</v>
       </c>
       <c r="K54" s="3">
         <v>211282000</v>
@@ -2274,25 +2274,25 @@
         <v>49</v>
       </c>
       <c r="D57" s="3">
-        <v>24891800</v>
+        <v>50628200</v>
       </c>
       <c r="E57" s="3">
-        <v>30799500</v>
+        <v>31315600</v>
       </c>
       <c r="F57" s="3">
-        <v>29680700</v>
+        <v>30178000</v>
       </c>
       <c r="G57" s="3">
-        <v>31802300</v>
+        <v>32335100</v>
       </c>
       <c r="H57" s="3">
-        <v>27736300</v>
+        <v>28201000</v>
       </c>
       <c r="I57" s="3">
-        <v>20652400</v>
+        <v>20998500</v>
       </c>
       <c r="J57" s="3">
-        <v>31249200</v>
+        <v>31772800</v>
       </c>
       <c r="K57" s="3">
         <v>31663700</v>
@@ -2310,25 +2310,25 @@
         <v>50</v>
       </c>
       <c r="D58" s="3">
-        <v>6825200</v>
+        <v>10660800</v>
       </c>
       <c r="E58" s="3">
-        <v>21910900</v>
+        <v>22278000</v>
       </c>
       <c r="F58" s="3">
-        <v>9412300</v>
+        <v>9570000</v>
       </c>
       <c r="G58" s="3">
-        <v>12418300</v>
+        <v>12626400</v>
       </c>
       <c r="H58" s="3">
-        <v>11520600</v>
+        <v>11713700</v>
       </c>
       <c r="I58" s="3">
-        <v>17776400</v>
+        <v>18074200</v>
       </c>
       <c r="J58" s="3">
-        <v>27431200</v>
+        <v>27890900</v>
       </c>
       <c r="K58" s="3">
         <v>25036100</v>
@@ -2346,25 +2346,25 @@
         <v>51</v>
       </c>
       <c r="D59" s="3">
-        <v>48689900</v>
+        <v>77495900</v>
       </c>
       <c r="E59" s="3">
-        <v>43260200</v>
+        <v>43985100</v>
       </c>
       <c r="F59" s="3">
-        <v>47920700</v>
+        <v>48723700</v>
       </c>
       <c r="G59" s="3">
-        <v>45002500</v>
+        <v>45756500</v>
       </c>
       <c r="H59" s="3">
-        <v>35507000</v>
+        <v>36102000</v>
       </c>
       <c r="I59" s="3">
-        <v>32838100</v>
+        <v>33388300</v>
       </c>
       <c r="J59" s="3">
-        <v>34363100</v>
+        <v>34938900</v>
       </c>
       <c r="K59" s="3">
         <v>30663300</v>
@@ -2382,25 +2382,25 @@
         <v>52</v>
       </c>
       <c r="D60" s="3">
-        <v>80406800</v>
+        <v>81787400</v>
       </c>
       <c r="E60" s="3">
-        <v>89305000</v>
+        <v>90801400</v>
       </c>
       <c r="F60" s="3">
-        <v>87013800</v>
+        <v>88471700</v>
       </c>
       <c r="G60" s="3">
-        <v>89223100</v>
+        <v>90718100</v>
       </c>
       <c r="H60" s="3">
-        <v>74763900</v>
+        <v>76016600</v>
       </c>
       <c r="I60" s="3">
-        <v>71266900</v>
+        <v>72461000</v>
       </c>
       <c r="J60" s="3">
-        <v>93043500</v>
+        <v>94602500</v>
       </c>
       <c r="K60" s="3">
         <v>87363000</v>
@@ -2418,25 +2418,25 @@
         <v>53</v>
       </c>
       <c r="D61" s="3">
-        <v>39437500</v>
+        <v>40098300</v>
       </c>
       <c r="E61" s="3">
-        <v>36417500</v>
+        <v>37027700</v>
       </c>
       <c r="F61" s="3">
-        <v>14401300</v>
+        <v>14642600</v>
       </c>
       <c r="G61" s="3">
-        <v>15263100</v>
+        <v>15518900</v>
       </c>
       <c r="H61" s="3">
-        <v>18084300</v>
+        <v>18387300</v>
       </c>
       <c r="I61" s="3">
-        <v>21518100</v>
+        <v>21878600</v>
       </c>
       <c r="J61" s="3">
-        <v>23240500</v>
+        <v>23629900</v>
       </c>
       <c r="K61" s="3">
         <v>22243200</v>
@@ -2454,25 +2454,25 @@
         <v>54</v>
       </c>
       <c r="D62" s="3">
-        <v>11184500</v>
+        <v>11372700</v>
       </c>
       <c r="E62" s="3">
-        <v>10239100</v>
+        <v>10410600</v>
       </c>
       <c r="F62" s="3">
-        <v>11879200</v>
+        <v>12078300</v>
       </c>
       <c r="G62" s="3">
-        <v>9861500</v>
+        <v>10026700</v>
       </c>
       <c r="H62" s="3">
-        <v>9914000</v>
+        <v>10080100</v>
       </c>
       <c r="I62" s="3">
-        <v>8704300</v>
+        <v>8850200</v>
       </c>
       <c r="J62" s="3">
-        <v>7791700</v>
+        <v>7922200</v>
       </c>
       <c r="K62" s="3">
         <v>6703700</v>
@@ -2598,25 +2598,25 @@
         <v>57</v>
       </c>
       <c r="D66" s="3">
-        <v>152796000</v>
+        <v>155390000</v>
       </c>
       <c r="E66" s="3">
-        <v>157266000</v>
+        <v>159901000</v>
       </c>
       <c r="F66" s="3">
-        <v>134736000</v>
+        <v>136994000</v>
       </c>
       <c r="G66" s="3">
-        <v>133868000</v>
+        <v>136111000</v>
       </c>
       <c r="H66" s="3">
-        <v>121277000</v>
+        <v>123309000</v>
       </c>
       <c r="I66" s="3">
-        <v>118730000</v>
+        <v>120719000</v>
       </c>
       <c r="J66" s="3">
-        <v>132165000</v>
+        <v>134380000</v>
       </c>
       <c r="K66" s="3">
         <v>124380000</v>
@@ -2794,25 +2794,25 @@
         <v>63</v>
       </c>
       <c r="D72" s="3">
-        <v>86933000</v>
+        <v>185589000</v>
       </c>
       <c r="E72" s="3">
-        <v>86540600</v>
+        <v>87990600</v>
       </c>
       <c r="F72" s="3">
-        <v>83205100</v>
+        <v>84599200</v>
       </c>
       <c r="G72" s="3">
-        <v>84565700</v>
+        <v>85982600</v>
       </c>
       <c r="H72" s="3">
-        <v>82171300</v>
+        <v>83548100</v>
       </c>
       <c r="I72" s="3">
-        <v>77922700</v>
+        <v>79228300</v>
       </c>
       <c r="J72" s="3">
-        <v>67615100</v>
+        <v>68748000</v>
       </c>
       <c r="K72" s="3">
         <v>63617600</v>
@@ -2938,25 +2938,25 @@
         <v>67</v>
       </c>
       <c r="D76" s="3">
-        <v>114175000</v>
+        <v>116154000</v>
       </c>
       <c r="E76" s="3">
-        <v>113783000</v>
+        <v>115689000</v>
       </c>
       <c r="F76" s="3">
-        <v>110447000</v>
+        <v>112298000</v>
       </c>
       <c r="G76" s="3">
-        <v>111808000</v>
+        <v>113681000</v>
       </c>
       <c r="H76" s="3">
-        <v>109479000</v>
+        <v>111313000</v>
       </c>
       <c r="I76" s="3">
-        <v>104121000</v>
+        <v>105865000</v>
       </c>
       <c r="J76" s="3">
-        <v>91316500</v>
+        <v>92846500</v>
       </c>
       <c r="K76" s="3">
         <v>86901700</v>
@@ -3051,25 +3051,25 @@
         <v>27</v>
       </c>
       <c r="D81" s="3">
-        <v>5096100</v>
+        <v>5181500</v>
       </c>
       <c r="E81" s="3">
-        <v>8852800</v>
+        <v>9001100</v>
       </c>
       <c r="F81" s="3">
-        <v>9487900</v>
+        <v>9646900</v>
       </c>
       <c r="G81" s="3">
-        <v>7890600</v>
+        <v>8022800</v>
       </c>
       <c r="H81" s="3">
-        <v>7186600</v>
+        <v>7307000</v>
       </c>
       <c r="I81" s="3">
-        <v>5006200</v>
+        <v>5090100</v>
       </c>
       <c r="J81" s="3">
-        <v>7154800</v>
+        <v>7274700</v>
       </c>
       <c r="K81" s="3">
         <v>10103600</v>
@@ -3103,25 +3103,25 @@
         <v>71</v>
       </c>
       <c r="D83" s="3">
-        <v>16470500</v>
+        <v>16746400</v>
       </c>
       <c r="E83" s="3">
-        <v>16810300</v>
+        <v>17092000</v>
       </c>
       <c r="F83" s="3">
-        <v>16932700</v>
+        <v>17216400</v>
       </c>
       <c r="G83" s="3">
-        <v>17755400</v>
+        <v>18052900</v>
       </c>
       <c r="H83" s="3">
-        <v>16695300</v>
+        <v>16975000</v>
       </c>
       <c r="I83" s="3">
-        <v>14852900</v>
+        <v>15101800</v>
       </c>
       <c r="J83" s="3">
-        <v>13873100</v>
+        <v>14105600</v>
       </c>
       <c r="K83" s="3">
         <v>12415700</v>
@@ -3319,25 +3319,25 @@
         <v>77</v>
       </c>
       <c r="D89" s="3">
-        <v>25794400</v>
+        <v>26226600</v>
       </c>
       <c r="E89" s="3">
-        <v>23654300</v>
+        <v>24050600</v>
       </c>
       <c r="F89" s="3">
-        <v>27080200</v>
+        <v>27533900</v>
       </c>
       <c r="G89" s="3">
-        <v>29400200</v>
+        <v>29892800</v>
       </c>
       <c r="H89" s="3">
-        <v>33035300</v>
+        <v>33588900</v>
       </c>
       <c r="I89" s="3">
-        <v>25520600</v>
+        <v>25948300</v>
       </c>
       <c r="J89" s="3">
-        <v>22842500</v>
+        <v>23225200</v>
       </c>
       <c r="K89" s="3">
         <v>23206200</v>
@@ -3371,25 +3371,25 @@
         <v>79</v>
       </c>
       <c r="D91" s="3">
-        <v>-18150200</v>
+        <v>-18454400</v>
       </c>
       <c r="E91" s="3">
-        <v>-20026200</v>
+        <v>-20361700</v>
       </c>
       <c r="F91" s="3">
-        <v>-14590100</v>
+        <v>-14834500</v>
       </c>
       <c r="G91" s="3">
-        <v>-9784000</v>
+        <v>-9948000</v>
       </c>
       <c r="H91" s="3">
-        <v>-10080600</v>
+        <v>-10249500</v>
       </c>
       <c r="I91" s="3">
-        <v>-14704300</v>
+        <v>-14950700</v>
       </c>
       <c r="J91" s="3">
-        <v>-17407000</v>
+        <v>-17698600</v>
       </c>
       <c r="K91" s="3">
         <v>-22148800</v>
@@ -3479,25 +3479,25 @@
         <v>82</v>
       </c>
       <c r="D94" s="3">
-        <v>-15737200</v>
+        <v>-16000900</v>
       </c>
       <c r="E94" s="3">
-        <v>-18639400</v>
+        <v>-18951700</v>
       </c>
       <c r="F94" s="3">
-        <v>-10227700</v>
+        <v>-10399000</v>
       </c>
       <c r="G94" s="3">
-        <v>-22376800</v>
+        <v>-22751800</v>
       </c>
       <c r="H94" s="3">
-        <v>-10196100</v>
+        <v>-10366900</v>
       </c>
       <c r="I94" s="3">
-        <v>-17972400</v>
+        <v>-18273500</v>
       </c>
       <c r="J94" s="3">
-        <v>-20422800</v>
+        <v>-20765000</v>
       </c>
       <c r="K94" s="3">
         <v>-27307900</v>
@@ -3531,25 +3531,25 @@
         <v>84</v>
       </c>
       <c r="D96" s="3">
-        <v>-4847100</v>
+        <v>-4928400</v>
       </c>
       <c r="E96" s="3">
-        <v>-7084300</v>
+        <v>-7203000</v>
       </c>
       <c r="F96" s="3">
-        <v>-10439700</v>
+        <v>-10614600</v>
       </c>
       <c r="G96" s="3">
-        <v>-5033500</v>
+        <v>-5117800</v>
       </c>
       <c r="H96" s="3">
-        <v>-2598600</v>
+        <v>-2642100</v>
       </c>
       <c r="I96" s="3">
-        <v>-3728500</v>
+        <v>-3790900</v>
       </c>
       <c r="J96" s="3">
-        <v>-4316200</v>
+        <v>-4388500</v>
       </c>
       <c r="K96" s="3">
         <v>-4323400</v>
@@ -3675,25 +3675,25 @@
         <v>88</v>
       </c>
       <c r="D100" s="3">
-        <v>-5690300</v>
+        <v>-5785700</v>
       </c>
       <c r="E100" s="3">
-        <v>-12965700</v>
+        <v>-13183000</v>
       </c>
       <c r="F100" s="3">
-        <v>-17131800</v>
+        <v>-17418900</v>
       </c>
       <c r="G100" s="3">
-        <v>-8701300</v>
+        <v>-8847000</v>
       </c>
       <c r="H100" s="3">
-        <v>-14327400</v>
+        <v>-14567400</v>
       </c>
       <c r="I100" s="3">
-        <v>1400100</v>
+        <v>1423600</v>
       </c>
       <c r="J100" s="3">
-        <v>-3298400</v>
+        <v>-3353700</v>
       </c>
       <c r="K100" s="3">
         <v>4815500</v>
@@ -3711,22 +3711,22 @@
         <v>89</v>
       </c>
       <c r="D101" s="3">
-        <v>-190800</v>
+        <v>-194000</v>
       </c>
       <c r="E101" s="3">
-        <v>22600</v>
+        <v>23000</v>
       </c>
       <c r="F101" s="3">
-        <v>79800</v>
+        <v>81100</v>
       </c>
       <c r="G101" s="3">
-        <v>-54400</v>
+        <v>-55300</v>
       </c>
       <c r="H101" s="3">
-        <v>39400</v>
+        <v>40100</v>
       </c>
       <c r="I101" s="3">
-        <v>45100</v>
+        <v>45900</v>
       </c>
       <c r="J101" s="3">
         <v>2500</v>
@@ -3747,25 +3747,25 @@
         <v>90</v>
       </c>
       <c r="D102" s="3">
-        <v>4176100</v>
+        <v>4246100</v>
       </c>
       <c r="E102" s="3">
-        <v>-7928300</v>
+        <v>-8061100</v>
       </c>
       <c r="F102" s="3">
-        <v>-199600</v>
+        <v>-202900</v>
       </c>
       <c r="G102" s="3">
-        <v>-1732300</v>
+        <v>-1761300</v>
       </c>
       <c r="H102" s="3">
-        <v>8551300</v>
+        <v>8694600</v>
       </c>
       <c r="I102" s="3">
-        <v>8993500</v>
+        <v>9144200</v>
       </c>
       <c r="J102" s="3">
-        <v>-876300</v>
+        <v>-891000</v>
       </c>
       <c r="K102" s="3">
         <v>701300</v>

--- a/AAII_Financials/Yearly/SNP_YR_FIN.xlsx
+++ b/AAII_Financials/Yearly/SNP_YR_FIN.xlsx
@@ -720,25 +720,25 @@
         <v>3</v>
       </c>
       <c r="D8" s="3">
-        <v>329712900</v>
+        <v>332240000</v>
       </c>
       <c r="E8" s="3">
-        <v>463386100</v>
+        <v>466937900</v>
       </c>
       <c r="F8" s="3">
-        <v>452643000</v>
+        <v>456112400</v>
       </c>
       <c r="G8" s="3">
-        <v>369511800</v>
+        <v>372344000</v>
       </c>
       <c r="H8" s="3">
-        <v>302303400</v>
+        <v>304620500</v>
       </c>
       <c r="I8" s="3">
-        <v>316309900</v>
+        <v>318734400</v>
       </c>
       <c r="J8" s="3">
-        <v>442425100</v>
+        <v>445816200</v>
       </c>
       <c r="K8" s="3">
         <v>440053900</v>
@@ -756,25 +756,25 @@
         <v>4</v>
       </c>
       <c r="D9" s="3">
-        <v>263462500</v>
+        <v>265481800</v>
       </c>
       <c r="E9" s="3">
-        <v>384401800</v>
+        <v>387348100</v>
       </c>
       <c r="F9" s="3">
-        <v>373082600</v>
+        <v>375942200</v>
       </c>
       <c r="G9" s="3">
-        <v>290827300</v>
+        <v>293056400</v>
       </c>
       <c r="H9" s="3">
-        <v>228262600</v>
+        <v>230012200</v>
       </c>
       <c r="I9" s="3">
-        <v>245024100</v>
+        <v>246902100</v>
       </c>
       <c r="J9" s="3">
-        <v>367673500</v>
+        <v>370491600</v>
       </c>
       <c r="K9" s="3">
         <v>364537500</v>
@@ -792,25 +792,25 @@
         <v>5</v>
       </c>
       <c r="D10" s="3">
-        <v>66250400</v>
+        <v>66758200</v>
       </c>
       <c r="E10" s="3">
-        <v>78984400</v>
+        <v>79589800</v>
       </c>
       <c r="F10" s="3">
-        <v>79560300</v>
+        <v>80170200</v>
       </c>
       <c r="G10" s="3">
-        <v>78684600</v>
+        <v>79287700</v>
       </c>
       <c r="H10" s="3">
-        <v>74040800</v>
+        <v>74608300</v>
       </c>
       <c r="I10" s="3">
-        <v>71285800</v>
+        <v>71832200</v>
       </c>
       <c r="J10" s="3">
-        <v>74751600</v>
+        <v>75324600</v>
       </c>
       <c r="K10" s="3">
         <v>75516400</v>
@@ -844,25 +844,25 @@
         <v>7</v>
       </c>
       <c r="D12" s="3">
-        <v>1521100</v>
+        <v>1532800</v>
       </c>
       <c r="E12" s="3">
-        <v>1645400</v>
+        <v>1658100</v>
       </c>
       <c r="F12" s="3">
-        <v>1682100</v>
+        <v>1695000</v>
       </c>
       <c r="G12" s="3">
-        <v>1736100</v>
+        <v>1749400</v>
       </c>
       <c r="H12" s="3">
-        <v>1727600</v>
+        <v>1740900</v>
       </c>
       <c r="I12" s="3">
-        <v>1637500</v>
+        <v>1650000</v>
       </c>
       <c r="J12" s="3">
-        <v>1717300</v>
+        <v>1730500</v>
       </c>
       <c r="K12" s="3">
         <v>1920900</v>
@@ -916,10 +916,10 @@
         <v>9</v>
       </c>
       <c r="D14" s="3">
-        <v>2279500</v>
+        <v>2297000</v>
       </c>
       <c r="E14" s="3">
-        <v>54000</v>
+        <v>54400</v>
       </c>
       <c r="F14" s="3" t="s">
         <v>91</v>
@@ -928,7 +928,7 @@
         <v>0</v>
       </c>
       <c r="H14" s="3">
-        <v>-3219200</v>
+        <v>-3243900</v>
       </c>
       <c r="I14" s="3">
         <v>0</v>
@@ -952,25 +952,25 @@
         <v>10</v>
       </c>
       <c r="D15" s="3">
-        <v>16746400</v>
+        <v>16874800</v>
       </c>
       <c r="E15" s="3">
-        <v>17092000</v>
+        <v>17223000</v>
       </c>
       <c r="F15" s="3">
-        <v>17216400</v>
+        <v>17348400</v>
       </c>
       <c r="G15" s="3">
-        <v>18052900</v>
+        <v>18191300</v>
       </c>
       <c r="H15" s="3">
-        <v>16975000</v>
+        <v>17105100</v>
       </c>
       <c r="I15" s="3">
-        <v>15101800</v>
+        <v>15217500</v>
       </c>
       <c r="J15" s="3">
-        <v>14105600</v>
+        <v>14213700</v>
       </c>
       <c r="K15" s="3">
         <v>12415700</v>
@@ -1001,25 +1001,25 @@
         <v>11</v>
       </c>
       <c r="D17" s="3">
-        <v>327647400</v>
+        <v>330158700</v>
       </c>
       <c r="E17" s="3">
-        <v>449863400</v>
+        <v>453311500</v>
       </c>
       <c r="F17" s="3">
-        <v>439763700</v>
+        <v>443134400</v>
       </c>
       <c r="G17" s="3">
-        <v>358322500</v>
+        <v>361068900</v>
       </c>
       <c r="H17" s="3">
-        <v>290218100</v>
+        <v>292442600</v>
       </c>
       <c r="I17" s="3">
-        <v>307413900</v>
+        <v>309770100</v>
       </c>
       <c r="J17" s="3">
-        <v>430920000</v>
+        <v>434222900</v>
       </c>
       <c r="K17" s="3">
         <v>425267100</v>
@@ -1037,25 +1037,25 @@
         <v>12</v>
       </c>
       <c r="D18" s="3">
-        <v>2065500</v>
+        <v>2081300</v>
       </c>
       <c r="E18" s="3">
-        <v>13522700</v>
+        <v>13626400</v>
       </c>
       <c r="F18" s="3">
-        <v>12879300</v>
+        <v>12978000</v>
       </c>
       <c r="G18" s="3">
-        <v>11189300</v>
+        <v>11275100</v>
       </c>
       <c r="H18" s="3">
-        <v>12085300</v>
+        <v>12178000</v>
       </c>
       <c r="I18" s="3">
-        <v>8896100</v>
+        <v>8964200</v>
       </c>
       <c r="J18" s="3">
-        <v>11505100</v>
+        <v>11593300</v>
       </c>
       <c r="K18" s="3">
         <v>14786800</v>
@@ -1089,25 +1089,25 @@
         <v>14</v>
       </c>
       <c r="D20" s="3">
-        <v>7640300</v>
+        <v>7698800</v>
       </c>
       <c r="E20" s="3">
-        <v>3024400</v>
+        <v>3047600</v>
       </c>
       <c r="F20" s="3">
-        <v>3558500</v>
+        <v>3585700</v>
       </c>
       <c r="G20" s="3">
-        <v>3267700</v>
+        <v>3292800</v>
       </c>
       <c r="H20" s="3">
-        <v>1740900</v>
+        <v>1754300</v>
       </c>
       <c r="I20" s="3">
-        <v>1039700</v>
+        <v>1047700</v>
       </c>
       <c r="J20" s="3">
-        <v>348700</v>
+        <v>351300</v>
       </c>
       <c r="K20" s="3">
         <v>1221000</v>
@@ -1125,25 +1125,25 @@
         <v>15</v>
       </c>
       <c r="D21" s="3">
-        <v>26439400</v>
+        <v>26711700</v>
       </c>
       <c r="E21" s="3">
-        <v>33626000</v>
+        <v>33954800</v>
       </c>
       <c r="F21" s="3">
-        <v>33640900</v>
+        <v>33970400</v>
       </c>
       <c r="G21" s="3">
-        <v>32496200</v>
+        <v>32820300</v>
       </c>
       <c r="H21" s="3">
-        <v>30788300</v>
+        <v>31094900</v>
       </c>
       <c r="I21" s="3">
-        <v>25026000</v>
+        <v>25280600</v>
       </c>
       <c r="J21" s="3">
-        <v>25948600</v>
+        <v>26206100</v>
       </c>
       <c r="K21" s="3">
         <v>28465800</v>
@@ -1161,25 +1161,25 @@
         <v>16</v>
       </c>
       <c r="D22" s="3">
-        <v>2168500</v>
+        <v>2185100</v>
       </c>
       <c r="E22" s="3">
-        <v>2453300</v>
+        <v>2472100</v>
       </c>
       <c r="F22" s="3">
-        <v>921000</v>
+        <v>928100</v>
       </c>
       <c r="G22" s="3">
-        <v>883800</v>
+        <v>890600</v>
       </c>
       <c r="H22" s="3">
-        <v>1277800</v>
+        <v>1287600</v>
       </c>
       <c r="I22" s="3">
-        <v>1104100</v>
+        <v>1112500</v>
       </c>
       <c r="J22" s="3">
-        <v>1598500</v>
+        <v>1610700</v>
       </c>
       <c r="K22" s="3">
         <v>1485800</v>
@@ -1197,25 +1197,25 @@
         <v>17</v>
       </c>
       <c r="D23" s="3">
-        <v>7537300</v>
+        <v>7595000</v>
       </c>
       <c r="E23" s="3">
-        <v>14093800</v>
+        <v>14201900</v>
       </c>
       <c r="F23" s="3">
-        <v>15516700</v>
+        <v>15635600</v>
       </c>
       <c r="G23" s="3">
-        <v>13573300</v>
+        <v>13677300</v>
       </c>
       <c r="H23" s="3">
-        <v>12548400</v>
+        <v>12644600</v>
       </c>
       <c r="I23" s="3">
-        <v>8831700</v>
+        <v>8899400</v>
       </c>
       <c r="J23" s="3">
-        <v>10255300</v>
+        <v>10333900</v>
       </c>
       <c r="K23" s="3">
         <v>14522000</v>
@@ -1233,25 +1233,25 @@
         <v>18</v>
       </c>
       <c r="D24" s="3">
-        <v>973600</v>
+        <v>981100</v>
       </c>
       <c r="E24" s="3">
-        <v>2808500</v>
+        <v>2830100</v>
       </c>
       <c r="F24" s="3">
-        <v>3164500</v>
+        <v>3188800</v>
       </c>
       <c r="G24" s="3">
-        <v>2548600</v>
+        <v>2568200</v>
       </c>
       <c r="H24" s="3">
-        <v>3241900</v>
+        <v>3266700</v>
       </c>
       <c r="I24" s="3">
-        <v>1974700</v>
+        <v>1989800</v>
       </c>
       <c r="J24" s="3">
-        <v>2750900</v>
+        <v>2772000</v>
       </c>
       <c r="K24" s="3">
         <v>3783300</v>
@@ -1305,25 +1305,25 @@
         <v>20</v>
       </c>
       <c r="D26" s="3">
-        <v>6563600</v>
+        <v>6613900</v>
       </c>
       <c r="E26" s="3">
-        <v>11285300</v>
+        <v>11371800</v>
       </c>
       <c r="F26" s="3">
-        <v>12352100</v>
+        <v>12446800</v>
       </c>
       <c r="G26" s="3">
-        <v>11024600</v>
+        <v>11109100</v>
       </c>
       <c r="H26" s="3">
-        <v>9306600</v>
+        <v>9377900</v>
       </c>
       <c r="I26" s="3">
-        <v>6857000</v>
+        <v>6909600</v>
       </c>
       <c r="J26" s="3">
-        <v>7504400</v>
+        <v>7561900</v>
       </c>
       <c r="K26" s="3">
         <v>10738800</v>
@@ -1341,25 +1341,25 @@
         <v>21</v>
       </c>
       <c r="D27" s="3">
-        <v>5181500</v>
+        <v>5221200</v>
       </c>
       <c r="E27" s="3">
-        <v>9001100</v>
+        <v>9070100</v>
       </c>
       <c r="F27" s="3">
-        <v>9646900</v>
+        <v>9720900</v>
       </c>
       <c r="G27" s="3">
-        <v>8022800</v>
+        <v>8084300</v>
       </c>
       <c r="H27" s="3">
-        <v>7307000</v>
+        <v>7363000</v>
       </c>
       <c r="I27" s="3">
-        <v>5090100</v>
+        <v>5129100</v>
       </c>
       <c r="J27" s="3">
-        <v>7274700</v>
+        <v>7330500</v>
       </c>
       <c r="K27" s="3">
         <v>10103600</v>
@@ -1521,25 +1521,25 @@
         <v>26</v>
       </c>
       <c r="D32" s="3">
-        <v>-7640300</v>
+        <v>-7698800</v>
       </c>
       <c r="E32" s="3">
-        <v>-3024400</v>
+        <v>-3047600</v>
       </c>
       <c r="F32" s="3">
-        <v>-3558500</v>
+        <v>-3585700</v>
       </c>
       <c r="G32" s="3">
-        <v>-3267700</v>
+        <v>-3292800</v>
       </c>
       <c r="H32" s="3">
-        <v>-1740900</v>
+        <v>-1754300</v>
       </c>
       <c r="I32" s="3">
-        <v>-1039700</v>
+        <v>-1047700</v>
       </c>
       <c r="J32" s="3">
-        <v>-348700</v>
+        <v>-351300</v>
       </c>
       <c r="K32" s="3">
         <v>-1221000</v>
@@ -1557,25 +1557,25 @@
         <v>27</v>
       </c>
       <c r="D33" s="3">
-        <v>5181500</v>
+        <v>5221200</v>
       </c>
       <c r="E33" s="3">
-        <v>9001100</v>
+        <v>9070100</v>
       </c>
       <c r="F33" s="3">
-        <v>9646900</v>
+        <v>9720900</v>
       </c>
       <c r="G33" s="3">
-        <v>8022800</v>
+        <v>8084300</v>
       </c>
       <c r="H33" s="3">
-        <v>7307000</v>
+        <v>7363000</v>
       </c>
       <c r="I33" s="3">
-        <v>5090100</v>
+        <v>5129100</v>
       </c>
       <c r="J33" s="3">
-        <v>7274700</v>
+        <v>7330500</v>
       </c>
       <c r="K33" s="3">
         <v>10103600</v>
@@ -1629,25 +1629,25 @@
         <v>29</v>
       </c>
       <c r="D35" s="3">
-        <v>5181500</v>
+        <v>5221200</v>
       </c>
       <c r="E35" s="3">
-        <v>9001100</v>
+        <v>9070100</v>
       </c>
       <c r="F35" s="3">
-        <v>9646900</v>
+        <v>9720900</v>
       </c>
       <c r="G35" s="3">
-        <v>8022800</v>
+        <v>8084300</v>
       </c>
       <c r="H35" s="3">
-        <v>7307000</v>
+        <v>7363000</v>
       </c>
       <c r="I35" s="3">
-        <v>5090100</v>
+        <v>5129100</v>
       </c>
       <c r="J35" s="3">
-        <v>7274700</v>
+        <v>7330500</v>
       </c>
       <c r="K35" s="3">
         <v>10103600</v>
@@ -1738,25 +1738,25 @@
         <v>33</v>
       </c>
       <c r="D41" s="3">
-        <v>13708200</v>
+        <v>13813300</v>
       </c>
       <c r="E41" s="3">
-        <v>9462200</v>
+        <v>9534700</v>
       </c>
       <c r="F41" s="3">
-        <v>17522500</v>
+        <v>17656800</v>
       </c>
       <c r="G41" s="3">
-        <v>17725400</v>
+        <v>17861300</v>
       </c>
       <c r="H41" s="3">
-        <v>19486700</v>
+        <v>19636100</v>
       </c>
       <c r="I41" s="3">
-        <v>10792200</v>
+        <v>10874900</v>
       </c>
       <c r="J41" s="3">
-        <v>1464600</v>
+        <v>1475800</v>
       </c>
       <c r="K41" s="3">
         <v>2298700</v>
@@ -1774,25 +1774,25 @@
         <v>34</v>
       </c>
       <c r="D42" s="3">
-        <v>17101700</v>
+        <v>17232800</v>
       </c>
       <c r="E42" s="3">
-        <v>12461200</v>
+        <v>12556700</v>
       </c>
       <c r="F42" s="3">
-        <v>12654000</v>
+        <v>12751000</v>
       </c>
       <c r="G42" s="3">
-        <v>16122900</v>
+        <v>16246400</v>
       </c>
       <c r="H42" s="3">
-        <v>2822600</v>
+        <v>2844300</v>
       </c>
       <c r="I42" s="3">
-        <v>114800</v>
+        <v>115600</v>
       </c>
       <c r="J42" s="3">
-        <v>116600</v>
+        <v>117500</v>
       </c>
       <c r="K42" s="3">
         <v>8400</v>
@@ -1810,25 +1810,25 @@
         <v>35</v>
       </c>
       <c r="D43" s="3">
-        <v>20315700</v>
+        <v>20471400</v>
       </c>
       <c r="E43" s="3">
-        <v>25550300</v>
+        <v>25746100</v>
       </c>
       <c r="F43" s="3">
-        <v>18568300</v>
+        <v>18710700</v>
       </c>
       <c r="G43" s="3">
-        <v>19606300</v>
+        <v>19756600</v>
       </c>
       <c r="H43" s="3">
-        <v>17432300</v>
+        <v>17565900</v>
       </c>
       <c r="I43" s="3">
-        <v>17301100</v>
+        <v>17433700</v>
       </c>
       <c r="J43" s="3">
-        <v>23358600</v>
+        <v>23537600</v>
       </c>
       <c r="K43" s="3">
         <v>19421900</v>
@@ -1846,25 +1846,25 @@
         <v>36</v>
       </c>
       <c r="D44" s="3">
-        <v>47570100</v>
+        <v>47934700</v>
       </c>
       <c r="E44" s="3">
-        <v>30394900</v>
+        <v>30627800</v>
       </c>
       <c r="F44" s="3">
-        <v>28898500</v>
+        <v>29120000</v>
       </c>
       <c r="G44" s="3">
-        <v>29228700</v>
+        <v>29452700</v>
       </c>
       <c r="H44" s="3">
-        <v>24503400</v>
+        <v>24691200</v>
       </c>
       <c r="I44" s="3">
-        <v>22796400</v>
+        <v>22971100</v>
       </c>
       <c r="J44" s="3">
-        <v>29468200</v>
+        <v>29694100</v>
       </c>
       <c r="K44" s="3">
         <v>33902800</v>
@@ -1882,25 +1882,25 @@
         <v>37</v>
       </c>
       <c r="D45" s="3">
-        <v>11133900</v>
+        <v>11219300</v>
       </c>
       <c r="E45" s="3">
-        <v>425200</v>
+        <v>428500</v>
       </c>
       <c r="F45" s="3">
-        <v>1281800</v>
+        <v>1291600</v>
       </c>
       <c r="G45" s="3">
-        <v>144700</v>
+        <v>145800</v>
       </c>
       <c r="H45" s="3">
-        <v>298600</v>
+        <v>300800</v>
       </c>
       <c r="I45" s="3">
-        <v>1232900</v>
+        <v>1242400</v>
       </c>
       <c r="J45" s="3">
-        <v>1976100</v>
+        <v>1991200</v>
       </c>
       <c r="K45" s="3">
         <v>1356700</v>
@@ -1918,25 +1918,25 @@
         <v>38</v>
       </c>
       <c r="D46" s="3">
-        <v>71304300</v>
+        <v>71850800</v>
       </c>
       <c r="E46" s="3">
-        <v>70030900</v>
+        <v>70567600</v>
       </c>
       <c r="F46" s="3">
-        <v>78925000</v>
+        <v>79530000</v>
       </c>
       <c r="G46" s="3">
-        <v>82827900</v>
+        <v>83462800</v>
       </c>
       <c r="H46" s="3">
-        <v>64543600</v>
+        <v>65038300</v>
       </c>
       <c r="I46" s="3">
-        <v>52237300</v>
+        <v>52637700</v>
       </c>
       <c r="J46" s="3">
-        <v>56384100</v>
+        <v>56816300</v>
       </c>
       <c r="K46" s="3">
         <v>56988500</v>
@@ -1954,25 +1954,25 @@
         <v>39</v>
       </c>
       <c r="D47" s="3">
-        <v>29725600</v>
+        <v>29953400</v>
       </c>
       <c r="E47" s="3">
-        <v>24067200</v>
+        <v>24251700</v>
       </c>
       <c r="F47" s="3">
-        <v>23041100</v>
+        <v>23217700</v>
       </c>
       <c r="G47" s="3">
-        <v>20785400</v>
+        <v>20944700</v>
       </c>
       <c r="H47" s="3">
-        <v>20074100</v>
+        <v>20228000</v>
       </c>
       <c r="I47" s="3">
-        <v>14913400</v>
+        <v>15027700</v>
       </c>
       <c r="J47" s="3">
-        <v>15531100</v>
+        <v>15650100</v>
       </c>
       <c r="K47" s="3">
         <v>12077000</v>
@@ -1990,25 +1990,25 @@
         <v>40</v>
       </c>
       <c r="D48" s="3">
-        <v>287529000</v>
+        <v>289733000</v>
       </c>
       <c r="E48" s="3">
-        <v>209064000</v>
+        <v>210667000</v>
       </c>
       <c r="F48" s="3">
-        <v>118160000</v>
+        <v>119065000</v>
       </c>
       <c r="G48" s="3">
-        <v>120460000</v>
+        <v>121384000</v>
       </c>
       <c r="H48" s="3">
-        <v>128407000</v>
+        <v>129391000</v>
       </c>
       <c r="I48" s="3">
-        <v>138677000</v>
+        <v>139740000</v>
       </c>
       <c r="J48" s="3">
-        <v>137953000</v>
+        <v>139011000</v>
       </c>
       <c r="K48" s="3">
         <v>126842000</v>
@@ -2026,25 +2026,25 @@
         <v>41</v>
       </c>
       <c r="D49" s="3">
-        <v>2699100</v>
+        <v>2719800</v>
       </c>
       <c r="E49" s="3">
-        <v>1361600</v>
+        <v>1372000</v>
       </c>
       <c r="F49" s="3">
-        <v>1358300</v>
+        <v>1368700</v>
       </c>
       <c r="G49" s="3">
-        <v>1351700</v>
+        <v>1362100</v>
       </c>
       <c r="H49" s="3">
-        <v>994600</v>
+        <v>1002200</v>
       </c>
       <c r="I49" s="3">
-        <v>981800</v>
+        <v>989300</v>
       </c>
       <c r="J49" s="3">
-        <v>983400</v>
+        <v>990900</v>
       </c>
       <c r="K49" s="3">
         <v>955600</v>
@@ -2134,25 +2134,25 @@
         <v>44</v>
       </c>
       <c r="D52" s="3">
-        <v>15591700</v>
+        <v>15711200</v>
       </c>
       <c r="E52" s="3">
-        <v>13002800</v>
+        <v>13102400</v>
       </c>
       <c r="F52" s="3">
-        <v>27807600</v>
+        <v>28020700</v>
       </c>
       <c r="G52" s="3">
-        <v>24366800</v>
+        <v>24553600</v>
       </c>
       <c r="H52" s="3">
-        <v>20603300</v>
+        <v>20761200</v>
       </c>
       <c r="I52" s="3">
-        <v>19774900</v>
+        <v>19926500</v>
       </c>
       <c r="J52" s="3">
-        <v>16374500</v>
+        <v>16500000</v>
       </c>
       <c r="K52" s="3">
         <v>14419100</v>
@@ -2206,25 +2206,25 @@
         <v>46</v>
       </c>
       <c r="D54" s="3">
-        <v>271545000</v>
+        <v>273626000</v>
       </c>
       <c r="E54" s="3">
-        <v>275590000</v>
+        <v>277703000</v>
       </c>
       <c r="F54" s="3">
-        <v>249292000</v>
+        <v>251203000</v>
       </c>
       <c r="G54" s="3">
-        <v>249792000</v>
+        <v>251707000</v>
       </c>
       <c r="H54" s="3">
-        <v>234622000</v>
+        <v>236421000</v>
       </c>
       <c r="I54" s="3">
-        <v>226584000</v>
+        <v>228321000</v>
       </c>
       <c r="J54" s="3">
-        <v>227226000</v>
+        <v>228968000</v>
       </c>
       <c r="K54" s="3">
         <v>211282000</v>
@@ -2274,25 +2274,25 @@
         <v>49</v>
       </c>
       <c r="D57" s="3">
-        <v>50628200</v>
+        <v>51016300</v>
       </c>
       <c r="E57" s="3">
-        <v>31315600</v>
+        <v>31555600</v>
       </c>
       <c r="F57" s="3">
-        <v>30178000</v>
+        <v>30409300</v>
       </c>
       <c r="G57" s="3">
-        <v>32335100</v>
+        <v>32583000</v>
       </c>
       <c r="H57" s="3">
-        <v>28201000</v>
+        <v>28417200</v>
       </c>
       <c r="I57" s="3">
-        <v>20998500</v>
+        <v>21159400</v>
       </c>
       <c r="J57" s="3">
-        <v>31772800</v>
+        <v>32016300</v>
       </c>
       <c r="K57" s="3">
         <v>31663700</v>
@@ -2310,25 +2310,25 @@
         <v>50</v>
       </c>
       <c r="D58" s="3">
-        <v>10660800</v>
+        <v>10742500</v>
       </c>
       <c r="E58" s="3">
-        <v>22278000</v>
+        <v>22448800</v>
       </c>
       <c r="F58" s="3">
-        <v>9570000</v>
+        <v>9643400</v>
       </c>
       <c r="G58" s="3">
-        <v>12626400</v>
+        <v>12723200</v>
       </c>
       <c r="H58" s="3">
-        <v>11713700</v>
+        <v>11803400</v>
       </c>
       <c r="I58" s="3">
-        <v>18074200</v>
+        <v>18212800</v>
       </c>
       <c r="J58" s="3">
-        <v>27890900</v>
+        <v>28104600</v>
       </c>
       <c r="K58" s="3">
         <v>25036100</v>
@@ -2346,25 +2346,25 @@
         <v>51</v>
       </c>
       <c r="D59" s="3">
-        <v>77495900</v>
+        <v>78089900</v>
       </c>
       <c r="E59" s="3">
-        <v>43985100</v>
+        <v>44322200</v>
       </c>
       <c r="F59" s="3">
-        <v>48723700</v>
+        <v>49097100</v>
       </c>
       <c r="G59" s="3">
-        <v>45756500</v>
+        <v>46107300</v>
       </c>
       <c r="H59" s="3">
-        <v>36102000</v>
+        <v>36378700</v>
       </c>
       <c r="I59" s="3">
-        <v>33388300</v>
+        <v>33644200</v>
       </c>
       <c r="J59" s="3">
-        <v>34938900</v>
+        <v>35206700</v>
       </c>
       <c r="K59" s="3">
         <v>30663300</v>
@@ -2382,25 +2382,25 @@
         <v>52</v>
       </c>
       <c r="D60" s="3">
-        <v>81787400</v>
+        <v>82414300</v>
       </c>
       <c r="E60" s="3">
-        <v>90801400</v>
+        <v>91497300</v>
       </c>
       <c r="F60" s="3">
-        <v>88471700</v>
+        <v>89149900</v>
       </c>
       <c r="G60" s="3">
-        <v>90718100</v>
+        <v>91413400</v>
       </c>
       <c r="H60" s="3">
-        <v>76016600</v>
+        <v>76599300</v>
       </c>
       <c r="I60" s="3">
-        <v>72461000</v>
+        <v>73016400</v>
       </c>
       <c r="J60" s="3">
-        <v>94602500</v>
+        <v>95327600</v>
       </c>
       <c r="K60" s="3">
         <v>87363000</v>
@@ -2418,25 +2418,25 @@
         <v>53</v>
       </c>
       <c r="D61" s="3">
-        <v>40098300</v>
+        <v>40405600</v>
       </c>
       <c r="E61" s="3">
-        <v>37027700</v>
+        <v>37311500</v>
       </c>
       <c r="F61" s="3">
-        <v>14642600</v>
+        <v>14754800</v>
       </c>
       <c r="G61" s="3">
-        <v>15518900</v>
+        <v>15637800</v>
       </c>
       <c r="H61" s="3">
-        <v>18387300</v>
+        <v>18528300</v>
       </c>
       <c r="I61" s="3">
-        <v>21878600</v>
+        <v>22046300</v>
       </c>
       <c r="J61" s="3">
-        <v>23629900</v>
+        <v>23811000</v>
       </c>
       <c r="K61" s="3">
         <v>22243200</v>
@@ -2454,25 +2454,25 @@
         <v>54</v>
       </c>
       <c r="D62" s="3">
-        <v>11372700</v>
+        <v>11459800</v>
       </c>
       <c r="E62" s="3">
-        <v>10410600</v>
+        <v>10490400</v>
       </c>
       <c r="F62" s="3">
-        <v>12078300</v>
+        <v>12170900</v>
       </c>
       <c r="G62" s="3">
-        <v>10026700</v>
+        <v>10103600</v>
       </c>
       <c r="H62" s="3">
-        <v>10080100</v>
+        <v>10157400</v>
       </c>
       <c r="I62" s="3">
-        <v>8850200</v>
+        <v>8918000</v>
       </c>
       <c r="J62" s="3">
-        <v>7922200</v>
+        <v>7983000</v>
       </c>
       <c r="K62" s="3">
         <v>6703700</v>
@@ -2598,25 +2598,25 @@
         <v>57</v>
       </c>
       <c r="D66" s="3">
-        <v>155390000</v>
+        <v>156581000</v>
       </c>
       <c r="E66" s="3">
-        <v>159901000</v>
+        <v>161127000</v>
       </c>
       <c r="F66" s="3">
-        <v>136994000</v>
+        <v>138044000</v>
       </c>
       <c r="G66" s="3">
-        <v>136111000</v>
+        <v>137154000</v>
       </c>
       <c r="H66" s="3">
-        <v>123309000</v>
+        <v>124254000</v>
       </c>
       <c r="I66" s="3">
-        <v>120719000</v>
+        <v>121644000</v>
       </c>
       <c r="J66" s="3">
-        <v>134380000</v>
+        <v>135410000</v>
       </c>
       <c r="K66" s="3">
         <v>124380000</v>
@@ -2794,25 +2794,25 @@
         <v>63</v>
       </c>
       <c r="D72" s="3">
-        <v>185589000</v>
+        <v>187012000</v>
       </c>
       <c r="E72" s="3">
-        <v>87990600</v>
+        <v>88665100</v>
       </c>
       <c r="F72" s="3">
-        <v>84599200</v>
+        <v>85247700</v>
       </c>
       <c r="G72" s="3">
-        <v>85982600</v>
+        <v>86641600</v>
       </c>
       <c r="H72" s="3">
-        <v>83548100</v>
+        <v>84188500</v>
       </c>
       <c r="I72" s="3">
-        <v>79228300</v>
+        <v>79835600</v>
       </c>
       <c r="J72" s="3">
-        <v>68748000</v>
+        <v>69274900</v>
       </c>
       <c r="K72" s="3">
         <v>63617600</v>
@@ -2938,25 +2938,25 @@
         <v>67</v>
       </c>
       <c r="D76" s="3">
-        <v>116154000</v>
+        <v>117045000</v>
       </c>
       <c r="E76" s="3">
-        <v>115689000</v>
+        <v>116576000</v>
       </c>
       <c r="F76" s="3">
-        <v>112298000</v>
+        <v>113159000</v>
       </c>
       <c r="G76" s="3">
-        <v>113681000</v>
+        <v>114553000</v>
       </c>
       <c r="H76" s="3">
-        <v>111313000</v>
+        <v>112166000</v>
       </c>
       <c r="I76" s="3">
-        <v>105865000</v>
+        <v>106677000</v>
       </c>
       <c r="J76" s="3">
-        <v>92846500</v>
+        <v>93558100</v>
       </c>
       <c r="K76" s="3">
         <v>86901700</v>
@@ -3051,25 +3051,25 @@
         <v>27</v>
       </c>
       <c r="D81" s="3">
-        <v>5181500</v>
+        <v>5221200</v>
       </c>
       <c r="E81" s="3">
-        <v>9001100</v>
+        <v>9070100</v>
       </c>
       <c r="F81" s="3">
-        <v>9646900</v>
+        <v>9720900</v>
       </c>
       <c r="G81" s="3">
-        <v>8022800</v>
+        <v>8084300</v>
       </c>
       <c r="H81" s="3">
-        <v>7307000</v>
+        <v>7363000</v>
       </c>
       <c r="I81" s="3">
-        <v>5090100</v>
+        <v>5129100</v>
       </c>
       <c r="J81" s="3">
-        <v>7274700</v>
+        <v>7330500</v>
       </c>
       <c r="K81" s="3">
         <v>10103600</v>
@@ -3103,25 +3103,25 @@
         <v>71</v>
       </c>
       <c r="D83" s="3">
-        <v>16746400</v>
+        <v>16874800</v>
       </c>
       <c r="E83" s="3">
-        <v>17092000</v>
+        <v>17223000</v>
       </c>
       <c r="F83" s="3">
-        <v>17216400</v>
+        <v>17348400</v>
       </c>
       <c r="G83" s="3">
-        <v>18052900</v>
+        <v>18191300</v>
       </c>
       <c r="H83" s="3">
-        <v>16975000</v>
+        <v>17105100</v>
       </c>
       <c r="I83" s="3">
-        <v>15101800</v>
+        <v>15217500</v>
       </c>
       <c r="J83" s="3">
-        <v>14105600</v>
+        <v>14213700</v>
       </c>
       <c r="K83" s="3">
         <v>12415700</v>
@@ -3319,25 +3319,25 @@
         <v>77</v>
       </c>
       <c r="D89" s="3">
-        <v>26226600</v>
+        <v>26427600</v>
       </c>
       <c r="E89" s="3">
-        <v>24050600</v>
+        <v>24234900</v>
       </c>
       <c r="F89" s="3">
-        <v>27533900</v>
+        <v>27744900</v>
       </c>
       <c r="G89" s="3">
-        <v>29892800</v>
+        <v>30121900</v>
       </c>
       <c r="H89" s="3">
-        <v>33588900</v>
+        <v>33846300</v>
       </c>
       <c r="I89" s="3">
-        <v>25948300</v>
+        <v>26147100</v>
       </c>
       <c r="J89" s="3">
-        <v>23225200</v>
+        <v>23403200</v>
       </c>
       <c r="K89" s="3">
         <v>23206200</v>
@@ -3371,25 +3371,25 @@
         <v>79</v>
       </c>
       <c r="D91" s="3">
-        <v>-18454400</v>
+        <v>-18595800</v>
       </c>
       <c r="E91" s="3">
-        <v>-20361700</v>
+        <v>-20517800</v>
       </c>
       <c r="F91" s="3">
-        <v>-14834500</v>
+        <v>-14948200</v>
       </c>
       <c r="G91" s="3">
-        <v>-9948000</v>
+        <v>-10024200</v>
       </c>
       <c r="H91" s="3">
-        <v>-10249500</v>
+        <v>-10328100</v>
       </c>
       <c r="I91" s="3">
-        <v>-14950700</v>
+        <v>-15065300</v>
       </c>
       <c r="J91" s="3">
-        <v>-17698600</v>
+        <v>-17834300</v>
       </c>
       <c r="K91" s="3">
         <v>-22148800</v>
@@ -3479,25 +3479,25 @@
         <v>82</v>
       </c>
       <c r="D94" s="3">
-        <v>-16000900</v>
+        <v>-16123500</v>
       </c>
       <c r="E94" s="3">
-        <v>-18951700</v>
+        <v>-19097000</v>
       </c>
       <c r="F94" s="3">
-        <v>-10399000</v>
+        <v>-10478700</v>
       </c>
       <c r="G94" s="3">
-        <v>-22751800</v>
+        <v>-22926200</v>
       </c>
       <c r="H94" s="3">
-        <v>-10366900</v>
+        <v>-10446400</v>
       </c>
       <c r="I94" s="3">
-        <v>-18273500</v>
+        <v>-18413600</v>
       </c>
       <c r="J94" s="3">
-        <v>-20765000</v>
+        <v>-20924200</v>
       </c>
       <c r="K94" s="3">
         <v>-27307900</v>
@@ -3531,25 +3531,25 @@
         <v>84</v>
       </c>
       <c r="D96" s="3">
-        <v>-4928400</v>
+        <v>-4966100</v>
       </c>
       <c r="E96" s="3">
-        <v>-7203000</v>
+        <v>-7258200</v>
       </c>
       <c r="F96" s="3">
-        <v>-10614600</v>
+        <v>-10696000</v>
       </c>
       <c r="G96" s="3">
-        <v>-5117800</v>
+        <v>-5157000</v>
       </c>
       <c r="H96" s="3">
-        <v>-2642100</v>
+        <v>-2662400</v>
       </c>
       <c r="I96" s="3">
-        <v>-3790900</v>
+        <v>-3820000</v>
       </c>
       <c r="J96" s="3">
-        <v>-4388500</v>
+        <v>-4422200</v>
       </c>
       <c r="K96" s="3">
         <v>-4323400</v>
@@ -3675,25 +3675,25 @@
         <v>88</v>
       </c>
       <c r="D100" s="3">
-        <v>-5785700</v>
+        <v>-5830000</v>
       </c>
       <c r="E100" s="3">
-        <v>-13183000</v>
+        <v>-13284000</v>
       </c>
       <c r="F100" s="3">
-        <v>-17418900</v>
+        <v>-17552400</v>
       </c>
       <c r="G100" s="3">
-        <v>-8847000</v>
+        <v>-8914900</v>
       </c>
       <c r="H100" s="3">
-        <v>-14567400</v>
+        <v>-14679100</v>
       </c>
       <c r="I100" s="3">
-        <v>1423600</v>
+        <v>1434500</v>
       </c>
       <c r="J100" s="3">
-        <v>-3353700</v>
+        <v>-3379400</v>
       </c>
       <c r="K100" s="3">
         <v>4815500</v>
@@ -3711,22 +3711,22 @@
         <v>89</v>
       </c>
       <c r="D101" s="3">
-        <v>-194000</v>
+        <v>-195500</v>
       </c>
       <c r="E101" s="3">
-        <v>23000</v>
+        <v>23200</v>
       </c>
       <c r="F101" s="3">
-        <v>81100</v>
+        <v>81700</v>
       </c>
       <c r="G101" s="3">
-        <v>-55300</v>
+        <v>-55700</v>
       </c>
       <c r="H101" s="3">
-        <v>40100</v>
+        <v>40400</v>
       </c>
       <c r="I101" s="3">
-        <v>45900</v>
+        <v>46200</v>
       </c>
       <c r="J101" s="3">
         <v>2500</v>
@@ -3747,25 +3747,25 @@
         <v>90</v>
       </c>
       <c r="D102" s="3">
-        <v>4246100</v>
+        <v>4278600</v>
       </c>
       <c r="E102" s="3">
-        <v>-8061100</v>
+        <v>-8122900</v>
       </c>
       <c r="F102" s="3">
-        <v>-202900</v>
+        <v>-204500</v>
       </c>
       <c r="G102" s="3">
-        <v>-1761300</v>
+        <v>-1774800</v>
       </c>
       <c r="H102" s="3">
-        <v>8694600</v>
+        <v>8761200</v>
       </c>
       <c r="I102" s="3">
-        <v>9144200</v>
+        <v>9214300</v>
       </c>
       <c r="J102" s="3">
-        <v>-891000</v>
+        <v>-897800</v>
       </c>
       <c r="K102" s="3">
         <v>701300</v>

--- a/AAII_Financials/Yearly/SNP_YR_FIN.xlsx
+++ b/AAII_Financials/Yearly/SNP_YR_FIN.xlsx
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:N102"/>
+  <dimension ref="A5:O102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,165 +665,177 @@
     <col min="1" max="1" width="5.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="13" width="16" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="14" width="16" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:15" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44561</v>
+      </c>
+      <c r="E7" s="2">
         <v>44196</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>43830</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>43465</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>43100</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>42735</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>42369</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>42004</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>41639</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>41274</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>40908</v>
       </c>
-      <c r="N7" s="2"/>
-    </row>
-    <row r="8" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O7" s="2"/>
+    </row>
+    <row r="8" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
-        <v>332240000</v>
+        <v>403896700</v>
       </c>
       <c r="E8" s="3">
-        <v>466937900</v>
+        <v>310152100</v>
       </c>
       <c r="F8" s="3">
-        <v>456112400</v>
+        <v>436156000</v>
       </c>
       <c r="G8" s="3">
-        <v>372344000</v>
+        <v>426044100</v>
       </c>
       <c r="H8" s="3">
-        <v>304620500</v>
+        <v>347798000</v>
       </c>
       <c r="I8" s="3">
-        <v>318734400</v>
+        <v>284539000</v>
       </c>
       <c r="J8" s="3">
+        <v>297722500</v>
+      </c>
+      <c r="K8" s="3">
         <v>445816200</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>440053900</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>399741700</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>364401500</v>
       </c>
-      <c r="N8" s="3"/>
-    </row>
-    <row r="9" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O8" s="3"/>
+    </row>
+    <row r="9" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
-        <v>265481800</v>
+        <v>321620600</v>
       </c>
       <c r="E9" s="3">
-        <v>387348100</v>
+        <v>247569100</v>
       </c>
       <c r="F9" s="3">
-        <v>375942200</v>
+        <v>361813000</v>
       </c>
       <c r="G9" s="3">
-        <v>293056400</v>
+        <v>351159000</v>
       </c>
       <c r="H9" s="3">
-        <v>230012200</v>
+        <v>273737300</v>
       </c>
       <c r="I9" s="3">
-        <v>246902100</v>
+        <v>214849100</v>
       </c>
       <c r="J9" s="3">
+        <v>230625600</v>
+      </c>
+      <c r="K9" s="3">
         <v>370491600</v>
       </c>
-      <c r="K9" s="3">
+      <c r="L9" s="3">
         <v>364537500</v>
       </c>
-      <c r="L9" s="3">
+      <c r="M9" s="3">
         <v>337603600</v>
       </c>
-      <c r="M9" s="3">
+      <c r="N9" s="3">
         <v>301487200</v>
       </c>
-      <c r="N9" s="3"/>
-    </row>
-    <row r="10" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O9" s="3"/>
+    </row>
+    <row r="10" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
-        <v>66758200</v>
+        <v>82276100</v>
       </c>
       <c r="E10" s="3">
-        <v>79589800</v>
+        <v>62583100</v>
       </c>
       <c r="F10" s="3">
-        <v>80170200</v>
+        <v>74343000</v>
       </c>
       <c r="G10" s="3">
-        <v>79287700</v>
+        <v>74885100</v>
       </c>
       <c r="H10" s="3">
-        <v>74608300</v>
+        <v>74060800</v>
       </c>
       <c r="I10" s="3">
-        <v>71832200</v>
+        <v>69689900</v>
       </c>
       <c r="J10" s="3">
+        <v>67096800</v>
+      </c>
+      <c r="K10" s="3">
         <v>75324600</v>
       </c>
-      <c r="K10" s="3">
+      <c r="L10" s="3">
         <v>75516400</v>
       </c>
-      <c r="L10" s="3">
+      <c r="M10" s="3">
         <v>62138200</v>
       </c>
-      <c r="M10" s="3">
+      <c r="N10" s="3">
         <v>62914300</v>
       </c>
-      <c r="N10" s="3"/>
-    </row>
-    <row r="11" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O10" s="3"/>
+    </row>
+    <row r="11" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -838,44 +850,48 @@
       <c r="L11" s="3"/>
       <c r="M11" s="3"/>
       <c r="N11" s="3"/>
-    </row>
-    <row r="12" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O11" s="3"/>
+    </row>
+    <row r="12" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
       <c r="D12" s="3">
-        <v>1532800</v>
+        <v>1824600</v>
       </c>
       <c r="E12" s="3">
-        <v>1658100</v>
+        <v>1431700</v>
       </c>
       <c r="F12" s="3">
-        <v>1695000</v>
+        <v>1548800</v>
       </c>
       <c r="G12" s="3">
-        <v>1749400</v>
+        <v>1583200</v>
       </c>
       <c r="H12" s="3">
-        <v>1740900</v>
+        <v>1634100</v>
       </c>
       <c r="I12" s="3">
-        <v>1650000</v>
+        <v>1626100</v>
       </c>
       <c r="J12" s="3">
+        <v>1541200</v>
+      </c>
+      <c r="K12" s="3">
         <v>1730500</v>
       </c>
-      <c r="K12" s="3">
+      <c r="L12" s="3">
         <v>1920900</v>
       </c>
-      <c r="L12" s="3">
+      <c r="M12" s="3">
         <v>2228700</v>
       </c>
-      <c r="M12" s="3">
+      <c r="N12" s="3">
         <v>1940200</v>
       </c>
-      <c r="N12" s="3"/>
-    </row>
-    <row r="13" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O12" s="3"/>
+    </row>
+    <row r="13" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>8</v>
       </c>
@@ -909,81 +925,90 @@
       <c r="M13" s="3">
         <v>0</v>
       </c>
-      <c r="N13" s="3"/>
-    </row>
-    <row r="14" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="N13" s="3">
+        <v>0</v>
+      </c>
+      <c r="O13" s="3"/>
+    </row>
+    <row r="14" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>9</v>
       </c>
       <c r="D14" s="3">
-        <v>2297000</v>
+        <v>1511200</v>
       </c>
       <c r="E14" s="3">
-        <v>54400</v>
-      </c>
-      <c r="F14" s="3" t="s">
+        <v>2162100</v>
+      </c>
+      <c r="F14" s="3">
+        <v>50800</v>
+      </c>
+      <c r="G14" s="3" t="s">
         <v>91</v>
       </c>
-      <c r="G14" s="3">
-        <v>0</v>
-      </c>
       <c r="H14" s="3">
-        <v>-3243900</v>
+        <v>0</v>
       </c>
       <c r="I14" s="3">
-        <v>0</v>
-      </c>
-      <c r="J14" s="3" t="s">
-        <v>91</v>
+        <v>-3030000</v>
+      </c>
+      <c r="J14" s="3">
+        <v>0</v>
       </c>
       <c r="K14" s="3" t="s">
         <v>91</v>
       </c>
-      <c r="L14" s="3">
+      <c r="L14" s="3" t="s">
+        <v>91</v>
+      </c>
+      <c r="M14" s="3">
         <v>145500</v>
       </c>
-      <c r="M14" s="3">
+      <c r="N14" s="3">
         <v>408500</v>
       </c>
-      <c r="N14" s="3"/>
-    </row>
-    <row r="15" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O14" s="3"/>
+    </row>
+    <row r="15" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D15" s="3">
-        <v>16874800</v>
+        <v>17046600</v>
       </c>
       <c r="E15" s="3">
-        <v>17223000</v>
+        <v>15835500</v>
       </c>
       <c r="F15" s="3">
-        <v>17348400</v>
+        <v>16087600</v>
       </c>
       <c r="G15" s="3">
-        <v>18191300</v>
+        <v>16204700</v>
       </c>
       <c r="H15" s="3">
-        <v>17105100</v>
+        <v>16992100</v>
       </c>
       <c r="I15" s="3">
-        <v>15217500</v>
+        <v>15977500</v>
       </c>
       <c r="J15" s="3">
+        <v>14214300</v>
+      </c>
+      <c r="K15" s="3">
         <v>14213700</v>
       </c>
-      <c r="K15" s="3">
+      <c r="L15" s="3">
         <v>12415700</v>
       </c>
-      <c r="L15" s="3">
+      <c r="M15" s="3">
         <v>10109000</v>
       </c>
-      <c r="M15" s="3">
+      <c r="N15" s="3">
         <v>9280800</v>
       </c>
-      <c r="N15" s="3"/>
-    </row>
-    <row r="16" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O15" s="3"/>
+    </row>
+    <row r="16" spans="1:15" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -995,80 +1020,87 @@
       <c r="L16" s="3"/>
       <c r="M16" s="3"/>
       <c r="N16" s="3"/>
-    </row>
-    <row r="17" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O16" s="3"/>
+    </row>
+    <row r="17" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>11</v>
       </c>
       <c r="D17" s="3">
-        <v>330158700</v>
+        <v>389952300</v>
       </c>
       <c r="E17" s="3">
-        <v>453311500</v>
+        <v>308137900</v>
       </c>
       <c r="F17" s="3">
-        <v>443134400</v>
+        <v>423427900</v>
       </c>
       <c r="G17" s="3">
-        <v>361068900</v>
+        <v>413921700</v>
       </c>
       <c r="H17" s="3">
-        <v>292442600</v>
+        <v>337266200</v>
       </c>
       <c r="I17" s="3">
-        <v>309770100</v>
+        <v>273163900</v>
       </c>
       <c r="J17" s="3">
+        <v>289349200</v>
+      </c>
+      <c r="K17" s="3">
         <v>434222900</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>425267100</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>385585700</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>349054300</v>
       </c>
-      <c r="N17" s="3"/>
-    </row>
-    <row r="18" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O17" s="3"/>
+    </row>
+    <row r="18" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D18" s="3">
-        <v>2081300</v>
+        <v>13944400</v>
       </c>
       <c r="E18" s="3">
-        <v>13626400</v>
+        <v>2014300</v>
       </c>
       <c r="F18" s="3">
-        <v>12978000</v>
+        <v>12728100</v>
       </c>
       <c r="G18" s="3">
-        <v>11275100</v>
+        <v>12122400</v>
       </c>
       <c r="H18" s="3">
-        <v>12178000</v>
+        <v>10531800</v>
       </c>
       <c r="I18" s="3">
-        <v>8964200</v>
+        <v>11375200</v>
       </c>
       <c r="J18" s="3">
+        <v>8373300</v>
+      </c>
+      <c r="K18" s="3">
         <v>11593300</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>14786800</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>14156000</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>15347200</v>
       </c>
-      <c r="N18" s="3"/>
-    </row>
-    <row r="19" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O18" s="3"/>
+    </row>
+    <row r="19" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>13</v>
       </c>
@@ -1083,188 +1115,204 @@
       <c r="L19" s="3"/>
       <c r="M19" s="3"/>
       <c r="N19" s="3"/>
-    </row>
-    <row r="20" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O19" s="3"/>
+    </row>
+    <row r="20" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>14</v>
       </c>
       <c r="D20" s="3">
-        <v>7698800</v>
+        <v>4188600</v>
       </c>
       <c r="E20" s="3">
-        <v>3047600</v>
+        <v>7191300</v>
       </c>
       <c r="F20" s="3">
-        <v>3585700</v>
+        <v>2846700</v>
       </c>
       <c r="G20" s="3">
-        <v>3292800</v>
+        <v>3349300</v>
       </c>
       <c r="H20" s="3">
-        <v>1754300</v>
+        <v>3075700</v>
       </c>
       <c r="I20" s="3">
-        <v>1047700</v>
+        <v>1638600</v>
       </c>
       <c r="J20" s="3">
+        <v>978600</v>
+      </c>
+      <c r="K20" s="3">
         <v>351300</v>
       </c>
-      <c r="K20" s="3">
+      <c r="L20" s="3">
         <v>1221000</v>
       </c>
-      <c r="L20" s="3">
+      <c r="M20" s="3">
         <v>335900</v>
       </c>
-      <c r="M20" s="3">
+      <c r="N20" s="3">
         <v>1095800</v>
       </c>
-      <c r="N20" s="3"/>
-    </row>
-    <row r="21" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O20" s="3"/>
+    </row>
+    <row r="21" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D21" s="3">
-        <v>26711700</v>
+        <v>35350800</v>
       </c>
       <c r="E21" s="3">
-        <v>33954800</v>
+        <v>25200100</v>
       </c>
       <c r="F21" s="3">
-        <v>33970400</v>
+        <v>31823900</v>
       </c>
       <c r="G21" s="3">
-        <v>32820300</v>
+        <v>31839300</v>
       </c>
       <c r="H21" s="3">
-        <v>31094900</v>
+        <v>30770300</v>
       </c>
       <c r="I21" s="3">
-        <v>25280600</v>
+        <v>29151800</v>
       </c>
       <c r="J21" s="3">
+        <v>23709000</v>
+      </c>
+      <c r="K21" s="3">
         <v>26206100</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>28465800</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>24597400</v>
       </c>
-      <c r="M21" s="3">
+      <c r="N21" s="3">
         <v>25751200</v>
       </c>
-      <c r="N21" s="3"/>
-    </row>
-    <row r="22" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O21" s="3"/>
+    </row>
+    <row r="22" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D22" s="3">
-        <v>2185100</v>
+        <v>2045800</v>
       </c>
       <c r="E22" s="3">
-        <v>2472100</v>
+        <v>2041700</v>
       </c>
       <c r="F22" s="3">
-        <v>928100</v>
+        <v>2309100</v>
       </c>
       <c r="G22" s="3">
-        <v>890600</v>
+        <v>866900</v>
       </c>
       <c r="H22" s="3">
-        <v>1287600</v>
+        <v>831800</v>
       </c>
       <c r="I22" s="3">
-        <v>1112500</v>
+        <v>1202800</v>
       </c>
       <c r="J22" s="3">
+        <v>1039200</v>
+      </c>
+      <c r="K22" s="3">
         <v>1610700</v>
       </c>
-      <c r="K22" s="3">
+      <c r="L22" s="3">
         <v>1485800</v>
       </c>
-      <c r="L22" s="3">
+      <c r="M22" s="3">
         <v>1486600</v>
       </c>
-      <c r="M22" s="3">
+      <c r="N22" s="3">
         <v>1236200</v>
       </c>
-      <c r="N22" s="3"/>
-    </row>
-    <row r="23" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O22" s="3"/>
+    </row>
+    <row r="23" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D23" s="3">
-        <v>7595000</v>
+        <v>16087100</v>
       </c>
       <c r="E23" s="3">
-        <v>14201900</v>
+        <v>7163900</v>
       </c>
       <c r="F23" s="3">
-        <v>15635600</v>
+        <v>13265600</v>
       </c>
       <c r="G23" s="3">
-        <v>13677300</v>
+        <v>14604800</v>
       </c>
       <c r="H23" s="3">
-        <v>12644600</v>
+        <v>12775700</v>
       </c>
       <c r="I23" s="3">
-        <v>8899400</v>
+        <v>11811100</v>
       </c>
       <c r="J23" s="3">
+        <v>8312700</v>
+      </c>
+      <c r="K23" s="3">
         <v>10333900</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>14522000</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>13005300</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>15206900</v>
       </c>
-      <c r="N23" s="3"/>
-    </row>
-    <row r="24" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O23" s="3"/>
+    </row>
+    <row r="24" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D24" s="3">
-        <v>981100</v>
+        <v>3436100</v>
       </c>
       <c r="E24" s="3">
-        <v>2830100</v>
+        <v>934900</v>
       </c>
       <c r="F24" s="3">
-        <v>3188800</v>
+        <v>2643500</v>
       </c>
       <c r="G24" s="3">
-        <v>2568200</v>
+        <v>2978600</v>
       </c>
       <c r="H24" s="3">
-        <v>3266700</v>
+        <v>2398900</v>
       </c>
       <c r="I24" s="3">
-        <v>1989800</v>
+        <v>3051400</v>
       </c>
       <c r="J24" s="3">
+        <v>1858700</v>
+      </c>
+      <c r="K24" s="3">
         <v>2772000</v>
       </c>
-      <c r="K24" s="3">
+      <c r="L24" s="3">
         <v>3783300</v>
       </c>
-      <c r="L24" s="3">
+      <c r="M24" s="3">
         <v>3421400</v>
       </c>
-      <c r="M24" s="3">
+      <c r="N24" s="3">
         <v>3798600</v>
       </c>
-      <c r="N24" s="3"/>
-    </row>
-    <row r="25" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O24" s="3"/>
+    </row>
+    <row r="25" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>19</v>
       </c>
@@ -1298,81 +1346,90 @@
       <c r="M25" s="3">
         <v>0</v>
       </c>
-      <c r="N25" s="3"/>
-    </row>
-    <row r="26" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N25" s="3">
+        <v>0</v>
+      </c>
+      <c r="O25" s="3"/>
+    </row>
+    <row r="26" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>20</v>
       </c>
       <c r="D26" s="3">
-        <v>6613900</v>
+        <v>12651000</v>
       </c>
       <c r="E26" s="3">
-        <v>11371800</v>
+        <v>6229100</v>
       </c>
       <c r="F26" s="3">
-        <v>12446800</v>
+        <v>10622200</v>
       </c>
       <c r="G26" s="3">
-        <v>11109100</v>
+        <v>11626300</v>
       </c>
       <c r="H26" s="3">
-        <v>9377900</v>
+        <v>10376800</v>
       </c>
       <c r="I26" s="3">
-        <v>6909600</v>
+        <v>8759700</v>
       </c>
       <c r="J26" s="3">
+        <v>6454100</v>
+      </c>
+      <c r="K26" s="3">
         <v>7561900</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>10738800</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>9583900</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>11408300</v>
       </c>
-      <c r="N26" s="3"/>
-    </row>
-    <row r="27" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O26" s="3"/>
+    </row>
+    <row r="27" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D27" s="3">
-        <v>5221200</v>
+        <v>10606200</v>
       </c>
       <c r="E27" s="3">
-        <v>9070100</v>
+        <v>4928200</v>
       </c>
       <c r="F27" s="3">
-        <v>9720900</v>
+        <v>8472200</v>
       </c>
       <c r="G27" s="3">
-        <v>8084300</v>
+        <v>9080000</v>
       </c>
       <c r="H27" s="3">
-        <v>7363000</v>
+        <v>7551300</v>
       </c>
       <c r="I27" s="3">
-        <v>5129100</v>
+        <v>6877600</v>
       </c>
       <c r="J27" s="3">
+        <v>4791000</v>
+      </c>
+      <c r="K27" s="3">
         <v>7330500</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>10103600</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>9165400</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>10649100</v>
       </c>
-      <c r="N27" s="3"/>
-    </row>
-    <row r="28" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O27" s="3"/>
+    </row>
+    <row r="28" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>22</v>
       </c>
@@ -1406,9 +1463,12 @@
       <c r="M28" s="3">
         <v>0</v>
       </c>
-      <c r="N28" s="3"/>
-    </row>
-    <row r="29" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N28" s="3">
+        <v>0</v>
+      </c>
+      <c r="O28" s="3"/>
+    </row>
+    <row r="29" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>23</v>
       </c>
@@ -1442,9 +1502,12 @@
       <c r="M29" s="3">
         <v>0</v>
       </c>
-      <c r="N29" s="3"/>
-    </row>
-    <row r="30" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N29" s="3">
+        <v>0</v>
+      </c>
+      <c r="O29" s="3"/>
+    </row>
+    <row r="30" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>24</v>
       </c>
@@ -1478,9 +1541,12 @@
       <c r="M30" s="3">
         <v>0</v>
       </c>
-      <c r="N30" s="3"/>
-    </row>
-    <row r="31" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N30" s="3">
+        <v>0</v>
+      </c>
+      <c r="O30" s="3"/>
+    </row>
+    <row r="31" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>25</v>
       </c>
@@ -1514,81 +1580,90 @@
       <c r="M31" s="3">
         <v>0</v>
       </c>
-      <c r="N31" s="3"/>
-    </row>
-    <row r="32" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N31" s="3">
+        <v>0</v>
+      </c>
+      <c r="O31" s="3"/>
+    </row>
+    <row r="32" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>26</v>
       </c>
       <c r="D32" s="3">
-        <v>-7698800</v>
+        <v>-4188600</v>
       </c>
       <c r="E32" s="3">
-        <v>-3047600</v>
+        <v>-7191300</v>
       </c>
       <c r="F32" s="3">
-        <v>-3585700</v>
+        <v>-2846700</v>
       </c>
       <c r="G32" s="3">
-        <v>-3292800</v>
+        <v>-3349300</v>
       </c>
       <c r="H32" s="3">
-        <v>-1754300</v>
+        <v>-3075700</v>
       </c>
       <c r="I32" s="3">
-        <v>-1047700</v>
+        <v>-1638600</v>
       </c>
       <c r="J32" s="3">
+        <v>-978600</v>
+      </c>
+      <c r="K32" s="3">
         <v>-351300</v>
       </c>
-      <c r="K32" s="3">
+      <c r="L32" s="3">
         <v>-1221000</v>
       </c>
-      <c r="L32" s="3">
+      <c r="M32" s="3">
         <v>-335900</v>
       </c>
-      <c r="M32" s="3">
+      <c r="N32" s="3">
         <v>-1095800</v>
       </c>
-      <c r="N32" s="3"/>
-    </row>
-    <row r="33" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O32" s="3"/>
+    </row>
+    <row r="33" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D33" s="3">
-        <v>5221200</v>
+        <v>10606200</v>
       </c>
       <c r="E33" s="3">
-        <v>9070100</v>
+        <v>4928200</v>
       </c>
       <c r="F33" s="3">
-        <v>9720900</v>
+        <v>8472200</v>
       </c>
       <c r="G33" s="3">
-        <v>8084300</v>
+        <v>9080000</v>
       </c>
       <c r="H33" s="3">
-        <v>7363000</v>
+        <v>7551300</v>
       </c>
       <c r="I33" s="3">
-        <v>5129100</v>
+        <v>6877600</v>
       </c>
       <c r="J33" s="3">
+        <v>4791000</v>
+      </c>
+      <c r="K33" s="3">
         <v>7330500</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>10103600</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>9165400</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>10649100</v>
       </c>
-      <c r="N33" s="3"/>
-    </row>
-    <row r="34" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O33" s="3"/>
+    </row>
+    <row r="34" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>28</v>
       </c>
@@ -1622,86 +1697,95 @@
       <c r="M34" s="3">
         <v>0</v>
       </c>
-      <c r="N34" s="3"/>
-    </row>
-    <row r="35" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="N34" s="3">
+        <v>0</v>
+      </c>
+      <c r="O34" s="3"/>
+    </row>
+    <row r="35" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>29</v>
       </c>
       <c r="D35" s="3">
-        <v>5221200</v>
+        <v>10606200</v>
       </c>
       <c r="E35" s="3">
-        <v>9070100</v>
+        <v>4928200</v>
       </c>
       <c r="F35" s="3">
-        <v>9720900</v>
+        <v>8472200</v>
       </c>
       <c r="G35" s="3">
-        <v>8084300</v>
+        <v>9080000</v>
       </c>
       <c r="H35" s="3">
-        <v>7363000</v>
+        <v>7551300</v>
       </c>
       <c r="I35" s="3">
-        <v>5129100</v>
+        <v>6877600</v>
       </c>
       <c r="J35" s="3">
+        <v>4791000</v>
+      </c>
+      <c r="K35" s="3">
         <v>7330500</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>10103600</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>9165400</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>10649100</v>
       </c>
-      <c r="N35" s="3"/>
-    </row>
-    <row r="37" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O35" s="3"/>
+    </row>
+    <row r="37" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="38" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44561</v>
+      </c>
+      <c r="E38" s="2">
         <v>44196</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>43830</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>43465</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>43100</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>42735</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>42369</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>42004</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>41639</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>41274</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>40908</v>
       </c>
-      <c r="N38" s="2"/>
-    </row>
-    <row r="39" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O38" s="2"/>
+    </row>
+    <row r="39" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>31</v>
       </c>
@@ -1716,8 +1800,9 @@
       <c r="L39" s="3"/>
       <c r="M39" s="3"/>
       <c r="N39" s="3"/>
-    </row>
-    <row r="40" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O39" s="3"/>
+    </row>
+    <row r="40" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>32</v>
       </c>
@@ -1732,332 +1817,360 @@
       <c r="L40" s="3"/>
       <c r="M40" s="3"/>
       <c r="N40" s="3"/>
-    </row>
-    <row r="41" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O40" s="3"/>
+    </row>
+    <row r="41" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>33</v>
       </c>
       <c r="D41" s="3">
-        <v>13813300</v>
+        <v>16001800</v>
       </c>
       <c r="E41" s="3">
-        <v>9534700</v>
+        <v>12902700</v>
       </c>
       <c r="F41" s="3">
-        <v>17656800</v>
+        <v>8906100</v>
       </c>
       <c r="G41" s="3">
-        <v>17861300</v>
+        <v>16492800</v>
       </c>
       <c r="H41" s="3">
-        <v>19636100</v>
+        <v>16683800</v>
       </c>
       <c r="I41" s="3">
-        <v>10874900</v>
+        <v>18341600</v>
       </c>
       <c r="J41" s="3">
+        <v>10158000</v>
+      </c>
+      <c r="K41" s="3">
         <v>1475800</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>2298700</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>1500200</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>3584400</v>
       </c>
-      <c r="N41" s="3"/>
-    </row>
-    <row r="42" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O41" s="3"/>
+    </row>
+    <row r="42" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D42" s="3">
-        <v>17232800</v>
+        <v>17585600</v>
       </c>
       <c r="E42" s="3">
-        <v>12556700</v>
+        <v>16096700</v>
       </c>
       <c r="F42" s="3">
-        <v>12751000</v>
+        <v>11729000</v>
       </c>
       <c r="G42" s="3">
-        <v>16246400</v>
+        <v>11910400</v>
       </c>
       <c r="H42" s="3">
-        <v>2844300</v>
+        <v>15175400</v>
       </c>
       <c r="I42" s="3">
-        <v>115600</v>
+        <v>2656800</v>
       </c>
       <c r="J42" s="3">
+        <v>108000</v>
+      </c>
+      <c r="K42" s="3">
         <v>117500</v>
       </c>
-      <c r="K42" s="3">
+      <c r="L42" s="3">
         <v>8400</v>
       </c>
-      <c r="L42" s="3">
+      <c r="M42" s="3">
         <v>58500</v>
       </c>
-      <c r="M42" s="3">
+      <c r="N42" s="3">
         <v>80000</v>
       </c>
-      <c r="N42" s="3"/>
-    </row>
-    <row r="43" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O42" s="3"/>
+    </row>
+    <row r="43" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>35</v>
       </c>
       <c r="D43" s="3">
-        <v>20471400</v>
+        <v>5137100</v>
       </c>
       <c r="E43" s="3">
-        <v>25746100</v>
+        <v>19100100</v>
       </c>
       <c r="F43" s="3">
-        <v>18710700</v>
+        <v>24048900</v>
       </c>
       <c r="G43" s="3">
-        <v>19756600</v>
+        <v>17477200</v>
       </c>
       <c r="H43" s="3">
-        <v>17565900</v>
+        <v>18454200</v>
       </c>
       <c r="I43" s="3">
-        <v>17433700</v>
+        <v>16407900</v>
       </c>
       <c r="J43" s="3">
+        <v>16284500</v>
+      </c>
+      <c r="K43" s="3">
         <v>23537600</v>
       </c>
-      <c r="K43" s="3">
+      <c r="L43" s="3">
         <v>19421900</v>
       </c>
-      <c r="L43" s="3">
+      <c r="M43" s="3">
         <v>15109200</v>
       </c>
-      <c r="M43" s="3">
+      <c r="N43" s="3">
         <v>13008700</v>
       </c>
-      <c r="N43" s="3"/>
-    </row>
-    <row r="44" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O43" s="3"/>
+    </row>
+    <row r="44" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D44" s="3">
-        <v>47934700</v>
+        <v>30567300</v>
       </c>
       <c r="E44" s="3">
-        <v>30627800</v>
+        <v>44818400</v>
       </c>
       <c r="F44" s="3">
-        <v>29120000</v>
+        <v>28608800</v>
       </c>
       <c r="G44" s="3">
-        <v>29452700</v>
+        <v>27200300</v>
       </c>
       <c r="H44" s="3">
-        <v>24691200</v>
+        <v>27511100</v>
       </c>
       <c r="I44" s="3">
-        <v>22971100</v>
+        <v>23063500</v>
       </c>
       <c r="J44" s="3">
+        <v>21456800</v>
+      </c>
+      <c r="K44" s="3">
         <v>29694100</v>
       </c>
-      <c r="K44" s="3">
+      <c r="L44" s="3">
         <v>33902800</v>
       </c>
-      <c r="L44" s="3">
+      <c r="M44" s="3">
         <v>31316200</v>
       </c>
-      <c r="M44" s="3">
+      <c r="N44" s="3">
         <v>29582900</v>
       </c>
-      <c r="N44" s="3"/>
-    </row>
-    <row r="45" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O44" s="3"/>
+    </row>
+    <row r="45" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D45" s="3">
-        <v>11219300</v>
+        <v>12938500</v>
       </c>
       <c r="E45" s="3">
-        <v>428500</v>
+        <v>19131000</v>
       </c>
       <c r="F45" s="3">
-        <v>1291600</v>
+        <v>400200</v>
       </c>
       <c r="G45" s="3">
-        <v>145800</v>
+        <v>1206400</v>
       </c>
       <c r="H45" s="3">
-        <v>300800</v>
+        <v>136200</v>
       </c>
       <c r="I45" s="3">
-        <v>1242400</v>
+        <v>281000</v>
       </c>
       <c r="J45" s="3">
+        <v>1160500</v>
+      </c>
+      <c r="K45" s="3">
         <v>1991200</v>
       </c>
-      <c r="K45" s="3">
+      <c r="L45" s="3">
         <v>1356700</v>
       </c>
-      <c r="L45" s="3">
+      <c r="M45" s="3">
         <v>4388200</v>
       </c>
-      <c r="M45" s="3">
+      <c r="N45" s="3">
         <v>3590800</v>
       </c>
-      <c r="N45" s="3"/>
-    </row>
-    <row r="46" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O45" s="3"/>
+    </row>
+    <row r="46" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D46" s="3">
-        <v>71850800</v>
+        <v>82230400</v>
       </c>
       <c r="E46" s="3">
-        <v>70567600</v>
+        <v>67146100</v>
       </c>
       <c r="F46" s="3">
-        <v>79530000</v>
+        <v>65915600</v>
       </c>
       <c r="G46" s="3">
-        <v>83462800</v>
+        <v>74287100</v>
       </c>
       <c r="H46" s="3">
-        <v>65038300</v>
+        <v>77960700</v>
       </c>
       <c r="I46" s="3">
-        <v>52637700</v>
+        <v>60750800</v>
       </c>
       <c r="J46" s="3">
+        <v>49167700</v>
+      </c>
+      <c r="K46" s="3">
         <v>56816300</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>56988500</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>52372400</v>
       </c>
-      <c r="M46" s="3">
+      <c r="N46" s="3">
         <v>49846900</v>
       </c>
-      <c r="N46" s="3"/>
-    </row>
-    <row r="47" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O46" s="3"/>
+    </row>
+    <row r="47" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D47" s="3">
-        <v>29953400</v>
+        <v>30937600</v>
       </c>
       <c r="E47" s="3">
-        <v>24251700</v>
+        <v>27978800</v>
       </c>
       <c r="F47" s="3">
-        <v>23217700</v>
+        <v>22652900</v>
       </c>
       <c r="G47" s="3">
-        <v>20944700</v>
+        <v>21687100</v>
       </c>
       <c r="H47" s="3">
-        <v>20228000</v>
+        <v>19564000</v>
       </c>
       <c r="I47" s="3">
-        <v>15027700</v>
+        <v>18894500</v>
       </c>
       <c r="J47" s="3">
+        <v>14037100</v>
+      </c>
+      <c r="K47" s="3">
         <v>15650100</v>
       </c>
-      <c r="K47" s="3">
+      <c r="L47" s="3">
         <v>12077000</v>
       </c>
-      <c r="L47" s="3">
+      <c r="M47" s="3">
         <v>7489800</v>
       </c>
-      <c r="M47" s="3">
+      <c r="N47" s="3">
         <v>6909800</v>
       </c>
-      <c r="N47" s="3"/>
-    </row>
-    <row r="48" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O47" s="3"/>
+    </row>
+    <row r="48" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D48" s="3">
-        <v>289733000</v>
+        <v>150789000</v>
       </c>
       <c r="E48" s="3">
-        <v>210667000</v>
+        <v>271321000</v>
       </c>
       <c r="F48" s="3">
-        <v>119065000</v>
+        <v>196779000</v>
       </c>
       <c r="G48" s="3">
-        <v>121384000</v>
+        <v>111216000</v>
       </c>
       <c r="H48" s="3">
-        <v>129391000</v>
+        <v>113382000</v>
       </c>
       <c r="I48" s="3">
-        <v>139740000</v>
+        <v>120861000</v>
       </c>
       <c r="J48" s="3">
+        <v>130528000</v>
+      </c>
+      <c r="K48" s="3">
         <v>139011000</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>126842000</v>
       </c>
-      <c r="L48" s="3">
+      <c r="M48" s="3">
         <v>108750000</v>
       </c>
-      <c r="M48" s="3">
+      <c r="N48" s="3">
         <v>98492000</v>
       </c>
-      <c r="N48" s="3"/>
-    </row>
-    <row r="49" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O48" s="3"/>
+    </row>
+    <row r="49" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D49" s="3">
-        <v>2719800</v>
+        <v>1266400</v>
       </c>
       <c r="E49" s="3">
-        <v>1372000</v>
+        <v>2540500</v>
       </c>
       <c r="F49" s="3">
-        <v>1368700</v>
+        <v>1281600</v>
       </c>
       <c r="G49" s="3">
-        <v>1362100</v>
+        <v>1278500</v>
       </c>
       <c r="H49" s="3">
-        <v>1002200</v>
+        <v>1272300</v>
       </c>
       <c r="I49" s="3">
-        <v>989300</v>
+        <v>936200</v>
       </c>
       <c r="J49" s="3">
+        <v>924100</v>
+      </c>
+      <c r="K49" s="3">
         <v>990900</v>
       </c>
-      <c r="K49" s="3">
+      <c r="L49" s="3">
         <v>955600</v>
       </c>
-      <c r="L49" s="3">
+      <c r="M49" s="3">
         <v>897800</v>
       </c>
-      <c r="M49" s="3">
+      <c r="N49" s="3">
         <v>1194300</v>
       </c>
-      <c r="N49" s="3"/>
-    </row>
-    <row r="50" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O49" s="3"/>
+    </row>
+    <row r="50" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>42</v>
       </c>
@@ -2091,9 +2204,12 @@
       <c r="M50" s="3">
         <v>0</v>
       </c>
-      <c r="N50" s="3"/>
-    </row>
-    <row r="51" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N50" s="3">
+        <v>0</v>
+      </c>
+      <c r="O50" s="3"/>
+    </row>
+    <row r="51" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>43</v>
       </c>
@@ -2127,45 +2243,51 @@
       <c r="M51" s="3">
         <v>0</v>
       </c>
-      <c r="N51" s="3"/>
-    </row>
-    <row r="52" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N51" s="3">
+        <v>0</v>
+      </c>
+      <c r="O51" s="3"/>
+    </row>
+    <row r="52" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>44</v>
       </c>
       <c r="D52" s="3">
-        <v>15711200</v>
+        <v>13176800</v>
       </c>
       <c r="E52" s="3">
-        <v>13102400</v>
+        <v>14676600</v>
       </c>
       <c r="F52" s="3">
-        <v>28020700</v>
+        <v>12238700</v>
       </c>
       <c r="G52" s="3">
-        <v>24553600</v>
+        <v>26173500</v>
       </c>
       <c r="H52" s="3">
-        <v>20761200</v>
+        <v>22935000</v>
       </c>
       <c r="I52" s="3">
-        <v>19926500</v>
+        <v>19392600</v>
       </c>
       <c r="J52" s="3">
+        <v>18612900</v>
+      </c>
+      <c r="K52" s="3">
         <v>16500000</v>
       </c>
-      <c r="K52" s="3">
+      <c r="L52" s="3">
         <v>14419100</v>
       </c>
-      <c r="L52" s="3">
+      <c r="M52" s="3">
         <v>12235100</v>
       </c>
-      <c r="M52" s="3">
+      <c r="N52" s="3">
         <v>10005700</v>
       </c>
-      <c r="N52" s="3"/>
-    </row>
-    <row r="53" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O52" s="3"/>
+    </row>
+    <row r="53" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>45</v>
       </c>
@@ -2199,45 +2321,51 @@
       <c r="M53" s="3">
         <v>0</v>
       </c>
-      <c r="N53" s="3"/>
-    </row>
-    <row r="54" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N53" s="3">
+        <v>0</v>
+      </c>
+      <c r="O53" s="3"/>
+    </row>
+    <row r="54" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>46</v>
       </c>
       <c r="D54" s="3">
-        <v>273626000</v>
+        <v>278401000</v>
       </c>
       <c r="E54" s="3">
-        <v>277703000</v>
+        <v>256244000</v>
       </c>
       <c r="F54" s="3">
-        <v>251203000</v>
+        <v>259396000</v>
       </c>
       <c r="G54" s="3">
-        <v>251707000</v>
+        <v>234643000</v>
       </c>
       <c r="H54" s="3">
-        <v>236421000</v>
+        <v>235114000</v>
       </c>
       <c r="I54" s="3">
-        <v>228321000</v>
+        <v>220835000</v>
       </c>
       <c r="J54" s="3">
+        <v>213269000</v>
+      </c>
+      <c r="K54" s="3">
         <v>228968000</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>211282000</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>181745000</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>166449000</v>
       </c>
-      <c r="N54" s="3"/>
-    </row>
-    <row r="55" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O54" s="3"/>
+    </row>
+    <row r="55" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>47</v>
       </c>
@@ -2252,8 +2380,9 @@
       <c r="L55" s="3"/>
       <c r="M55" s="3"/>
       <c r="N55" s="3"/>
-    </row>
-    <row r="56" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O55" s="3"/>
+    </row>
+    <row r="56" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>48</v>
       </c>
@@ -2268,224 +2397,243 @@
       <c r="L56" s="3"/>
       <c r="M56" s="3"/>
       <c r="N56" s="3"/>
-    </row>
-    <row r="57" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O56" s="3"/>
+    </row>
+    <row r="57" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>49</v>
       </c>
       <c r="D57" s="3">
-        <v>51016300</v>
+        <v>31776700</v>
       </c>
       <c r="E57" s="3">
-        <v>31555600</v>
+        <v>47690300</v>
       </c>
       <c r="F57" s="3">
-        <v>30409300</v>
+        <v>29475400</v>
       </c>
       <c r="G57" s="3">
-        <v>32583000</v>
+        <v>28404700</v>
       </c>
       <c r="H57" s="3">
-        <v>28417200</v>
+        <v>30435000</v>
       </c>
       <c r="I57" s="3">
-        <v>21159400</v>
+        <v>26543800</v>
       </c>
       <c r="J57" s="3">
+        <v>19764500</v>
+      </c>
+      <c r="K57" s="3">
         <v>32016300</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>31663700</v>
       </c>
-      <c r="L57" s="3">
+      <c r="M57" s="3">
         <v>33177200</v>
       </c>
-      <c r="M57" s="3">
+      <c r="N57" s="3">
         <v>28025100</v>
       </c>
-      <c r="N57" s="3"/>
-    </row>
-    <row r="58" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O57" s="3"/>
+    </row>
+    <row r="58" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D58" s="3">
-        <v>10742500</v>
+        <v>7854000</v>
       </c>
       <c r="E58" s="3">
-        <v>22448800</v>
+        <v>10034500</v>
       </c>
       <c r="F58" s="3">
-        <v>9643400</v>
+        <v>20968900</v>
       </c>
       <c r="G58" s="3">
-        <v>12723200</v>
+        <v>9007700</v>
       </c>
       <c r="H58" s="3">
-        <v>11803400</v>
+        <v>11884400</v>
       </c>
       <c r="I58" s="3">
-        <v>18212800</v>
+        <v>11025300</v>
       </c>
       <c r="J58" s="3">
+        <v>17012100</v>
+      </c>
+      <c r="K58" s="3">
         <v>28104600</v>
       </c>
-      <c r="K58" s="3">
+      <c r="L58" s="3">
         <v>25036100</v>
       </c>
-      <c r="L58" s="3">
+      <c r="M58" s="3">
         <v>16641100</v>
       </c>
-      <c r="M58" s="3">
+      <c r="N58" s="3">
         <v>11688600</v>
       </c>
-      <c r="N58" s="3"/>
-    </row>
-    <row r="59" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O58" s="3"/>
+    </row>
+    <row r="59" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D59" s="3">
-        <v>78089900</v>
+        <v>54868300</v>
       </c>
       <c r="E59" s="3">
-        <v>44322200</v>
+        <v>73018500</v>
       </c>
       <c r="F59" s="3">
-        <v>49097100</v>
+        <v>41400300</v>
       </c>
       <c r="G59" s="3">
-        <v>46107300</v>
+        <v>45860500</v>
       </c>
       <c r="H59" s="3">
-        <v>36378700</v>
+        <v>43067700</v>
       </c>
       <c r="I59" s="3">
-        <v>33644200</v>
+        <v>33980500</v>
       </c>
       <c r="J59" s="3">
+        <v>31426300</v>
+      </c>
+      <c r="K59" s="3">
         <v>35206700</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>30663300</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>23840500</v>
       </c>
-      <c r="M59" s="3">
+      <c r="N59" s="3">
         <v>24892100</v>
       </c>
-      <c r="N59" s="3"/>
-    </row>
-    <row r="60" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O59" s="3"/>
+    </row>
+    <row r="60" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D60" s="3">
-        <v>82414300</v>
+        <v>94499000</v>
       </c>
       <c r="E60" s="3">
-        <v>91497300</v>
+        <v>77068500</v>
       </c>
       <c r="F60" s="3">
-        <v>89149900</v>
+        <v>85465600</v>
       </c>
       <c r="G60" s="3">
-        <v>91413400</v>
+        <v>83272800</v>
       </c>
       <c r="H60" s="3">
-        <v>76599300</v>
+        <v>85387200</v>
       </c>
       <c r="I60" s="3">
-        <v>73016400</v>
+        <v>71549600</v>
       </c>
       <c r="J60" s="3">
+        <v>68202900</v>
+      </c>
+      <c r="K60" s="3">
         <v>95327600</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>87363000</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>73658800</v>
       </c>
-      <c r="M60" s="3">
+      <c r="N60" s="3">
         <v>64605800</v>
       </c>
-      <c r="N60" s="3"/>
-    </row>
-    <row r="61" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O60" s="3"/>
+    </row>
+    <row r="61" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D61" s="3">
-        <v>40405600</v>
+        <v>38641200</v>
       </c>
       <c r="E61" s="3">
-        <v>37311500</v>
+        <v>37658600</v>
       </c>
       <c r="F61" s="3">
-        <v>14754800</v>
+        <v>34851800</v>
       </c>
       <c r="G61" s="3">
-        <v>15637800</v>
+        <v>13782100</v>
       </c>
       <c r="H61" s="3">
-        <v>18528300</v>
+        <v>14606900</v>
       </c>
       <c r="I61" s="3">
-        <v>22046300</v>
+        <v>17306800</v>
       </c>
       <c r="J61" s="3">
+        <v>20593000</v>
+      </c>
+      <c r="K61" s="3">
         <v>23811000</v>
       </c>
-      <c r="K61" s="3">
+      <c r="L61" s="3">
         <v>22243200</v>
       </c>
-      <c r="L61" s="3">
+      <c r="M61" s="3">
         <v>23260400</v>
       </c>
-      <c r="M61" s="3">
+      <c r="N61" s="3">
         <v>22462700</v>
       </c>
-      <c r="N61" s="3"/>
-    </row>
-    <row r="62" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O61" s="3"/>
+    </row>
+    <row r="62" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D62" s="3">
-        <v>11459800</v>
+        <v>10415100</v>
       </c>
       <c r="E62" s="3">
-        <v>10490400</v>
+        <v>10704800</v>
       </c>
       <c r="F62" s="3">
-        <v>12170900</v>
+        <v>9798900</v>
       </c>
       <c r="G62" s="3">
-        <v>10103600</v>
+        <v>11368500</v>
       </c>
       <c r="H62" s="3">
-        <v>10157400</v>
+        <v>9437500</v>
       </c>
       <c r="I62" s="3">
-        <v>8918000</v>
+        <v>9487800</v>
       </c>
       <c r="J62" s="3">
+        <v>8330100</v>
+      </c>
+      <c r="K62" s="3">
         <v>7983000</v>
       </c>
-      <c r="K62" s="3">
+      <c r="L62" s="3">
         <v>6703700</v>
       </c>
-      <c r="L62" s="3">
+      <c r="M62" s="3">
         <v>6193700</v>
       </c>
-      <c r="M62" s="3">
+      <c r="N62" s="3">
         <v>5597200</v>
       </c>
-      <c r="N62" s="3"/>
-    </row>
-    <row r="63" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O62" s="3"/>
+    </row>
+    <row r="63" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>55</v>
       </c>
@@ -2519,9 +2667,12 @@
       <c r="M63" s="3">
         <v>0</v>
       </c>
-      <c r="N63" s="3"/>
-    </row>
-    <row r="64" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N63" s="3">
+        <v>0</v>
+      </c>
+      <c r="O63" s="3"/>
+    </row>
+    <row r="64" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>19</v>
       </c>
@@ -2555,9 +2706,12 @@
       <c r="M64" s="3">
         <v>0</v>
       </c>
-      <c r="N64" s="3"/>
-    </row>
-    <row r="65" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="N64" s="3">
+        <v>0</v>
+      </c>
+      <c r="O64" s="3"/>
+    </row>
+    <row r="65" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>56</v>
       </c>
@@ -2591,45 +2745,51 @@
       <c r="M65" s="3">
         <v>0</v>
       </c>
-      <c r="N65" s="3"/>
-    </row>
-    <row r="66" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="N65" s="3">
+        <v>0</v>
+      </c>
+      <c r="O65" s="3"/>
+    </row>
+    <row r="66" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>57</v>
       </c>
       <c r="D66" s="3">
-        <v>156581000</v>
+        <v>164317000</v>
       </c>
       <c r="E66" s="3">
-        <v>161127000</v>
+        <v>146265000</v>
       </c>
       <c r="F66" s="3">
-        <v>138044000</v>
+        <v>150505000</v>
       </c>
       <c r="G66" s="3">
-        <v>137154000</v>
+        <v>128944000</v>
       </c>
       <c r="H66" s="3">
-        <v>124254000</v>
+        <v>128112000</v>
       </c>
       <c r="I66" s="3">
-        <v>121644000</v>
+        <v>116063000</v>
       </c>
       <c r="J66" s="3">
+        <v>113625000</v>
+      </c>
+      <c r="K66" s="3">
         <v>135410000</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>124380000</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>108439000</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>97758000</v>
       </c>
-      <c r="N66" s="3"/>
-    </row>
-    <row r="67" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O66" s="3"/>
+    </row>
+    <row r="67" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>58</v>
       </c>
@@ -2644,8 +2804,9 @@
       <c r="L67" s="3"/>
       <c r="M67" s="3"/>
       <c r="N67" s="3"/>
-    </row>
-    <row r="68" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O67" s="3"/>
+    </row>
+    <row r="68" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>59</v>
       </c>
@@ -2679,9 +2840,12 @@
       <c r="M68" s="3">
         <v>0</v>
       </c>
-      <c r="N68" s="3"/>
-    </row>
-    <row r="69" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="N68" s="3">
+        <v>0</v>
+      </c>
+      <c r="O68" s="3"/>
+    </row>
+    <row r="69" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>60</v>
       </c>
@@ -2715,9 +2879,12 @@
       <c r="M69" s="3">
         <v>0</v>
       </c>
-      <c r="N69" s="3"/>
-    </row>
-    <row r="70" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="N69" s="3">
+        <v>0</v>
+      </c>
+      <c r="O69" s="3"/>
+    </row>
+    <row r="70" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>61</v>
       </c>
@@ -2751,9 +2918,12 @@
       <c r="M70" s="3">
         <v>0</v>
       </c>
-      <c r="N70" s="3"/>
-    </row>
-    <row r="71" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="N70" s="3">
+        <v>0</v>
+      </c>
+      <c r="O70" s="3"/>
+    </row>
+    <row r="71" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>62</v>
       </c>
@@ -2787,45 +2957,51 @@
       <c r="M71" s="3">
         <v>0</v>
       </c>
-      <c r="N71" s="3"/>
-    </row>
-    <row r="72" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="N71" s="3">
+        <v>0</v>
+      </c>
+      <c r="O71" s="3"/>
+    </row>
+    <row r="72" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>63</v>
       </c>
       <c r="D72" s="3">
-        <v>187012000</v>
+        <v>88012400</v>
       </c>
       <c r="E72" s="3">
-        <v>88665100</v>
+        <v>175395000</v>
       </c>
       <c r="F72" s="3">
-        <v>85247700</v>
+        <v>82820000</v>
       </c>
       <c r="G72" s="3">
-        <v>86641600</v>
+        <v>79627900</v>
       </c>
       <c r="H72" s="3">
-        <v>84188500</v>
+        <v>80930000</v>
       </c>
       <c r="I72" s="3">
-        <v>79835600</v>
+        <v>78638500</v>
       </c>
       <c r="J72" s="3">
+        <v>74572600</v>
+      </c>
+      <c r="K72" s="3">
         <v>69274900</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>63617600</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>56679900</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>52025800</v>
       </c>
-      <c r="N72" s="3"/>
-    </row>
-    <row r="73" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O72" s="3"/>
+    </row>
+    <row r="73" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>64</v>
       </c>
@@ -2859,9 +3035,12 @@
       <c r="M73" s="3">
         <v>0</v>
       </c>
-      <c r="N73" s="3"/>
-    </row>
-    <row r="74" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="N73" s="3">
+        <v>0</v>
+      </c>
+      <c r="O73" s="3"/>
+    </row>
+    <row r="74" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>65</v>
       </c>
@@ -2895,9 +3074,12 @@
       <c r="M74" s="3">
         <v>0</v>
       </c>
-      <c r="N74" s="3"/>
-    </row>
-    <row r="75" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="N74" s="3">
+        <v>0</v>
+      </c>
+      <c r="O74" s="3"/>
+    </row>
+    <row r="75" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>66</v>
       </c>
@@ -2931,45 +3113,51 @@
       <c r="M75" s="3">
         <v>0</v>
       </c>
-      <c r="N75" s="3"/>
-    </row>
-    <row r="76" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="N75" s="3">
+        <v>0</v>
+      </c>
+      <c r="O75" s="3"/>
+    </row>
+    <row r="76" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>67</v>
       </c>
       <c r="D76" s="3">
-        <v>117045000</v>
+        <v>114084000</v>
       </c>
       <c r="E76" s="3">
-        <v>116576000</v>
+        <v>109979000</v>
       </c>
       <c r="F76" s="3">
-        <v>113159000</v>
+        <v>108891000</v>
       </c>
       <c r="G76" s="3">
-        <v>114553000</v>
+        <v>105699000</v>
       </c>
       <c r="H76" s="3">
-        <v>112166000</v>
+        <v>107001000</v>
       </c>
       <c r="I76" s="3">
-        <v>106677000</v>
+        <v>104772000</v>
       </c>
       <c r="J76" s="3">
+        <v>99644400</v>
+      </c>
+      <c r="K76" s="3">
         <v>93558100</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>86901700</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>73305900</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>68690700</v>
       </c>
-      <c r="N76" s="3"/>
-    </row>
-    <row r="77" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O76" s="3"/>
+    </row>
+    <row r="77" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>68</v>
       </c>
@@ -3003,86 +3191,95 @@
       <c r="M77" s="3">
         <v>0</v>
       </c>
-      <c r="N77" s="3"/>
-    </row>
-    <row r="79" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="N77" s="3">
+        <v>0</v>
+      </c>
+      <c r="O77" s="3"/>
+    </row>
+    <row r="79" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>69</v>
       </c>
     </row>
-    <row r="80" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44561</v>
+      </c>
+      <c r="E80" s="2">
         <v>44196</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>43830</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>43465</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>43100</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>42735</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>42369</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>42004</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>41639</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>41274</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>40908</v>
       </c>
-      <c r="N80" s="2"/>
-    </row>
-    <row r="81" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O80" s="2"/>
+    </row>
+    <row r="81" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D81" s="3">
-        <v>5221200</v>
+        <v>10606200</v>
       </c>
       <c r="E81" s="3">
-        <v>9070100</v>
+        <v>4928200</v>
       </c>
       <c r="F81" s="3">
-        <v>9720900</v>
+        <v>8472200</v>
       </c>
       <c r="G81" s="3">
-        <v>8084300</v>
+        <v>9080000</v>
       </c>
       <c r="H81" s="3">
-        <v>7363000</v>
+        <v>7551300</v>
       </c>
       <c r="I81" s="3">
-        <v>5129100</v>
+        <v>6877600</v>
       </c>
       <c r="J81" s="3">
+        <v>4791000</v>
+      </c>
+      <c r="K81" s="3">
         <v>7330500</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>10103600</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>9165400</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>10649100</v>
       </c>
-      <c r="N81" s="3"/>
-    </row>
-    <row r="82" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O81" s="3"/>
+    </row>
+    <row r="82" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>70</v>
       </c>
@@ -3097,44 +3294,48 @@
       <c r="L82" s="3"/>
       <c r="M82" s="3"/>
       <c r="N82" s="3"/>
-    </row>
-    <row r="83" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O82" s="3"/>
+    </row>
+    <row r="83" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>71</v>
       </c>
       <c r="D83" s="3">
-        <v>16874800</v>
+        <v>17046600</v>
       </c>
       <c r="E83" s="3">
-        <v>17223000</v>
+        <v>15835500</v>
       </c>
       <c r="F83" s="3">
-        <v>17348400</v>
+        <v>16087600</v>
       </c>
       <c r="G83" s="3">
-        <v>18191300</v>
+        <v>16204700</v>
       </c>
       <c r="H83" s="3">
-        <v>17105100</v>
+        <v>16992100</v>
       </c>
       <c r="I83" s="3">
-        <v>15217500</v>
+        <v>15977500</v>
       </c>
       <c r="J83" s="3">
+        <v>14214300</v>
+      </c>
+      <c r="K83" s="3">
         <v>14213700</v>
       </c>
-      <c r="K83" s="3">
+      <c r="L83" s="3">
         <v>12415700</v>
       </c>
-      <c r="L83" s="3">
+      <c r="M83" s="3">
         <v>10109000</v>
       </c>
-      <c r="M83" s="3">
+      <c r="N83" s="3">
         <v>9280800</v>
       </c>
-      <c r="N83" s="3"/>
-    </row>
-    <row r="84" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O83" s="3"/>
+    </row>
+    <row r="84" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>72</v>
       </c>
@@ -3168,9 +3369,12 @@
       <c r="M84" s="3">
         <v>0</v>
       </c>
-      <c r="N84" s="3"/>
-    </row>
-    <row r="85" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N84" s="3">
+        <v>0</v>
+      </c>
+      <c r="O84" s="3"/>
+    </row>
+    <row r="85" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>73</v>
       </c>
@@ -3204,9 +3408,12 @@
       <c r="M85" s="3">
         <v>0</v>
       </c>
-      <c r="N85" s="3"/>
-    </row>
-    <row r="86" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N85" s="3">
+        <v>0</v>
+      </c>
+      <c r="O85" s="3"/>
+    </row>
+    <row r="86" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>74</v>
       </c>
@@ -3240,9 +3447,12 @@
       <c r="M86" s="3">
         <v>0</v>
       </c>
-      <c r="N86" s="3"/>
-    </row>
-    <row r="87" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N86" s="3">
+        <v>0</v>
+      </c>
+      <c r="O86" s="3"/>
+    </row>
+    <row r="87" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>75</v>
       </c>
@@ -3276,9 +3486,12 @@
       <c r="M87" s="3">
         <v>0</v>
       </c>
-      <c r="N87" s="3"/>
-    </row>
-    <row r="88" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N87" s="3">
+        <v>0</v>
+      </c>
+      <c r="O87" s="3"/>
+    </row>
+    <row r="88" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>76</v>
       </c>
@@ -3312,45 +3525,51 @@
       <c r="M88" s="3">
         <v>0</v>
       </c>
-      <c r="N88" s="3"/>
-    </row>
-    <row r="89" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N88" s="3">
+        <v>0</v>
+      </c>
+      <c r="O88" s="3"/>
+    </row>
+    <row r="89" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>77</v>
       </c>
       <c r="D89" s="3">
-        <v>26427600</v>
+        <v>33181600</v>
       </c>
       <c r="E89" s="3">
-        <v>24234900</v>
+        <v>24833100</v>
       </c>
       <c r="F89" s="3">
-        <v>27744900</v>
+        <v>22637300</v>
       </c>
       <c r="G89" s="3">
-        <v>30121900</v>
+        <v>25915900</v>
       </c>
       <c r="H89" s="3">
-        <v>33846300</v>
+        <v>28136200</v>
       </c>
       <c r="I89" s="3">
-        <v>26147100</v>
+        <v>31615100</v>
       </c>
       <c r="J89" s="3">
+        <v>24423400</v>
+      </c>
+      <c r="K89" s="3">
         <v>23403200</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>23206200</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>20428700</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>21905000</v>
       </c>
-      <c r="N89" s="3"/>
-    </row>
-    <row r="90" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O89" s="3"/>
+    </row>
+    <row r="90" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>78</v>
       </c>
@@ -3365,44 +3584,48 @@
       <c r="L90" s="3"/>
       <c r="M90" s="3"/>
       <c r="N90" s="3"/>
-    </row>
-    <row r="91" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O90" s="3"/>
+    </row>
+    <row r="91" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>79</v>
       </c>
       <c r="D91" s="3">
-        <v>-18595800</v>
+        <v>-18856900</v>
       </c>
       <c r="E91" s="3">
-        <v>-20517800</v>
+        <v>-17435800</v>
       </c>
       <c r="F91" s="3">
-        <v>-14948200</v>
+        <v>-19165200</v>
       </c>
       <c r="G91" s="3">
-        <v>-10024200</v>
+        <v>-13962800</v>
       </c>
       <c r="H91" s="3">
-        <v>-10328100</v>
+        <v>-9363400</v>
       </c>
       <c r="I91" s="3">
-        <v>-15065300</v>
+        <v>-9647200</v>
       </c>
       <c r="J91" s="3">
+        <v>-14072100</v>
+      </c>
+      <c r="K91" s="3">
         <v>-17834300</v>
       </c>
-      <c r="K91" s="3">
+      <c r="L91" s="3">
         <v>-22148800</v>
       </c>
-      <c r="L91" s="3">
+      <c r="M91" s="3">
         <v>-20899700</v>
       </c>
-      <c r="M91" s="3">
+      <c r="N91" s="3">
         <v>-19158500</v>
       </c>
-      <c r="N91" s="3"/>
-    </row>
-    <row r="92" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O91" s="3"/>
+    </row>
+    <row r="92" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>80</v>
       </c>
@@ -3436,9 +3659,12 @@
       <c r="M92" s="3">
         <v>0</v>
       </c>
-      <c r="N92" s="3"/>
-    </row>
-    <row r="93" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N92" s="3">
+        <v>0</v>
+      </c>
+      <c r="O92" s="3"/>
+    </row>
+    <row r="93" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>81</v>
       </c>
@@ -3472,45 +3698,51 @@
       <c r="M93" s="3">
         <v>0</v>
       </c>
-      <c r="N93" s="3"/>
-    </row>
-    <row r="94" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N93" s="3">
+        <v>0</v>
+      </c>
+      <c r="O93" s="3"/>
+    </row>
+    <row r="94" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>82</v>
       </c>
       <c r="D94" s="3">
-        <v>-16123500</v>
+        <v>-21396400</v>
       </c>
       <c r="E94" s="3">
-        <v>-19097000</v>
+        <v>-15126500</v>
       </c>
       <c r="F94" s="3">
-        <v>-10478700</v>
+        <v>-17838100</v>
       </c>
       <c r="G94" s="3">
-        <v>-22926200</v>
+        <v>-9787900</v>
       </c>
       <c r="H94" s="3">
-        <v>-10446400</v>
+        <v>-21414800</v>
       </c>
       <c r="I94" s="3">
-        <v>-18413600</v>
+        <v>-9757700</v>
       </c>
       <c r="J94" s="3">
+        <v>-17199700</v>
+      </c>
+      <c r="K94" s="3">
         <v>-20924200</v>
       </c>
-      <c r="K94" s="3">
+      <c r="L94" s="3">
         <v>-27307900</v>
       </c>
-      <c r="L94" s="3">
+      <c r="M94" s="3">
         <v>-23272000</v>
       </c>
-      <c r="M94" s="3">
+      <c r="N94" s="3">
         <v>-20425500</v>
       </c>
-      <c r="N94" s="3"/>
-    </row>
-    <row r="95" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O94" s="3"/>
+    </row>
+    <row r="95" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>83</v>
       </c>
@@ -3525,44 +3757,48 @@
       <c r="L95" s="3"/>
       <c r="M95" s="3"/>
       <c r="N95" s="3"/>
-    </row>
-    <row r="96" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O95" s="3"/>
+    </row>
+    <row r="96" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>84</v>
       </c>
       <c r="D96" s="3">
-        <v>-4966100</v>
+        <v>-5173800</v>
       </c>
       <c r="E96" s="3">
-        <v>-7258200</v>
+        <v>-4638700</v>
       </c>
       <c r="F96" s="3">
-        <v>-10696000</v>
+        <v>-6779700</v>
       </c>
       <c r="G96" s="3">
-        <v>-5157000</v>
+        <v>-9990900</v>
       </c>
       <c r="H96" s="3">
-        <v>-2662400</v>
+        <v>-4817100</v>
       </c>
       <c r="I96" s="3">
-        <v>-3820000</v>
+        <v>-2486800</v>
       </c>
       <c r="J96" s="3">
+        <v>-3568200</v>
+      </c>
+      <c r="K96" s="3">
         <v>-4422200</v>
       </c>
-      <c r="K96" s="3">
+      <c r="L96" s="3">
         <v>-4323400</v>
       </c>
-      <c r="L96" s="3">
+      <c r="M96" s="3">
         <v>-3656700</v>
       </c>
-      <c r="M96" s="3">
+      <c r="N96" s="3">
         <v>-2831400</v>
       </c>
-      <c r="N96" s="3"/>
-    </row>
-    <row r="97" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O96" s="3"/>
+    </row>
+    <row r="97" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>85</v>
       </c>
@@ -3596,9 +3832,12 @@
       <c r="M97" s="3">
         <v>0</v>
       </c>
-      <c r="N97" s="3"/>
-    </row>
-    <row r="98" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N97" s="3">
+        <v>0</v>
+      </c>
+      <c r="O97" s="3"/>
+    </row>
+    <row r="98" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>86</v>
       </c>
@@ -3632,9 +3871,12 @@
       <c r="M98" s="3">
         <v>0</v>
       </c>
-      <c r="N98" s="3"/>
-    </row>
-    <row r="99" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N98" s="3">
+        <v>0</v>
+      </c>
+      <c r="O98" s="3"/>
+    </row>
+    <row r="99" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>87</v>
       </c>
@@ -3668,115 +3910,127 @@
       <c r="M99" s="3">
         <v>0</v>
       </c>
-      <c r="N99" s="3"/>
-    </row>
-    <row r="100" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N99" s="3">
+        <v>0</v>
+      </c>
+      <c r="O99" s="3"/>
+    </row>
+    <row r="100" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>88</v>
       </c>
       <c r="D100" s="3">
-        <v>-5830000</v>
+        <v>-8538300</v>
       </c>
       <c r="E100" s="3">
-        <v>-13284000</v>
+        <v>-5527500</v>
       </c>
       <c r="F100" s="3">
-        <v>-17552400</v>
+        <v>-12408300</v>
       </c>
       <c r="G100" s="3">
-        <v>-8914900</v>
+        <v>-16395300</v>
       </c>
       <c r="H100" s="3">
-        <v>-14679100</v>
+        <v>-8327200</v>
       </c>
       <c r="I100" s="3">
-        <v>1434500</v>
+        <v>-13711400</v>
       </c>
       <c r="J100" s="3">
+        <v>1339900</v>
+      </c>
+      <c r="K100" s="3">
         <v>-3379400</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>4815500</v>
       </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
         <v>807500</v>
       </c>
-      <c r="M100" s="3">
+      <c r="N100" s="3">
         <v>-365900</v>
       </c>
-      <c r="N100" s="3"/>
-    </row>
-    <row r="101" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O100" s="3"/>
+    </row>
+    <row r="101" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D101" s="3">
-        <v>-195500</v>
+        <v>-147800</v>
       </c>
       <c r="E101" s="3">
-        <v>23200</v>
+        <v>-182600</v>
       </c>
       <c r="F101" s="3">
-        <v>81700</v>
+        <v>21700</v>
       </c>
       <c r="G101" s="3">
-        <v>-55700</v>
+        <v>76300</v>
       </c>
       <c r="H101" s="3">
-        <v>40400</v>
+        <v>-52000</v>
       </c>
       <c r="I101" s="3">
-        <v>46200</v>
+        <v>37700</v>
       </c>
       <c r="J101" s="3">
+        <v>43200</v>
+      </c>
+      <c r="K101" s="3">
         <v>2500</v>
       </c>
-      <c r="K101" s="3">
+      <c r="L101" s="3">
         <v>-12500</v>
       </c>
-      <c r="L101" s="3">
+      <c r="M101" s="3">
         <v>-300</v>
       </c>
-      <c r="M101" s="3">
+      <c r="N101" s="3">
         <v>-2600</v>
       </c>
-      <c r="N101" s="3"/>
-    </row>
-    <row r="102" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O101" s="3"/>
+    </row>
+    <row r="102" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D102" s="3">
-        <v>4278600</v>
+        <v>3099100</v>
       </c>
       <c r="E102" s="3">
-        <v>-8122900</v>
+        <v>3996600</v>
       </c>
       <c r="F102" s="3">
-        <v>-204500</v>
+        <v>-7587400</v>
       </c>
       <c r="G102" s="3">
-        <v>-1774800</v>
+        <v>-191000</v>
       </c>
       <c r="H102" s="3">
-        <v>8761200</v>
+        <v>-1657800</v>
       </c>
       <c r="I102" s="3">
-        <v>9214300</v>
+        <v>8183600</v>
       </c>
       <c r="J102" s="3">
+        <v>8606900</v>
+      </c>
+      <c r="K102" s="3">
         <v>-897800</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>701300</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>-2036100</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>1110900</v>
       </c>
-      <c r="N102" s="3"/>
+      <c r="O102" s="3"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/AAII_Financials/Yearly/SNP_YR_FIN.xlsx
+++ b/AAII_Financials/Yearly/SNP_YR_FIN.xlsx
@@ -723,25 +723,25 @@
         <v>3</v>
       </c>
       <c r="D8" s="3">
-        <v>403896700</v>
+        <v>400251300</v>
       </c>
       <c r="E8" s="3">
-        <v>310152100</v>
+        <v>307352800</v>
       </c>
       <c r="F8" s="3">
-        <v>436156000</v>
+        <v>432219400</v>
       </c>
       <c r="G8" s="3">
-        <v>426044100</v>
+        <v>422198900</v>
       </c>
       <c r="H8" s="3">
-        <v>347798000</v>
+        <v>344659000</v>
       </c>
       <c r="I8" s="3">
-        <v>284539000</v>
+        <v>281970900</v>
       </c>
       <c r="J8" s="3">
-        <v>297722500</v>
+        <v>295035400</v>
       </c>
       <c r="K8" s="3">
         <v>445816200</v>
@@ -762,25 +762,25 @@
         <v>4</v>
       </c>
       <c r="D9" s="3">
-        <v>321620600</v>
+        <v>318717800</v>
       </c>
       <c r="E9" s="3">
-        <v>247569100</v>
+        <v>245334600</v>
       </c>
       <c r="F9" s="3">
-        <v>361813000</v>
+        <v>358547500</v>
       </c>
       <c r="G9" s="3">
-        <v>351159000</v>
+        <v>347989600</v>
       </c>
       <c r="H9" s="3">
-        <v>273737300</v>
+        <v>271266600</v>
       </c>
       <c r="I9" s="3">
-        <v>214849100</v>
+        <v>212910000</v>
       </c>
       <c r="J9" s="3">
-        <v>230625600</v>
+        <v>228544100</v>
       </c>
       <c r="K9" s="3">
         <v>370491600</v>
@@ -801,25 +801,25 @@
         <v>5</v>
       </c>
       <c r="D10" s="3">
-        <v>82276100</v>
+        <v>81533500</v>
       </c>
       <c r="E10" s="3">
-        <v>62583100</v>
+        <v>62018200</v>
       </c>
       <c r="F10" s="3">
-        <v>74343000</v>
+        <v>73672000</v>
       </c>
       <c r="G10" s="3">
-        <v>74885100</v>
+        <v>74209200</v>
       </c>
       <c r="H10" s="3">
-        <v>74060800</v>
+        <v>73392300</v>
       </c>
       <c r="I10" s="3">
-        <v>69689900</v>
+        <v>69060900</v>
       </c>
       <c r="J10" s="3">
-        <v>67096800</v>
+        <v>66491300</v>
       </c>
       <c r="K10" s="3">
         <v>75324600</v>
@@ -857,25 +857,25 @@
         <v>7</v>
       </c>
       <c r="D12" s="3">
-        <v>1824600</v>
+        <v>1808100</v>
       </c>
       <c r="E12" s="3">
-        <v>1431700</v>
+        <v>1418800</v>
       </c>
       <c r="F12" s="3">
-        <v>1548800</v>
+        <v>1534800</v>
       </c>
       <c r="G12" s="3">
-        <v>1583200</v>
+        <v>1568900</v>
       </c>
       <c r="H12" s="3">
-        <v>1634100</v>
+        <v>1619300</v>
       </c>
       <c r="I12" s="3">
-        <v>1626100</v>
+        <v>1611400</v>
       </c>
       <c r="J12" s="3">
-        <v>1541200</v>
+        <v>1527300</v>
       </c>
       <c r="K12" s="3">
         <v>1730500</v>
@@ -935,13 +935,13 @@
         <v>9</v>
       </c>
       <c r="D14" s="3">
-        <v>1511200</v>
+        <v>1497500</v>
       </c>
       <c r="E14" s="3">
-        <v>2162100</v>
+        <v>2142600</v>
       </c>
       <c r="F14" s="3">
-        <v>50800</v>
+        <v>50400</v>
       </c>
       <c r="G14" s="3" t="s">
         <v>91</v>
@@ -950,7 +950,7 @@
         <v>0</v>
       </c>
       <c r="I14" s="3">
-        <v>-3030000</v>
+        <v>-3002700</v>
       </c>
       <c r="J14" s="3">
         <v>0</v>
@@ -974,25 +974,25 @@
         <v>10</v>
       </c>
       <c r="D15" s="3">
-        <v>17046600</v>
+        <v>16892800</v>
       </c>
       <c r="E15" s="3">
-        <v>15835500</v>
+        <v>15692500</v>
       </c>
       <c r="F15" s="3">
-        <v>16087600</v>
+        <v>15942400</v>
       </c>
       <c r="G15" s="3">
-        <v>16204700</v>
+        <v>16058500</v>
       </c>
       <c r="H15" s="3">
-        <v>16992100</v>
+        <v>16838700</v>
       </c>
       <c r="I15" s="3">
-        <v>15977500</v>
+        <v>15833300</v>
       </c>
       <c r="J15" s="3">
-        <v>14214300</v>
+        <v>14086100</v>
       </c>
       <c r="K15" s="3">
         <v>14213700</v>
@@ -1027,25 +1027,25 @@
         <v>11</v>
       </c>
       <c r="D17" s="3">
-        <v>389952300</v>
+        <v>386432800</v>
       </c>
       <c r="E17" s="3">
-        <v>308137900</v>
+        <v>305356800</v>
       </c>
       <c r="F17" s="3">
-        <v>423427900</v>
+        <v>419606300</v>
       </c>
       <c r="G17" s="3">
-        <v>413921700</v>
+        <v>410185900</v>
       </c>
       <c r="H17" s="3">
-        <v>337266200</v>
+        <v>334222200</v>
       </c>
       <c r="I17" s="3">
-        <v>273163900</v>
+        <v>270698400</v>
       </c>
       <c r="J17" s="3">
-        <v>289349200</v>
+        <v>286737600</v>
       </c>
       <c r="K17" s="3">
         <v>434222900</v>
@@ -1066,25 +1066,25 @@
         <v>12</v>
       </c>
       <c r="D18" s="3">
-        <v>13944400</v>
+        <v>13818500</v>
       </c>
       <c r="E18" s="3">
-        <v>2014300</v>
+        <v>1996100</v>
       </c>
       <c r="F18" s="3">
-        <v>12728100</v>
+        <v>12613200</v>
       </c>
       <c r="G18" s="3">
-        <v>12122400</v>
+        <v>12013000</v>
       </c>
       <c r="H18" s="3">
-        <v>10531800</v>
+        <v>10436800</v>
       </c>
       <c r="I18" s="3">
-        <v>11375200</v>
+        <v>11272500</v>
       </c>
       <c r="J18" s="3">
-        <v>8373300</v>
+        <v>8297700</v>
       </c>
       <c r="K18" s="3">
         <v>11593300</v>
@@ -1122,25 +1122,25 @@
         <v>14</v>
       </c>
       <c r="D20" s="3">
-        <v>4188600</v>
+        <v>4150800</v>
       </c>
       <c r="E20" s="3">
-        <v>7191300</v>
+        <v>7126400</v>
       </c>
       <c r="F20" s="3">
-        <v>2846700</v>
+        <v>2821000</v>
       </c>
       <c r="G20" s="3">
-        <v>3349300</v>
+        <v>3319100</v>
       </c>
       <c r="H20" s="3">
-        <v>3075700</v>
+        <v>3047900</v>
       </c>
       <c r="I20" s="3">
-        <v>1638600</v>
+        <v>1623900</v>
       </c>
       <c r="J20" s="3">
-        <v>978600</v>
+        <v>969800</v>
       </c>
       <c r="K20" s="3">
         <v>351300</v>
@@ -1161,25 +1161,25 @@
         <v>15</v>
       </c>
       <c r="D21" s="3">
-        <v>35350800</v>
+        <v>34836600</v>
       </c>
       <c r="E21" s="3">
-        <v>25200100</v>
+        <v>24791400</v>
       </c>
       <c r="F21" s="3">
-        <v>31823900</v>
+        <v>31352600</v>
       </c>
       <c r="G21" s="3">
-        <v>31839300</v>
+        <v>31366400</v>
       </c>
       <c r="H21" s="3">
-        <v>30770300</v>
+        <v>30298100</v>
       </c>
       <c r="I21" s="3">
-        <v>29151800</v>
+        <v>28705800</v>
       </c>
       <c r="J21" s="3">
-        <v>23709000</v>
+        <v>23332300</v>
       </c>
       <c r="K21" s="3">
         <v>26206100</v>
@@ -1200,25 +1200,25 @@
         <v>16</v>
       </c>
       <c r="D22" s="3">
-        <v>2045800</v>
+        <v>2027300</v>
       </c>
       <c r="E22" s="3">
-        <v>2041700</v>
+        <v>2023200</v>
       </c>
       <c r="F22" s="3">
-        <v>2309100</v>
+        <v>2288300</v>
       </c>
       <c r="G22" s="3">
-        <v>866900</v>
+        <v>859100</v>
       </c>
       <c r="H22" s="3">
-        <v>831800</v>
+        <v>824300</v>
       </c>
       <c r="I22" s="3">
-        <v>1202800</v>
+        <v>1191900</v>
       </c>
       <c r="J22" s="3">
-        <v>1039200</v>
+        <v>1029800</v>
       </c>
       <c r="K22" s="3">
         <v>1610700</v>
@@ -1239,25 +1239,25 @@
         <v>17</v>
       </c>
       <c r="D23" s="3">
-        <v>16087100</v>
+        <v>15941900</v>
       </c>
       <c r="E23" s="3">
-        <v>7163900</v>
+        <v>7099200</v>
       </c>
       <c r="F23" s="3">
-        <v>13265600</v>
+        <v>13145900</v>
       </c>
       <c r="G23" s="3">
-        <v>14604800</v>
+        <v>14473000</v>
       </c>
       <c r="H23" s="3">
-        <v>12775700</v>
+        <v>12660400</v>
       </c>
       <c r="I23" s="3">
-        <v>11811100</v>
+        <v>11704500</v>
       </c>
       <c r="J23" s="3">
-        <v>8312700</v>
+        <v>8237700</v>
       </c>
       <c r="K23" s="3">
         <v>10333900</v>
@@ -1278,25 +1278,25 @@
         <v>18</v>
       </c>
       <c r="D24" s="3">
-        <v>3436100</v>
+        <v>3405100</v>
       </c>
       <c r="E24" s="3">
-        <v>934900</v>
+        <v>926400</v>
       </c>
       <c r="F24" s="3">
-        <v>2643500</v>
+        <v>2619600</v>
       </c>
       <c r="G24" s="3">
-        <v>2978600</v>
+        <v>2951700</v>
       </c>
       <c r="H24" s="3">
-        <v>2398900</v>
+        <v>2377200</v>
       </c>
       <c r="I24" s="3">
-        <v>3051400</v>
+        <v>3023800</v>
       </c>
       <c r="J24" s="3">
-        <v>1858700</v>
+        <v>1841900</v>
       </c>
       <c r="K24" s="3">
         <v>2772000</v>
@@ -1356,25 +1356,25 @@
         <v>20</v>
       </c>
       <c r="D26" s="3">
-        <v>12651000</v>
+        <v>12536800</v>
       </c>
       <c r="E26" s="3">
-        <v>6229100</v>
+        <v>6172800</v>
       </c>
       <c r="F26" s="3">
-        <v>10622200</v>
+        <v>10526300</v>
       </c>
       <c r="G26" s="3">
-        <v>11626300</v>
+        <v>11521300</v>
       </c>
       <c r="H26" s="3">
-        <v>10376800</v>
+        <v>10283100</v>
       </c>
       <c r="I26" s="3">
-        <v>8759700</v>
+        <v>8680600</v>
       </c>
       <c r="J26" s="3">
-        <v>6454100</v>
+        <v>6395800</v>
       </c>
       <c r="K26" s="3">
         <v>7561900</v>
@@ -1395,25 +1395,25 @@
         <v>21</v>
       </c>
       <c r="D27" s="3">
-        <v>10606200</v>
+        <v>10510500</v>
       </c>
       <c r="E27" s="3">
-        <v>4928200</v>
+        <v>4883700</v>
       </c>
       <c r="F27" s="3">
-        <v>8472200</v>
+        <v>8395700</v>
       </c>
       <c r="G27" s="3">
-        <v>9080000</v>
+        <v>8998100</v>
       </c>
       <c r="H27" s="3">
-        <v>7551300</v>
+        <v>7483200</v>
       </c>
       <c r="I27" s="3">
-        <v>6877600</v>
+        <v>6815500</v>
       </c>
       <c r="J27" s="3">
-        <v>4791000</v>
+        <v>4747700</v>
       </c>
       <c r="K27" s="3">
         <v>7330500</v>
@@ -1590,25 +1590,25 @@
         <v>26</v>
       </c>
       <c r="D32" s="3">
-        <v>-4188600</v>
+        <v>-4150800</v>
       </c>
       <c r="E32" s="3">
-        <v>-7191300</v>
+        <v>-7126400</v>
       </c>
       <c r="F32" s="3">
-        <v>-2846700</v>
+        <v>-2821000</v>
       </c>
       <c r="G32" s="3">
-        <v>-3349300</v>
+        <v>-3319100</v>
       </c>
       <c r="H32" s="3">
-        <v>-3075700</v>
+        <v>-3047900</v>
       </c>
       <c r="I32" s="3">
-        <v>-1638600</v>
+        <v>-1623900</v>
       </c>
       <c r="J32" s="3">
-        <v>-978600</v>
+        <v>-969800</v>
       </c>
       <c r="K32" s="3">
         <v>-351300</v>
@@ -1629,25 +1629,25 @@
         <v>27</v>
       </c>
       <c r="D33" s="3">
-        <v>10606200</v>
+        <v>10510500</v>
       </c>
       <c r="E33" s="3">
-        <v>4928200</v>
+        <v>4883700</v>
       </c>
       <c r="F33" s="3">
-        <v>8472200</v>
+        <v>8395700</v>
       </c>
       <c r="G33" s="3">
-        <v>9080000</v>
+        <v>8998100</v>
       </c>
       <c r="H33" s="3">
-        <v>7551300</v>
+        <v>7483200</v>
       </c>
       <c r="I33" s="3">
-        <v>6877600</v>
+        <v>6815500</v>
       </c>
       <c r="J33" s="3">
-        <v>4791000</v>
+        <v>4747700</v>
       </c>
       <c r="K33" s="3">
         <v>7330500</v>
@@ -1707,25 +1707,25 @@
         <v>29</v>
       </c>
       <c r="D35" s="3">
-        <v>10606200</v>
+        <v>10510500</v>
       </c>
       <c r="E35" s="3">
-        <v>4928200</v>
+        <v>4883700</v>
       </c>
       <c r="F35" s="3">
-        <v>8472200</v>
+        <v>8395700</v>
       </c>
       <c r="G35" s="3">
-        <v>9080000</v>
+        <v>8998100</v>
       </c>
       <c r="H35" s="3">
-        <v>7551300</v>
+        <v>7483200</v>
       </c>
       <c r="I35" s="3">
-        <v>6877600</v>
+        <v>6815500</v>
       </c>
       <c r="J35" s="3">
-        <v>4791000</v>
+        <v>4747700</v>
       </c>
       <c r="K35" s="3">
         <v>7330500</v>
@@ -1824,25 +1824,25 @@
         <v>33</v>
       </c>
       <c r="D41" s="3">
-        <v>16001800</v>
+        <v>15857400</v>
       </c>
       <c r="E41" s="3">
-        <v>12902700</v>
+        <v>12786200</v>
       </c>
       <c r="F41" s="3">
-        <v>8906100</v>
+        <v>8825800</v>
       </c>
       <c r="G41" s="3">
-        <v>16492800</v>
+        <v>16344000</v>
       </c>
       <c r="H41" s="3">
-        <v>16683800</v>
+        <v>16533200</v>
       </c>
       <c r="I41" s="3">
-        <v>18341600</v>
+        <v>18176100</v>
       </c>
       <c r="J41" s="3">
-        <v>10158000</v>
+        <v>10066300</v>
       </c>
       <c r="K41" s="3">
         <v>1475800</v>
@@ -1863,25 +1863,25 @@
         <v>34</v>
       </c>
       <c r="D42" s="3">
-        <v>17585600</v>
+        <v>17426900</v>
       </c>
       <c r="E42" s="3">
-        <v>16096700</v>
+        <v>15951400</v>
       </c>
       <c r="F42" s="3">
-        <v>11729000</v>
+        <v>11623100</v>
       </c>
       <c r="G42" s="3">
-        <v>11910400</v>
+        <v>11802900</v>
       </c>
       <c r="H42" s="3">
-        <v>15175400</v>
+        <v>15038500</v>
       </c>
       <c r="I42" s="3">
-        <v>2656800</v>
+        <v>2632800</v>
       </c>
       <c r="J42" s="3">
-        <v>108000</v>
+        <v>107000</v>
       </c>
       <c r="K42" s="3">
         <v>117500</v>
@@ -1902,25 +1902,25 @@
         <v>35</v>
       </c>
       <c r="D43" s="3">
-        <v>5137100</v>
+        <v>5090800</v>
       </c>
       <c r="E43" s="3">
-        <v>19100100</v>
+        <v>18927700</v>
       </c>
       <c r="F43" s="3">
-        <v>24048900</v>
+        <v>23831800</v>
       </c>
       <c r="G43" s="3">
-        <v>17477200</v>
+        <v>17319500</v>
       </c>
       <c r="H43" s="3">
-        <v>18454200</v>
+        <v>18287600</v>
       </c>
       <c r="I43" s="3">
-        <v>16407900</v>
+        <v>16259900</v>
       </c>
       <c r="J43" s="3">
-        <v>16284500</v>
+        <v>16137500</v>
       </c>
       <c r="K43" s="3">
         <v>23537600</v>
@@ -1941,25 +1941,25 @@
         <v>36</v>
       </c>
       <c r="D44" s="3">
-        <v>30567300</v>
+        <v>30291400</v>
       </c>
       <c r="E44" s="3">
-        <v>44818400</v>
+        <v>44413900</v>
       </c>
       <c r="F44" s="3">
-        <v>28608800</v>
+        <v>28350600</v>
       </c>
       <c r="G44" s="3">
-        <v>27200300</v>
+        <v>26954800</v>
       </c>
       <c r="H44" s="3">
-        <v>27511100</v>
+        <v>27262800</v>
       </c>
       <c r="I44" s="3">
-        <v>23063500</v>
+        <v>22855300</v>
       </c>
       <c r="J44" s="3">
-        <v>21456800</v>
+        <v>21263100</v>
       </c>
       <c r="K44" s="3">
         <v>29694100</v>
@@ -1980,25 +1980,25 @@
         <v>37</v>
       </c>
       <c r="D45" s="3">
-        <v>12938500</v>
+        <v>12821700</v>
       </c>
       <c r="E45" s="3">
-        <v>19131000</v>
+        <v>18958300</v>
       </c>
       <c r="F45" s="3">
-        <v>400200</v>
+        <v>396600</v>
       </c>
       <c r="G45" s="3">
-        <v>1206400</v>
+        <v>1195500</v>
       </c>
       <c r="H45" s="3">
-        <v>136200</v>
+        <v>134900</v>
       </c>
       <c r="I45" s="3">
-        <v>281000</v>
+        <v>278500</v>
       </c>
       <c r="J45" s="3">
-        <v>1160500</v>
+        <v>1150000</v>
       </c>
       <c r="K45" s="3">
         <v>1991200</v>
@@ -2019,25 +2019,25 @@
         <v>38</v>
       </c>
       <c r="D46" s="3">
-        <v>82230400</v>
+        <v>81488200</v>
       </c>
       <c r="E46" s="3">
-        <v>67146100</v>
+        <v>66540000</v>
       </c>
       <c r="F46" s="3">
-        <v>65915600</v>
+        <v>65320700</v>
       </c>
       <c r="G46" s="3">
-        <v>74287100</v>
+        <v>73616600</v>
       </c>
       <c r="H46" s="3">
-        <v>77960700</v>
+        <v>77257000</v>
       </c>
       <c r="I46" s="3">
-        <v>60750800</v>
+        <v>60202500</v>
       </c>
       <c r="J46" s="3">
-        <v>49167700</v>
+        <v>48723900</v>
       </c>
       <c r="K46" s="3">
         <v>56816300</v>
@@ -2058,25 +2058,25 @@
         <v>39</v>
       </c>
       <c r="D47" s="3">
-        <v>30937600</v>
+        <v>30658400</v>
       </c>
       <c r="E47" s="3">
-        <v>27978800</v>
+        <v>27726300</v>
       </c>
       <c r="F47" s="3">
-        <v>22652900</v>
+        <v>22448500</v>
       </c>
       <c r="G47" s="3">
-        <v>21687100</v>
+        <v>21491400</v>
       </c>
       <c r="H47" s="3">
-        <v>19564000</v>
+        <v>19387400</v>
       </c>
       <c r="I47" s="3">
-        <v>18894500</v>
+        <v>18724000</v>
       </c>
       <c r="J47" s="3">
-        <v>14037100</v>
+        <v>13910400</v>
       </c>
       <c r="K47" s="3">
         <v>15650100</v>
@@ -2097,25 +2097,25 @@
         <v>40</v>
       </c>
       <c r="D48" s="3">
-        <v>150789000</v>
+        <v>149428000</v>
       </c>
       <c r="E48" s="3">
-        <v>271321000</v>
+        <v>268872000</v>
       </c>
       <c r="F48" s="3">
-        <v>196779000</v>
+        <v>195003000</v>
       </c>
       <c r="G48" s="3">
-        <v>111216000</v>
+        <v>110213000</v>
       </c>
       <c r="H48" s="3">
-        <v>113382000</v>
+        <v>112358000</v>
       </c>
       <c r="I48" s="3">
-        <v>120861000</v>
+        <v>119770000</v>
       </c>
       <c r="J48" s="3">
-        <v>130528000</v>
+        <v>129350000</v>
       </c>
       <c r="K48" s="3">
         <v>139011000</v>
@@ -2136,25 +2136,25 @@
         <v>41</v>
       </c>
       <c r="D49" s="3">
-        <v>1266400</v>
+        <v>1255000</v>
       </c>
       <c r="E49" s="3">
-        <v>2540500</v>
+        <v>2517600</v>
       </c>
       <c r="F49" s="3">
-        <v>1281600</v>
+        <v>1270000</v>
       </c>
       <c r="G49" s="3">
-        <v>1278500</v>
+        <v>1267000</v>
       </c>
       <c r="H49" s="3">
-        <v>1272300</v>
+        <v>1260800</v>
       </c>
       <c r="I49" s="3">
-        <v>936200</v>
+        <v>927700</v>
       </c>
       <c r="J49" s="3">
-        <v>924100</v>
+        <v>915800</v>
       </c>
       <c r="K49" s="3">
         <v>990900</v>
@@ -2253,25 +2253,25 @@
         <v>44</v>
       </c>
       <c r="D52" s="3">
-        <v>13176800</v>
+        <v>13057900</v>
       </c>
       <c r="E52" s="3">
-        <v>14676600</v>
+        <v>14544100</v>
       </c>
       <c r="F52" s="3">
-        <v>12238700</v>
+        <v>12128200</v>
       </c>
       <c r="G52" s="3">
-        <v>26173500</v>
+        <v>25937300</v>
       </c>
       <c r="H52" s="3">
-        <v>22935000</v>
+        <v>22728000</v>
       </c>
       <c r="I52" s="3">
-        <v>19392600</v>
+        <v>19217500</v>
       </c>
       <c r="J52" s="3">
-        <v>18612900</v>
+        <v>18444900</v>
       </c>
       <c r="K52" s="3">
         <v>16500000</v>
@@ -2331,25 +2331,25 @@
         <v>46</v>
       </c>
       <c r="D54" s="3">
-        <v>278401000</v>
+        <v>275888000</v>
       </c>
       <c r="E54" s="3">
-        <v>256244000</v>
+        <v>253931000</v>
       </c>
       <c r="F54" s="3">
-        <v>259396000</v>
+        <v>257055000</v>
       </c>
       <c r="G54" s="3">
-        <v>234643000</v>
+        <v>232525000</v>
       </c>
       <c r="H54" s="3">
-        <v>235114000</v>
+        <v>232991000</v>
       </c>
       <c r="I54" s="3">
-        <v>220835000</v>
+        <v>218842000</v>
       </c>
       <c r="J54" s="3">
-        <v>213269000</v>
+        <v>211345000</v>
       </c>
       <c r="K54" s="3">
         <v>228968000</v>
@@ -2404,25 +2404,25 @@
         <v>49</v>
       </c>
       <c r="D57" s="3">
-        <v>31776700</v>
+        <v>31489900</v>
       </c>
       <c r="E57" s="3">
-        <v>47690300</v>
+        <v>47259800</v>
       </c>
       <c r="F57" s="3">
-        <v>29475400</v>
+        <v>29209400</v>
       </c>
       <c r="G57" s="3">
-        <v>28404700</v>
+        <v>28148300</v>
       </c>
       <c r="H57" s="3">
-        <v>30435000</v>
+        <v>30160300</v>
       </c>
       <c r="I57" s="3">
-        <v>26543800</v>
+        <v>26304200</v>
       </c>
       <c r="J57" s="3">
-        <v>19764500</v>
+        <v>19586100</v>
       </c>
       <c r="K57" s="3">
         <v>32016300</v>
@@ -2443,25 +2443,25 @@
         <v>50</v>
       </c>
       <c r="D58" s="3">
-        <v>7854000</v>
+        <v>7783100</v>
       </c>
       <c r="E58" s="3">
-        <v>10034500</v>
+        <v>9943900</v>
       </c>
       <c r="F58" s="3">
-        <v>20968900</v>
+        <v>20779600</v>
       </c>
       <c r="G58" s="3">
-        <v>9007700</v>
+        <v>8926400</v>
       </c>
       <c r="H58" s="3">
-        <v>11884400</v>
+        <v>11777200</v>
       </c>
       <c r="I58" s="3">
-        <v>11025300</v>
+        <v>10925800</v>
       </c>
       <c r="J58" s="3">
-        <v>17012100</v>
+        <v>16858600</v>
       </c>
       <c r="K58" s="3">
         <v>28104600</v>
@@ -2482,25 +2482,25 @@
         <v>51</v>
       </c>
       <c r="D59" s="3">
-        <v>54868300</v>
+        <v>54373100</v>
       </c>
       <c r="E59" s="3">
-        <v>73018500</v>
+        <v>72359500</v>
       </c>
       <c r="F59" s="3">
-        <v>41400300</v>
+        <v>41026700</v>
       </c>
       <c r="G59" s="3">
-        <v>45860500</v>
+        <v>45446600</v>
       </c>
       <c r="H59" s="3">
-        <v>43067700</v>
+        <v>42679000</v>
       </c>
       <c r="I59" s="3">
-        <v>33980500</v>
+        <v>33673800</v>
       </c>
       <c r="J59" s="3">
-        <v>31426300</v>
+        <v>31142600</v>
       </c>
       <c r="K59" s="3">
         <v>35206700</v>
@@ -2521,25 +2521,25 @@
         <v>52</v>
       </c>
       <c r="D60" s="3">
-        <v>94499000</v>
+        <v>93646100</v>
       </c>
       <c r="E60" s="3">
-        <v>77068500</v>
+        <v>76373000</v>
       </c>
       <c r="F60" s="3">
-        <v>85465600</v>
+        <v>84694200</v>
       </c>
       <c r="G60" s="3">
-        <v>83272800</v>
+        <v>82521300</v>
       </c>
       <c r="H60" s="3">
-        <v>85387200</v>
+        <v>84616500</v>
       </c>
       <c r="I60" s="3">
-        <v>71549600</v>
+        <v>70903800</v>
       </c>
       <c r="J60" s="3">
-        <v>68202900</v>
+        <v>67587400</v>
       </c>
       <c r="K60" s="3">
         <v>95327600</v>
@@ -2560,25 +2560,25 @@
         <v>53</v>
       </c>
       <c r="D61" s="3">
-        <v>38641200</v>
+        <v>38292400</v>
       </c>
       <c r="E61" s="3">
-        <v>37658600</v>
+        <v>37318700</v>
       </c>
       <c r="F61" s="3">
-        <v>34851800</v>
+        <v>34537300</v>
       </c>
       <c r="G61" s="3">
-        <v>13782100</v>
+        <v>13657700</v>
       </c>
       <c r="H61" s="3">
-        <v>14606900</v>
+        <v>14475100</v>
       </c>
       <c r="I61" s="3">
-        <v>17306800</v>
+        <v>17150600</v>
       </c>
       <c r="J61" s="3">
-        <v>20593000</v>
+        <v>20407100</v>
       </c>
       <c r="K61" s="3">
         <v>23811000</v>
@@ -2599,25 +2599,25 @@
         <v>54</v>
       </c>
       <c r="D62" s="3">
-        <v>10415100</v>
+        <v>10321100</v>
       </c>
       <c r="E62" s="3">
-        <v>10704800</v>
+        <v>10608200</v>
       </c>
       <c r="F62" s="3">
-        <v>9798900</v>
+        <v>9710400</v>
       </c>
       <c r="G62" s="3">
-        <v>11368500</v>
+        <v>11265900</v>
       </c>
       <c r="H62" s="3">
-        <v>9437500</v>
+        <v>9352300</v>
       </c>
       <c r="I62" s="3">
-        <v>9487800</v>
+        <v>9402100</v>
       </c>
       <c r="J62" s="3">
-        <v>8330100</v>
+        <v>8254900</v>
       </c>
       <c r="K62" s="3">
         <v>7983000</v>
@@ -2755,25 +2755,25 @@
         <v>57</v>
       </c>
       <c r="D66" s="3">
-        <v>164317000</v>
+        <v>162834000</v>
       </c>
       <c r="E66" s="3">
-        <v>146265000</v>
+        <v>144945000</v>
       </c>
       <c r="F66" s="3">
-        <v>150505000</v>
+        <v>149146000</v>
       </c>
       <c r="G66" s="3">
-        <v>128944000</v>
+        <v>127780000</v>
       </c>
       <c r="H66" s="3">
-        <v>128112000</v>
+        <v>126956000</v>
       </c>
       <c r="I66" s="3">
-        <v>116063000</v>
+        <v>115015000</v>
       </c>
       <c r="J66" s="3">
-        <v>113625000</v>
+        <v>112600000</v>
       </c>
       <c r="K66" s="3">
         <v>135410000</v>
@@ -2967,25 +2967,25 @@
         <v>63</v>
       </c>
       <c r="D72" s="3">
-        <v>88012400</v>
+        <v>87218000</v>
       </c>
       <c r="E72" s="3">
-        <v>175395000</v>
+        <v>173812000</v>
       </c>
       <c r="F72" s="3">
-        <v>82820000</v>
+        <v>82072500</v>
       </c>
       <c r="G72" s="3">
-        <v>79627900</v>
+        <v>78909200</v>
       </c>
       <c r="H72" s="3">
-        <v>80930000</v>
+        <v>80199500</v>
       </c>
       <c r="I72" s="3">
-        <v>78638500</v>
+        <v>77928800</v>
       </c>
       <c r="J72" s="3">
-        <v>74572600</v>
+        <v>73899500</v>
       </c>
       <c r="K72" s="3">
         <v>69274900</v>
@@ -3123,25 +3123,25 @@
         <v>67</v>
       </c>
       <c r="D76" s="3">
-        <v>114084000</v>
+        <v>113054000</v>
       </c>
       <c r="E76" s="3">
-        <v>109979000</v>
+        <v>108986000</v>
       </c>
       <c r="F76" s="3">
-        <v>108891000</v>
+        <v>107908000</v>
       </c>
       <c r="G76" s="3">
-        <v>105699000</v>
+        <v>104745000</v>
       </c>
       <c r="H76" s="3">
-        <v>107001000</v>
+        <v>106035000</v>
       </c>
       <c r="I76" s="3">
-        <v>104772000</v>
+        <v>103827000</v>
       </c>
       <c r="J76" s="3">
-        <v>99644400</v>
+        <v>98745000</v>
       </c>
       <c r="K76" s="3">
         <v>93558100</v>
@@ -3245,25 +3245,25 @@
         <v>27</v>
       </c>
       <c r="D81" s="3">
-        <v>10606200</v>
+        <v>10510500</v>
       </c>
       <c r="E81" s="3">
-        <v>4928200</v>
+        <v>4883700</v>
       </c>
       <c r="F81" s="3">
-        <v>8472200</v>
+        <v>8395700</v>
       </c>
       <c r="G81" s="3">
-        <v>9080000</v>
+        <v>8998100</v>
       </c>
       <c r="H81" s="3">
-        <v>7551300</v>
+        <v>7483200</v>
       </c>
       <c r="I81" s="3">
-        <v>6877600</v>
+        <v>6815500</v>
       </c>
       <c r="J81" s="3">
-        <v>4791000</v>
+        <v>4747700</v>
       </c>
       <c r="K81" s="3">
         <v>7330500</v>
@@ -3301,25 +3301,25 @@
         <v>71</v>
       </c>
       <c r="D83" s="3">
-        <v>17046600</v>
+        <v>16892800</v>
       </c>
       <c r="E83" s="3">
-        <v>15835500</v>
+        <v>15692500</v>
       </c>
       <c r="F83" s="3">
-        <v>16087600</v>
+        <v>15942400</v>
       </c>
       <c r="G83" s="3">
-        <v>16204700</v>
+        <v>16058500</v>
       </c>
       <c r="H83" s="3">
-        <v>16992100</v>
+        <v>16838700</v>
       </c>
       <c r="I83" s="3">
-        <v>15977500</v>
+        <v>15833300</v>
       </c>
       <c r="J83" s="3">
-        <v>14214300</v>
+        <v>14086100</v>
       </c>
       <c r="K83" s="3">
         <v>14213700</v>
@@ -3535,25 +3535,25 @@
         <v>77</v>
       </c>
       <c r="D89" s="3">
-        <v>33181600</v>
+        <v>32882200</v>
       </c>
       <c r="E89" s="3">
-        <v>24833100</v>
+        <v>24609000</v>
       </c>
       <c r="F89" s="3">
-        <v>22637300</v>
+        <v>22433000</v>
       </c>
       <c r="G89" s="3">
-        <v>25915900</v>
+        <v>25682000</v>
       </c>
       <c r="H89" s="3">
-        <v>28136200</v>
+        <v>27882200</v>
       </c>
       <c r="I89" s="3">
-        <v>31615100</v>
+        <v>31329700</v>
       </c>
       <c r="J89" s="3">
-        <v>24423400</v>
+        <v>24203000</v>
       </c>
       <c r="K89" s="3">
         <v>23403200</v>
@@ -3591,25 +3591,25 @@
         <v>79</v>
       </c>
       <c r="D91" s="3">
-        <v>-18856900</v>
+        <v>-18686700</v>
       </c>
       <c r="E91" s="3">
-        <v>-17435800</v>
+        <v>-17278400</v>
       </c>
       <c r="F91" s="3">
-        <v>-19165200</v>
+        <v>-18992200</v>
       </c>
       <c r="G91" s="3">
-        <v>-13962800</v>
+        <v>-13836800</v>
       </c>
       <c r="H91" s="3">
-        <v>-9363400</v>
+        <v>-9278900</v>
       </c>
       <c r="I91" s="3">
-        <v>-9647200</v>
+        <v>-9560100</v>
       </c>
       <c r="J91" s="3">
-        <v>-14072100</v>
+        <v>-13945100</v>
       </c>
       <c r="K91" s="3">
         <v>-17834300</v>
@@ -3708,25 +3708,25 @@
         <v>82</v>
       </c>
       <c r="D94" s="3">
-        <v>-21396400</v>
+        <v>-21203300</v>
       </c>
       <c r="E94" s="3">
-        <v>-15126500</v>
+        <v>-14990000</v>
       </c>
       <c r="F94" s="3">
-        <v>-17838100</v>
+        <v>-17677100</v>
       </c>
       <c r="G94" s="3">
-        <v>-9787900</v>
+        <v>-9699600</v>
       </c>
       <c r="H94" s="3">
-        <v>-21414800</v>
+        <v>-21221500</v>
       </c>
       <c r="I94" s="3">
-        <v>-9757700</v>
+        <v>-9669700</v>
       </c>
       <c r="J94" s="3">
-        <v>-17199700</v>
+        <v>-17044500</v>
       </c>
       <c r="K94" s="3">
         <v>-20924200</v>
@@ -3764,25 +3764,25 @@
         <v>84</v>
       </c>
       <c r="D96" s="3">
-        <v>-5173800</v>
+        <v>-5127100</v>
       </c>
       <c r="E96" s="3">
-        <v>-4638700</v>
+        <v>-4596900</v>
       </c>
       <c r="F96" s="3">
-        <v>-6779700</v>
+        <v>-6718500</v>
       </c>
       <c r="G96" s="3">
-        <v>-9990900</v>
+        <v>-9900700</v>
       </c>
       <c r="H96" s="3">
-        <v>-4817100</v>
+        <v>-4773600</v>
       </c>
       <c r="I96" s="3">
-        <v>-2486800</v>
+        <v>-2464400</v>
       </c>
       <c r="J96" s="3">
-        <v>-3568200</v>
+        <v>-3536000</v>
       </c>
       <c r="K96" s="3">
         <v>-4422200</v>
@@ -3920,25 +3920,25 @@
         <v>88</v>
       </c>
       <c r="D100" s="3">
-        <v>-8538300</v>
+        <v>-8461300</v>
       </c>
       <c r="E100" s="3">
-        <v>-5527500</v>
+        <v>-5477600</v>
       </c>
       <c r="F100" s="3">
-        <v>-12408300</v>
+        <v>-12296300</v>
       </c>
       <c r="G100" s="3">
-        <v>-16395300</v>
+        <v>-16247300</v>
       </c>
       <c r="H100" s="3">
-        <v>-8327200</v>
+        <v>-8252000</v>
       </c>
       <c r="I100" s="3">
-        <v>-13711400</v>
+        <v>-13587700</v>
       </c>
       <c r="J100" s="3">
-        <v>1339900</v>
+        <v>1327900</v>
       </c>
       <c r="K100" s="3">
         <v>-3379400</v>
@@ -3959,25 +3959,25 @@
         <v>89</v>
       </c>
       <c r="D101" s="3">
-        <v>-147800</v>
+        <v>-146500</v>
       </c>
       <c r="E101" s="3">
-        <v>-182600</v>
+        <v>-180900</v>
       </c>
       <c r="F101" s="3">
-        <v>21700</v>
+        <v>21500</v>
       </c>
       <c r="G101" s="3">
-        <v>76300</v>
+        <v>75600</v>
       </c>
       <c r="H101" s="3">
-        <v>-52000</v>
+        <v>-51500</v>
       </c>
       <c r="I101" s="3">
-        <v>37700</v>
+        <v>37400</v>
       </c>
       <c r="J101" s="3">
-        <v>43200</v>
+        <v>42800</v>
       </c>
       <c r="K101" s="3">
         <v>2500</v>
@@ -3998,25 +3998,25 @@
         <v>90</v>
       </c>
       <c r="D102" s="3">
-        <v>3099100</v>
+        <v>3071200</v>
       </c>
       <c r="E102" s="3">
-        <v>3996600</v>
+        <v>3960500</v>
       </c>
       <c r="F102" s="3">
-        <v>-7587400</v>
+        <v>-7518900</v>
       </c>
       <c r="G102" s="3">
-        <v>-191000</v>
+        <v>-189300</v>
       </c>
       <c r="H102" s="3">
-        <v>-1657800</v>
+        <v>-1642800</v>
       </c>
       <c r="I102" s="3">
-        <v>8183600</v>
+        <v>8109800</v>
       </c>
       <c r="J102" s="3">
-        <v>8606900</v>
+        <v>8529200</v>
       </c>
       <c r="K102" s="3">
         <v>-897800</v>
